--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instaladores\Programacion\IDE\NetBeansProjects\BinPackingProblem-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>TIME</t>
   </si>
@@ -33,123 +33,258 @@
     <t xml:space="preserve">Filename </t>
   </si>
   <si>
+    <t>0.002588403</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.003325543</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.003637324</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.004368698</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.002038406</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.002007158</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>180.41</t>
+  </si>
+  <si>
+    <t>0.002225989</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.002256875</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.003035798</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.003299049</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.002386309</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.005397496</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.004053079</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.002676396</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.002573444</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.004663336</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.001774409</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>180.78</t>
+  </si>
+  <si>
+    <t>0.002363842</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>180.83</t>
+  </si>
+  <si>
+    <t>0.003050081</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.004070406</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.005146558</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.005427817</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.003911433</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.004455224</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.004002434</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.013272069</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.00523911</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>180.4</t>
+  </si>
+  <si>
+    <t>0.004660458</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.005965858</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.003852695</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>181.47</t>
+  </si>
+  <si>
+    <t>0.075161296</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.07738135</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.038542944</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.080557518</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.075439795</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.073316297</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.060666078</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.008860495</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.08337589</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.004082025</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
@@ -159,18 +294,30 @@
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.00005032</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.000079848</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.000079973</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.000057934</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
@@ -180,60 +327,105 @@
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>3.29</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.000098367</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.000091916</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.000087812</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.000094811</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.000091592</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.000052854</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>0.000047978</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.000091055</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>0.000048469</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.00008392</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.000099789</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.000099296</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
@@ -243,160 +435,310 @@
     <t>MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.000069125</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.000088849</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.000090086</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>13.17</t>
+  </si>
+  <si>
+    <t>0.000057353</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.000915952</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.000098432</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.000099892</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.000026191</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.001070248</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.001110203</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.001196738</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.00056702</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.000041084</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.001213922</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.00007341</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.001676024</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.000086442</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.000099725</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.00142344</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.001550292</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.001484238</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.000066768</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>180.19</t>
+  </si>
+  <si>
+    <t>0.000318239</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.001288687</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.001570192</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.000575065</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.003879997</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.001478702</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.003824948</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.004425099</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.002052655</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.003381601</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>180.18</t>
+  </si>
+  <si>
+    <t>0.002916667</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.003673063</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.003774495</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.001988953</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
+    <t>0.002437159</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP1</t>
   </si>
   <si>
+    <t>0.005586301</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP10</t>
   </si>
   <si>
+    <t>0.001867249</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP2</t>
   </si>
   <si>
+    <t>0.002253253</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP3</t>
   </si>
   <si>
+    <t>0.001282299</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP4</t>
   </si>
   <si>
+    <t>0.001618667</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP5</t>
   </si>
   <si>
+    <t>0.002251269</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP6</t>
   </si>
   <si>
+    <t>0.002753275</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP7</t>
   </si>
   <si>
+    <t>0.002933029</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP8</t>
   </si>
   <si>
+    <t>0.004102163</t>
+  </si>
+  <si>
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
-    <t>My Solution</t>
-  </si>
-  <si>
-    <t>difference</t>
+    <t>MinimunCost</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Time (miliseconds)</t>
   </si>
 </sst>
 </file>
@@ -880,8 +1222,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1203,22 +1546,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1232,87 +1574,99 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>180.38300000000001</v>
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>180383</v>
       </c>
       <c r="B2">
         <v>96971</v>
       </c>
-      <c r="C2">
-        <v>2.588403E-3</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>96997</v>
       </c>
       <c r="G2">
-        <f>F2-B2</f>
+        <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>180.38300000000001</v>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>180383</v>
       </c>
       <c r="B3">
         <v>97127</v>
       </c>
-      <c r="C3">
-        <v>3.3255429999999998E-3</v>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>97081</v>
       </c>
       <c r="G3">
-        <f>F3-B3</f>
+        <f t="shared" si="0"/>
         <v>-46</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>180.40799999999999</v>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>180408</v>
       </c>
       <c r="B4">
         <v>98424</v>
       </c>
-      <c r="C4">
-        <v>3.6373239999999999E-3</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>98394</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G25" si="0">F4-B4</f>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>180.357</v>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>180357</v>
       </c>
       <c r="B5">
         <v>97283</v>
       </c>
-      <c r="C5">
-        <v>4.3686979999999999E-3</v>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>97123</v>
@@ -1321,19 +1675,22 @@
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>180.619</v>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>180619</v>
       </c>
       <c r="B6">
         <v>95663</v>
       </c>
-      <c r="C6">
-        <v>2.038406E-3</v>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>95791</v>
@@ -1342,19 +1699,22 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>180.559</v>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>180559</v>
       </c>
       <c r="B7">
         <v>94163</v>
       </c>
-      <c r="C7">
-        <v>2.0071580000000002E-3</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>94261</v>
@@ -1363,19 +1723,22 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>180.41</v>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>97934</v>
       </c>
-      <c r="C8">
-        <v>2.2259889999999998E-3</v>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>97972</v>
@@ -1384,19 +1747,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>180.35400000000001</v>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>180354</v>
       </c>
       <c r="B9">
         <v>97923</v>
       </c>
-      <c r="C9">
-        <v>2.2568750000000002E-3</v>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>97937</v>
@@ -1405,19 +1771,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>180.74600000000001</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>180746</v>
       </c>
       <c r="B10">
         <v>96515</v>
       </c>
-      <c r="C10">
-        <v>3.0357980000000001E-3</v>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>96591</v>
@@ -1426,19 +1795,22 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>180.374</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>180374</v>
       </c>
       <c r="B11">
         <v>97907</v>
       </c>
-      <c r="C11">
-        <v>3.2990490000000001E-3</v>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>97881</v>
@@ -1447,19 +1819,22 @@
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>495.10599999999999</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>495106</v>
       </c>
       <c r="B12">
         <v>95126</v>
       </c>
-      <c r="C12">
-        <v>2.3863090000000001E-3</v>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>96696</v>
@@ -1468,19 +1843,22 @@
         <f t="shared" si="0"/>
         <v>1570</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>456.91199999999998</v>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>456912</v>
       </c>
       <c r="B13">
         <v>95674</v>
       </c>
-      <c r="C13">
-        <v>5.3974959999999999E-3</v>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>96934</v>
@@ -1489,19 +1867,22 @@
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>436.62099999999998</v>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>436621</v>
       </c>
       <c r="B14">
         <v>95631</v>
       </c>
-      <c r="C14">
-        <v>4.0530790000000002E-3</v>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>97011</v>
@@ -1510,19 +1891,22 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>435.99799999999999</v>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>435998</v>
       </c>
       <c r="B15">
         <v>95651</v>
       </c>
-      <c r="C15">
-        <v>2.6763960000000002E-3</v>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>97151</v>
@@ -1531,19 +1915,22 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>180.768</v>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>180768</v>
       </c>
       <c r="B16">
         <v>94970</v>
       </c>
-      <c r="C16">
-        <v>2.5734439999999998E-3</v>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>96570</v>
@@ -1552,19 +1939,22 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>180.881</v>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>180881</v>
       </c>
       <c r="B17">
         <v>96283</v>
       </c>
-      <c r="C17">
-        <v>4.6633359999999997E-3</v>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>97643</v>
@@ -1573,19 +1963,22 @@
         <f t="shared" si="0"/>
         <v>1360</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>376.91699999999997</v>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>376917</v>
       </c>
       <c r="B18">
         <v>95243</v>
       </c>
-      <c r="C18">
-        <v>1.774409E-3</v>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>96857</v>
@@ -1594,19 +1987,22 @@
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180.78</v>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
       <c r="B19">
         <v>94761</v>
       </c>
-      <c r="C19">
-        <v>2.3638420000000001E-3</v>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>96281</v>
@@ -1615,19 +2011,22 @@
         <f t="shared" si="0"/>
         <v>1520</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>180.83</v>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
       </c>
       <c r="B20">
         <v>94227</v>
       </c>
-      <c r="C20">
-        <v>3.0500810000000001E-3</v>
+      <c r="C20" t="s">
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>95735</v>
@@ -1636,19 +2035,22 @@
         <f t="shared" si="0"/>
         <v>1508</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>432.16699999999997</v>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>432167</v>
       </c>
       <c r="B21">
         <v>95617</v>
       </c>
-      <c r="C21">
-        <v>4.0704060000000004E-3</v>
+      <c r="C21" t="s">
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>96997</v>
@@ -1657,19 +2059,22 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>180.39599999999999</v>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>180396</v>
       </c>
       <c r="B22">
         <v>117360</v>
       </c>
-      <c r="C22">
-        <v>5.1465579999999999E-3</v>
+      <c r="C22" t="s">
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>117356</v>
@@ -1678,19 +2083,22 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>180.39500000000001</v>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>180395</v>
       </c>
       <c r="B23">
         <v>116253</v>
       </c>
-      <c r="C23">
-        <v>5.4278169999999997E-3</v>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>116183</v>
@@ -1699,19 +2107,22 @@
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>208.52699999999999</v>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>208527</v>
       </c>
       <c r="B24">
         <v>115303</v>
       </c>
-      <c r="C24">
-        <v>3.9114329999999998E-3</v>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>115397</v>
@@ -1720,19 +2131,22 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>180.517</v>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>180517</v>
       </c>
       <c r="B25">
         <v>116268</v>
       </c>
-      <c r="C25">
-        <v>4.4552239999999998E-3</v>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>116302</v>
@@ -1741,237 +2155,397 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>180.42699999999999</v>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>180427</v>
       </c>
       <c r="B26">
         <v>116679</v>
       </c>
-      <c r="C26">
-        <v>4.002434E-3</v>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>180.47300000000001</v>
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>116745</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>180473</v>
       </c>
       <c r="B27">
         <v>117088</v>
       </c>
-      <c r="C27">
-        <v>1.3272068999999999E-2</v>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>180.452</v>
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>116022</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-1066</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>180452</v>
       </c>
       <c r="B28">
         <v>116432</v>
       </c>
-      <c r="C28">
-        <v>5.2391099999999999E-3</v>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>180.4</v>
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>116358</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-74</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
       </c>
       <c r="B29">
         <v>116083</v>
       </c>
-      <c r="C29">
-        <v>4.6604580000000001E-3</v>
+      <c r="C29" t="s">
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>189.79400000000001</v>
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>116113</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>189794</v>
       </c>
       <c r="B30">
         <v>116161</v>
       </c>
-      <c r="C30">
-        <v>5.9658580000000001E-3</v>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>193.702</v>
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>116043</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>-118</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>193702</v>
       </c>
       <c r="B31">
         <v>115244</v>
       </c>
-      <c r="C31">
-        <v>3.8526950000000002E-3</v>
+      <c r="C31" t="s">
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31">
-        <v>96857</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>181.47</v>
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>115334</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
       </c>
       <c r="B32">
         <v>123066</v>
       </c>
-      <c r="C32">
-        <v>7.5161296000000002E-2</v>
+      <c r="C32" t="s">
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>181.50700000000001</v>
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>116148</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>-6918</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>181507</v>
       </c>
       <c r="B33">
         <v>122735</v>
       </c>
-      <c r="C33">
-        <v>7.7381350000000002E-2</v>
+      <c r="C33" t="s">
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>185.57499999999999</v>
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>115509</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>-7226</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>185575</v>
       </c>
       <c r="B34">
         <v>118211</v>
       </c>
-      <c r="C34">
-        <v>3.8542944000000003E-2</v>
+      <c r="C34" t="s">
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>181.73599999999999</v>
+        <v>74</v>
+      </c>
+      <c r="F34">
+        <v>116015</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-2196</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>181736</v>
       </c>
       <c r="B35">
         <v>124552</v>
       </c>
-      <c r="C35">
-        <v>8.0557517999999995E-2</v>
+      <c r="C35" t="s">
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>181.89500000000001</v>
+        <v>76</v>
+      </c>
+      <c r="F35">
+        <v>116892</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>-7660</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>181895</v>
       </c>
       <c r="B36">
         <v>121477</v>
       </c>
-      <c r="C36">
-        <v>7.5439795000000004E-2</v>
+      <c r="C36" t="s">
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>181.541</v>
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>114583</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>-6894</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>181541</v>
       </c>
       <c r="B37">
         <v>122483</v>
       </c>
-      <c r="C37">
-        <v>7.3316297000000002E-2</v>
+      <c r="C37" t="s">
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>181.541</v>
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>115861</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>-6622</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>181541</v>
       </c>
       <c r="B38">
         <v>121277</v>
       </c>
-      <c r="C38">
-        <v>6.0666077999999998E-2</v>
+      <c r="C38" t="s">
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>184.23599999999999</v>
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>116225</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>-5052</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>184236</v>
       </c>
       <c r="B39">
         <v>114892</v>
       </c>
-      <c r="C39">
-        <v>8.8604949999999995E-3</v>
+      <c r="C39" t="s">
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>181.51499999999999</v>
+        <v>84</v>
+      </c>
+      <c r="F39">
+        <v>116190</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1298</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>181515</v>
       </c>
       <c r="B40">
         <v>125324</v>
       </c>
-      <c r="C40">
-        <v>8.3375889999999994E-2</v>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>181.428</v>
+        <v>86</v>
+      </c>
+      <c r="F40">
+        <v>117314</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>-8010</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>181428</v>
       </c>
       <c r="B41">
         <v>114502</v>
       </c>
-      <c r="C41">
-        <v>4.0820250000000004E-3</v>
+      <c r="C41" t="s">
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2.3820000000000001</v>
+        <v>88</v>
+      </c>
+      <c r="F41">
+        <v>116344</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2382</v>
       </c>
       <c r="B42">
         <v>19874</v>
@@ -1980,12 +2554,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2.9079999999999999</v>
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <v>19896</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>2908</v>
       </c>
       <c r="B43">
         <v>19812</v>
@@ -1994,54 +2578,94 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>9.7330000000000005</v>
+        <v>90</v>
+      </c>
+      <c r="F43">
+        <v>19854</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>9733</v>
       </c>
       <c r="B44">
         <v>19873</v>
       </c>
-      <c r="C44">
-        <v>5.0319999999999999E-5</v>
+      <c r="C44" t="s">
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3.1509999999999998</v>
+        <v>92</v>
+      </c>
+      <c r="F44">
+        <v>19931</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>3151</v>
       </c>
       <c r="B45">
         <v>19154</v>
       </c>
-      <c r="C45">
-        <v>7.9847999999999999E-5</v>
+      <c r="C45" t="s">
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>7.335</v>
+        <v>94</v>
+      </c>
+      <c r="F45">
+        <v>19194</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>7335</v>
       </c>
       <c r="B46">
         <v>19451</v>
       </c>
-      <c r="C46">
-        <v>7.9973000000000002E-5</v>
+      <c r="C46" t="s">
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3.0019999999999998</v>
+        <v>96</v>
+      </c>
+      <c r="F46">
+        <v>19495</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>3002</v>
       </c>
       <c r="B47">
         <v>19891</v>
@@ -2050,26 +2674,46 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7.8860000000000001</v>
+        <v>97</v>
+      </c>
+      <c r="F47">
+        <v>19945</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>7886</v>
       </c>
       <c r="B48">
         <v>19179</v>
       </c>
-      <c r="C48">
-        <v>5.7933999999999998E-5</v>
+      <c r="C48" t="s">
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>6.4770000000000003</v>
+        <v>99</v>
+      </c>
+      <c r="F48">
+        <v>19215</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>6477</v>
       </c>
       <c r="B49">
         <v>19350</v>
@@ -2078,12 +2722,22 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>14.147</v>
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>19390</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>14147</v>
       </c>
       <c r="B50">
         <v>19156</v>
@@ -2092,12 +2746,22 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50">
+        <v>19208</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>3.29</v>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>102</v>
       </c>
       <c r="B51">
         <v>19781</v>
@@ -2106,12 +2770,22 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7.3040000000000003</v>
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>19833</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>7304</v>
       </c>
       <c r="B52">
         <v>19044</v>
@@ -2120,40 +2794,70 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>57.305999999999997</v>
+        <v>104</v>
+      </c>
+      <c r="F52">
+        <v>19404</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>57306</v>
       </c>
       <c r="B53">
         <v>19262</v>
       </c>
-      <c r="C53">
-        <v>9.8367000000000002E-5</v>
+      <c r="C53" t="s">
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>13.885999999999999</v>
+        <v>106</v>
+      </c>
+      <c r="F53">
+        <v>19572</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>13886</v>
       </c>
       <c r="B54">
         <v>19711</v>
       </c>
-      <c r="C54">
-        <v>9.1916000000000006E-5</v>
+      <c r="C54" t="s">
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>6.0490000000000004</v>
+        <v>108</v>
+      </c>
+      <c r="F54">
+        <v>20071</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>6049</v>
       </c>
       <c r="B55">
         <v>18835</v>
@@ -2162,26 +2866,46 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>8.7949999999999999</v>
+        <v>109</v>
+      </c>
+      <c r="F55">
+        <v>19215</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>8795</v>
       </c>
       <c r="B56">
         <v>18980</v>
       </c>
-      <c r="C56">
-        <v>8.7812000000000006E-5</v>
+      <c r="C56" t="s">
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>6.7130000000000001</v>
+        <v>111</v>
+      </c>
+      <c r="F56">
+        <v>19320</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>6713</v>
       </c>
       <c r="B57">
         <v>19126</v>
@@ -2190,54 +2914,94 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>20.402000000000001</v>
+        <v>112</v>
+      </c>
+      <c r="F57">
+        <v>19474</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>20402</v>
       </c>
       <c r="B58">
         <v>19276</v>
       </c>
-      <c r="C58">
-        <v>9.4810999999999997E-5</v>
+      <c r="C58" t="s">
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8.1110000000000007</v>
+        <v>114</v>
+      </c>
+      <c r="F58">
+        <v>19586</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>8111</v>
       </c>
       <c r="B59">
         <v>19053</v>
       </c>
-      <c r="C59">
-        <v>9.1592E-5</v>
+      <c r="C59" t="s">
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>18.295000000000002</v>
+        <v>116</v>
+      </c>
+      <c r="F59">
+        <v>19397</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>18295</v>
       </c>
       <c r="B60">
         <v>18920</v>
       </c>
-      <c r="C60">
-        <v>5.2853999999999999E-5</v>
+      <c r="C60" t="s">
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>7.2770000000000001</v>
+        <v>118</v>
+      </c>
+      <c r="F60">
+        <v>19264</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>7277</v>
       </c>
       <c r="B61">
         <v>18758</v>
@@ -2246,26 +3010,46 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>5.34</v>
+        <v>119</v>
+      </c>
+      <c r="F61">
+        <v>19138</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
       </c>
       <c r="B62">
         <v>23159</v>
       </c>
-      <c r="C62">
-        <v>4.7978E-5</v>
+      <c r="C62" t="s">
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>5.3650000000000002</v>
+        <v>122</v>
+      </c>
+      <c r="F62">
+        <v>23257</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>5365</v>
       </c>
       <c r="B63">
         <v>23298</v>
@@ -2274,26 +3058,46 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>64.376999999999995</v>
+        <v>123</v>
+      </c>
+      <c r="F63">
+        <v>23390</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>64377</v>
       </c>
       <c r="B64">
         <v>23185</v>
       </c>
-      <c r="C64">
-        <v>9.1055000000000001E-5</v>
+      <c r="C64" t="s">
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>4.6180000000000003</v>
+        <v>125</v>
+      </c>
+      <c r="F64">
+        <v>23299</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>4618</v>
       </c>
       <c r="B65">
         <v>22932</v>
@@ -2302,68 +3106,118 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>5.23</v>
+        <v>126</v>
+      </c>
+      <c r="F65">
+        <v>23040</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>127</v>
       </c>
       <c r="B66">
         <v>22924</v>
       </c>
-      <c r="C66">
-        <v>4.8469E-5</v>
+      <c r="C66" t="s">
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>22.373000000000001</v>
+        <v>129</v>
+      </c>
+      <c r="F66">
+        <v>23012</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>22373</v>
       </c>
       <c r="B67">
         <v>23034</v>
       </c>
-      <c r="C67">
-        <v>8.3919999999999996E-5</v>
+      <c r="C67" t="s">
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>18.475999999999999</v>
+        <v>131</v>
+      </c>
+      <c r="F67">
+        <v>23152</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G121" si="1">F67-B67</f>
+        <v>118</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>18476</v>
       </c>
       <c r="B68">
         <v>22826</v>
       </c>
-      <c r="C68">
-        <v>9.9789000000000003E-5</v>
+      <c r="C68" t="s">
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>22.724</v>
+        <v>133</v>
+      </c>
+      <c r="F68">
+        <v>22914</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>22724</v>
       </c>
       <c r="B69">
         <v>23322</v>
       </c>
-      <c r="C69">
-        <v>9.9296000000000006E-5</v>
+      <c r="C69" t="s">
+        <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5.8319999999999999</v>
+        <v>135</v>
+      </c>
+      <c r="F69">
+        <v>23418</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>5832</v>
       </c>
       <c r="B70">
         <v>22952</v>
@@ -2372,12 +3226,22 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>6.5069999999999997</v>
+        <v>136</v>
+      </c>
+      <c r="F70">
+        <v>23054</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>6507</v>
       </c>
       <c r="B71">
         <v>23027</v>
@@ -2386,40 +3250,70 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>21.940999999999999</v>
+        <v>137</v>
+      </c>
+      <c r="F71">
+        <v>23117</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>21941</v>
       </c>
       <c r="B72">
         <v>22842</v>
       </c>
-      <c r="C72">
-        <v>6.9125E-5</v>
+      <c r="C72" t="s">
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>15.461</v>
+        <v>139</v>
+      </c>
+      <c r="F72">
+        <v>23292</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>15461</v>
       </c>
       <c r="B73">
         <v>22510</v>
       </c>
-      <c r="C73">
-        <v>8.8849000000000003E-5</v>
+      <c r="C73" t="s">
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>12.694000000000001</v>
+        <v>141</v>
+      </c>
+      <c r="F73">
+        <v>23012</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>12694</v>
       </c>
       <c r="B74">
         <v>22947</v>
@@ -2428,54 +3322,94 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>12.792999999999999</v>
+        <v>142</v>
+      </c>
+      <c r="F74">
+        <v>23397</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>12793</v>
       </c>
       <c r="B75">
         <v>22201</v>
       </c>
-      <c r="C75">
-        <v>9.0086000000000005E-5</v>
+      <c r="C75" t="s">
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>13.17</v>
+        <v>144</v>
+      </c>
+      <c r="F75">
+        <v>22639</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>145</v>
       </c>
       <c r="B76">
         <v>23248</v>
       </c>
-      <c r="C76">
-        <v>5.7352999999999998E-5</v>
+      <c r="C76" t="s">
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>180.077</v>
+        <v>147</v>
+      </c>
+      <c r="F76">
+        <v>23770</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>180077</v>
       </c>
       <c r="B77">
         <v>22745</v>
       </c>
-      <c r="C77">
-        <v>9.1595200000000004E-4</v>
+      <c r="C77" t="s">
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>12.617000000000001</v>
+        <v>149</v>
+      </c>
+      <c r="F77">
+        <v>23215</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>12617</v>
       </c>
       <c r="B78">
         <v>22975</v>
@@ -2484,40 +3418,70 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>17.449000000000002</v>
+        <v>150</v>
+      </c>
+      <c r="F78">
+        <v>23425</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>17449</v>
       </c>
       <c r="B79">
         <v>22470</v>
       </c>
-      <c r="C79">
-        <v>9.8431999999999995E-5</v>
+      <c r="C79" t="s">
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>24.581</v>
+        <v>152</v>
+      </c>
+      <c r="F79">
+        <v>22970</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>24581</v>
       </c>
       <c r="B80">
         <v>23059</v>
       </c>
-      <c r="C80">
-        <v>9.9891999999999998E-5</v>
+      <c r="C80" t="s">
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10.109</v>
+        <v>154</v>
+      </c>
+      <c r="F80">
+        <v>23509</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>10109</v>
       </c>
       <c r="B81">
         <v>22503</v>
@@ -2526,96 +3490,166 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>46.521999999999998</v>
+        <v>155</v>
+      </c>
+      <c r="F81">
+        <v>22991</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>46522</v>
       </c>
       <c r="B82">
         <v>49410</v>
       </c>
-      <c r="C82">
-        <v>2.6191E-5</v>
+      <c r="C82" t="s">
+        <v>156</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>180.173</v>
+        <v>157</v>
+      </c>
+      <c r="F82">
+        <v>49556</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>180173</v>
       </c>
       <c r="B83">
         <v>48341</v>
       </c>
-      <c r="C83">
-        <v>1.070248E-3</v>
+      <c r="C83" t="s">
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>180.11199999999999</v>
+        <v>159</v>
+      </c>
+      <c r="F83">
+        <v>48411</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>180112</v>
       </c>
       <c r="B84">
         <v>48940</v>
       </c>
-      <c r="C84">
-        <v>1.1102029999999999E-3</v>
+      <c r="C84" t="s">
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>180.126</v>
+        <v>161</v>
+      </c>
+      <c r="F84">
+        <v>49092</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>180126</v>
       </c>
       <c r="B85">
         <v>48121</v>
       </c>
-      <c r="C85">
-        <v>1.1967379999999999E-3</v>
+      <c r="C85" t="s">
+        <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>180.12899999999999</v>
+        <v>163</v>
+      </c>
+      <c r="F85">
+        <v>48201</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>180129</v>
       </c>
       <c r="B86">
         <v>48162</v>
       </c>
-      <c r="C86">
-        <v>5.6702E-4</v>
+      <c r="C86" t="s">
+        <v>164</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>59.136000000000003</v>
+        <v>165</v>
+      </c>
+      <c r="F86">
+        <v>48264</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>59136</v>
       </c>
       <c r="B87">
         <v>48681</v>
       </c>
-      <c r="C87">
-        <v>4.1084000000000002E-5</v>
+      <c r="C87" t="s">
+        <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>58.485999999999997</v>
+        <v>167</v>
+      </c>
+      <c r="F87">
+        <v>48805</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>58486</v>
       </c>
       <c r="B88">
         <v>48680</v>
@@ -2624,475 +3658,812 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>180.12299999999999</v>
+        <v>168</v>
+      </c>
+      <c r="F88">
+        <v>48784</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>180123</v>
       </c>
       <c r="B89">
         <v>47882</v>
       </c>
-      <c r="C89">
-        <v>1.2139220000000001E-3</v>
+      <c r="C89" t="s">
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>34.267000000000003</v>
+        <v>170</v>
+      </c>
+      <c r="F89">
+        <v>47998</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>34267</v>
       </c>
       <c r="B90">
         <v>48178</v>
       </c>
-      <c r="C90">
-        <v>7.3410000000000004E-5</v>
+      <c r="C90" t="s">
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>180.11799999999999</v>
+        <v>172</v>
+      </c>
+      <c r="F90">
+        <v>48278</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>180118</v>
       </c>
       <c r="B91">
         <v>47732</v>
       </c>
-      <c r="C91">
-        <v>1.6760239999999999E-3</v>
+      <c r="C91" t="s">
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>146.10900000000001</v>
+        <v>174</v>
+      </c>
+      <c r="F91">
+        <v>47758</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>146109</v>
       </c>
       <c r="B92">
         <v>46274</v>
       </c>
-      <c r="C92">
-        <v>8.6441999999999997E-5</v>
+      <c r="C92" t="s">
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>151.78399999999999</v>
+        <v>176</v>
+      </c>
+      <c r="F92">
+        <v>47156</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>882</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>151784</v>
       </c>
       <c r="B93">
         <v>47499</v>
       </c>
-      <c r="C93">
-        <v>9.9724999999999998E-5</v>
+      <c r="C93" t="s">
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>180.18199999999999</v>
+        <v>178</v>
+      </c>
+      <c r="F93">
+        <v>48369</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>180182</v>
       </c>
       <c r="B94">
         <v>47180</v>
       </c>
-      <c r="C94">
-        <v>1.42344E-3</v>
+      <c r="C94" t="s">
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>180.209</v>
+        <v>180</v>
+      </c>
+      <c r="F94">
+        <v>48040</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>860</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>180209</v>
       </c>
       <c r="B95">
         <v>48636</v>
       </c>
-      <c r="C95">
-        <v>1.550292E-3</v>
+      <c r="C95" t="s">
+        <v>181</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>180.88900000000001</v>
+        <v>182</v>
+      </c>
+      <c r="F95">
+        <v>49556</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>180889</v>
       </c>
       <c r="B96">
         <v>48375</v>
       </c>
-      <c r="C96">
-        <v>1.4842379999999999E-3</v>
+      <c r="C96" t="s">
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>139.649</v>
+        <v>184</v>
+      </c>
+      <c r="F96">
+        <v>49225</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>139649</v>
       </c>
       <c r="B97">
         <v>47927</v>
       </c>
-      <c r="C97">
-        <v>6.6767999999999995E-5</v>
+      <c r="C97" t="s">
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>180.19</v>
+        <v>186</v>
+      </c>
+      <c r="F97">
+        <v>48847</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>187</v>
       </c>
       <c r="B98">
         <v>47920</v>
       </c>
-      <c r="C98">
-        <v>3.18239E-4</v>
+      <c r="C98" t="s">
+        <v>188</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>180.17400000000001</v>
+        <v>189</v>
+      </c>
+      <c r="F98">
+        <v>48840</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>180174</v>
       </c>
       <c r="B99">
         <v>48111</v>
       </c>
-      <c r="C99">
-        <v>1.2886869999999999E-3</v>
+      <c r="C99" t="s">
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>180.154</v>
+        <v>191</v>
+      </c>
+      <c r="F99">
+        <v>48987</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>876</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>180154</v>
       </c>
       <c r="B100">
         <v>47128</v>
       </c>
-      <c r="C100">
-        <v>1.570192E-3</v>
+      <c r="C100" t="s">
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>180.16300000000001</v>
+        <v>193</v>
+      </c>
+      <c r="F100">
+        <v>47998</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>180163</v>
       </c>
       <c r="B101">
         <v>47474</v>
       </c>
-      <c r="C101">
-        <v>5.7506500000000004E-4</v>
+      <c r="C101" t="s">
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>180.14500000000001</v>
+        <v>195</v>
+      </c>
+      <c r="F101">
+        <v>48320</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>846</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>180145</v>
       </c>
       <c r="B102">
         <v>57732</v>
       </c>
-      <c r="C102">
-        <v>3.879997E-3</v>
+      <c r="C102" t="s">
+        <v>196</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>180.124</v>
+        <v>197</v>
+      </c>
+      <c r="F102">
+        <v>57808</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>180124</v>
       </c>
       <c r="B103">
         <v>57821</v>
       </c>
-      <c r="C103">
-        <v>1.4787019999999999E-3</v>
+      <c r="C103" t="s">
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>180.226</v>
+        <v>199</v>
+      </c>
+      <c r="F103">
+        <v>57997</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>180226</v>
       </c>
       <c r="B104">
         <v>58040</v>
       </c>
-      <c r="C104">
-        <v>3.8249479999999999E-3</v>
+      <c r="C104" t="s">
+        <v>200</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>180.155</v>
+        <v>201</v>
+      </c>
+      <c r="F104">
+        <v>58046</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>180155</v>
       </c>
       <c r="B105">
         <v>58515</v>
       </c>
-      <c r="C105">
-        <v>4.425099E-3</v>
+      <c r="C105" t="s">
+        <v>202</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>180.08699999999999</v>
+        <v>203</v>
+      </c>
+      <c r="F105">
+        <v>58559</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>180087</v>
       </c>
       <c r="B106">
         <v>58216</v>
       </c>
-      <c r="C106">
-        <v>2.052655E-3</v>
+      <c r="C106" t="s">
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>180.13300000000001</v>
+        <v>205</v>
+      </c>
+      <c r="F106">
+        <v>58384</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>180133</v>
       </c>
       <c r="B107">
         <v>57665</v>
       </c>
-      <c r="C107">
-        <v>3.3816010000000001E-3</v>
+      <c r="C107" t="s">
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>180.18</v>
+        <v>207</v>
+      </c>
+      <c r="F107">
+        <v>57773</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>208</v>
       </c>
       <c r="B108">
         <v>57600</v>
       </c>
-      <c r="C108">
-        <v>2.916667E-3</v>
+      <c r="C108" t="s">
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>180.14500000000001</v>
+        <v>210</v>
+      </c>
+      <c r="F108">
+        <v>57724</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>180145</v>
       </c>
       <c r="B109">
         <v>58262</v>
       </c>
-      <c r="C109">
-        <v>3.6730629999999998E-3</v>
+      <c r="C109" t="s">
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>180.16300000000001</v>
+        <v>212</v>
+      </c>
+      <c r="F109">
+        <v>58370</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>180163</v>
       </c>
       <c r="B110">
         <v>58021</v>
       </c>
-      <c r="C110">
-        <v>3.7744950000000001E-3</v>
+      <c r="C110" t="s">
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>180.19200000000001</v>
+        <v>214</v>
+      </c>
+      <c r="F110">
+        <v>58067</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>180192</v>
       </c>
       <c r="B111">
         <v>58385</v>
       </c>
-      <c r="C111">
-        <v>1.9889529999999999E-3</v>
+      <c r="C111" t="s">
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>185.10499999999999</v>
+        <v>216</v>
+      </c>
+      <c r="F111">
+        <v>58573</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>185105</v>
       </c>
       <c r="B112">
         <v>57526</v>
       </c>
-      <c r="C112">
-        <v>2.4371589999999999E-3</v>
+      <c r="C112" t="s">
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>180.34299999999999</v>
+        <v>218</v>
+      </c>
+      <c r="F112">
+        <v>58580</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1054</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>180343</v>
       </c>
       <c r="B113">
         <v>57462</v>
       </c>
-      <c r="C113">
-        <v>5.5863010000000001E-3</v>
+      <c r="C113" t="s">
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>180.22399999999999</v>
+        <v>220</v>
+      </c>
+      <c r="F113">
+        <v>58384</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>922</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>180224</v>
       </c>
       <c r="B114">
         <v>56768</v>
       </c>
-      <c r="C114">
-        <v>1.8672490000000001E-3</v>
+      <c r="C114" t="s">
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>180.256</v>
+        <v>222</v>
+      </c>
+      <c r="F114">
+        <v>57864</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>180256</v>
       </c>
       <c r="B115">
         <v>56718</v>
       </c>
-      <c r="C115">
-        <v>2.2532530000000002E-3</v>
+      <c r="C115" t="s">
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>180.227</v>
+        <v>224</v>
+      </c>
+      <c r="F115">
+        <v>57766</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>1048</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>180227</v>
       </c>
       <c r="B116">
         <v>56968</v>
       </c>
-      <c r="C116">
-        <v>1.282299E-3</v>
+      <c r="C116" t="s">
+        <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>180.226</v>
+        <v>226</v>
+      </c>
+      <c r="F116">
+        <v>58060</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>1092</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>180226</v>
       </c>
       <c r="B117">
         <v>57084</v>
       </c>
-      <c r="C117">
-        <v>1.6186670000000001E-3</v>
+      <c r="C117" t="s">
+        <v>227</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>180.262</v>
+        <v>228</v>
+      </c>
+      <c r="F117">
+        <v>58144</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>180262</v>
       </c>
       <c r="B118">
         <v>56557</v>
       </c>
-      <c r="C118">
-        <v>2.2512690000000002E-3</v>
+      <c r="C118" t="s">
+        <v>229</v>
       </c>
       <c r="D118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>180.23699999999999</v>
+        <v>230</v>
+      </c>
+      <c r="F118">
+        <v>57647</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>180237</v>
       </c>
       <c r="B119">
         <v>57023</v>
       </c>
-      <c r="C119">
-        <v>2.7532749999999999E-3</v>
+      <c r="C119" t="s">
+        <v>231</v>
       </c>
       <c r="D119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>180.38800000000001</v>
+        <v>232</v>
+      </c>
+      <c r="F119">
+        <v>58053</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>180388</v>
       </c>
       <c r="B120">
         <v>57756</v>
       </c>
-      <c r="C120">
-        <v>2.9330290000000002E-3</v>
+      <c r="C120" t="s">
+        <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>180.32300000000001</v>
+        <v>234</v>
+      </c>
+      <c r="F120">
+        <v>58776</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>180323</v>
       </c>
       <c r="B121">
         <v>56263</v>
       </c>
-      <c r="C121">
-        <v>4.1021629999999998E-3</v>
+      <c r="C121" t="s">
+        <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>236</v>
+      </c>
+      <c r="F121">
+        <v>57183</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D121">
-    <sortCondition ref="D1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instaladores\Programacion\IDE\NetBeansProjects\BinPackingProblem-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>TIME</t>
   </si>
@@ -732,13 +732,19 @@
     <t>MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP9</t>
   </si>
   <si>
-    <t>MinimunCost</t>
-  </si>
-  <si>
     <t>Difference</t>
   </si>
   <si>
-    <t>Time (miliseconds)</t>
+    <t>My Cost</t>
+  </si>
+  <si>
+    <t>My OpGap</t>
+  </si>
+  <si>
+    <t>My Percent</t>
+  </si>
+  <si>
+    <t>My Time (miliseconds)</t>
   </si>
 </sst>
 </file>
@@ -1546,21 +1552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,16 +1580,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
-        <v>238</v>
-      </c>
       <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -1606,8 +1618,16 @@
       <c r="H2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>(F2-B2)/B2</f>
+        <v>2.6812139711872621E-4</v>
+      </c>
+      <c r="J2">
+        <f>F2*100/B2</f>
+        <v>100.02681213971188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -1630,8 +1650,16 @@
       <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">(F3-B3)/B3</f>
+        <v>-4.7360672109712028E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="2">F3*100/B3</f>
+        <v>99.952639327890282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -1654,8 +1682,16 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-3.0480370641307E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>99.969519629358686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -1678,8 +1714,16 @@
       <c r="H5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-1.6446861219329173E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>99.835531387806711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -1702,8 +1746,16 @@
       <c r="H6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.3380303774709135E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>100.13380303774709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -1726,8 +1778,16 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.0407484893217081E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>100.10407484893217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1750,8 +1810,16 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3.8801641922110811E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>100.03880164192211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -1774,8 +1842,16 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.429694760168704E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>100.01429694760169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -1798,8 +1874,16 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7.8744236647153288E-4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>100.07874423664715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -1822,8 +1906,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-2.6555813169640578E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>99.973444186830363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -1846,8 +1938,16 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.6504425709059564E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>101.65044257090595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -1870,8 +1970,16 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.3169722181574932E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>101.31697221815749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -1894,8 +2002,16 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.4430467107946168E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>101.44304671079462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -1918,8 +2034,16 @@
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.5682010642857888E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>101.56820106428579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -1942,8 +2066,16 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.6847425502790354E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>101.68474255027904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -1966,8 +2098,16 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.4125027263379828E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>101.41250272633798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -1990,8 +2130,16 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.6946127274445368E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>101.69461272744454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2014,8 +2162,16 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.6040354154135138E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>101.60403541541352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2038,8 +2194,16 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.6003905462340942E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>101.6003905462341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -2062,8 +2226,16 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.4432579980547392E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>101.44325799805473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -2086,8 +2258,16 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-3.4083162917518748E-5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>99.996591683708246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -2110,8 +2290,16 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-6.0213499866670103E-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>99.939786500133323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -2134,8 +2322,16 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>8.1524331543845346E-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>100.08152433154385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -2158,8 +2354,16 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>2.9242783913028522E-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>100.02924278391303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -2182,8 +2386,16 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>5.6565448795413051E-4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>100.05656544879541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -2206,8 +2418,16 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-9.1042634599617384E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>99.089573654003829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -2230,8 +2450,16 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-6.3556410608767351E-4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>99.936443589391232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2254,8 +2482,16 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>2.5843577440279802E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>100.02584357744028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -2278,8 +2514,16 @@
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-1.0158314752799994E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>99.898416852471996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -2302,8 +2546,16 @@
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>7.8095171982923192E-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>100.07809517198292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2326,8 +2578,16 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-5.6213738969333529E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>94.378626103066651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -2350,8 +2610,16 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>-5.887481158593718E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>94.112518841406285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -2374,8 +2642,16 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-1.8576951383542987E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>98.142304861645698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -2398,8 +2674,16 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>-6.1500417496306761E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>93.849958250369326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -2422,8 +2706,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-5.6751483819982386E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>94.324851618001759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -2446,8 +2738,16 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-5.4064645705934701E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>94.593535429406529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -2470,8 +2770,16 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-4.1656703249585661E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>95.834329675041431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -2494,8 +2802,16 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1.1297566410193921E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>101.1297566410194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -2518,8 +2834,16 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-6.3914334046152377E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>93.608566595384758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -2542,8 +2866,16 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1.6087055247943266E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>101.60870552479433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2382</v>
       </c>
@@ -2566,8 +2898,16 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1.1069739357955116E-3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>100.11069739357956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2908</v>
       </c>
@@ -2590,8 +2930,16 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>2.1199273167777106E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>100.21199273167777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9733</v>
       </c>
@@ -2614,8 +2962,16 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>2.9185326825340915E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>100.2918532682534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3151</v>
       </c>
@@ -2638,8 +2994,16 @@
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>2.0883366398663466E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>100.20883366398664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7335</v>
       </c>
@@ -2662,8 +3026,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>2.2620944938563569E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>100.22620944938564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3002</v>
       </c>
@@ -2686,8 +3058,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>2.7147956362173846E-3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>100.27147956362174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7886</v>
       </c>
@@ -2710,8 +3090,16 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>1.8770530267480056E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>100.1877053026748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6477</v>
       </c>
@@ -2734,8 +3122,16 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>2.0671834625322996E-3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>100.20671834625323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14147</v>
       </c>
@@ -2758,8 +3154,16 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>2.7145541866778031E-3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>100.27145541866778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2782,8 +3186,16 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>2.6287851979171933E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>100.26287851979171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7304</v>
       </c>
@@ -2806,8 +3218,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>1.890359168241966E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>101.89035916824197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>57306</v>
       </c>
@@ -2830,8 +3250,16 @@
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>1.6093863565569515E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>101.60938635655695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>13886</v>
       </c>
@@ -2854,8 +3282,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>1.8263913550809193E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>101.82639135508091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6049</v>
       </c>
@@ -2878,8 +3314,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>2.017520573400584E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>102.01752057340059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8795</v>
       </c>
@@ -2902,8 +3346,16 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>1.7913593256059009E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>101.7913593256059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6713</v>
       </c>
@@ -2926,8 +3378,16 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>1.8195127052180279E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>101.81951270521803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>20402</v>
       </c>
@@ -2950,8 +3410,16 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>1.6082174725046691E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>101.60821747250466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>8111</v>
       </c>
@@ -2974,8 +3442,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>1.8054899490893821E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>101.80548994908938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>18295</v>
       </c>
@@ -2998,8 +3474,16 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7277</v>
       </c>
@@ -3022,8 +3506,16 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>2.0258023243416141E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>102.02580232434161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3046,8 +3538,16 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>4.231616218316853E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>100.42316162183168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5365</v>
       </c>
@@ -3070,8 +3570,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>3.9488368100266116E-3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>100.39488368100267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64377</v>
       </c>
@@ -3094,8 +3602,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>4.9169721802889803E-3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>100.4916972180289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4618</v>
       </c>
@@ -3118,8 +3634,16 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>4.7095761381475663E-3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>100.47095761381476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -3142,8 +3666,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>3.838771593090211E-3</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>100.38387715930902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>22373</v>
       </c>
@@ -3160,14 +3692,22 @@
         <v>23152</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G121" si="1">F67-B67</f>
+        <f t="shared" ref="G67:G121" si="3">F67-B67</f>
         <v>118</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" ref="I67:I121" si="4">(F67-B67)/B67</f>
+        <v>5.1228618563862113E-3</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
+        <v>100.51228618563862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18476</v>
       </c>
@@ -3184,14 +3724,22 @@
         <v>22914</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>3.8552527819153597E-3</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>100.38552527819154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>22724</v>
       </c>
@@ -3208,14 +3756,22 @@
         <v>23418</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>4.1162850527399026E-3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>100.411628505274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5832</v>
       </c>
@@ -3232,14 +3788,22 @@
         <v>23054</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>4.4440571627744861E-3</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>100.44440571627744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>6507</v>
       </c>
@@ -3256,14 +3820,22 @@
         <v>23117</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>3.9084552916141919E-3</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>100.39084552916142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>21941</v>
       </c>
@@ -3280,14 +3852,22 @@
         <v>23292</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>1.9700551615445233E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>101.97005516154452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15461</v>
       </c>
@@ -3304,14 +3884,22 @@
         <v>23012</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>502</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>2.23011994669036E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>102.23011994669037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12694</v>
       </c>
@@ -3328,14 +3916,22 @@
         <v>23397</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>1.9610406589096616E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>101.96104065890967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>12793</v>
       </c>
@@ -3352,14 +3948,22 @@
         <v>22639</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>438</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>1.9728841043196253E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>101.97288410431962</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -3376,14 +3980,22 @@
         <v>23770</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>522</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>2.2453544390915348E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>102.24535443909153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>180077</v>
       </c>
@@ -3400,14 +4012,22 @@
         <v>23215</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>2.0663882171905915E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>102.06638821719059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>12617</v>
       </c>
@@ -3424,14 +4044,22 @@
         <v>23425</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <f t="shared" si="4"/>
+        <v>1.9586507072905331E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>101.95865070729053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>17449</v>
       </c>
@@ -3448,14 +4076,22 @@
         <v>22970</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="4"/>
+        <v>2.2251891410769914E-2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>102.225189141077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>24581</v>
       </c>
@@ -3472,14 +4108,22 @@
         <v>23509</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>1.9515156771759398E-2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>101.95151567717593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10109</v>
       </c>
@@ -3496,14 +4140,22 @@
         <v>22991</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>488</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>2.168599742256588E-2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>102.16859974225659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>46522</v>
       </c>
@@ -3520,14 +4172,22 @@
         <v>49556</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f t="shared" si="4"/>
+        <v>2.9548674357417525E-3</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>100.29548674357417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>180173</v>
       </c>
@@ -3544,14 +4204,22 @@
         <v>48411</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="4"/>
+        <v>1.4480461719865124E-3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>100.14480461719864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>180112</v>
       </c>
@@ -3568,14 +4236,22 @@
         <v>49092</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="4"/>
+        <v>3.1058438904781366E-3</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>100.31058438904782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>180126</v>
       </c>
@@ -3592,14 +4268,22 @@
         <v>48201</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="4"/>
+        <v>1.6624758421479187E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>100.16624758421479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>180129</v>
       </c>
@@ -3616,14 +4300,22 @@
         <v>48264</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>2.1178522486607699E-3</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>100.21178522486608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>59136</v>
       </c>
@@ -3640,14 +4332,22 @@
         <v>48805</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>2.5471950042110884E-3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>100.2547195004211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>58486</v>
       </c>
@@ -3664,14 +4364,22 @@
         <v>48784</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <f t="shared" si="4"/>
+        <v>2.1364009860312242E-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>100.21364009860312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>180123</v>
       </c>
@@ -3688,14 +4396,22 @@
         <v>47998</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="4"/>
+        <v>2.422622279771104E-3</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>100.24226222797711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>34267</v>
       </c>
@@ -3712,14 +4428,22 @@
         <v>48278</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <f t="shared" si="4"/>
+        <v>2.0756361824899329E-3</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>100.207563618249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>180118</v>
       </c>
@@ -3736,14 +4460,22 @@
         <v>47758</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f t="shared" si="4"/>
+        <v>5.4470795273610991E-4</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>100.05447079527362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>146109</v>
       </c>
@@ -3760,14 +4492,22 @@
         <v>47156</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>882</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>1.906037947875697E-2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>101.9060379478757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>151784</v>
       </c>
@@ -3784,14 +4524,22 @@
         <v>48369</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>870</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f t="shared" si="4"/>
+        <v>1.8316175077370048E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>101.83161750773701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>180182</v>
       </c>
@@ -3808,14 +4556,22 @@
         <v>48040</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>860</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <f t="shared" si="4"/>
+        <v>1.8228062738448497E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>101.82280627384485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>180209</v>
       </c>
@@ -3832,14 +4588,22 @@
         <v>49556</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>920</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>1.891602927872358E-2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>101.89160292787236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>180889</v>
       </c>
@@ -3856,14 +4620,22 @@
         <v>49225</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>850</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>1.7571059431524549E-2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>101.75710594315245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>139649</v>
       </c>
@@ -3880,14 +4652,22 @@
         <v>48847</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>920</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f t="shared" si="4"/>
+        <v>1.9195860370980866E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>101.91958603709809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -3904,14 +4684,22 @@
         <v>48840</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>920</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>1.9198664440734557E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>101.91986644407345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>180174</v>
       </c>
@@ -3928,14 +4716,22 @@
         <v>48987</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>876</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>1.8207894244559455E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>101.82078942445595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>180154</v>
       </c>
@@ -3952,14 +4748,22 @@
         <v>47998</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>870</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <f t="shared" si="4"/>
+        <v>1.846036326599898E-2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>101.8460363265999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>180163</v>
       </c>
@@ -3976,14 +4780,22 @@
         <v>48320</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>846</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>1.7820280574630323E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>101.78202805746304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>180145</v>
       </c>
@@ -4000,14 +4812,22 @@
         <v>57808</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <f t="shared" si="4"/>
+        <v>1.3164276311231206E-3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="5"/>
+        <v>100.13164276311231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>180124</v>
       </c>
@@ -4024,14 +4844,22 @@
         <v>57997</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <f t="shared" si="4"/>
+        <v>3.0438767921689351E-3</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="5"/>
+        <v>100.30438767921689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>180226</v>
       </c>
@@ -4048,14 +4876,22 @@
         <v>58046</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <f t="shared" si="4"/>
+        <v>1.0337698139214335E-4</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="5"/>
+        <v>100.01033769813921</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>180155</v>
       </c>
@@ -4072,14 +4908,22 @@
         <v>58559</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <f t="shared" si="4"/>
+        <v>7.5194394599675297E-4</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="5"/>
+        <v>100.07519439459968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>180087</v>
       </c>
@@ -4096,14 +4940,22 @@
         <v>58384</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <f t="shared" si="4"/>
+        <v>2.8858045898034904E-3</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="5"/>
+        <v>100.28858045898035</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>180133</v>
       </c>
@@ -4120,14 +4972,22 @@
         <v>57773</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <f t="shared" si="4"/>
+        <v>1.8728864996098154E-3</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="5"/>
+        <v>100.18728864996098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -4144,14 +5004,22 @@
         <v>57724</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <f t="shared" si="4"/>
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="5"/>
+        <v>100.21527777777777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>180145</v>
       </c>
@@ -4168,14 +5036,22 @@
         <v>58370</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <f t="shared" si="4"/>
+        <v>1.8536953760598675E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="5"/>
+        <v>100.18536953760599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>180163</v>
       </c>
@@ -4192,14 +5068,22 @@
         <v>58067</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <f t="shared" si="4"/>
+        <v>7.9281639406421811E-4</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="5"/>
+        <v>100.07928163940642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>180192</v>
       </c>
@@ -4216,14 +5100,22 @@
         <v>58573</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <f t="shared" si="4"/>
+        <v>3.2200051383060716E-3</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="5"/>
+        <v>100.3220005138306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>185105</v>
       </c>
@@ -4240,14 +5132,22 @@
         <v>58580</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1054</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <f t="shared" si="4"/>
+        <v>1.8322149984354899E-2</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="5"/>
+        <v>101.83221499843549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>180343</v>
       </c>
@@ -4264,14 +5164,22 @@
         <v>58384</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>922</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <f t="shared" si="4"/>
+        <v>1.604538651630643E-2</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="5"/>
+        <v>101.60453865163065</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>180224</v>
       </c>
@@ -4288,14 +5196,22 @@
         <v>57864</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1096</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <f t="shared" si="4"/>
+        <v>1.9306651634723788E-2</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="5"/>
+        <v>101.93066516347238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>180256</v>
       </c>
@@ -4312,14 +5228,22 @@
         <v>57766</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1048</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <f t="shared" si="4"/>
+        <v>1.8477379315208577E-2</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="5"/>
+        <v>101.84773793152085</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>180227</v>
       </c>
@@ -4336,14 +5260,22 @@
         <v>58060</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="4"/>
+        <v>1.9168656087628144E-2</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="5"/>
+        <v>101.91686560876282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>180226</v>
       </c>
@@ -4360,14 +5292,22 @@
         <v>58144</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1060</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <f t="shared" si="4"/>
+        <v>1.8569126199985984E-2</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="5"/>
+        <v>101.8569126199986</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>180262</v>
       </c>
@@ -4384,14 +5324,22 @@
         <v>57647</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1090</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <f t="shared" si="4"/>
+        <v>1.9272592252064288E-2</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>101.92725922520643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>180237</v>
       </c>
@@ -4408,14 +5356,22 @@
         <v>58053</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1030</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <f t="shared" si="4"/>
+        <v>1.8062886905283834E-2</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="5"/>
+        <v>101.80628869052839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>180388</v>
       </c>
@@ -4432,14 +5388,22 @@
         <v>58776</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1020</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <f t="shared" si="4"/>
+        <v>1.7660502804903385E-2</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="5"/>
+        <v>101.76605028049033</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>180323</v>
       </c>
@@ -4456,11 +5420,29 @@
         <v>57183</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>920</v>
       </c>
       <c r="H121">
         <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="4"/>
+        <v>1.635177647832501E-2</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="5"/>
+        <v>101.63517764783251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f>SUM(I2:I121)</f>
+        <v>0.6230433367617354</v>
+      </c>
+      <c r="J122">
+        <f>SUM(J2:J121)/120</f>
+        <v>100.51920278063476</v>
       </c>
     </row>
   </sheetData>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -738,13 +738,13 @@
     <t>My Cost</t>
   </si>
   <si>
-    <t>My OpGap</t>
-  </si>
-  <si>
     <t>My Percent</t>
   </si>
   <si>
     <t>My Time (miliseconds)</t>
+  </si>
+  <si>
+    <t>My OptGap</t>
   </si>
 </sst>
 </file>
@@ -1552,21 +1552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,16 +1586,16 @@
         <v>237</v>
       </c>
       <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -1616,10 +1616,10 @@
         <v>26</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <f>(F2-B2)/B2</f>
+        <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
         <v>2.6812139711872621E-4</v>
       </c>
       <c r="J2">
@@ -1627,7 +1627,7 @@
         <v>100.02681213971188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -1651,15 +1651,15 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">(F3-B3)/B3</f>
+        <f t="shared" si="1"/>
         <v>-4.7360672109712028E-4</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="2">F3*100/B3</f>
+        <f>F3*100/B3</f>
         <v>99.952639327890282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -1680,18 +1680,18 @@
         <v>-30</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
         <v>-3.0480370641307E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J67" si="2">F4*100/B4</f>
         <v>99.969519629358686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>99.835531387806711</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>128</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -1755,7 +1755,7 @@
         <v>100.13380303774709</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>98</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -1787,7 +1787,7 @@
         <v>100.10407484893217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -1819,7 +1819,7 @@
         <v>100.03880164192211</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>100.01429694760169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>76</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -1883,7 +1883,7 @@
         <v>100.07874423664715</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>-26</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -1915,7 +1915,7 @@
         <v>99.973444186830363</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1570</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -1947,7 +1947,7 @@
         <v>101.65044257090595</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>101.31697221815749</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1380</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -2011,7 +2011,7 @@
         <v>101.44304671079462</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>101.56820106428579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>101.68474255027904</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>101.41250272633798</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1614</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -2139,7 +2139,7 @@
         <v>101.69461272744454</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>101.60403541541352</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1508</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -2203,7 +2203,7 @@
         <v>101.6003905462341</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>101.44325799805473</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>99.996591683708246</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>-70</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -2299,7 +2299,7 @@
         <v>99.939786500133323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>100.08152433154385</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>34</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -2363,7 +2363,7 @@
         <v>100.02924278391303</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>100.05656544879541</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>99.089573654003829</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>-74</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2459,7 +2459,7 @@
         <v>99.936443589391232</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>30</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -2491,7 +2491,7 @@
         <v>100.02584357744028</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>-118</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -2523,7 +2523,7 @@
         <v>99.898416852471996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>100.07809517198292</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>94.378626103066651</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>94.112518841406285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>98.142304861645698</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>93.849958250369326</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>-6894</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -2715,7 +2715,7 @@
         <v>94.324851618001759</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>-6622</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -2747,7 +2747,7 @@
         <v>94.593535429406529</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>-5052</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -2779,7 +2779,7 @@
         <v>95.834329675041431</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>101.1297566410194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-8010</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -2843,7 +2843,7 @@
         <v>93.608566595384758</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>101.60870552479433</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2382</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>100.11069739357956</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2908</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>100.21199273167777</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9733</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>100.2918532682534</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3151</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>40</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -3003,7 +3003,7 @@
         <v>100.20883366398664</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7335</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>100.22620944938564</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3002</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>100.27147956362174</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7886</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>100.1877053026748</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6477</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>100.20671834625323</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>14147</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>52</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -3163,7 +3163,7 @@
         <v>100.27145541866778</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>100.26287851979171</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7304</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>101.89035916824197</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>57306</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>310</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -3259,7 +3259,7 @@
         <v>101.60938635655695</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>13886</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>101.82639135508091</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6049</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>102.01752057340059</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>8795</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>101.7913593256059</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6713</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>101.81951270521803</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>20402</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>310</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -3419,7 +3419,7 @@
         <v>101.60821747250466</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8111</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>101.80548994908938</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>18295</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>101.81818181818181</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7277</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>102.02580232434161</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>100.42316162183168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5365</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>100.39488368100267</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64377</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>100.4916972180289</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>4618</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>100.47095761381476</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -3664,10 +3664,10 @@
         <v>88</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
         <v>3.838771593090211E-3</v>
       </c>
       <c r="J66">
@@ -3675,7 +3675,7 @@
         <v>100.38387715930902</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>22373</v>
       </c>
@@ -3692,22 +3692,22 @@
         <v>23152</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G121" si="3">F67-B67</f>
+        <f t="shared" ref="G67:G121" si="4">F67-B67</f>
         <v>118</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I121" si="4">(F67-B67)/B67</f>
+        <f t="shared" si="3"/>
         <v>5.1228618563862113E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
+        <f t="shared" si="2"/>
         <v>100.51228618563862</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>18476</v>
       </c>
@@ -3724,22 +3724,22 @@
         <v>22914</v>
       </c>
       <c r="G68">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="4"/>
         <v>3.8552527819153597E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J68:J121" si="5">F68*100/B68</f>
         <v>100.38552527819154</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>22724</v>
       </c>
@@ -3756,14 +3756,14 @@
         <v>23418</v>
       </c>
       <c r="G69">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
         <v>4.1162850527399026E-3</v>
       </c>
       <c r="J69">
@@ -3771,7 +3771,7 @@
         <v>100.411628505274</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>5832</v>
       </c>
@@ -3788,14 +3788,14 @@
         <v>23054</v>
       </c>
       <c r="G70">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="4"/>
         <v>4.4440571627744861E-3</v>
       </c>
       <c r="J70">
@@ -3803,7 +3803,7 @@
         <v>100.44440571627744</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>6507</v>
       </c>
@@ -3820,14 +3820,14 @@
         <v>23117</v>
       </c>
       <c r="G71">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="4"/>
         <v>3.9084552916141919E-3</v>
       </c>
       <c r="J71">
@@ -3835,7 +3835,7 @@
         <v>100.39084552916142</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>21941</v>
       </c>
@@ -3852,14 +3852,14 @@
         <v>23292</v>
       </c>
       <c r="G72">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="4"/>
         <v>1.9700551615445233E-2</v>
       </c>
       <c r="J72">
@@ -3867,7 +3867,7 @@
         <v>101.97005516154452</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>15461</v>
       </c>
@@ -3884,14 +3884,14 @@
         <v>23012</v>
       </c>
       <c r="G73">
+        <f t="shared" si="4"/>
+        <v>502</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="3"/>
-        <v>502</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="4"/>
         <v>2.23011994669036E-2</v>
       </c>
       <c r="J73">
@@ -3899,7 +3899,7 @@
         <v>102.23011994669037</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>12694</v>
       </c>
@@ -3916,14 +3916,14 @@
         <v>23397</v>
       </c>
       <c r="G74">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="4"/>
         <v>1.9610406589096616E-2</v>
       </c>
       <c r="J74">
@@ -3931,7 +3931,7 @@
         <v>101.96104065890967</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>12793</v>
       </c>
@@ -3948,14 +3948,14 @@
         <v>22639</v>
       </c>
       <c r="G75">
+        <f t="shared" si="4"/>
+        <v>438</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="4"/>
         <v>1.9728841043196253E-2</v>
       </c>
       <c r="J75">
@@ -3963,7 +3963,7 @@
         <v>101.97288410431962</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -3980,14 +3980,14 @@
         <v>23770</v>
       </c>
       <c r="G76">
+        <f t="shared" si="4"/>
+        <v>522</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="3"/>
-        <v>522</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="4"/>
         <v>2.2453544390915348E-2</v>
       </c>
       <c r="J76">
@@ -3995,7 +3995,7 @@
         <v>102.24535443909153</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>180077</v>
       </c>
@@ -4012,14 +4012,14 @@
         <v>23215</v>
       </c>
       <c r="G77">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="3"/>
-        <v>470</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="4"/>
         <v>2.0663882171905915E-2</v>
       </c>
       <c r="J77">
@@ -4027,7 +4027,7 @@
         <v>102.06638821719059</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>12617</v>
       </c>
@@ -4044,14 +4044,14 @@
         <v>23425</v>
       </c>
       <c r="G78">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="4"/>
         <v>1.9586507072905331E-2</v>
       </c>
       <c r="J78">
@@ -4059,7 +4059,7 @@
         <v>101.95865070729053</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>17449</v>
       </c>
@@ -4076,14 +4076,14 @@
         <v>22970</v>
       </c>
       <c r="G79">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="4"/>
         <v>2.2251891410769914E-2</v>
       </c>
       <c r="J79">
@@ -4091,7 +4091,7 @@
         <v>102.225189141077</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>24581</v>
       </c>
@@ -4108,14 +4108,14 @@
         <v>23509</v>
       </c>
       <c r="G80">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="4"/>
         <v>1.9515156771759398E-2</v>
       </c>
       <c r="J80">
@@ -4123,7 +4123,7 @@
         <v>101.95151567717593</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>10109</v>
       </c>
@@ -4140,14 +4140,14 @@
         <v>22991</v>
       </c>
       <c r="G81">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="4"/>
         <v>2.168599742256588E-2</v>
       </c>
       <c r="J81">
@@ -4155,7 +4155,7 @@
         <v>102.16859974225659</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>46522</v>
       </c>
@@ -4172,14 +4172,14 @@
         <v>49556</v>
       </c>
       <c r="G82">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="4"/>
         <v>2.9548674357417525E-3</v>
       </c>
       <c r="J82">
@@ -4187,7 +4187,7 @@
         <v>100.29548674357417</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>180173</v>
       </c>
@@ -4204,14 +4204,14 @@
         <v>48411</v>
       </c>
       <c r="G83">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="4"/>
         <v>1.4480461719865124E-3</v>
       </c>
       <c r="J83">
@@ -4219,7 +4219,7 @@
         <v>100.14480461719864</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>180112</v>
       </c>
@@ -4236,14 +4236,14 @@
         <v>49092</v>
       </c>
       <c r="G84">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="4"/>
         <v>3.1058438904781366E-3</v>
       </c>
       <c r="J84">
@@ -4251,7 +4251,7 @@
         <v>100.31058438904782</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>180126</v>
       </c>
@@ -4268,14 +4268,14 @@
         <v>48201</v>
       </c>
       <c r="G85">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="4"/>
         <v>1.6624758421479187E-3</v>
       </c>
       <c r="J85">
@@ -4283,7 +4283,7 @@
         <v>100.16624758421479</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>180129</v>
       </c>
@@ -4300,14 +4300,14 @@
         <v>48264</v>
       </c>
       <c r="G86">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="4"/>
         <v>2.1178522486607699E-3</v>
       </c>
       <c r="J86">
@@ -4315,7 +4315,7 @@
         <v>100.21178522486608</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>59136</v>
       </c>
@@ -4332,14 +4332,14 @@
         <v>48805</v>
       </c>
       <c r="G87">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="4"/>
         <v>2.5471950042110884E-3</v>
       </c>
       <c r="J87">
@@ -4347,7 +4347,7 @@
         <v>100.2547195004211</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>58486</v>
       </c>
@@ -4364,14 +4364,14 @@
         <v>48784</v>
       </c>
       <c r="G88">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="4"/>
         <v>2.1364009860312242E-3</v>
       </c>
       <c r="J88">
@@ -4379,7 +4379,7 @@
         <v>100.21364009860312</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>180123</v>
       </c>
@@ -4396,14 +4396,14 @@
         <v>47998</v>
       </c>
       <c r="G89">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="4"/>
         <v>2.422622279771104E-3</v>
       </c>
       <c r="J89">
@@ -4411,7 +4411,7 @@
         <v>100.24226222797711</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>34267</v>
       </c>
@@ -4428,14 +4428,14 @@
         <v>48278</v>
       </c>
       <c r="G90">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="4"/>
         <v>2.0756361824899329E-3</v>
       </c>
       <c r="J90">
@@ -4443,7 +4443,7 @@
         <v>100.207563618249</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>180118</v>
       </c>
@@ -4460,14 +4460,14 @@
         <v>47758</v>
       </c>
       <c r="G91">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="4"/>
         <v>5.4470795273610991E-4</v>
       </c>
       <c r="J91">
@@ -4475,7 +4475,7 @@
         <v>100.05447079527362</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>146109</v>
       </c>
@@ -4492,14 +4492,14 @@
         <v>47156</v>
       </c>
       <c r="G92">
+        <f t="shared" si="4"/>
+        <v>882</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="3"/>
-        <v>882</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="4"/>
         <v>1.906037947875697E-2</v>
       </c>
       <c r="J92">
@@ -4507,7 +4507,7 @@
         <v>101.9060379478757</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>151784</v>
       </c>
@@ -4524,14 +4524,14 @@
         <v>48369</v>
       </c>
       <c r="G93">
+        <f t="shared" si="4"/>
+        <v>870</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="4"/>
         <v>1.8316175077370048E-2</v>
       </c>
       <c r="J93">
@@ -4539,7 +4539,7 @@
         <v>101.83161750773701</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>180182</v>
       </c>
@@ -4556,14 +4556,14 @@
         <v>48040</v>
       </c>
       <c r="G94">
+        <f t="shared" si="4"/>
+        <v>860</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="3"/>
-        <v>860</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="4"/>
         <v>1.8228062738448497E-2</v>
       </c>
       <c r="J94">
@@ -4571,7 +4571,7 @@
         <v>101.82280627384485</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>180209</v>
       </c>
@@ -4588,14 +4588,14 @@
         <v>49556</v>
       </c>
       <c r="G95">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="3"/>
-        <v>920</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="4"/>
         <v>1.891602927872358E-2</v>
       </c>
       <c r="J95">
@@ -4603,7 +4603,7 @@
         <v>101.89160292787236</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>180889</v>
       </c>
@@ -4620,14 +4620,14 @@
         <v>49225</v>
       </c>
       <c r="G96">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="4"/>
         <v>1.7571059431524549E-2</v>
       </c>
       <c r="J96">
@@ -4635,7 +4635,7 @@
         <v>101.75710594315245</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>139649</v>
       </c>
@@ -4652,14 +4652,14 @@
         <v>48847</v>
       </c>
       <c r="G97">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="3"/>
-        <v>920</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="4"/>
         <v>1.9195860370980866E-2</v>
       </c>
       <c r="J97">
@@ -4667,7 +4667,7 @@
         <v>101.91958603709809</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -4684,14 +4684,14 @@
         <v>48840</v>
       </c>
       <c r="G98">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="3"/>
-        <v>920</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="4"/>
         <v>1.9198664440734557E-2</v>
       </c>
       <c r="J98">
@@ -4699,7 +4699,7 @@
         <v>101.91986644407345</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>180174</v>
       </c>
@@ -4716,14 +4716,14 @@
         <v>48987</v>
       </c>
       <c r="G99">
+        <f t="shared" si="4"/>
+        <v>876</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="3"/>
-        <v>876</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="4"/>
         <v>1.8207894244559455E-2</v>
       </c>
       <c r="J99">
@@ -4731,7 +4731,7 @@
         <v>101.82078942445595</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>180154</v>
       </c>
@@ -4748,14 +4748,14 @@
         <v>47998</v>
       </c>
       <c r="G100">
+        <f t="shared" si="4"/>
+        <v>870</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="4"/>
         <v>1.846036326599898E-2</v>
       </c>
       <c r="J100">
@@ -4763,7 +4763,7 @@
         <v>101.8460363265999</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>180163</v>
       </c>
@@ -4780,14 +4780,14 @@
         <v>48320</v>
       </c>
       <c r="G101">
+        <f t="shared" si="4"/>
+        <v>846</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="3"/>
-        <v>846</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="4"/>
         <v>1.7820280574630323E-2</v>
       </c>
       <c r="J101">
@@ -4795,7 +4795,7 @@
         <v>101.78202805746304</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>180145</v>
       </c>
@@ -4812,14 +4812,14 @@
         <v>57808</v>
       </c>
       <c r="G102">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="4"/>
         <v>1.3164276311231206E-3</v>
       </c>
       <c r="J102">
@@ -4827,7 +4827,7 @@
         <v>100.13164276311231</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>180124</v>
       </c>
@@ -4844,14 +4844,14 @@
         <v>57997</v>
       </c>
       <c r="G103">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="4"/>
         <v>3.0438767921689351E-3</v>
       </c>
       <c r="J103">
@@ -4859,7 +4859,7 @@
         <v>100.30438767921689</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>180226</v>
       </c>
@@ -4876,14 +4876,14 @@
         <v>58046</v>
       </c>
       <c r="G104">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="4"/>
         <v>1.0337698139214335E-4</v>
       </c>
       <c r="J104">
@@ -4891,7 +4891,7 @@
         <v>100.01033769813921</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>180155</v>
       </c>
@@ -4908,14 +4908,14 @@
         <v>58559</v>
       </c>
       <c r="G105">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="4"/>
         <v>7.5194394599675297E-4</v>
       </c>
       <c r="J105">
@@ -4923,7 +4923,7 @@
         <v>100.07519439459968</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>180087</v>
       </c>
@@ -4940,14 +4940,14 @@
         <v>58384</v>
       </c>
       <c r="G106">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="4"/>
         <v>2.8858045898034904E-3</v>
       </c>
       <c r="J106">
@@ -4955,7 +4955,7 @@
         <v>100.28858045898035</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>180133</v>
       </c>
@@ -4972,14 +4972,14 @@
         <v>57773</v>
       </c>
       <c r="G107">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="4"/>
         <v>1.8728864996098154E-3</v>
       </c>
       <c r="J107">
@@ -4987,7 +4987,7 @@
         <v>100.18728864996098</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -5004,14 +5004,14 @@
         <v>57724</v>
       </c>
       <c r="G108">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="4"/>
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="J108">
@@ -5019,7 +5019,7 @@
         <v>100.21527777777777</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>180145</v>
       </c>
@@ -5036,14 +5036,14 @@
         <v>58370</v>
       </c>
       <c r="G109">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="4"/>
         <v>1.8536953760598675E-3</v>
       </c>
       <c r="J109">
@@ -5051,7 +5051,7 @@
         <v>100.18536953760599</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>180163</v>
       </c>
@@ -5068,14 +5068,14 @@
         <v>58067</v>
       </c>
       <c r="G110">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="4"/>
         <v>7.9281639406421811E-4</v>
       </c>
       <c r="J110">
@@ -5083,7 +5083,7 @@
         <v>100.07928163940642</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>180192</v>
       </c>
@@ -5100,14 +5100,14 @@
         <v>58573</v>
       </c>
       <c r="G111">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="3"/>
-        <v>188</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="4"/>
         <v>3.2200051383060716E-3</v>
       </c>
       <c r="J111">
@@ -5115,7 +5115,7 @@
         <v>100.3220005138306</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>185105</v>
       </c>
@@ -5132,14 +5132,14 @@
         <v>58580</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8322149984354899E-2</v>
       </c>
       <c r="J112">
@@ -5147,7 +5147,7 @@
         <v>101.83221499843549</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>180343</v>
       </c>
@@ -5164,14 +5164,14 @@
         <v>58384</v>
       </c>
       <c r="G113">
+        <f t="shared" si="4"/>
+        <v>922</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <f t="shared" si="3"/>
-        <v>922</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="4"/>
         <v>1.604538651630643E-2</v>
       </c>
       <c r="J113">
@@ -5179,7 +5179,7 @@
         <v>101.60453865163065</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>180224</v>
       </c>
@@ -5196,14 +5196,14 @@
         <v>57864</v>
       </c>
       <c r="G114">
+        <f t="shared" si="4"/>
+        <v>1096</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <f t="shared" si="3"/>
-        <v>1096</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="4"/>
         <v>1.9306651634723788E-2</v>
       </c>
       <c r="J114">
@@ -5211,7 +5211,7 @@
         <v>101.93066516347238</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>180256</v>
       </c>
@@ -5228,14 +5228,14 @@
         <v>57766</v>
       </c>
       <c r="G115">
+        <f t="shared" si="4"/>
+        <v>1048</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <f t="shared" si="3"/>
-        <v>1048</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="4"/>
         <v>1.8477379315208577E-2</v>
       </c>
       <c r="J115">
@@ -5243,7 +5243,7 @@
         <v>101.84773793152085</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>180227</v>
       </c>
@@ -5260,14 +5260,14 @@
         <v>58060</v>
       </c>
       <c r="G116">
+        <f t="shared" si="4"/>
+        <v>1092</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <f t="shared" si="3"/>
-        <v>1092</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="4"/>
         <v>1.9168656087628144E-2</v>
       </c>
       <c r="J116">
@@ -5275,7 +5275,7 @@
         <v>101.91686560876282</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>180226</v>
       </c>
@@ -5292,14 +5292,14 @@
         <v>58144</v>
       </c>
       <c r="G117">
+        <f t="shared" si="4"/>
+        <v>1060</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <f t="shared" si="3"/>
-        <v>1060</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="4"/>
         <v>1.8569126199985984E-2</v>
       </c>
       <c r="J117">
@@ -5307,7 +5307,7 @@
         <v>101.8569126199986</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>180262</v>
       </c>
@@ -5324,14 +5324,14 @@
         <v>57647</v>
       </c>
       <c r="G118">
+        <f t="shared" si="4"/>
+        <v>1090</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <f t="shared" si="3"/>
-        <v>1090</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="4"/>
         <v>1.9272592252064288E-2</v>
       </c>
       <c r="J118">
@@ -5339,7 +5339,7 @@
         <v>101.92725922520643</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>180237</v>
       </c>
@@ -5356,14 +5356,14 @@
         <v>58053</v>
       </c>
       <c r="G119">
+        <f t="shared" si="4"/>
+        <v>1030</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <f t="shared" si="3"/>
-        <v>1030</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="4"/>
         <v>1.8062886905283834E-2</v>
       </c>
       <c r="J119">
@@ -5371,7 +5371,7 @@
         <v>101.80628869052839</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>180388</v>
       </c>
@@ -5388,14 +5388,14 @@
         <v>58776</v>
       </c>
       <c r="G120">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="4"/>
         <v>1.7660502804903385E-2</v>
       </c>
       <c r="J120">
@@ -5403,7 +5403,7 @@
         <v>101.76605028049033</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>180323</v>
       </c>
@@ -5420,14 +5420,14 @@
         <v>57183</v>
       </c>
       <c r="G121">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <f t="shared" si="3"/>
-        <v>920</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="4"/>
         <v>1.635177647832501E-2</v>
       </c>
       <c r="J121">
@@ -5435,12 +5435,24 @@
         <v>101.63517764783251</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I122">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <f>SUM(F2:F121)</f>
+        <v>7247355</v>
+      </c>
+      <c r="G124">
+        <f>SUM(G2:G121)</f>
+        <v>-2806</v>
+      </c>
+      <c r="H124">
+        <f>SUM(H2:H121)</f>
+        <v>72</v>
+      </c>
+      <c r="I124">
         <f>SUM(I2:I121)</f>
         <v>0.6230433367617354</v>
       </c>
-      <c r="J122">
+      <c r="J124">
         <f>SUM(J2:J121)/120</f>
         <v>100.51920278063476</v>
       </c>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
     </mc:Choice>
@@ -751,6 +751,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,10 +1561,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1608,15 +1609,15 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>96997</v>
+      <c r="F2" t="n">
+        <v>96997.0</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
-      <c r="H2">
-        <v>9</v>
+      <c r="H2" t="n">
+        <v>9.0</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
@@ -1640,15 +1641,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>97081</v>
+      <c r="F3" t="n">
+        <v>97081.0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-46</v>
       </c>
-      <c r="H3">
-        <v>5</v>
+      <c r="H3" t="n">
+        <v>5.0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -1672,15 +1673,15 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>98394</v>
+      <c r="F4" t="n">
+        <v>98394.0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="H4">
-        <v>3</v>
+      <c r="H4" t="n">
+        <v>2.0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -1704,15 +1705,15 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>97123</v>
+      <c r="F5" t="n">
+        <v>97123.0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="H5" t="n">
+        <v>2.0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -1736,15 +1737,15 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>95791</v>
+      <c r="F6" t="n">
+        <v>95791.0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H6">
-        <v>3</v>
+      <c r="H6" t="n">
+        <v>2.0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -1768,15 +1769,15 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
-        <v>94261</v>
+      <c r="F7" t="n">
+        <v>94261.0</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H7">
-        <v>2</v>
+      <c r="H7" t="n">
+        <v>1.0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -1800,15 +1801,15 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>97972</v>
+      <c r="F8" t="n">
+        <v>97972.0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H8">
-        <v>2</v>
+      <c r="H8" t="n">
+        <v>6.0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -1832,15 +1833,15 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>97937</v>
+      <c r="F9" t="n">
+        <v>97937.0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="n">
+        <v>1.0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -1864,15 +1865,15 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>96591</v>
+      <c r="F10" t="n">
+        <v>96591.0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H10">
-        <v>2</v>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -1896,15 +1897,15 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
-        <v>97881</v>
+      <c r="F11" t="n">
+        <v>97881.0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="H11">
-        <v>2</v>
+      <c r="H11" t="n">
+        <v>1.0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -1928,15 +1929,15 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
-        <v>96696</v>
+      <c r="F12" t="n">
+        <v>96696.0</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>1570</v>
       </c>
-      <c r="H12">
-        <v>2</v>
+      <c r="H12" t="n">
+        <v>1.0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -1960,15 +1961,15 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="F13">
-        <v>96934</v>
+      <c r="F13" t="n">
+        <v>96934.0</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" t="n">
+        <v>1.0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -1992,15 +1993,15 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
-        <v>97011</v>
+      <c r="F14" t="n">
+        <v>97011.0</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="n">
+        <v>1.0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -2024,15 +2025,15 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>97151</v>
+      <c r="F15" t="n">
+        <v>97151.0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H15">
-        <v>2</v>
+      <c r="H15" t="n">
+        <v>1.0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -2056,15 +2057,15 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="F16">
-        <v>96570</v>
+      <c r="F16" t="n">
+        <v>96570.0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="n">
+        <v>1.0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -2088,15 +2089,15 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="F17">
-        <v>97643</v>
+      <c r="F17" t="n">
+        <v>97643.0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>1360</v>
       </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" t="n">
+        <v>2.0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -2120,15 +2121,15 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="F18">
-        <v>96857</v>
+      <c r="F18" t="n">
+        <v>96857.0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="n">
+        <v>1.0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -2152,15 +2153,15 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="F19">
-        <v>96281</v>
+      <c r="F19" t="n">
+        <v>96281.0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>1520</v>
       </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" t="n">
+        <v>1.0</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -2184,15 +2185,15 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="F20">
-        <v>95735</v>
+      <c r="F20" t="n">
+        <v>95735.0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>1508</v>
       </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="n">
+        <v>1.0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -2216,15 +2217,15 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>96997</v>
+      <c r="F21" t="n">
+        <v>96997.0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="H21" t="n">
+        <v>2.0</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -2248,15 +2249,15 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="F22">
-        <v>117356</v>
+      <c r="F22" t="n">
+        <v>117356.0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="n">
+        <v>1.0</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -2280,15 +2281,15 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="F23">
-        <v>116183</v>
+      <c r="F23" t="n">
+        <v>116183.0</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="n">
+        <v>1.0</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -2312,15 +2313,15 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="F24">
-        <v>115397</v>
+      <c r="F24" t="n">
+        <v>115397.0</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="n">
+        <v>0.0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -2344,15 +2345,15 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="F25">
-        <v>116302</v>
+      <c r="F25" t="n">
+        <v>116302.0</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="H25" t="n">
+        <v>1.0</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -2376,15 +2377,15 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="F26">
-        <v>116745</v>
+      <c r="F26" t="n">
+        <v>116745.0</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="H26" t="n">
+        <v>0.0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -2408,15 +2409,15 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="F27">
-        <v>116022</v>
+      <c r="F27" t="n">
+        <v>116022.0</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>-1066</v>
       </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="H27" t="n">
+        <v>0.0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -2440,15 +2441,15 @@
       <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="F28">
-        <v>116358</v>
+      <c r="F28" t="n">
+        <v>116358.0</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="n">
+        <v>1.0</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2472,15 +2473,15 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="F29">
-        <v>116113</v>
+      <c r="F29" t="n">
+        <v>116113.0</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" t="n">
+        <v>1.0</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -2504,15 +2505,15 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="F30">
-        <v>116043</v>
+      <c r="F30" t="n">
+        <v>116043.0</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>-118</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="n">
+        <v>1.0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -2536,15 +2537,15 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="F31">
-        <v>115334</v>
+      <c r="F31" t="n">
+        <v>115334.0</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H31">
-        <v>1</v>
+      <c r="H31" t="n">
+        <v>2.0</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2568,15 +2569,15 @@
       <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="F32">
-        <v>116148</v>
+      <c r="F32" t="n">
+        <v>116148.0</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>-6918</v>
       </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="H32" t="n">
+        <v>0.0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -2600,15 +2601,15 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="F33">
-        <v>115509</v>
+      <c r="F33" t="n">
+        <v>115509.0</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>-7226</v>
       </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="H33" t="n">
+        <v>2.0</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -2632,15 +2633,15 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="F34">
-        <v>116015</v>
+      <c r="F34" t="n">
+        <v>116015.0</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>-2196</v>
       </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="H34" t="n">
+        <v>1.0</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -2664,15 +2665,15 @@
       <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="F35">
-        <v>116892</v>
+      <c r="F35" t="n">
+        <v>116892.0</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>-7660</v>
       </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="H35" t="n">
+        <v>1.0</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -2696,15 +2697,15 @@
       <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="F36">
-        <v>114583</v>
+      <c r="F36" t="n">
+        <v>114583.0</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>-6894</v>
       </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="H36" t="n">
+        <v>0.0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -2728,15 +2729,15 @@
       <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="F37">
-        <v>115861</v>
+      <c r="F37" t="n">
+        <v>115861.0</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>-6622</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="n">
+        <v>1.0</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -2760,15 +2761,15 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="F38">
-        <v>116225</v>
+      <c r="F38" t="n">
+        <v>116225.0</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>-5052</v>
       </c>
-      <c r="H38">
-        <v>2</v>
+      <c r="H38" t="n">
+        <v>1.0</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -2792,15 +2793,15 @@
       <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="F39">
-        <v>116190</v>
+      <c r="F39" t="n">
+        <v>116190.0</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>1298</v>
       </c>
-      <c r="H39">
-        <v>1</v>
+      <c r="H39" t="n">
+        <v>1.0</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -2824,15 +2825,15 @@
       <c r="D40" t="s">
         <v>86</v>
       </c>
-      <c r="F40">
-        <v>117314</v>
+      <c r="F40" t="n">
+        <v>117314.0</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>-8010</v>
       </c>
-      <c r="H40">
-        <v>1</v>
+      <c r="H40" t="n">
+        <v>1.0</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -2856,15 +2857,15 @@
       <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="F41">
-        <v>116344</v>
+      <c r="F41" t="n">
+        <v>116344.0</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>1842</v>
       </c>
-      <c r="H41">
-        <v>1</v>
+      <c r="H41" t="n">
+        <v>1.0</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -2888,15 +2889,15 @@
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="F42">
-        <v>19896</v>
+      <c r="F42" t="n">
+        <v>19896.0</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="n">
+        <v>0.0</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -2920,15 +2921,15 @@
       <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="F43">
-        <v>19854</v>
+      <c r="F43" t="n">
+        <v>19854.0</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="n">
+        <v>0.0</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -2952,15 +2953,15 @@
       <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="F44">
-        <v>19931</v>
+      <c r="F44" t="n">
+        <v>19931.0</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="n">
+        <v>0.0</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -2984,15 +2985,15 @@
       <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="F45">
-        <v>19194</v>
+      <c r="F45" t="n">
+        <v>19194.0</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="n">
+        <v>0.0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -3016,15 +3017,15 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="F46">
-        <v>19495</v>
+      <c r="F46" t="n">
+        <v>19495.0</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="n">
+        <v>0.0</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -3048,15 +3049,15 @@
       <c r="D47" t="s">
         <v>97</v>
       </c>
-      <c r="F47">
-        <v>19945</v>
+      <c r="F47" t="n">
+        <v>19945.0</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="n">
+        <v>0.0</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -3080,15 +3081,15 @@
       <c r="D48" t="s">
         <v>99</v>
       </c>
-      <c r="F48">
-        <v>19215</v>
+      <c r="F48" t="n">
+        <v>19215.0</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="H48" t="n">
+        <v>0.0</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -3112,15 +3113,15 @@
       <c r="D49" t="s">
         <v>100</v>
       </c>
-      <c r="F49">
-        <v>19390</v>
+      <c r="F49" t="n">
+        <v>19390.0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="H49" t="n">
+        <v>0.0</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -3144,15 +3145,15 @@
       <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="F50">
-        <v>19208</v>
+      <c r="F50" t="n">
+        <v>19208.0</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H50">
-        <v>1</v>
+      <c r="H50" t="n">
+        <v>1.0</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -3176,15 +3177,15 @@
       <c r="D51" t="s">
         <v>103</v>
       </c>
-      <c r="F51">
-        <v>19833</v>
+      <c r="F51" t="n">
+        <v>19833.0</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="n">
+        <v>0.0</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -3208,15 +3209,15 @@
       <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="F52">
-        <v>19404</v>
+      <c r="F52" t="n">
+        <v>19404.0</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" t="n">
+        <v>1.0</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -3240,15 +3241,15 @@
       <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="F53">
-        <v>19572</v>
+      <c r="F53" t="n">
+        <v>19572.0</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="n">
+        <v>0.0</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -3272,15 +3273,15 @@
       <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="F54">
-        <v>20071</v>
+      <c r="F54" t="n">
+        <v>20071.0</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="n">
+        <v>1.0</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -3304,15 +3305,15 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="F55">
-        <v>19215</v>
+      <c r="F55" t="n">
+        <v>19215.0</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="n">
+        <v>1.0</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -3336,15 +3337,15 @@
       <c r="D56" t="s">
         <v>111</v>
       </c>
-      <c r="F56">
-        <v>19320</v>
+      <c r="F56" t="n">
+        <v>19320.0</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="H56">
-        <v>0</v>
+      <c r="H56" t="n">
+        <v>0.0</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -3368,15 +3369,15 @@
       <c r="D57" t="s">
         <v>112</v>
       </c>
-      <c r="F57">
-        <v>19474</v>
+      <c r="F57" t="n">
+        <v>19474.0</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H57">
-        <v>0</v>
+      <c r="H57" t="n">
+        <v>0.0</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -3400,15 +3401,15 @@
       <c r="D58" t="s">
         <v>114</v>
       </c>
-      <c r="F58">
-        <v>19586</v>
+      <c r="F58" t="n">
+        <v>19586.0</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="n">
+        <v>0.0</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -3432,15 +3433,15 @@
       <c r="D59" t="s">
         <v>116</v>
       </c>
-      <c r="F59">
-        <v>19397</v>
+      <c r="F59" t="n">
+        <v>19397.0</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="H59">
-        <v>0</v>
+      <c r="H59" t="n">
+        <v>1.0</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -3464,15 +3465,15 @@
       <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="F60">
-        <v>19264</v>
+      <c r="F60" t="n">
+        <v>19264.0</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="H60" t="n">
+        <v>0.0</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -3496,15 +3497,15 @@
       <c r="D61" t="s">
         <v>119</v>
       </c>
-      <c r="F61">
-        <v>19138</v>
+      <c r="F61" t="n">
+        <v>19138.0</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="n">
+        <v>0.0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -3528,15 +3529,15 @@
       <c r="D62" t="s">
         <v>122</v>
       </c>
-      <c r="F62">
-        <v>23257</v>
+      <c r="F62" t="n">
+        <v>23257.0</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="n">
+        <v>0.0</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -3560,15 +3561,15 @@
       <c r="D63" t="s">
         <v>123</v>
       </c>
-      <c r="F63">
-        <v>23390</v>
+      <c r="F63" t="n">
+        <v>23390.0</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="n">
+        <v>0.0</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -3592,15 +3593,15 @@
       <c r="D64" t="s">
         <v>125</v>
       </c>
-      <c r="F64">
-        <v>23299</v>
+      <c r="F64" t="n">
+        <v>23299.0</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="n">
+        <v>0.0</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -3624,15 +3625,15 @@
       <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="F65">
-        <v>23040</v>
+      <c r="F65" t="n">
+        <v>23040.0</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="n">
+        <v>0.0</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -3656,15 +3657,15 @@
       <c r="D66" t="s">
         <v>129</v>
       </c>
-      <c r="F66">
-        <v>23012</v>
+      <c r="F66" t="n">
+        <v>23012.0</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H66">
-        <v>1</v>
+      <c r="H66" t="n">
+        <v>0.0</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -3688,15 +3689,15 @@
       <c r="D67" t="s">
         <v>131</v>
       </c>
-      <c r="F67">
-        <v>23152</v>
+      <c r="F67" t="n">
+        <v>23152.0</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G121" si="4">F67-B67</f>
         <v>118</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="n">
+        <v>0.0</v>
       </c>
       <c r="I67">
         <f t="shared" si="3"/>
@@ -3720,15 +3721,15 @@
       <c r="D68" t="s">
         <v>133</v>
       </c>
-      <c r="F68">
-        <v>22914</v>
+      <c r="F68" t="n">
+        <v>22914.0</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="n">
+        <v>1.0</v>
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
@@ -3752,15 +3753,15 @@
       <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="F69">
-        <v>23418</v>
+      <c r="F69" t="n">
+        <v>23418.0</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="n">
+        <v>1.0</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -3784,15 +3785,15 @@
       <c r="D70" t="s">
         <v>136</v>
       </c>
-      <c r="F70">
-        <v>23054</v>
+      <c r="F70" t="n">
+        <v>23054.0</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="n">
+        <v>0.0</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -3816,15 +3817,15 @@
       <c r="D71" t="s">
         <v>137</v>
       </c>
-      <c r="F71">
-        <v>23117</v>
+      <c r="F71" t="n">
+        <v>23117.0</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="n">
+        <v>0.0</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
@@ -3848,15 +3849,15 @@
       <c r="D72" t="s">
         <v>139</v>
       </c>
-      <c r="F72">
-        <v>23292</v>
+      <c r="F72" t="n">
+        <v>23292.0</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H72">
-        <v>0</v>
+      <c r="H72" t="n">
+        <v>0.0</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
@@ -3880,15 +3881,15 @@
       <c r="D73" t="s">
         <v>141</v>
       </c>
-      <c r="F73">
-        <v>23012</v>
+      <c r="F73" t="n">
+        <v>23012.0</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
         <v>502</v>
       </c>
-      <c r="H73">
-        <v>0</v>
+      <c r="H73" t="n">
+        <v>0.0</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
@@ -3912,15 +3913,15 @@
       <c r="D74" t="s">
         <v>142</v>
       </c>
-      <c r="F74">
-        <v>23397</v>
+      <c r="F74" t="n">
+        <v>23397.0</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H74">
-        <v>0</v>
+      <c r="H74" t="n">
+        <v>0.0</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
@@ -3944,15 +3945,15 @@
       <c r="D75" t="s">
         <v>144</v>
       </c>
-      <c r="F75">
-        <v>22639</v>
+      <c r="F75" t="n">
+        <v>22639.0</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="H75">
-        <v>0</v>
+      <c r="H75" t="n">
+        <v>0.0</v>
       </c>
       <c r="I75">
         <f t="shared" si="3"/>
@@ -3976,15 +3977,15 @@
       <c r="D76" t="s">
         <v>147</v>
       </c>
-      <c r="F76">
-        <v>23770</v>
+      <c r="F76" t="n">
+        <v>23770.0</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
         <v>522</v>
       </c>
-      <c r="H76">
-        <v>0</v>
+      <c r="H76" t="n">
+        <v>0.0</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
@@ -4008,15 +4009,15 @@
       <c r="D77" t="s">
         <v>149</v>
       </c>
-      <c r="F77">
-        <v>23215</v>
+      <c r="F77" t="n">
+        <v>23215.0</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
         <v>470</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="n">
+        <v>0.0</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
@@ -4040,15 +4041,15 @@
       <c r="D78" t="s">
         <v>150</v>
       </c>
-      <c r="F78">
-        <v>23425</v>
+      <c r="F78" t="n">
+        <v>23425.0</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="n">
+        <v>1.0</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -4072,15 +4073,15 @@
       <c r="D79" t="s">
         <v>152</v>
       </c>
-      <c r="F79">
-        <v>22970</v>
+      <c r="F79" t="n">
+        <v>22970.0</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="H79" t="n">
+        <v>0.0</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
@@ -4104,15 +4105,15 @@
       <c r="D80" t="s">
         <v>154</v>
       </c>
-      <c r="F80">
-        <v>23509</v>
+      <c r="F80" t="n">
+        <v>23509.0</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="H80" t="n">
+        <v>0.0</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
@@ -4136,15 +4137,15 @@
       <c r="D81" t="s">
         <v>155</v>
       </c>
-      <c r="F81">
-        <v>22991</v>
+      <c r="F81" t="n">
+        <v>22991.0</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
         <v>488</v>
       </c>
-      <c r="H81">
-        <v>1</v>
+      <c r="H81" t="n">
+        <v>0.0</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
@@ -4168,15 +4169,15 @@
       <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="F82">
-        <v>49556</v>
+      <c r="F82" t="n">
+        <v>49556.0</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="n">
+        <v>0.0</v>
       </c>
       <c r="I82">
         <f t="shared" si="3"/>
@@ -4200,15 +4201,15 @@
       <c r="D83" t="s">
         <v>159</v>
       </c>
-      <c r="F83">
-        <v>48411</v>
+      <c r="F83" t="n">
+        <v>48411.0</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="n">
+        <v>0.0</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
@@ -4232,15 +4233,15 @@
       <c r="D84" t="s">
         <v>161</v>
       </c>
-      <c r="F84">
-        <v>49092</v>
+      <c r="F84" t="n">
+        <v>49092.0</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H84">
-        <v>0</v>
+      <c r="H84" t="n">
+        <v>1.0</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -4264,15 +4265,15 @@
       <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="F85">
-        <v>48201</v>
+      <c r="F85" t="n">
+        <v>48201.0</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H85">
-        <v>1</v>
+      <c r="H85" t="n">
+        <v>0.0</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -4296,15 +4297,15 @@
       <c r="D86" t="s">
         <v>165</v>
       </c>
-      <c r="F86">
-        <v>48264</v>
+      <c r="F86" t="n">
+        <v>48264.0</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H86">
-        <v>1</v>
+      <c r="H86" t="n">
+        <v>1.0</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -4328,15 +4329,15 @@
       <c r="D87" t="s">
         <v>167</v>
       </c>
-      <c r="F87">
-        <v>48805</v>
+      <c r="F87" t="n">
+        <v>48805.0</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H87">
-        <v>0</v>
+      <c r="H87" t="n">
+        <v>3.0</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -4360,15 +4361,15 @@
       <c r="D88" t="s">
         <v>168</v>
       </c>
-      <c r="F88">
-        <v>48784</v>
+      <c r="F88" t="n">
+        <v>48784.0</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="n">
+        <v>1.0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -4392,15 +4393,15 @@
       <c r="D89" t="s">
         <v>170</v>
       </c>
-      <c r="F89">
-        <v>47998</v>
+      <c r="F89" t="n">
+        <v>47998.0</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="H89">
-        <v>0</v>
+      <c r="H89" t="n">
+        <v>1.0</v>
       </c>
       <c r="I89">
         <f t="shared" si="3"/>
@@ -4424,15 +4425,15 @@
       <c r="D90" t="s">
         <v>172</v>
       </c>
-      <c r="F90">
-        <v>48278</v>
+      <c r="F90" t="n">
+        <v>48278.0</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H90">
-        <v>0</v>
+      <c r="H90" t="n">
+        <v>0.0</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -4456,15 +4457,15 @@
       <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="F91">
-        <v>47758</v>
+      <c r="F91" t="n">
+        <v>47758.0</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H91">
-        <v>0</v>
+      <c r="H91" t="n">
+        <v>0.0</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
@@ -4488,15 +4489,15 @@
       <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="F92">
-        <v>47156</v>
+      <c r="F92" t="n">
+        <v>47156.0</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
         <v>882</v>
       </c>
-      <c r="H92">
-        <v>0</v>
+      <c r="H92" t="n">
+        <v>0.0</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
@@ -4520,15 +4521,15 @@
       <c r="D93" t="s">
         <v>178</v>
       </c>
-      <c r="F93">
-        <v>48369</v>
+      <c r="F93" t="n">
+        <v>48369.0</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="H93">
-        <v>0</v>
+      <c r="H93" t="n">
+        <v>0.0</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
@@ -4552,15 +4553,15 @@
       <c r="D94" t="s">
         <v>180</v>
       </c>
-      <c r="F94">
-        <v>48040</v>
+      <c r="F94" t="n">
+        <v>48040.0</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
         <v>860</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="n">
+        <v>0.0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -4584,15 +4585,15 @@
       <c r="D95" t="s">
         <v>182</v>
       </c>
-      <c r="F95">
-        <v>49556</v>
+      <c r="F95" t="n">
+        <v>49556.0</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H95">
-        <v>0</v>
+      <c r="H95" t="n">
+        <v>0.0</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
@@ -4616,15 +4617,15 @@
       <c r="D96" t="s">
         <v>184</v>
       </c>
-      <c r="F96">
-        <v>49225</v>
+      <c r="F96" t="n">
+        <v>49225.0</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
         <v>850</v>
       </c>
-      <c r="H96">
-        <v>0</v>
+      <c r="H96" t="n">
+        <v>0.0</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -4648,15 +4649,15 @@
       <c r="D97" t="s">
         <v>186</v>
       </c>
-      <c r="F97">
-        <v>48847</v>
+      <c r="F97" t="n">
+        <v>48847.0</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H97">
-        <v>0</v>
+      <c r="H97" t="n">
+        <v>1.0</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -4680,15 +4681,15 @@
       <c r="D98" t="s">
         <v>189</v>
       </c>
-      <c r="F98">
-        <v>48840</v>
+      <c r="F98" t="n">
+        <v>48840.0</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H98">
-        <v>0</v>
+      <c r="H98" t="n">
+        <v>0.0</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -4712,15 +4713,15 @@
       <c r="D99" t="s">
         <v>191</v>
       </c>
-      <c r="F99">
-        <v>48987</v>
+      <c r="F99" t="n">
+        <v>48987.0</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
         <v>876</v>
       </c>
-      <c r="H99">
-        <v>0</v>
+      <c r="H99" t="n">
+        <v>0.0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -4744,15 +4745,15 @@
       <c r="D100" t="s">
         <v>193</v>
       </c>
-      <c r="F100">
-        <v>47998</v>
+      <c r="F100" t="n">
+        <v>47998.0</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="H100">
-        <v>1</v>
+      <c r="H100" t="n">
+        <v>1.0</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
@@ -4776,15 +4777,15 @@
       <c r="D101" t="s">
         <v>195</v>
       </c>
-      <c r="F101">
-        <v>48320</v>
+      <c r="F101" t="n">
+        <v>48320.0</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
         <v>846</v>
       </c>
-      <c r="H101">
-        <v>0</v>
+      <c r="H101" t="n">
+        <v>0.0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -4808,15 +4809,15 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="F102">
-        <v>57808</v>
+      <c r="F102" t="n">
+        <v>57808.0</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="n">
+        <v>0.0</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -4840,15 +4841,15 @@
       <c r="D103" t="s">
         <v>199</v>
       </c>
-      <c r="F103">
-        <v>57997</v>
+      <c r="F103" t="n">
+        <v>57997.0</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="H103">
-        <v>1</v>
+      <c r="H103" t="n">
+        <v>0.0</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -4872,15 +4873,15 @@
       <c r="D104" t="s">
         <v>201</v>
       </c>
-      <c r="F104">
-        <v>58046</v>
+      <c r="F104" t="n">
+        <v>58046.0</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H104">
-        <v>0</v>
+      <c r="H104" t="n">
+        <v>1.0</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -4904,15 +4905,15 @@
       <c r="D105" t="s">
         <v>203</v>
       </c>
-      <c r="F105">
-        <v>58559</v>
+      <c r="F105" t="n">
+        <v>58559.0</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="H105">
-        <v>0</v>
+      <c r="H105" t="n">
+        <v>0.0</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -4936,15 +4937,15 @@
       <c r="D106" t="s">
         <v>205</v>
       </c>
-      <c r="F106">
-        <v>58384</v>
+      <c r="F106" t="n">
+        <v>58384.0</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="H106">
-        <v>0</v>
+      <c r="H106" t="n">
+        <v>0.0</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -4968,15 +4969,15 @@
       <c r="D107" t="s">
         <v>207</v>
       </c>
-      <c r="F107">
-        <v>57773</v>
+      <c r="F107" t="n">
+        <v>57773.0</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H107">
-        <v>0</v>
+      <c r="H107" t="n">
+        <v>1.0</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -5000,15 +5001,15 @@
       <c r="D108" t="s">
         <v>210</v>
       </c>
-      <c r="F108">
-        <v>57724</v>
+      <c r="F108" t="n">
+        <v>57724.0</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H108">
-        <v>0</v>
+      <c r="H108" t="n">
+        <v>0.0</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -5032,15 +5033,15 @@
       <c r="D109" t="s">
         <v>212</v>
       </c>
-      <c r="F109">
-        <v>58370</v>
+      <c r="F109" t="n">
+        <v>58370.0</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H109">
-        <v>0</v>
+      <c r="H109" t="n">
+        <v>0.0</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -5064,15 +5065,15 @@
       <c r="D110" t="s">
         <v>214</v>
       </c>
-      <c r="F110">
-        <v>58067</v>
+      <c r="F110" t="n">
+        <v>58067.0</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="H110">
-        <v>0</v>
+      <c r="H110" t="n">
+        <v>0.0</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -5096,15 +5097,15 @@
       <c r="D111" t="s">
         <v>216</v>
       </c>
-      <c r="F111">
-        <v>58573</v>
+      <c r="F111" t="n">
+        <v>58573.0</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="H111">
-        <v>0</v>
+      <c r="H111" t="n">
+        <v>0.0</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -5128,15 +5129,15 @@
       <c r="D112" t="s">
         <v>218</v>
       </c>
-      <c r="F112">
-        <v>58580</v>
+      <c r="F112" t="n">
+        <v>58580.0</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
         <v>1054</v>
       </c>
-      <c r="H112">
-        <v>1</v>
+      <c r="H112" t="n">
+        <v>1.0</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -5160,15 +5161,15 @@
       <c r="D113" t="s">
         <v>220</v>
       </c>
-      <c r="F113">
-        <v>58384</v>
+      <c r="F113" t="n">
+        <v>58384.0</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
         <v>922</v>
       </c>
-      <c r="H113">
-        <v>0</v>
+      <c r="H113" t="n">
+        <v>0.0</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
@@ -5192,15 +5193,15 @@
       <c r="D114" t="s">
         <v>222</v>
       </c>
-      <c r="F114">
-        <v>57864</v>
+      <c r="F114" t="n">
+        <v>57864.0</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
         <v>1096</v>
       </c>
-      <c r="H114">
-        <v>0</v>
+      <c r="H114" t="n">
+        <v>0.0</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -5224,15 +5225,15 @@
       <c r="D115" t="s">
         <v>224</v>
       </c>
-      <c r="F115">
-        <v>57766</v>
+      <c r="F115" t="n">
+        <v>57766.0</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
         <v>1048</v>
       </c>
-      <c r="H115">
-        <v>0</v>
+      <c r="H115" t="n">
+        <v>0.0</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -5256,15 +5257,15 @@
       <c r="D116" t="s">
         <v>226</v>
       </c>
-      <c r="F116">
-        <v>58060</v>
+      <c r="F116" t="n">
+        <v>58060.0</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
         <v>1092</v>
       </c>
-      <c r="H116">
-        <v>1</v>
+      <c r="H116" t="n">
+        <v>0.0</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -5288,15 +5289,15 @@
       <c r="D117" t="s">
         <v>228</v>
       </c>
-      <c r="F117">
-        <v>58144</v>
+      <c r="F117" t="n">
+        <v>58144.0</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
         <v>1060</v>
       </c>
-      <c r="H117">
-        <v>1</v>
+      <c r="H117" t="n">
+        <v>0.0</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
@@ -5320,15 +5321,15 @@
       <c r="D118" t="s">
         <v>230</v>
       </c>
-      <c r="F118">
-        <v>57647</v>
+      <c r="F118" t="n">
+        <v>57647.0</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
         <v>1090</v>
       </c>
-      <c r="H118">
-        <v>0</v>
+      <c r="H118" t="n">
+        <v>0.0</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
@@ -5352,15 +5353,15 @@
       <c r="D119" t="s">
         <v>232</v>
       </c>
-      <c r="F119">
-        <v>58053</v>
+      <c r="F119" t="n">
+        <v>58053.0</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>1030</v>
       </c>
-      <c r="H119">
-        <v>0</v>
+      <c r="H119" t="n">
+        <v>1.0</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -5384,15 +5385,15 @@
       <c r="D120" t="s">
         <v>234</v>
       </c>
-      <c r="F120">
-        <v>58776</v>
+      <c r="F120" t="n">
+        <v>58776.0</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
         <v>1020</v>
       </c>
-      <c r="H120">
-        <v>1</v>
+      <c r="H120" t="n">
+        <v>0.0</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -5416,15 +5417,15 @@
       <c r="D121" t="s">
         <v>236</v>
       </c>
-      <c r="F121">
-        <v>57183</v>
+      <c r="F121" t="n">
+        <v>57183.0</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H121">
-        <v>0</v>
+      <c r="H121" t="n">
+        <v>0.0</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -3,23 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
+    <sheet name="1000" sheetId="2" r:id="rId2"/>
+    <sheet name="500" sheetId="4" r:id="rId3"/>
+    <sheet name="200" sheetId="3" r:id="rId4"/>
+    <sheet name="5000" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'results-assignment'!$D$1:$D$124</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="242">
   <si>
     <t>TIME</t>
   </si>
@@ -751,7 +758,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1229,9 +1235,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1288,6 +1297,3550 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Graphic: Variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> OF and My Cost (1000 orders)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1000'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>96971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95631</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94970</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95617</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115303</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116679</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117088</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116432</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116083</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>115244</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123066</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>122735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>124552</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122483</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121277</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>114892</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>125324</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>114502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'1000'!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>96997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97881</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96934</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96570</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96857</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>116022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116358</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116113</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>115334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>115509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>116892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114583</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115861</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116225</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>116190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117314</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>116344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="243055968"/>
+        <c:axId val="243047736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="243055968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243047736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243047736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243055968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graphic: Variation OF and My Cost (500 orders)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'500'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>49410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47920</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57732</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58515</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57665</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58262</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58385</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57526</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57462</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56718</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56968</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57756</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'500'!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>49556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48784</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48040</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48847</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48840</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48320</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57808</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58559</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58384</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57724</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58370</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58067</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58573</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58580</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58384</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57864</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57766</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58060</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57647</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58053</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58776</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="244312432"/>
+        <c:axId val="244313216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="244312432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244313216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244313216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244312432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graphic: Variation OF and My Cost (200 orders)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>19874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18920</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23322</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22952</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22842</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22510</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22947</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22745</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22975</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22470</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23059</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'200'!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>19896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23257</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23390</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23040</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23117</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23292</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22639</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23770</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23215</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23425</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22970</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="537430480"/>
+        <c:axId val="543907352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="537430480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543907352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543907352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537430480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1555,16 +5108,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1580,19 +5133,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1609,15 +5162,15 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>96997.0</v>
+      <c r="F2">
+        <v>96997</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
-      <c r="H2" t="n">
-        <v>9.0</v>
+      <c r="H2">
+        <v>9</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
@@ -1641,15 +5194,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>97081.0</v>
+      <c r="F3">
+        <v>97081</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-46</v>
       </c>
-      <c r="H3" t="n">
-        <v>5.0</v>
+      <c r="H3">
+        <v>5</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -1673,15 +5226,15 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
-        <v>98394.0</v>
+      <c r="F4">
+        <v>98394</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -1705,15 +5258,15 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
-        <v>97123.0</v>
+      <c r="F5">
+        <v>97123</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
+      <c r="H5">
+        <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -1737,15 +5290,15 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
-        <v>95791.0</v>
+      <c r="F6">
+        <v>95791</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.0</v>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -1769,15 +5322,15 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
-        <v>94261.0</v>
+      <c r="F7">
+        <v>94261</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.0</v>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -1801,15 +5354,15 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="n">
-        <v>97972.0</v>
+      <c r="F8">
+        <v>97972</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.0</v>
+      <c r="H8">
+        <v>6</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -1833,15 +5386,15 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="n">
-        <v>97937.0</v>
+      <c r="F9">
+        <v>97937</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.0</v>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -1865,15 +5418,15 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="n">
-        <v>96591.0</v>
+      <c r="F10">
+        <v>96591</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -1897,15 +5450,15 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
-        <v>97881.0</v>
+      <c r="F11">
+        <v>97881</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.0</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -1929,15 +5482,15 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="n">
-        <v>96696.0</v>
+      <c r="F12">
+        <v>96696</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>1570</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.0</v>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -1961,15 +5514,15 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="n">
-        <v>96934.0</v>
+      <c r="F13">
+        <v>96934</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.0</v>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -1993,15 +5546,15 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
-        <v>97011.0</v>
+      <c r="F14">
+        <v>97011</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.0</v>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -2025,15 +5578,15 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="n">
-        <v>97151.0</v>
+      <c r="F15">
+        <v>97151</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.0</v>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -2057,15 +5610,15 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="n">
-        <v>96570.0</v>
+      <c r="F16">
+        <v>96570</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.0</v>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -2089,15 +5642,15 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="n">
-        <v>97643.0</v>
+      <c r="F17">
+        <v>97643</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>1360</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.0</v>
+      <c r="H17">
+        <v>2</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -2121,15 +5674,15 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="n">
-        <v>96857.0</v>
+      <c r="F18">
+        <v>96857</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-      <c r="H18" t="n">
-        <v>1.0</v>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -2153,15 +5706,15 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="n">
-        <v>96281.0</v>
+      <c r="F19">
+        <v>96281</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>1520</v>
       </c>
-      <c r="H19" t="n">
-        <v>1.0</v>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -2185,15 +5738,15 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="n">
-        <v>95735.0</v>
+      <c r="F20">
+        <v>95735</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>1508</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.0</v>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -2217,15 +5770,15 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="n">
-        <v>96997.0</v>
+      <c r="F21">
+        <v>96997</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.0</v>
+      <c r="H21">
+        <v>2</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -2249,15 +5802,15 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="n">
-        <v>117356.0</v>
+      <c r="F22">
+        <v>117356</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.0</v>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -2281,15 +5834,15 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="n">
-        <v>116183.0</v>
+      <c r="F23">
+        <v>116183</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-      <c r="H23" t="n">
-        <v>1.0</v>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -2313,15 +5866,15 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="F24" t="n">
-        <v>115397.0</v>
+      <c r="F24">
+        <v>115397</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.0</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -2345,15 +5898,15 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="F25" t="n">
-        <v>116302.0</v>
+      <c r="F25">
+        <v>116302</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H25" t="n">
-        <v>1.0</v>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -2377,15 +5930,15 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="F26" t="n">
-        <v>116745.0</v>
+      <c r="F26">
+        <v>116745</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.0</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -2409,15 +5962,15 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="n">
-        <v>116022.0</v>
+      <c r="F27">
+        <v>116022</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>-1066</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -2441,15 +5994,15 @@
       <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="F28" t="n">
-        <v>116358.0</v>
+      <c r="F28">
+        <v>116358</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.0</v>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2473,15 +6026,15 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="F29" t="n">
-        <v>116113.0</v>
+      <c r="F29">
+        <v>116113</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.0</v>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -2505,15 +6058,15 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="F30" t="n">
-        <v>116043.0</v>
+      <c r="F30">
+        <v>116043</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>-118</v>
       </c>
-      <c r="H30" t="n">
-        <v>1.0</v>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -2537,15 +6090,15 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="n">
-        <v>115334.0</v>
+      <c r="F31">
+        <v>115334</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.0</v>
+      <c r="H31">
+        <v>2</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2569,15 +6122,15 @@
       <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="n">
-        <v>116148.0</v>
+      <c r="F32">
+        <v>116148</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>-6918</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -2601,15 +6154,15 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="F33" t="n">
-        <v>115509.0</v>
+      <c r="F33">
+        <v>115509</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>-7226</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.0</v>
+      <c r="H33">
+        <v>2</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -2633,15 +6186,15 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" t="n">
-        <v>116015.0</v>
+      <c r="F34">
+        <v>116015</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>-2196</v>
       </c>
-      <c r="H34" t="n">
-        <v>1.0</v>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -2665,15 +6218,15 @@
       <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" t="n">
-        <v>116892.0</v>
+      <c r="F35">
+        <v>116892</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>-7660</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.0</v>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -2697,15 +6250,15 @@
       <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="n">
-        <v>114583.0</v>
+      <c r="F36">
+        <v>114583</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>-6894</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -2729,15 +6282,15 @@
       <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="F37" t="n">
-        <v>115861.0</v>
+      <c r="F37">
+        <v>115861</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>-6622</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.0</v>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -2761,15 +6314,15 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="F38" t="n">
-        <v>116225.0</v>
+      <c r="F38">
+        <v>116225</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>-5052</v>
       </c>
-      <c r="H38" t="n">
-        <v>1.0</v>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -2793,15 +6346,15 @@
       <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="F39" t="n">
-        <v>116190.0</v>
+      <c r="F39">
+        <v>116190</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>1298</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.0</v>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -2825,15 +6378,15 @@
       <c r="D40" t="s">
         <v>86</v>
       </c>
-      <c r="F40" t="n">
-        <v>117314.0</v>
+      <c r="F40">
+        <v>117314</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>-8010</v>
       </c>
-      <c r="H40" t="n">
-        <v>1.0</v>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -2857,15 +6410,15 @@
       <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="F41" t="n">
-        <v>116344.0</v>
+      <c r="F41">
+        <v>116344</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>1842</v>
       </c>
-      <c r="H41" t="n">
-        <v>1.0</v>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -2889,15 +6442,15 @@
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="F42" t="n">
-        <v>19896.0</v>
+      <c r="F42">
+        <v>19896</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -2921,15 +6474,15 @@
       <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="n">
-        <v>19854.0</v>
+      <c r="F43">
+        <v>19854</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -2953,15 +6506,15 @@
       <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="F44" t="n">
-        <v>19931.0</v>
+      <c r="F44">
+        <v>19931</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -2985,15 +6538,15 @@
       <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="F45" t="n">
-        <v>19194.0</v>
+      <c r="F45">
+        <v>19194</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -3017,15 +6570,15 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="F46" t="n">
-        <v>19495.0</v>
+      <c r="F46">
+        <v>19495</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -3049,15 +6602,15 @@
       <c r="D47" t="s">
         <v>97</v>
       </c>
-      <c r="F47" t="n">
-        <v>19945.0</v>
+      <c r="F47">
+        <v>19945</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -3081,15 +6634,15 @@
       <c r="D48" t="s">
         <v>99</v>
       </c>
-      <c r="F48" t="n">
-        <v>19215.0</v>
+      <c r="F48">
+        <v>19215</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -3113,15 +6666,15 @@
       <c r="D49" t="s">
         <v>100</v>
       </c>
-      <c r="F49" t="n">
-        <v>19390.0</v>
+      <c r="F49">
+        <v>19390</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -3145,15 +6698,15 @@
       <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="F50" t="n">
-        <v>19208.0</v>
+      <c r="F50">
+        <v>19208</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H50" t="n">
-        <v>1.0</v>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -3177,15 +6730,15 @@
       <c r="D51" t="s">
         <v>103</v>
       </c>
-      <c r="F51" t="n">
-        <v>19833.0</v>
+      <c r="F51">
+        <v>19833</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -3209,15 +6762,15 @@
       <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="F52" t="n">
-        <v>19404.0</v>
+      <c r="F52">
+        <v>19404</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H52" t="n">
-        <v>1.0</v>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -3241,15 +6794,15 @@
       <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="F53" t="n">
-        <v>19572.0</v>
+      <c r="F53">
+        <v>19572</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.0</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -3273,15 +6826,15 @@
       <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="F54" t="n">
-        <v>20071.0</v>
+      <c r="F54">
+        <v>20071</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H54" t="n">
-        <v>1.0</v>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -3305,15 +6858,15 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="F55" t="n">
-        <v>19215.0</v>
+      <c r="F55">
+        <v>19215</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H55" t="n">
-        <v>1.0</v>
+      <c r="H55">
+        <v>1</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -3337,15 +6890,15 @@
       <c r="D56" t="s">
         <v>111</v>
       </c>
-      <c r="F56" t="n">
-        <v>19320.0</v>
+      <c r="F56">
+        <v>19320</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.0</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -3369,15 +6922,15 @@
       <c r="D57" t="s">
         <v>112</v>
       </c>
-      <c r="F57" t="n">
-        <v>19474.0</v>
+      <c r="F57">
+        <v>19474</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.0</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -3401,15 +6954,15 @@
       <c r="D58" t="s">
         <v>114</v>
       </c>
-      <c r="F58" t="n">
-        <v>19586.0</v>
+      <c r="F58">
+        <v>19586</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.0</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -3433,15 +6986,15 @@
       <c r="D59" t="s">
         <v>116</v>
       </c>
-      <c r="F59" t="n">
-        <v>19397.0</v>
+      <c r="F59">
+        <v>19397</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="H59" t="n">
-        <v>1.0</v>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -3465,15 +7018,15 @@
       <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="F60" t="n">
-        <v>19264.0</v>
+      <c r="F60">
+        <v>19264</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.0</v>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -3497,15 +7050,15 @@
       <c r="D61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="n">
-        <v>19138.0</v>
+      <c r="F61">
+        <v>19138</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.0</v>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -3529,15 +7082,15 @@
       <c r="D62" t="s">
         <v>122</v>
       </c>
-      <c r="F62" t="n">
-        <v>23257.0</v>
+      <c r="F62">
+        <v>23257</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H62" t="n">
-        <v>0.0</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -3561,15 +7114,15 @@
       <c r="D63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="n">
-        <v>23390.0</v>
+      <c r="F63">
+        <v>23390</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.0</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -3593,15 +7146,15 @@
       <c r="D64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="n">
-        <v>23299.0</v>
+      <c r="F64">
+        <v>23299</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="H64" t="n">
-        <v>0.0</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -3625,15 +7178,15 @@
       <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="F65" t="n">
-        <v>23040.0</v>
+      <c r="F65">
+        <v>23040</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H65" t="n">
-        <v>0.0</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -3657,15 +7210,15 @@
       <c r="D66" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="n">
-        <v>23012.0</v>
+      <c r="F66">
+        <v>23012</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H66" t="n">
-        <v>0.0</v>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -3689,15 +7242,15 @@
       <c r="D67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="n">
-        <v>23152.0</v>
+      <c r="F67">
+        <v>23152</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G121" si="4">F67-B67</f>
         <v>118</v>
       </c>
-      <c r="H67" t="n">
-        <v>0.0</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
         <f t="shared" si="3"/>
@@ -3721,15 +7274,15 @@
       <c r="D68" t="s">
         <v>133</v>
       </c>
-      <c r="F68" t="n">
-        <v>22914.0</v>
+      <c r="F68">
+        <v>22914</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H68" t="n">
-        <v>1.0</v>
+      <c r="H68">
+        <v>1</v>
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
@@ -3753,15 +7306,15 @@
       <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="F69" t="n">
-        <v>23418.0</v>
+      <c r="F69">
+        <v>23418</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H69" t="n">
-        <v>1.0</v>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -3785,15 +7338,15 @@
       <c r="D70" t="s">
         <v>136</v>
       </c>
-      <c r="F70" t="n">
-        <v>23054.0</v>
+      <c r="F70">
+        <v>23054</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H70" t="n">
-        <v>0.0</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -3817,15 +7370,15 @@
       <c r="D71" t="s">
         <v>137</v>
       </c>
-      <c r="F71" t="n">
-        <v>23117.0</v>
+      <c r="F71">
+        <v>23117</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H71" t="n">
-        <v>0.0</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
@@ -3849,15 +7402,15 @@
       <c r="D72" t="s">
         <v>139</v>
       </c>
-      <c r="F72" t="n">
-        <v>23292.0</v>
+      <c r="F72">
+        <v>23292</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H72" t="n">
-        <v>0.0</v>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
@@ -3881,15 +7434,15 @@
       <c r="D73" t="s">
         <v>141</v>
       </c>
-      <c r="F73" t="n">
-        <v>23012.0</v>
+      <c r="F73">
+        <v>23012</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
         <v>502</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.0</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
@@ -3913,15 +7466,15 @@
       <c r="D74" t="s">
         <v>142</v>
       </c>
-      <c r="F74" t="n">
-        <v>23397.0</v>
+      <c r="F74">
+        <v>23397</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.0</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
@@ -3945,15 +7498,15 @@
       <c r="D75" t="s">
         <v>144</v>
       </c>
-      <c r="F75" t="n">
-        <v>22639.0</v>
+      <c r="F75">
+        <v>22639</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="H75" t="n">
-        <v>0.0</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" si="3"/>
@@ -3977,15 +7530,15 @@
       <c r="D76" t="s">
         <v>147</v>
       </c>
-      <c r="F76" t="n">
-        <v>23770.0</v>
+      <c r="F76">
+        <v>23770</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
         <v>522</v>
       </c>
-      <c r="H76" t="n">
-        <v>0.0</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
@@ -4009,15 +7562,15 @@
       <c r="D77" t="s">
         <v>149</v>
       </c>
-      <c r="F77" t="n">
-        <v>23215.0</v>
+      <c r="F77">
+        <v>23215</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
         <v>470</v>
       </c>
-      <c r="H77" t="n">
-        <v>0.0</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
@@ -4041,15 +7594,15 @@
       <c r="D78" t="s">
         <v>150</v>
       </c>
-      <c r="F78" t="n">
-        <v>23425.0</v>
+      <c r="F78">
+        <v>23425</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H78" t="n">
-        <v>1.0</v>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -4073,15 +7626,15 @@
       <c r="D79" t="s">
         <v>152</v>
       </c>
-      <c r="F79" t="n">
-        <v>22970.0</v>
+      <c r="F79">
+        <v>22970</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.0</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
@@ -4105,15 +7658,15 @@
       <c r="D80" t="s">
         <v>154</v>
       </c>
-      <c r="F80" t="n">
-        <v>23509.0</v>
+      <c r="F80">
+        <v>23509</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="H80" t="n">
-        <v>0.0</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
@@ -4137,15 +7690,15 @@
       <c r="D81" t="s">
         <v>155</v>
       </c>
-      <c r="F81" t="n">
-        <v>22991.0</v>
+      <c r="F81">
+        <v>22991</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
         <v>488</v>
       </c>
-      <c r="H81" t="n">
-        <v>0.0</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
@@ -4169,15 +7722,15 @@
       <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="F82" t="n">
-        <v>49556.0</v>
+      <c r="F82">
+        <v>49556</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="H82" t="n">
-        <v>0.0</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
         <f t="shared" si="3"/>
@@ -4201,15 +7754,15 @@
       <c r="D83" t="s">
         <v>159</v>
       </c>
-      <c r="F83" t="n">
-        <v>48411.0</v>
+      <c r="F83">
+        <v>48411</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H83" t="n">
-        <v>0.0</v>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
@@ -4233,15 +7786,15 @@
       <c r="D84" t="s">
         <v>161</v>
       </c>
-      <c r="F84" t="n">
-        <v>49092.0</v>
+      <c r="F84">
+        <v>49092</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H84" t="n">
-        <v>1.0</v>
+      <c r="H84">
+        <v>1</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -4265,15 +7818,15 @@
       <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="F85" t="n">
-        <v>48201.0</v>
+      <c r="F85">
+        <v>48201</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H85" t="n">
-        <v>0.0</v>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -4297,15 +7850,15 @@
       <c r="D86" t="s">
         <v>165</v>
       </c>
-      <c r="F86" t="n">
-        <v>48264.0</v>
+      <c r="F86">
+        <v>48264</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H86" t="n">
-        <v>1.0</v>
+      <c r="H86">
+        <v>1</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -4329,15 +7882,15 @@
       <c r="D87" t="s">
         <v>167</v>
       </c>
-      <c r="F87" t="n">
-        <v>48805.0</v>
+      <c r="F87">
+        <v>48805</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H87" t="n">
-        <v>3.0</v>
+      <c r="H87">
+        <v>3</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -4361,15 +7914,15 @@
       <c r="D88" t="s">
         <v>168</v>
       </c>
-      <c r="F88" t="n">
-        <v>48784.0</v>
+      <c r="F88">
+        <v>48784</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="H88" t="n">
-        <v>1.0</v>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -4393,15 +7946,15 @@
       <c r="D89" t="s">
         <v>170</v>
       </c>
-      <c r="F89" t="n">
-        <v>47998.0</v>
+      <c r="F89">
+        <v>47998</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="H89" t="n">
-        <v>1.0</v>
+      <c r="H89">
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" si="3"/>
@@ -4425,15 +7978,15 @@
       <c r="D90" t="s">
         <v>172</v>
       </c>
-      <c r="F90" t="n">
-        <v>48278.0</v>
+      <c r="F90">
+        <v>48278</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H90" t="n">
-        <v>0.0</v>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -4457,15 +8010,15 @@
       <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="F91" t="n">
-        <v>47758.0</v>
+      <c r="F91">
+        <v>47758</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H91" t="n">
-        <v>0.0</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
@@ -4489,15 +8042,15 @@
       <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="F92" t="n">
-        <v>47156.0</v>
+      <c r="F92">
+        <v>47156</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
         <v>882</v>
       </c>
-      <c r="H92" t="n">
-        <v>0.0</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
@@ -4521,15 +8074,15 @@
       <c r="D93" t="s">
         <v>178</v>
       </c>
-      <c r="F93" t="n">
-        <v>48369.0</v>
+      <c r="F93">
+        <v>48369</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="H93" t="n">
-        <v>0.0</v>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
@@ -4553,15 +8106,15 @@
       <c r="D94" t="s">
         <v>180</v>
       </c>
-      <c r="F94" t="n">
-        <v>48040.0</v>
+      <c r="F94">
+        <v>48040</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
         <v>860</v>
       </c>
-      <c r="H94" t="n">
-        <v>0.0</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -4585,15 +8138,15 @@
       <c r="D95" t="s">
         <v>182</v>
       </c>
-      <c r="F95" t="n">
-        <v>49556.0</v>
+      <c r="F95">
+        <v>49556</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H95" t="n">
-        <v>0.0</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
@@ -4617,15 +8170,15 @@
       <c r="D96" t="s">
         <v>184</v>
       </c>
-      <c r="F96" t="n">
-        <v>49225.0</v>
+      <c r="F96">
+        <v>49225</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
         <v>850</v>
       </c>
-      <c r="H96" t="n">
-        <v>0.0</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -4649,15 +8202,15 @@
       <c r="D97" t="s">
         <v>186</v>
       </c>
-      <c r="F97" t="n">
-        <v>48847.0</v>
+      <c r="F97">
+        <v>48847</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H97" t="n">
-        <v>1.0</v>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -4681,15 +8234,15 @@
       <c r="D98" t="s">
         <v>189</v>
       </c>
-      <c r="F98" t="n">
-        <v>48840.0</v>
+      <c r="F98">
+        <v>48840</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H98" t="n">
-        <v>0.0</v>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -4713,15 +8266,15 @@
       <c r="D99" t="s">
         <v>191</v>
       </c>
-      <c r="F99" t="n">
-        <v>48987.0</v>
+      <c r="F99">
+        <v>48987</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
         <v>876</v>
       </c>
-      <c r="H99" t="n">
-        <v>0.0</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -4745,15 +8298,15 @@
       <c r="D100" t="s">
         <v>193</v>
       </c>
-      <c r="F100" t="n">
-        <v>47998.0</v>
+      <c r="F100">
+        <v>47998</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
         <v>870</v>
       </c>
-      <c r="H100" t="n">
-        <v>1.0</v>
+      <c r="H100">
+        <v>1</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
@@ -4777,15 +8330,15 @@
       <c r="D101" t="s">
         <v>195</v>
       </c>
-      <c r="F101" t="n">
-        <v>48320.0</v>
+      <c r="F101">
+        <v>48320</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
         <v>846</v>
       </c>
-      <c r="H101" t="n">
-        <v>0.0</v>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -4809,15 +8362,15 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="F102" t="n">
-        <v>57808.0</v>
+      <c r="F102">
+        <v>57808</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H102" t="n">
-        <v>0.0</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -4841,15 +8394,15 @@
       <c r="D103" t="s">
         <v>199</v>
       </c>
-      <c r="F103" t="n">
-        <v>57997.0</v>
+      <c r="F103">
+        <v>57997</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="H103" t="n">
-        <v>0.0</v>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -4873,15 +8426,15 @@
       <c r="D104" t="s">
         <v>201</v>
       </c>
-      <c r="F104" t="n">
-        <v>58046.0</v>
+      <c r="F104">
+        <v>58046</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H104" t="n">
-        <v>1.0</v>
+      <c r="H104">
+        <v>1</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -4905,15 +8458,15 @@
       <c r="D105" t="s">
         <v>203</v>
       </c>
-      <c r="F105" t="n">
-        <v>58559.0</v>
+      <c r="F105">
+        <v>58559</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="H105" t="n">
-        <v>0.0</v>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -4937,15 +8490,15 @@
       <c r="D106" t="s">
         <v>205</v>
       </c>
-      <c r="F106" t="n">
-        <v>58384.0</v>
+      <c r="F106">
+        <v>58384</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="H106" t="n">
-        <v>0.0</v>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -4969,15 +8522,15 @@
       <c r="D107" t="s">
         <v>207</v>
       </c>
-      <c r="F107" t="n">
-        <v>57773.0</v>
+      <c r="F107">
+        <v>57773</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H107" t="n">
-        <v>1.0</v>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -5001,15 +8554,15 @@
       <c r="D108" t="s">
         <v>210</v>
       </c>
-      <c r="F108" t="n">
-        <v>57724.0</v>
+      <c r="F108">
+        <v>57724</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H108" t="n">
-        <v>0.0</v>
+      <c r="H108">
+        <v>0</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -5033,15 +8586,15 @@
       <c r="D109" t="s">
         <v>212</v>
       </c>
-      <c r="F109" t="n">
-        <v>58370.0</v>
+      <c r="F109">
+        <v>58370</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H109" t="n">
-        <v>0.0</v>
+      <c r="H109">
+        <v>0</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -5065,15 +8618,15 @@
       <c r="D110" t="s">
         <v>214</v>
       </c>
-      <c r="F110" t="n">
-        <v>58067.0</v>
+      <c r="F110">
+        <v>58067</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="H110" t="n">
-        <v>0.0</v>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -5097,15 +8650,15 @@
       <c r="D111" t="s">
         <v>216</v>
       </c>
-      <c r="F111" t="n">
-        <v>58573.0</v>
+      <c r="F111">
+        <v>58573</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="H111" t="n">
-        <v>0.0</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -5129,15 +8682,15 @@
       <c r="D112" t="s">
         <v>218</v>
       </c>
-      <c r="F112" t="n">
-        <v>58580.0</v>
+      <c r="F112">
+        <v>58580</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
         <v>1054</v>
       </c>
-      <c r="H112" t="n">
-        <v>1.0</v>
+      <c r="H112">
+        <v>1</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -5161,15 +8714,15 @@
       <c r="D113" t="s">
         <v>220</v>
       </c>
-      <c r="F113" t="n">
-        <v>58384.0</v>
+      <c r="F113">
+        <v>58384</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
         <v>922</v>
       </c>
-      <c r="H113" t="n">
-        <v>0.0</v>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
@@ -5193,15 +8746,15 @@
       <c r="D114" t="s">
         <v>222</v>
       </c>
-      <c r="F114" t="n">
-        <v>57864.0</v>
+      <c r="F114">
+        <v>57864</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
         <v>1096</v>
       </c>
-      <c r="H114" t="n">
-        <v>0.0</v>
+      <c r="H114">
+        <v>0</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -5225,15 +8778,15 @@
       <c r="D115" t="s">
         <v>224</v>
       </c>
-      <c r="F115" t="n">
-        <v>57766.0</v>
+      <c r="F115">
+        <v>57766</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
         <v>1048</v>
       </c>
-      <c r="H115" t="n">
-        <v>0.0</v>
+      <c r="H115">
+        <v>0</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -5257,15 +8810,15 @@
       <c r="D116" t="s">
         <v>226</v>
       </c>
-      <c r="F116" t="n">
-        <v>58060.0</v>
+      <c r="F116">
+        <v>58060</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
         <v>1092</v>
       </c>
-      <c r="H116" t="n">
-        <v>0.0</v>
+      <c r="H116">
+        <v>0</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -5289,15 +8842,15 @@
       <c r="D117" t="s">
         <v>228</v>
       </c>
-      <c r="F117" t="n">
-        <v>58144.0</v>
+      <c r="F117">
+        <v>58144</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
         <v>1060</v>
       </c>
-      <c r="H117" t="n">
-        <v>0.0</v>
+      <c r="H117">
+        <v>0</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
@@ -5321,15 +8874,15 @@
       <c r="D118" t="s">
         <v>230</v>
       </c>
-      <c r="F118" t="n">
-        <v>57647.0</v>
+      <c r="F118">
+        <v>57647</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
         <v>1090</v>
       </c>
-      <c r="H118" t="n">
-        <v>0.0</v>
+      <c r="H118">
+        <v>0</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
@@ -5353,15 +8906,15 @@
       <c r="D119" t="s">
         <v>232</v>
       </c>
-      <c r="F119" t="n">
-        <v>58053.0</v>
+      <c r="F119">
+        <v>58053</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>1030</v>
       </c>
-      <c r="H119" t="n">
-        <v>1.0</v>
+      <c r="H119">
+        <v>1</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -5385,15 +8938,15 @@
       <c r="D120" t="s">
         <v>234</v>
       </c>
-      <c r="F120" t="n">
-        <v>58776.0</v>
+      <c r="F120">
+        <v>58776</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
         <v>1020</v>
       </c>
-      <c r="H120" t="n">
-        <v>0.0</v>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -5417,15 +8970,15 @@
       <c r="D121" t="s">
         <v>236</v>
       </c>
-      <c r="F121" t="n">
-        <v>57183.0</v>
+      <c r="F121">
+        <v>57183</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>920</v>
       </c>
-      <c r="H121" t="n">
-        <v>0.0</v>
+      <c r="H121">
+        <v>0</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
@@ -5447,7 +9000,7 @@
       </c>
       <c r="H124">
         <f>SUM(H2:H121)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I124">
         <f>SUM(I2:I121)</f>
@@ -5459,6 +9012,3764 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D124"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>180383</v>
+      </c>
+      <c r="B2">
+        <v>96971</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>96997</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G41" si="0">F2-B2</f>
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I41" si="1">(F2-B2)/B2</f>
+        <v>2.6812139711872621E-4</v>
+      </c>
+      <c r="J2">
+        <f>F2*100/B2</f>
+        <v>100.02681213971188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>180383</v>
+      </c>
+      <c r="B3">
+        <v>97127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>97081</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-46</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>-4.7360672109712028E-4</v>
+      </c>
+      <c r="J3">
+        <f>F3*100/B3</f>
+        <v>99.952639327890282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>180408</v>
+      </c>
+      <c r="B4">
+        <v>98424</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>98394</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-3.0480370641307E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J41" si="2">F4*100/B4</f>
+        <v>99.969519629358686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>180357</v>
+      </c>
+      <c r="B5">
+        <v>97283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>97123</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-160</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-1.6446861219329173E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>99.835531387806711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>180619</v>
+      </c>
+      <c r="B6">
+        <v>95663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>95791</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.3380303774709135E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>100.13380303774709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>180559</v>
+      </c>
+      <c r="B7">
+        <v>94163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>94261</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.0407484893217081E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>100.10407484893217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>97934</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>97972</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3.8801641922110811E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>100.03880164192211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>180354</v>
+      </c>
+      <c r="B9">
+        <v>97923</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>97937</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.429694760168704E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>100.01429694760169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>180746</v>
+      </c>
+      <c r="B10">
+        <v>96515</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>96591</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7.8744236647153288E-4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>100.07874423664715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>180374</v>
+      </c>
+      <c r="B11">
+        <v>97907</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>97881</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-2.6555813169640578E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>99.973444186830363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>495106</v>
+      </c>
+      <c r="B12">
+        <v>95126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>96696</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1570</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.6504425709059564E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>101.65044257090595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>456912</v>
+      </c>
+      <c r="B13">
+        <v>95674</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>96934</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.3169722181574932E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>101.31697221815749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>436621</v>
+      </c>
+      <c r="B14">
+        <v>95631</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>97011</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.4430467107946168E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>101.44304671079462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>435998</v>
+      </c>
+      <c r="B15">
+        <v>95651</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>97151</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.5682010642857888E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>101.56820106428579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>180768</v>
+      </c>
+      <c r="B16">
+        <v>94970</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>96570</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.6847425502790354E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>101.68474255027904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>180881</v>
+      </c>
+      <c r="B17">
+        <v>96283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>97643</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.4125027263379828E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>101.41250272633798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>376917</v>
+      </c>
+      <c r="B18">
+        <v>95243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>96857</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1614</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.6946127274445368E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>101.69461272744454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>94761</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>96281</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.6040354154135138E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>101.60403541541352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>94227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>95735</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1508</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.6003905462340942E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>101.6003905462341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>432167</v>
+      </c>
+      <c r="B21">
+        <v>95617</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>96997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.4432579980547392E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>101.44325799805473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>180396</v>
+      </c>
+      <c r="B22">
+        <v>117360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>117356</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-3.4083162917518748E-5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>99.996591683708246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>180395</v>
+      </c>
+      <c r="B23">
+        <v>116253</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>116183</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-6.0213499866670103E-4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>99.939786500133323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>208527</v>
+      </c>
+      <c r="B24">
+        <v>115303</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>115397</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>8.1524331543845346E-4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>100.08152433154385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>180517</v>
+      </c>
+      <c r="B25">
+        <v>116268</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>116302</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>2.9242783913028522E-4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>100.02924278391303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>180427</v>
+      </c>
+      <c r="B26">
+        <v>116679</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>116745</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>5.6565448795413051E-4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>100.05656544879541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>180473</v>
+      </c>
+      <c r="B27">
+        <v>117088</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>116022</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-1066</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-9.1042634599617384E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>99.089573654003829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>180452</v>
+      </c>
+      <c r="B28">
+        <v>116432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>116358</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-74</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-6.3556410608767351E-4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>99.936443589391232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>116083</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>116113</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>2.5843577440279802E-4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>100.02584357744028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>189794</v>
+      </c>
+      <c r="B30">
+        <v>116161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>116043</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>-118</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-1.0158314752799994E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>99.898416852471996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>193702</v>
+      </c>
+      <c r="B31">
+        <v>115244</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>115334</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>7.8095171982923192E-4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>100.07809517198292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>123066</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>116148</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>-6918</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-5.6213738969333529E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>94.378626103066651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>181507</v>
+      </c>
+      <c r="B33">
+        <v>122735</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>115509</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>-7226</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>-5.887481158593718E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>94.112518841406285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>185575</v>
+      </c>
+      <c r="B34">
+        <v>118211</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34">
+        <v>116015</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-2196</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-1.8576951383542987E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>98.142304861645698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>181736</v>
+      </c>
+      <c r="B35">
+        <v>124552</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35">
+        <v>116892</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>-7660</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>-6.1500417496306761E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>93.849958250369326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>181895</v>
+      </c>
+      <c r="B36">
+        <v>121477</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>114583</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>-6894</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-5.6751483819982386E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>94.324851618001759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>181541</v>
+      </c>
+      <c r="B37">
+        <v>122483</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>115861</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>-6622</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-5.4064645705934701E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>94.593535429406529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>181541</v>
+      </c>
+      <c r="B38">
+        <v>121277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>116225</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>-5052</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-4.1656703249585661E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>95.834329675041431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>184236</v>
+      </c>
+      <c r="B39">
+        <v>114892</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39">
+        <v>116190</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1298</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1.1297566410193921E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>101.1297566410194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>181515</v>
+      </c>
+      <c r="B40">
+        <v>125324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40">
+        <v>117314</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>-8010</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-6.3914334046152377E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>93.608566595384758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>181428</v>
+      </c>
+      <c r="B41">
+        <v>114502</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41">
+        <v>116344</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1.6087055247943266E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>101.60870552479433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>46522</v>
+      </c>
+      <c r="B2">
+        <v>49410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2">
+        <v>49556</v>
+      </c>
+      <c r="G2">
+        <v>146</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.9548674357417525E-3</v>
+      </c>
+      <c r="J2">
+        <v>100.29548674357417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>180173</v>
+      </c>
+      <c r="B3">
+        <v>48341</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3">
+        <v>48411</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.4480461719865124E-3</v>
+      </c>
+      <c r="J3">
+        <v>100.14480461719864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>180112</v>
+      </c>
+      <c r="B4">
+        <v>48940</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4">
+        <v>49092</v>
+      </c>
+      <c r="G4">
+        <v>152</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3.1058438904781366E-3</v>
+      </c>
+      <c r="J4">
+        <v>100.31058438904782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>180126</v>
+      </c>
+      <c r="B5">
+        <v>48121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5">
+        <v>48201</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.6624758421479187E-3</v>
+      </c>
+      <c r="J5">
+        <v>100.16624758421479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>180129</v>
+      </c>
+      <c r="B6">
+        <v>48162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6">
+        <v>48264</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2.1178522486607699E-3</v>
+      </c>
+      <c r="J6">
+        <v>100.21178522486608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>59136</v>
+      </c>
+      <c r="B7">
+        <v>48681</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7">
+        <v>48805</v>
+      </c>
+      <c r="G7">
+        <v>124</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2.5471950042110884E-3</v>
+      </c>
+      <c r="J7">
+        <v>100.2547195004211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>58486</v>
+      </c>
+      <c r="B8">
+        <v>48680</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8">
+        <v>48784</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2.1364009860312242E-3</v>
+      </c>
+      <c r="J8">
+        <v>100.21364009860312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>180123</v>
+      </c>
+      <c r="B9">
+        <v>47882</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>47998</v>
+      </c>
+      <c r="G9">
+        <v>116</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2.422622279771104E-3</v>
+      </c>
+      <c r="J9">
+        <v>100.24226222797711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>34267</v>
+      </c>
+      <c r="B10">
+        <v>48178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10">
+        <v>48278</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.0756361824899329E-3</v>
+      </c>
+      <c r="J10">
+        <v>100.207563618249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>180118</v>
+      </c>
+      <c r="B11">
+        <v>47732</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>47758</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5.4470795273610991E-4</v>
+      </c>
+      <c r="J11">
+        <v>100.05447079527362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>146109</v>
+      </c>
+      <c r="B12">
+        <v>46274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12">
+        <v>47156</v>
+      </c>
+      <c r="G12">
+        <v>882</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.906037947875697E-2</v>
+      </c>
+      <c r="J12">
+        <v>101.9060379478757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>151784</v>
+      </c>
+      <c r="B13">
+        <v>47499</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13">
+        <v>48369</v>
+      </c>
+      <c r="G13">
+        <v>870</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.8316175077370048E-2</v>
+      </c>
+      <c r="J13">
+        <v>101.83161750773701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>180182</v>
+      </c>
+      <c r="B14">
+        <v>47180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14">
+        <v>48040</v>
+      </c>
+      <c r="G14">
+        <v>860</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.8228062738448497E-2</v>
+      </c>
+      <c r="J14">
+        <v>101.82280627384485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>180209</v>
+      </c>
+      <c r="B15">
+        <v>48636</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15">
+        <v>49556</v>
+      </c>
+      <c r="G15">
+        <v>920</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1.891602927872358E-2</v>
+      </c>
+      <c r="J15">
+        <v>101.89160292787236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>180889</v>
+      </c>
+      <c r="B16">
+        <v>48375</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16">
+        <v>49225</v>
+      </c>
+      <c r="G16">
+        <v>850</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.7571059431524549E-2</v>
+      </c>
+      <c r="J16">
+        <v>101.75710594315245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>139649</v>
+      </c>
+      <c r="B17">
+        <v>47927</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17">
+        <v>48847</v>
+      </c>
+      <c r="G17">
+        <v>920</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.9195860370980866E-2</v>
+      </c>
+      <c r="J17">
+        <v>101.91958603709809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18">
+        <v>47920</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18">
+        <v>48840</v>
+      </c>
+      <c r="G18">
+        <v>920</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.9198664440734557E-2</v>
+      </c>
+      <c r="J18">
+        <v>101.91986644407345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>180174</v>
+      </c>
+      <c r="B19">
+        <v>48111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19">
+        <v>48987</v>
+      </c>
+      <c r="G19">
+        <v>876</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1.8207894244559455E-2</v>
+      </c>
+      <c r="J19">
+        <v>101.82078942445595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>180154</v>
+      </c>
+      <c r="B20">
+        <v>47128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20">
+        <v>47998</v>
+      </c>
+      <c r="G20">
+        <v>870</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.846036326599898E-2</v>
+      </c>
+      <c r="J20">
+        <v>101.8460363265999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>180163</v>
+      </c>
+      <c r="B21">
+        <v>47474</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21">
+        <v>48320</v>
+      </c>
+      <c r="G21">
+        <v>846</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1.7820280574630323E-2</v>
+      </c>
+      <c r="J21">
+        <v>101.78202805746304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>180145</v>
+      </c>
+      <c r="B22">
+        <v>57732</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22">
+        <v>57808</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.3164276311231206E-3</v>
+      </c>
+      <c r="J22">
+        <v>100.13164276311231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>180124</v>
+      </c>
+      <c r="B23">
+        <v>57821</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23">
+        <v>57997</v>
+      </c>
+      <c r="G23">
+        <v>176</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3.0438767921689351E-3</v>
+      </c>
+      <c r="J23">
+        <v>100.30438767921689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>180226</v>
+      </c>
+      <c r="B24">
+        <v>58040</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24">
+        <v>58046</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.0337698139214335E-4</v>
+      </c>
+      <c r="J24">
+        <v>100.01033769813921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>180155</v>
+      </c>
+      <c r="B25">
+        <v>58515</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25">
+        <v>58559</v>
+      </c>
+      <c r="G25">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>7.5194394599675297E-4</v>
+      </c>
+      <c r="J25">
+        <v>100.07519439459968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>180087</v>
+      </c>
+      <c r="B26">
+        <v>58216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26">
+        <v>58384</v>
+      </c>
+      <c r="G26">
+        <v>168</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2.8858045898034904E-3</v>
+      </c>
+      <c r="J26">
+        <v>100.28858045898035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>180133</v>
+      </c>
+      <c r="B27">
+        <v>57665</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27">
+        <v>57773</v>
+      </c>
+      <c r="G27">
+        <v>108</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1.8728864996098154E-3</v>
+      </c>
+      <c r="J27">
+        <v>100.18728864996098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28">
+        <v>57600</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28">
+        <v>57724</v>
+      </c>
+      <c r="G28">
+        <v>124</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2.1527777777777778E-3</v>
+      </c>
+      <c r="J28">
+        <v>100.21527777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>180145</v>
+      </c>
+      <c r="B29">
+        <v>58262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29">
+        <v>58370</v>
+      </c>
+      <c r="G29">
+        <v>108</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1.8536953760598675E-3</v>
+      </c>
+      <c r="J29">
+        <v>100.18536953760599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>180163</v>
+      </c>
+      <c r="B30">
+        <v>58021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30">
+        <v>58067</v>
+      </c>
+      <c r="G30">
+        <v>46</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>7.9281639406421811E-4</v>
+      </c>
+      <c r="J30">
+        <v>100.07928163940642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>180192</v>
+      </c>
+      <c r="B31">
+        <v>58385</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31">
+        <v>58573</v>
+      </c>
+      <c r="G31">
+        <v>188</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3.2200051383060716E-3</v>
+      </c>
+      <c r="J31">
+        <v>100.3220005138306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>185105</v>
+      </c>
+      <c r="B32">
+        <v>57526</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32">
+        <v>58580</v>
+      </c>
+      <c r="G32">
+        <v>1054</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1.8322149984354899E-2</v>
+      </c>
+      <c r="J32">
+        <v>101.83221499843549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>180343</v>
+      </c>
+      <c r="B33">
+        <v>57462</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33">
+        <v>58384</v>
+      </c>
+      <c r="G33">
+        <v>922</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1.604538651630643E-2</v>
+      </c>
+      <c r="J33">
+        <v>101.60453865163065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>180224</v>
+      </c>
+      <c r="B34">
+        <v>56768</v>
+      </c>
+      <c r="C34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34">
+        <v>57864</v>
+      </c>
+      <c r="G34">
+        <v>1096</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1.9306651634723788E-2</v>
+      </c>
+      <c r="J34">
+        <v>101.93066516347238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>180256</v>
+      </c>
+      <c r="B35">
+        <v>56718</v>
+      </c>
+      <c r="C35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35">
+        <v>57766</v>
+      </c>
+      <c r="G35">
+        <v>1048</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.8477379315208577E-2</v>
+      </c>
+      <c r="J35">
+        <v>101.84773793152085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>180227</v>
+      </c>
+      <c r="B36">
+        <v>56968</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36">
+        <v>58060</v>
+      </c>
+      <c r="G36">
+        <v>1092</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1.9168656087628144E-2</v>
+      </c>
+      <c r="J36">
+        <v>101.91686560876282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>180226</v>
+      </c>
+      <c r="B37">
+        <v>57084</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37">
+        <v>58144</v>
+      </c>
+      <c r="G37">
+        <v>1060</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1.8569126199985984E-2</v>
+      </c>
+      <c r="J37">
+        <v>101.8569126199986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>180262</v>
+      </c>
+      <c r="B38">
+        <v>56557</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38">
+        <v>57647</v>
+      </c>
+      <c r="G38">
+        <v>1090</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1.9272592252064288E-2</v>
+      </c>
+      <c r="J38">
+        <v>101.92725922520643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>180237</v>
+      </c>
+      <c r="B39">
+        <v>57023</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39">
+        <v>58053</v>
+      </c>
+      <c r="G39">
+        <v>1030</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1.8062886905283834E-2</v>
+      </c>
+      <c r="J39">
+        <v>101.80628869052839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>180388</v>
+      </c>
+      <c r="B40">
+        <v>57756</v>
+      </c>
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40">
+        <v>58776</v>
+      </c>
+      <c r="G40">
+        <v>1020</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1.7660502804903385E-2</v>
+      </c>
+      <c r="J40">
+        <v>101.76605028049033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>180323</v>
+      </c>
+      <c r="B41">
+        <v>56263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41">
+        <v>57183</v>
+      </c>
+      <c r="G41">
+        <v>920</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1.635177647832501E-2</v>
+      </c>
+      <c r="J41">
+        <v>101.63517764783251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2382</v>
+      </c>
+      <c r="B2">
+        <v>19874</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>19896</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1.1069739357955116E-3</v>
+      </c>
+      <c r="J2">
+        <v>100.11069739357956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2908</v>
+      </c>
+      <c r="B3">
+        <v>19812</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>19854</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2.1199273167777106E-3</v>
+      </c>
+      <c r="J3">
+        <v>100.21199273167777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9733</v>
+      </c>
+      <c r="B4">
+        <v>19873</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>19931</v>
+      </c>
+      <c r="G4">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2.9185326825340915E-3</v>
+      </c>
+      <c r="J4">
+        <v>100.2918532682534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3151</v>
+      </c>
+      <c r="B5">
+        <v>19154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>19194</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2.0883366398663466E-3</v>
+      </c>
+      <c r="J5">
+        <v>100.20883366398664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>7335</v>
+      </c>
+      <c r="B6">
+        <v>19451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>19495</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2.2620944938563569E-3</v>
+      </c>
+      <c r="J6">
+        <v>100.22620944938564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B7">
+        <v>19891</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>19945</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2.7147956362173846E-3</v>
+      </c>
+      <c r="J7">
+        <v>100.27147956362174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7886</v>
+      </c>
+      <c r="B8">
+        <v>19179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>19215</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.8770530267480056E-3</v>
+      </c>
+      <c r="J8">
+        <v>100.1877053026748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6477</v>
+      </c>
+      <c r="B9">
+        <v>19350</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>19390</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.0671834625322996E-3</v>
+      </c>
+      <c r="J9">
+        <v>100.20671834625323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>14147</v>
+      </c>
+      <c r="B10">
+        <v>19156</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10">
+        <v>19208</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2.7145541866778031E-3</v>
+      </c>
+      <c r="J10">
+        <v>100.27145541866778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>19781</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11">
+        <v>19833</v>
+      </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2.6287851979171933E-3</v>
+      </c>
+      <c r="J11">
+        <v>100.26287851979171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7304</v>
+      </c>
+      <c r="B12">
+        <v>19044</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12">
+        <v>19404</v>
+      </c>
+      <c r="G12">
+        <v>360</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.890359168241966E-2</v>
+      </c>
+      <c r="J12">
+        <v>101.89035916824197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>57306</v>
+      </c>
+      <c r="B13">
+        <v>19262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13">
+        <v>19572</v>
+      </c>
+      <c r="G13">
+        <v>310</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.6093863565569515E-2</v>
+      </c>
+      <c r="J13">
+        <v>101.60938635655695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13886</v>
+      </c>
+      <c r="B14">
+        <v>19711</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14">
+        <v>20071</v>
+      </c>
+      <c r="G14">
+        <v>360</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.8263913550809193E-2</v>
+      </c>
+      <c r="J14">
+        <v>101.82639135508091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>6049</v>
+      </c>
+      <c r="B15">
+        <v>18835</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15">
+        <v>19215</v>
+      </c>
+      <c r="G15">
+        <v>380</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2.017520573400584E-2</v>
+      </c>
+      <c r="J15">
+        <v>102.01752057340059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8795</v>
+      </c>
+      <c r="B16">
+        <v>18980</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16">
+        <v>19320</v>
+      </c>
+      <c r="G16">
+        <v>340</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.7913593256059009E-2</v>
+      </c>
+      <c r="J16">
+        <v>101.7913593256059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6713</v>
+      </c>
+      <c r="B17">
+        <v>19126</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>19474</v>
+      </c>
+      <c r="G17">
+        <v>348</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.8195127052180279E-2</v>
+      </c>
+      <c r="J17">
+        <v>101.81951270521803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>20402</v>
+      </c>
+      <c r="B18">
+        <v>19276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <v>19586</v>
+      </c>
+      <c r="G18">
+        <v>310</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.6082174725046691E-2</v>
+      </c>
+      <c r="J18">
+        <v>101.60821747250466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8111</v>
+      </c>
+      <c r="B19">
+        <v>19053</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19">
+        <v>19397</v>
+      </c>
+      <c r="G19">
+        <v>344</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.8054899490893821E-2</v>
+      </c>
+      <c r="J19">
+        <v>101.80548994908938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18295</v>
+      </c>
+      <c r="B20">
+        <v>18920</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20">
+        <v>19264</v>
+      </c>
+      <c r="G20">
+        <v>344</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="J20">
+        <v>101.81818181818181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>7277</v>
+      </c>
+      <c r="B21">
+        <v>18758</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21">
+        <v>19138</v>
+      </c>
+      <c r="G21">
+        <v>380</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.0258023243416141E-2</v>
+      </c>
+      <c r="J21">
+        <v>102.02580232434161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>23159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22">
+        <v>23257</v>
+      </c>
+      <c r="G22">
+        <v>98</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4.231616218316853E-3</v>
+      </c>
+      <c r="J22">
+        <v>100.42316162183168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>5365</v>
+      </c>
+      <c r="B23">
+        <v>23298</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23">
+        <v>23390</v>
+      </c>
+      <c r="G23">
+        <v>92</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3.9488368100266116E-3</v>
+      </c>
+      <c r="J23">
+        <v>100.39488368100267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>64377</v>
+      </c>
+      <c r="B24">
+        <v>23185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24">
+        <v>23299</v>
+      </c>
+      <c r="G24">
+        <v>114</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>4.9169721802889803E-3</v>
+      </c>
+      <c r="J24">
+        <v>100.4916972180289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4618</v>
+      </c>
+      <c r="B25">
+        <v>22932</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25">
+        <v>23040</v>
+      </c>
+      <c r="G25">
+        <v>108</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4.7095761381475663E-3</v>
+      </c>
+      <c r="J25">
+        <v>100.47095761381476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26">
+        <v>22924</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26">
+        <v>23012</v>
+      </c>
+      <c r="G26">
+        <v>88</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3.838771593090211E-3</v>
+      </c>
+      <c r="J26">
+        <v>100.38387715930902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>22373</v>
+      </c>
+      <c r="B27">
+        <v>23034</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27">
+        <v>23152</v>
+      </c>
+      <c r="G27">
+        <v>118</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>5.1228618563862113E-3</v>
+      </c>
+      <c r="J27">
+        <v>100.51228618563862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>18476</v>
+      </c>
+      <c r="B28">
+        <v>22826</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28">
+        <v>22914</v>
+      </c>
+      <c r="G28">
+        <v>88</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>3.8552527819153597E-3</v>
+      </c>
+      <c r="J28">
+        <v>100.38552527819154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>22724</v>
+      </c>
+      <c r="B29">
+        <v>23322</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29">
+        <v>23418</v>
+      </c>
+      <c r="G29">
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>4.1162850527399026E-3</v>
+      </c>
+      <c r="J29">
+        <v>100.411628505274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>5832</v>
+      </c>
+      <c r="B30">
+        <v>22952</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30">
+        <v>23054</v>
+      </c>
+      <c r="G30">
+        <v>102</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4.4440571627744861E-3</v>
+      </c>
+      <c r="J30">
+        <v>100.44440571627744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>6507</v>
+      </c>
+      <c r="B31">
+        <v>23027</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31">
+        <v>23117</v>
+      </c>
+      <c r="G31">
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>3.9084552916141919E-3</v>
+      </c>
+      <c r="J31">
+        <v>100.39084552916142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>21941</v>
+      </c>
+      <c r="B32">
+        <v>22842</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32">
+        <v>23292</v>
+      </c>
+      <c r="G32">
+        <v>450</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1.9700551615445233E-2</v>
+      </c>
+      <c r="J32">
+        <v>101.97005516154452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>15461</v>
+      </c>
+      <c r="B33">
+        <v>22510</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33">
+        <v>23012</v>
+      </c>
+      <c r="G33">
+        <v>502</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2.23011994669036E-2</v>
+      </c>
+      <c r="J33">
+        <v>102.23011994669037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>12694</v>
+      </c>
+      <c r="B34">
+        <v>22947</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34">
+        <v>23397</v>
+      </c>
+      <c r="G34">
+        <v>450</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1.9610406589096616E-2</v>
+      </c>
+      <c r="J34">
+        <v>101.96104065890967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>12793</v>
+      </c>
+      <c r="B35">
+        <v>22201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35">
+        <v>22639</v>
+      </c>
+      <c r="G35">
+        <v>438</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.9728841043196253E-2</v>
+      </c>
+      <c r="J35">
+        <v>101.97288410431962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36">
+        <v>23248</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36">
+        <v>23770</v>
+      </c>
+      <c r="G36">
+        <v>522</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2.2453544390915348E-2</v>
+      </c>
+      <c r="J36">
+        <v>102.24535443909153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>180077</v>
+      </c>
+      <c r="B37">
+        <v>22745</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37">
+        <v>23215</v>
+      </c>
+      <c r="G37">
+        <v>470</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2.0663882171905915E-2</v>
+      </c>
+      <c r="J37">
+        <v>102.06638821719059</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>12617</v>
+      </c>
+      <c r="B38">
+        <v>22975</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38">
+        <v>23425</v>
+      </c>
+      <c r="G38">
+        <v>450</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1.9586507072905331E-2</v>
+      </c>
+      <c r="J38">
+        <v>101.95865070729053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>17449</v>
+      </c>
+      <c r="B39">
+        <v>22470</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39">
+        <v>22970</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2.2251891410769914E-2</v>
+      </c>
+      <c r="J39">
+        <v>102.225189141077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>24581</v>
+      </c>
+      <c r="B40">
+        <v>23059</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40">
+        <v>23509</v>
+      </c>
+      <c r="G40">
+        <v>450</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1.9515156771759398E-2</v>
+      </c>
+      <c r="J40">
+        <v>101.95151567717593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B41">
+        <v>22503</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41">
+        <v>22991</v>
+      </c>
+      <c r="G41">
+        <v>488</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2.168599742256588E-2</v>
+      </c>
+      <c r="J41">
+        <v>102.16859974225659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -1344,7 +1344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1703,11 +1702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="243055968"/>
-        <c:axId val="243047736"/>
+        <c:axId val="196719800"/>
+        <c:axId val="196716272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243055968"/>
+        <c:axId val="196719800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1749,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243047736"/>
+        <c:crossAx val="196716272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +1757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243047736"/>
+        <c:axId val="196716272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1808,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243055968"/>
+        <c:crossAx val="196719800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1823,7 +1822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1935,7 +1933,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2294,11 +2291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244312432"/>
-        <c:axId val="244313216"/>
+        <c:axId val="196717448"/>
+        <c:axId val="199449912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244312432"/>
+        <c:axId val="196717448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2337,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244313216"/>
+        <c:crossAx val="199449912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2348,7 +2345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244313216"/>
+        <c:axId val="199449912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2396,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244312432"/>
+        <c:crossAx val="196717448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,7 +2410,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2525,7 +2521,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2884,11 +2879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="537430480"/>
-        <c:axId val="543907352"/>
+        <c:axId val="199444816"/>
+        <c:axId val="199450304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537430480"/>
+        <c:axId val="199444816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2925,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543907352"/>
+        <c:crossAx val="199450304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543907352"/>
+        <c:axId val="199450304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2984,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537430480"/>
+        <c:crossAx val="199444816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,7 +2998,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5108,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9012,7 +9006,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D124"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12766,7 +12759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -758,6 +758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1344,7 +1345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1703,11 +1703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="243055968"/>
-        <c:axId val="243047736"/>
+        <c:axId val="259880512"/>
+        <c:axId val="259880120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243055968"/>
+        <c:axId val="259880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1750,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243047736"/>
+        <c:crossAx val="259880120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +1758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243047736"/>
+        <c:axId val="259880120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1809,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243055968"/>
+        <c:crossAx val="259880512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1823,7 +1823,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1935,7 +1934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2294,11 +2292,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="244312432"/>
-        <c:axId val="244313216"/>
+        <c:axId val="259878944"/>
+        <c:axId val="259882472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244312432"/>
+        <c:axId val="259878944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2338,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244313216"/>
+        <c:crossAx val="259882472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2348,7 +2346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244313216"/>
+        <c:axId val="259882472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2397,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244312432"/>
+        <c:crossAx val="259878944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,7 +2411,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2525,7 +2522,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2884,11 +2880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="537430480"/>
-        <c:axId val="543907352"/>
+        <c:axId val="259881296"/>
+        <c:axId val="259882080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537430480"/>
+        <c:axId val="259881296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2926,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543907352"/>
+        <c:crossAx val="259882080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543907352"/>
+        <c:axId val="259882080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2985,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537430480"/>
+        <c:crossAx val="259881296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,7 +2999,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5108,19 +5103,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5144,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -5162,26 +5157,26 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>96997</v>
+      <c r="F2" t="n">
+        <v>96997.0</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
-      <c r="H2">
-        <v>9</v>
+      <c r="H2" t="n">
+        <v>16.0</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
         <v>2.6812139711872621E-4</v>
       </c>
       <c r="J2">
-        <f>F2*100/B2</f>
+        <f t="shared" ref="J2:J66" si="2">F2*100/B2</f>
         <v>100.02681213971188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -5194,26 +5189,26 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>97081</v>
+      <c r="F3" t="n">
+        <v>97081.0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-46</v>
       </c>
-      <c r="H3">
-        <v>5</v>
+      <c r="H3" t="n">
+        <v>16.0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
         <v>-4.7360672109712028E-4</v>
       </c>
       <c r="J3">
-        <f>F3*100/B3</f>
+        <f t="shared" si="2"/>
         <v>99.952639327890282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -5226,26 +5221,26 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>98394</v>
+      <c r="F4" t="n">
+        <v>98394.0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="H4" t="n">
+        <v>0.0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
         <v>-3.0480370641307E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="2">F4*100/B4</f>
+        <f t="shared" si="2"/>
         <v>99.969519629358686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -5258,15 +5253,15 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>97123</v>
+      <c r="F5" t="n">
+        <v>97123.0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="H5" t="n">
+        <v>16.0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -5277,7 +5272,7 @@
         <v>99.835531387806711</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -5290,15 +5285,15 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>95791</v>
+      <c r="F6" t="n">
+        <v>95791.0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H6">
-        <v>2</v>
+      <c r="H6" t="n">
+        <v>0.0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -5309,7 +5304,7 @@
         <v>100.13380303774709</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -5322,15 +5317,15 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
-        <v>94261</v>
+      <c r="F7" t="n">
+        <v>94261.0</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="H7" t="n">
+        <v>0.0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -5341,7 +5336,7 @@
         <v>100.10407484893217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5354,15 +5349,15 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>97972</v>
+      <c r="F8" t="n">
+        <v>97972.0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H8">
-        <v>6</v>
+      <c r="H8" t="n">
+        <v>16.0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -5373,7 +5368,7 @@
         <v>100.03880164192211</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -5386,15 +5381,15 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>97937</v>
+      <c r="F9" t="n">
+        <v>97937.0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="n">
+        <v>0.0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -5405,7 +5400,7 @@
         <v>100.01429694760169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -5418,15 +5413,15 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>96591</v>
+      <c r="F10" t="n">
+        <v>96591.0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="n">
+        <v>2.0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -5437,7 +5432,7 @@
         <v>100.07874423664715</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -5450,15 +5445,15 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
-        <v>97881</v>
+      <c r="F11" t="n">
+        <v>97881.0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" t="n">
+        <v>0.0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5469,7 +5464,7 @@
         <v>99.973444186830363</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -5482,26 +5477,26 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
-        <v>96696</v>
+      <c r="F12" t="n">
+        <v>95016.0</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1570</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+        <v>-110</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.6504425709059564E-2</v>
+        <v>-1.156361036940479E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>101.65044257090595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.884363896305956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -5514,26 +5509,26 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="F13">
-        <v>96934</v>
+      <c r="F13" t="n">
+        <v>95254.0</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>-420</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.3169722181574932E-2</v>
+        <v>-4.3899073938583107E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>101.31697221815749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.561009260614171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -5546,26 +5541,26 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
-        <v>97011</v>
+      <c r="F14" t="n">
+        <v>95331.0</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1380</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+        <v>-300</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.4430467107946168E-2</v>
+        <v>-3.1370580669448193E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>101.44304671079462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.686294193305514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -5578,26 +5573,26 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>97151</v>
+      <c r="F15" t="n">
+        <v>95471.0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+        <v>-180</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.5682010642857888E-2</v>
+        <v>-1.8818412771429468E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>101.56820106428579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.811815872285706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -5610,26 +5605,26 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="F16">
-        <v>96570</v>
+      <c r="F16" t="n">
+        <v>94890.0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>-80</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.6847425502790354E-2</v>
+        <v>-8.4237127513951779E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>101.68474255027904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.915762872486042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -5642,26 +5637,26 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="F17">
-        <v>97643</v>
+      <c r="F17" t="n">
+        <v>95983.0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1360</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+        <v>-300</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>1.4125027263379828E-2</v>
+        <v>-3.1158148375102562E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>101.41250272633798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.688418516248973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -5674,26 +5669,26 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="F18">
-        <v>96857</v>
+      <c r="F18" t="n">
+        <v>95177.0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1614</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
+        <v>-66</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>1.6946127274445368E-2</v>
+        <v>-6.9296431233791455E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>101.69461272744454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.930703568766205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5706,26 +5701,26 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="F19">
-        <v>96281</v>
+      <c r="F19" t="n">
+        <v>94701.0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1520</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>-60</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>1.6040354154135138E-2</v>
+        <v>-6.3317187450533444E-4</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>101.60403541541352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.936682812549464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -5738,26 +5733,26 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="F20">
-        <v>95735</v>
+      <c r="F20" t="n">
+        <v>94035.0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>1508</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+        <v>-192</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>1.6003905462340942E-2</v>
+        <v>-2.0376325257091916E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>101.6003905462341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.796236747429077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -5770,26 +5765,26 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>96997</v>
+      <c r="F21" t="n">
+        <v>95317.0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1380</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
+        <v>-300</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>1.4432579980547392E-2</v>
+        <v>-3.1375173870755199E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>101.44325799805473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.686248261292448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -5802,15 +5797,15 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="F22">
-        <v>117356</v>
+      <c r="F22" t="n">
+        <v>117356.0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="n">
+        <v>2.0</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -5821,7 +5816,7 @@
         <v>99.996591683708246</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -5834,15 +5829,15 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="F23">
-        <v>116183</v>
+      <c r="F23" t="n">
+        <v>116183.0</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="n">
+        <v>10.0</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -5853,7 +5848,7 @@
         <v>99.939786500133323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -5866,15 +5861,15 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="F24">
-        <v>115397</v>
+      <c r="F24" t="n">
+        <v>115397.0</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="H24" t="n">
+        <v>11.0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -5885,7 +5880,7 @@
         <v>100.08152433154385</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -5898,15 +5893,15 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="F25">
-        <v>116302</v>
+      <c r="F25" t="n">
+        <v>116302.0</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="H25" t="n">
+        <v>11.0</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -5917,7 +5912,7 @@
         <v>100.02924278391303</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -5930,15 +5925,15 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="F26">
-        <v>116745</v>
+      <c r="F26" t="n">
+        <v>116745.0</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="n">
+        <v>8.0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -5949,7 +5944,7 @@
         <v>100.05656544879541</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -5962,15 +5957,15 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="F27">
-        <v>116022</v>
+      <c r="F27" t="n">
+        <v>116022.0</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>-1066</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="n">
+        <v>10.0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -5981,7 +5976,7 @@
         <v>99.089573654003829</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -5994,15 +5989,15 @@
       <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="F28">
-        <v>116358</v>
+      <c r="F28" t="n">
+        <v>116358.0</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="n">
+        <v>8.0</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -6013,7 +6008,7 @@
         <v>99.936443589391232</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6026,15 +6021,15 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="F29">
-        <v>116113</v>
+      <c r="F29" t="n">
+        <v>116113.0</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" t="n">
+        <v>0.0</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -6045,7 +6040,7 @@
         <v>100.02584357744028</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -6058,15 +6053,15 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="F30">
-        <v>116043</v>
+      <c r="F30" t="n">
+        <v>116043.0</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>-118</v>
       </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="H30" t="n">
+        <v>8.0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -6077,7 +6072,7 @@
         <v>99.898416852471996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -6090,15 +6085,15 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="F31">
-        <v>115334</v>
+      <c r="F31" t="n">
+        <v>115334.0</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H31">
-        <v>2</v>
+      <c r="H31" t="n">
+        <v>0.0</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -6109,7 +6104,7 @@
         <v>100.07809517198292</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6122,26 +6117,26 @@
       <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="F32">
-        <v>116148</v>
+      <c r="F32" t="n">
+        <v>113988.0</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-6918</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
+        <v>-9078</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>-5.6213738969333529E-2</v>
+        <v>-7.3765296670079472E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>94.378626103066651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.623470332992056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -6154,26 +6149,26 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="F33">
-        <v>115509</v>
+      <c r="F33" t="n">
+        <v>113449.0</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-7226</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
+        <v>-9286</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>-5.887481158593718E-2</v>
+        <v>-7.5658939992667124E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>94.112518841406285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.434106000733294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -6186,26 +6181,26 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="F34">
-        <v>116015</v>
+      <c r="F34" t="n">
+        <v>113855.0</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>-2196</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
+        <v>-4356</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>-1.8576951383542987E-2</v>
+        <v>-3.6849362580470515E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>98.142304861645698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>96.315063741952955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -6218,26 +6213,26 @@
       <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="F35">
-        <v>116892</v>
+      <c r="F35" t="n">
+        <v>114752.0</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>-7660</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+        <v>-9800</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>-6.1500417496306761E-2</v>
+        <v>-7.8681996274648336E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>93.849958250369326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.131800372535167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -6250,26 +6245,26 @@
       <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="F36">
-        <v>114583</v>
+      <c r="F36" t="n">
+        <v>112503.0</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>-6894</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
+        <v>-8974</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>-5.6751483819982386E-2</v>
+        <v>-7.387406669575311E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>94.324851618001759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.612593330424687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -6282,26 +6277,26 @@
       <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="F37">
-        <v>115861</v>
+      <c r="F37" t="n">
+        <v>113701.0</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>-6622</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+        <v>-8782</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>-5.4064645705934701E-2</v>
+        <v>-7.1699746087212107E-2</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>94.593535429406529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92.830025391278795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -6314,26 +6309,26 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="F38">
-        <v>116225</v>
+      <c r="F38" t="n">
+        <v>114065.0</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>-5052</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>-7212</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>-4.1656703249585661E-2</v>
+        <v>-5.9467170197151975E-2</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>95.834329675041431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94.053282980284806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -6346,26 +6341,26 @@
       <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="F39">
-        <v>116190</v>
+      <c r="F39" t="n">
+        <v>114030.0</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>1298</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+        <v>-862</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>1.1297566410193921E-2</v>
+        <v>-7.5026981861226194E-3</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>101.1297566410194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.249730181387733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -6378,26 +6373,26 @@
       <c r="D40" t="s">
         <v>86</v>
       </c>
-      <c r="F40">
-        <v>117314</v>
+      <c r="F40" t="n">
+        <v>115074.0</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>-8010</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
+        <v>-10250</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>-6.3914334046152377E-2</v>
+        <v>-8.1788005489770513E-2</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>93.608566595384758</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91.821199451022949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -6410,26 +6405,26 @@
       <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="F41">
-        <v>116344</v>
+      <c r="F41" t="n">
+        <v>114184.0</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>1842</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>-318</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>1.6087055247943266E-2</v>
+        <v>-2.777244065605841E-3</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>101.60870552479433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.72227559343942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2382</v>
       </c>
@@ -6442,15 +6437,15 @@
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="F42">
-        <v>19896</v>
+      <c r="F42" t="n">
+        <v>19896.0</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="n">
+        <v>0.0</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -6461,7 +6456,7 @@
         <v>100.11069739357956</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2908</v>
       </c>
@@ -6474,15 +6469,15 @@
       <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="F43">
-        <v>19854</v>
+      <c r="F43" t="n">
+        <v>19854.0</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="n">
+        <v>0.0</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -6493,7 +6488,7 @@
         <v>100.21199273167777</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9733</v>
       </c>
@@ -6506,15 +6501,15 @@
       <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="F44">
-        <v>19931</v>
+      <c r="F44" t="n">
+        <v>19931.0</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="n">
+        <v>0.0</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -6525,7 +6520,7 @@
         <v>100.2918532682534</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3151</v>
       </c>
@@ -6538,15 +6533,15 @@
       <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="F45">
-        <v>19194</v>
+      <c r="F45" t="n">
+        <v>19194.0</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="n">
+        <v>0.0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -6557,7 +6552,7 @@
         <v>100.20883366398664</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7335</v>
       </c>
@@ -6570,15 +6565,15 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="F46">
-        <v>19495</v>
+      <c r="F46" t="n">
+        <v>19495.0</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="n">
+        <v>0.0</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -6589,7 +6584,7 @@
         <v>100.22620944938564</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3002</v>
       </c>
@@ -6602,15 +6597,15 @@
       <c r="D47" t="s">
         <v>97</v>
       </c>
-      <c r="F47">
-        <v>19945</v>
+      <c r="F47" t="n">
+        <v>19945.0</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="n">
+        <v>0.0</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -6621,7 +6616,7 @@
         <v>100.27147956362174</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7886</v>
       </c>
@@ -6634,15 +6629,15 @@
       <c r="D48" t="s">
         <v>99</v>
       </c>
-      <c r="F48">
-        <v>19215</v>
+      <c r="F48" t="n">
+        <v>19215.0</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="H48" t="n">
+        <v>0.0</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -6653,7 +6648,7 @@
         <v>100.1877053026748</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6477</v>
       </c>
@@ -6666,15 +6661,15 @@
       <c r="D49" t="s">
         <v>100</v>
       </c>
-      <c r="F49">
-        <v>19390</v>
+      <c r="F49" t="n">
+        <v>19390.0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="H49" t="n">
+        <v>0.0</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -6685,7 +6680,7 @@
         <v>100.20671834625323</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14147</v>
       </c>
@@ -6698,15 +6693,15 @@
       <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="F50">
-        <v>19208</v>
+      <c r="F50" t="n">
+        <v>19208.0</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H50">
-        <v>1</v>
+      <c r="H50" t="n">
+        <v>0.0</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -6717,7 +6712,7 @@
         <v>100.27145541866778</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -6730,15 +6725,15 @@
       <c r="D51" t="s">
         <v>103</v>
       </c>
-      <c r="F51">
-        <v>19833</v>
+      <c r="F51" t="n">
+        <v>19833.0</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="n">
+        <v>0.0</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -6749,7 +6744,7 @@
         <v>100.26287851979171</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7304</v>
       </c>
@@ -6762,26 +6757,26 @@
       <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="F52">
-        <v>19404</v>
+      <c r="F52" t="n">
+        <v>19144.0</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>1.890359168241966E-2</v>
+        <v>5.2509976895610162E-3</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>101.89035916824197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.5250997689561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>57306</v>
       </c>
@@ -6794,26 +6789,26 @@
       <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="F53">
-        <v>19572</v>
+      <c r="F53" t="n">
+        <v>19312.0</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>1.6093863565569515E-2</v>
+        <v>2.5957844460595993E-3</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>101.60938635655695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.25957844460596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>13886</v>
       </c>
@@ -6826,26 +6821,26 @@
       <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="F54">
-        <v>20071</v>
+      <c r="F54" t="n">
+        <v>19711.0</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>1.8263913550809193E-2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>101.82639135508091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6049</v>
       </c>
@@ -6858,26 +6853,26 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="F55">
-        <v>19215</v>
+      <c r="F55" t="n">
+        <v>18835.0</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>2.017520573400584E-2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>102.01752057340059</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8795</v>
       </c>
@@ -6890,26 +6885,26 @@
       <c r="D56" t="s">
         <v>111</v>
       </c>
-      <c r="F56">
-        <v>19320</v>
+      <c r="F56" t="n">
+        <v>19060.0</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>1.7913593256059009E-2</v>
+        <v>4.2149631190727078E-3</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>101.7913593256059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.42149631190728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6713</v>
       </c>
@@ -6922,26 +6917,26 @@
       <c r="D57" t="s">
         <v>112</v>
       </c>
-      <c r="F57">
-        <v>19474</v>
+      <c r="F57" t="n">
+        <v>19214.0</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>348</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>1.8195127052180279E-2</v>
+        <v>4.6010666108961627E-3</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>101.81951270521803</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.46010666108961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>20402</v>
       </c>
@@ -6954,26 +6949,26 @@
       <c r="D58" t="s">
         <v>114</v>
       </c>
-      <c r="F58">
-        <v>19586</v>
+      <c r="F58" t="n">
+        <v>19326.0</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>1.6082174725046691E-2</v>
+        <v>2.5938991492010792E-3</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>101.60821747250466</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.25938991492011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>8111</v>
       </c>
@@ -6986,26 +6981,26 @@
       <c r="D59" t="s">
         <v>116</v>
       </c>
-      <c r="F59">
-        <v>19397</v>
+      <c r="F59" t="n">
+        <v>19137.0</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>1.8054899490893821E-2</v>
+        <v>4.4087545268461656E-3</v>
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
-        <v>101.80548994908938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.44087545268462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>18295</v>
       </c>
@@ -7018,26 +7013,26 @@
       <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="F60">
-        <v>19264</v>
+      <c r="F60" t="n">
+        <v>19004.0</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>1.8181818181818181E-2</v>
+        <v>4.4397463002114161E-3</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.44397463002115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7277</v>
       </c>
@@ -7050,26 +7045,26 @@
       <c r="D61" t="s">
         <v>119</v>
       </c>
-      <c r="F61">
-        <v>19138</v>
+      <c r="F61" t="n">
+        <v>18758.0</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="H61">
         <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>2.0258023243416141E-2</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>102.02580232434161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -7082,15 +7077,15 @@
       <c r="D62" t="s">
         <v>122</v>
       </c>
-      <c r="F62">
-        <v>23257</v>
+      <c r="F62" t="n">
+        <v>23257.0</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="n">
+        <v>0.0</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -7101,7 +7096,7 @@
         <v>100.42316162183168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5365</v>
       </c>
@@ -7114,15 +7109,15 @@
       <c r="D63" t="s">
         <v>123</v>
       </c>
-      <c r="F63">
-        <v>23390</v>
+      <c r="F63" t="n">
+        <v>23390.0</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="n">
+        <v>0.0</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -7133,7 +7128,7 @@
         <v>100.39488368100267</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64377</v>
       </c>
@@ -7146,15 +7141,15 @@
       <c r="D64" t="s">
         <v>125</v>
       </c>
-      <c r="F64">
-        <v>23299</v>
+      <c r="F64" t="n">
+        <v>23299.0</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="n">
+        <v>0.0</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -7165,7 +7160,7 @@
         <v>100.4916972180289</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4618</v>
       </c>
@@ -7178,15 +7173,15 @@
       <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="F65">
-        <v>23040</v>
+      <c r="F65" t="n">
+        <v>23040.0</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="n">
+        <v>0.0</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -7197,7 +7192,7 @@
         <v>100.47095761381476</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -7210,15 +7205,15 @@
       <c r="D66" t="s">
         <v>129</v>
       </c>
-      <c r="F66">
-        <v>23012</v>
+      <c r="F66" t="n">
+        <v>23012.0</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H66">
-        <v>0</v>
+      <c r="H66" t="n">
+        <v>16.0</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -7229,7 +7224,7 @@
         <v>100.38387715930902</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>22373</v>
       </c>
@@ -7242,26 +7237,26 @@
       <c r="D67" t="s">
         <v>131</v>
       </c>
-      <c r="F67">
-        <v>23152</v>
+      <c r="F67" t="n">
+        <v>23152.0</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G121" si="4">F67-B67</f>
         <v>118</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="n">
+        <v>0.0</v>
       </c>
       <c r="I67">
         <f t="shared" si="3"/>
         <v>5.1228618563862113E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
         <v>100.51228618563862</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18476</v>
       </c>
@@ -7274,26 +7269,26 @@
       <c r="D68" t="s">
         <v>133</v>
       </c>
-      <c r="F68">
-        <v>22914</v>
+      <c r="F68" t="n">
+        <v>22914.0</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H68">
-        <v>1</v>
+      <c r="H68" t="n">
+        <v>0.0</v>
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
         <v>3.8552527819153597E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J121" si="5">F68*100/B68</f>
+        <f t="shared" si="5"/>
         <v>100.38552527819154</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>22724</v>
       </c>
@@ -7306,15 +7301,15 @@
       <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="F69">
-        <v>23418</v>
+      <c r="F69" t="n">
+        <v>23418.0</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H69">
-        <v>1</v>
+      <c r="H69" t="n">
+        <v>0.0</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -7325,7 +7320,7 @@
         <v>100.411628505274</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5832</v>
       </c>
@@ -7338,15 +7333,15 @@
       <c r="D70" t="s">
         <v>136</v>
       </c>
-      <c r="F70">
-        <v>23054</v>
+      <c r="F70" t="n">
+        <v>23054.0</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="n">
+        <v>0.0</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -7357,7 +7352,7 @@
         <v>100.44440571627744</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>6507</v>
       </c>
@@ -7370,15 +7365,15 @@
       <c r="D71" t="s">
         <v>137</v>
       </c>
-      <c r="F71">
-        <v>23117</v>
+      <c r="F71" t="n">
+        <v>23117.0</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="n">
+        <v>0.0</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
@@ -7389,7 +7384,7 @@
         <v>100.39084552916142</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>21941</v>
       </c>
@@ -7402,26 +7397,26 @@
       <c r="D72" t="s">
         <v>139</v>
       </c>
-      <c r="F72">
-        <v>23292</v>
+      <c r="F72" t="n">
+        <v>22892.0</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
-        <v>1.9700551615445233E-2</v>
+        <v>2.1889501794939148E-3</v>
       </c>
       <c r="J72">
         <f t="shared" si="5"/>
-        <v>101.97005516154452</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.21889501794939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15461</v>
       </c>
@@ -7434,26 +7429,26 @@
       <c r="D73" t="s">
         <v>141</v>
       </c>
-      <c r="F73">
-        <v>23012</v>
+      <c r="F73" t="n">
+        <v>22612.0</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
-        <v>502</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
-        <v>2.23011994669036E-2</v>
+        <v>4.5313194135939584E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="5"/>
-        <v>102.23011994669037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.4531319413594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12694</v>
       </c>
@@ -7466,26 +7461,26 @@
       <c r="D74" t="s">
         <v>142</v>
       </c>
-      <c r="F74">
-        <v>23397</v>
+      <c r="F74" t="n">
+        <v>22997.0</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
-        <v>1.9610406589096616E-2</v>
+        <v>2.1789340654551795E-3</v>
       </c>
       <c r="J74">
         <f t="shared" si="5"/>
-        <v>101.96104065890967</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.21789340654551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>12793</v>
       </c>
@@ -7498,26 +7493,26 @@
       <c r="D75" t="s">
         <v>144</v>
       </c>
-      <c r="F75">
-        <v>22639</v>
+      <c r="F75" t="n">
+        <v>22219.0</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
-        <v>438</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
       </c>
       <c r="I75">
         <f t="shared" si="3"/>
-        <v>1.9728841043196253E-2</v>
+        <v>8.1077428944642137E-4</v>
       </c>
       <c r="J75">
         <f t="shared" si="5"/>
-        <v>101.97288410431962</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.08107742894464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -7530,26 +7525,26 @@
       <c r="D76" t="s">
         <v>147</v>
       </c>
-      <c r="F76">
-        <v>23770</v>
+      <c r="F76" t="n">
+        <v>23270.0</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
-        <v>522</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
-        <v>2.2453544390915348E-2</v>
+        <v>9.4631796283551272E-4</v>
       </c>
       <c r="J76">
         <f t="shared" si="5"/>
-        <v>102.24535443909153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.09463179628355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>180077</v>
       </c>
@@ -7562,26 +7557,26 @@
       <c r="D77" t="s">
         <v>149</v>
       </c>
-      <c r="F77">
-        <v>23215</v>
+      <c r="F77" t="n">
+        <v>22815.0</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
-        <v>470</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
-        <v>2.0663882171905915E-2</v>
+        <v>3.0775994724115191E-3</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
-        <v>102.06638821719059</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.30775994724115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>12617</v>
       </c>
@@ -7594,26 +7589,26 @@
       <c r="D78" t="s">
         <v>150</v>
       </c>
-      <c r="F78">
-        <v>23425</v>
+      <c r="F78" t="n">
+        <v>23025.0</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H78" t="n">
+        <v>33.0</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
-        <v>1.9586507072905331E-2</v>
+        <v>2.176278563656148E-3</v>
       </c>
       <c r="J78">
         <f t="shared" si="5"/>
-        <v>101.95865070729053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.21762785636561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>17449</v>
       </c>
@@ -7626,26 +7621,26 @@
       <c r="D79" t="s">
         <v>152</v>
       </c>
-      <c r="F79">
-        <v>22970</v>
+      <c r="F79" t="n">
+        <v>22570.0</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
-        <v>2.2251891410769914E-2</v>
+        <v>4.450378282153983E-3</v>
       </c>
       <c r="J79">
         <f t="shared" si="5"/>
-        <v>102.225189141077</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.4450378282154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>24581</v>
       </c>
@@ -7658,26 +7653,26 @@
       <c r="D80" t="s">
         <v>154</v>
       </c>
-      <c r="F80">
-        <v>23509</v>
+      <c r="F80" t="n">
+        <v>23109.0</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
-        <v>1.9515156771759398E-2</v>
+        <v>2.1683507524177109E-3</v>
       </c>
       <c r="J80">
         <f t="shared" si="5"/>
-        <v>101.95151567717593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.21683507524178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10109</v>
       </c>
@@ -7690,26 +7685,26 @@
       <c r="D81" t="s">
         <v>155</v>
       </c>
-      <c r="F81">
-        <v>22991</v>
+      <c r="F81" t="n">
+        <v>22591.0</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
-        <v>488</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
-        <v>2.168599742256588E-2</v>
+        <v>3.9105896991512247E-3</v>
       </c>
       <c r="J81">
         <f t="shared" si="5"/>
-        <v>102.16859974225659</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.39105896991512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>46522</v>
       </c>
@@ -7722,15 +7717,15 @@
       <c r="D82" t="s">
         <v>157</v>
       </c>
-      <c r="F82">
-        <v>49556</v>
+      <c r="F82" t="n">
+        <v>49556.0</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="n">
+        <v>0.0</v>
       </c>
       <c r="I82">
         <f t="shared" si="3"/>
@@ -7741,7 +7736,7 @@
         <v>100.29548674357417</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>180173</v>
       </c>
@@ -7754,15 +7749,15 @@
       <c r="D83" t="s">
         <v>159</v>
       </c>
-      <c r="F83">
-        <v>48411</v>
+      <c r="F83" t="n">
+        <v>48411.0</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="n">
+        <v>0.0</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
@@ -7773,7 +7768,7 @@
         <v>100.14480461719864</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>180112</v>
       </c>
@@ -7786,15 +7781,15 @@
       <c r="D84" t="s">
         <v>161</v>
       </c>
-      <c r="F84">
-        <v>49092</v>
+      <c r="F84" t="n">
+        <v>49092.0</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H84">
-        <v>1</v>
+      <c r="H84" t="n">
+        <v>0.0</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -7805,7 +7800,7 @@
         <v>100.31058438904782</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>180126</v>
       </c>
@@ -7818,15 +7813,15 @@
       <c r="D85" t="s">
         <v>163</v>
       </c>
-      <c r="F85">
-        <v>48201</v>
+      <c r="F85" t="n">
+        <v>48201.0</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H85">
-        <v>0</v>
+      <c r="H85" t="n">
+        <v>0.0</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -7837,7 +7832,7 @@
         <v>100.16624758421479</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>180129</v>
       </c>
@@ -7850,15 +7845,15 @@
       <c r="D86" t="s">
         <v>165</v>
       </c>
-      <c r="F86">
-        <v>48264</v>
+      <c r="F86" t="n">
+        <v>48264.0</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H86">
-        <v>1</v>
+      <c r="H86" t="n">
+        <v>0.0</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -7869,7 +7864,7 @@
         <v>100.21178522486608</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>59136</v>
       </c>
@@ -7882,15 +7877,15 @@
       <c r="D87" t="s">
         <v>167</v>
       </c>
-      <c r="F87">
-        <v>48805</v>
+      <c r="F87" t="n">
+        <v>48805.0</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H87">
-        <v>3</v>
+      <c r="H87" t="n">
+        <v>0.0</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -7901,7 +7896,7 @@
         <v>100.2547195004211</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>58486</v>
       </c>
@@ -7914,15 +7909,15 @@
       <c r="D88" t="s">
         <v>168</v>
       </c>
-      <c r="F88">
-        <v>48784</v>
+      <c r="F88" t="n">
+        <v>48784.0</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="H88">
-        <v>1</v>
+      <c r="H88" t="n">
+        <v>0.0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -7933,7 +7928,7 @@
         <v>100.21364009860312</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>180123</v>
       </c>
@@ -7946,15 +7941,15 @@
       <c r="D89" t="s">
         <v>170</v>
       </c>
-      <c r="F89">
-        <v>47998</v>
+      <c r="F89" t="n">
+        <v>47998.0</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="H89">
-        <v>1</v>
+      <c r="H89" t="n">
+        <v>0.0</v>
       </c>
       <c r="I89">
         <f t="shared" si="3"/>
@@ -7965,7 +7960,7 @@
         <v>100.24226222797711</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>34267</v>
       </c>
@@ -7978,15 +7973,15 @@
       <c r="D90" t="s">
         <v>172</v>
       </c>
-      <c r="F90">
-        <v>48278</v>
+      <c r="F90" t="n">
+        <v>48278.0</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H90">
-        <v>0</v>
+      <c r="H90" t="n">
+        <v>0.0</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -7997,7 +7992,7 @@
         <v>100.207563618249</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>180118</v>
       </c>
@@ -8010,15 +8005,15 @@
       <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="F91">
-        <v>47758</v>
+      <c r="F91" t="n">
+        <v>47758.0</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H91">
-        <v>0</v>
+      <c r="H91" t="n">
+        <v>0.0</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
@@ -8029,7 +8024,7 @@
         <v>100.05447079527362</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>146109</v>
       </c>
@@ -8042,26 +8037,26 @@
       <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="F92">
-        <v>47156</v>
+      <c r="F92" t="n">
+        <v>46296.0</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
-        <v>882</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
-        <v>1.906037947875697E-2</v>
+        <v>4.7542896659030987E-4</v>
       </c>
       <c r="J92">
         <f t="shared" si="5"/>
-        <v>101.9060379478757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.04754289665902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>151784</v>
       </c>
@@ -8074,26 +8069,26 @@
       <c r="D93" t="s">
         <v>178</v>
       </c>
-      <c r="F93">
-        <v>48369</v>
+      <c r="F93" t="n">
+        <v>47529.0</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
-        <v>870</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
-        <v>1.8316175077370048E-2</v>
+        <v>6.3159224404724307E-4</v>
       </c>
       <c r="J93">
         <f t="shared" si="5"/>
-        <v>101.83161750773701</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.06315922440473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>180182</v>
       </c>
@@ -8106,26 +8101,26 @@
       <c r="D94" t="s">
         <v>180</v>
       </c>
-      <c r="F94">
-        <v>48040</v>
+      <c r="F94" t="n">
+        <v>47200.0</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
-        <v>860</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
-        <v>1.8228062738448497E-2</v>
+        <v>4.2390843577787198E-4</v>
       </c>
       <c r="J94">
         <f t="shared" si="5"/>
-        <v>101.82280627384485</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.04239084357779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>180209</v>
       </c>
@@ -8138,26 +8133,26 @@
       <c r="D95" t="s">
         <v>182</v>
       </c>
-      <c r="F95">
-        <v>49556</v>
+      <c r="F95" t="n">
+        <v>48636.0</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
-        <v>920</v>
-      </c>
-      <c r="H95">
         <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
-        <v>1.891602927872358E-2</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <f t="shared" si="5"/>
-        <v>101.89160292787236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>180889</v>
       </c>
@@ -8170,26 +8165,26 @@
       <c r="D96" t="s">
         <v>184</v>
       </c>
-      <c r="F96">
-        <v>49225</v>
+      <c r="F96" t="n">
+        <v>48405.0</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
-        <v>850</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
-        <v>1.7571059431524549E-2</v>
+        <v>6.2015503875968996E-4</v>
       </c>
       <c r="J96">
         <f t="shared" si="5"/>
-        <v>101.75710594315245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.06201550387597</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>139649</v>
       </c>
@@ -8202,26 +8197,26 @@
       <c r="D97" t="s">
         <v>186</v>
       </c>
-      <c r="F97">
-        <v>48847</v>
+      <c r="F97" t="n">
+        <v>48027.0</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
-        <v>920</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
-        <v>1.9195860370980866E-2</v>
+        <v>2.0865065620631375E-3</v>
       </c>
       <c r="J97">
         <f t="shared" si="5"/>
-        <v>101.91958603709809</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.20865065620632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -8234,26 +8229,26 @@
       <c r="D98" t="s">
         <v>189</v>
       </c>
-      <c r="F98">
-        <v>48840</v>
+      <c r="F98" t="n">
+        <v>48020.0</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
-        <v>920</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
-        <v>1.9198664440734557E-2</v>
+        <v>2.0868113522537562E-3</v>
       </c>
       <c r="J98">
         <f t="shared" si="5"/>
-        <v>101.91986644407345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.20868113522538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>180174</v>
       </c>
@@ -8266,26 +8261,26 @@
       <c r="D99" t="s">
         <v>191</v>
       </c>
-      <c r="F99">
-        <v>48987</v>
+      <c r="F99" t="n">
+        <v>48167.0</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
-        <v>876</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
-        <v>1.8207894244559455E-2</v>
+        <v>1.1639749745380474E-3</v>
       </c>
       <c r="J99">
         <f t="shared" si="5"/>
-        <v>101.82078942445595</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.1163974974538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>180154</v>
       </c>
@@ -8298,26 +8293,26 @@
       <c r="D100" t="s">
         <v>193</v>
       </c>
-      <c r="F100">
-        <v>47998</v>
+      <c r="F100" t="n">
+        <v>47158.0</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
-        <v>870</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
-        <v>1.846036326599898E-2</v>
+        <v>6.3656425055168904E-4</v>
       </c>
       <c r="J100">
         <f t="shared" si="5"/>
-        <v>101.8460363265999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.06365642505517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>180163</v>
       </c>
@@ -8330,26 +8325,26 @@
       <c r="D101" t="s">
         <v>195</v>
       </c>
-      <c r="F101">
-        <v>48320</v>
+      <c r="F101" t="n">
+        <v>47480.0</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
-        <v>846</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
-        <v>1.7820280574630323E-2</v>
+        <v>1.2638496861439946E-4</v>
       </c>
       <c r="J101">
         <f t="shared" si="5"/>
-        <v>101.78202805746304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.01263849686144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>180145</v>
       </c>
@@ -8362,15 +8357,15 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="F102">
-        <v>57808</v>
+      <c r="F102" t="n">
+        <v>57808.0</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="n">
+        <v>0.0</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -8381,7 +8376,7 @@
         <v>100.13164276311231</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>180124</v>
       </c>
@@ -8394,15 +8389,15 @@
       <c r="D103" t="s">
         <v>199</v>
       </c>
-      <c r="F103">
-        <v>57997</v>
+      <c r="F103" t="n">
+        <v>57997.0</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="H103">
-        <v>0</v>
+      <c r="H103" t="n">
+        <v>0.0</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -8413,7 +8408,7 @@
         <v>100.30438767921689</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>180226</v>
       </c>
@@ -8426,15 +8421,15 @@
       <c r="D104" t="s">
         <v>201</v>
       </c>
-      <c r="F104">
-        <v>58046</v>
+      <c r="F104" t="n">
+        <v>58046.0</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H104">
-        <v>1</v>
+      <c r="H104" t="n">
+        <v>0.0</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -8445,7 +8440,7 @@
         <v>100.01033769813921</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>180155</v>
       </c>
@@ -8458,15 +8453,15 @@
       <c r="D105" t="s">
         <v>203</v>
       </c>
-      <c r="F105">
-        <v>58559</v>
+      <c r="F105" t="n">
+        <v>58559.0</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="H105">
-        <v>0</v>
+      <c r="H105" t="n">
+        <v>0.0</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -8477,7 +8472,7 @@
         <v>100.07519439459968</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>180087</v>
       </c>
@@ -8490,15 +8485,15 @@
       <c r="D106" t="s">
         <v>205</v>
       </c>
-      <c r="F106">
-        <v>58384</v>
+      <c r="F106" t="n">
+        <v>58384.0</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="H106">
-        <v>0</v>
+      <c r="H106" t="n">
+        <v>0.0</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -8509,7 +8504,7 @@
         <v>100.28858045898035</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>180133</v>
       </c>
@@ -8522,15 +8517,15 @@
       <c r="D107" t="s">
         <v>207</v>
       </c>
-      <c r="F107">
-        <v>57773</v>
+      <c r="F107" t="n">
+        <v>57773.0</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H107">
-        <v>1</v>
+      <c r="H107" t="n">
+        <v>0.0</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -8541,7 +8536,7 @@
         <v>100.18728864996098</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -8554,15 +8549,15 @@
       <c r="D108" t="s">
         <v>210</v>
       </c>
-      <c r="F108">
-        <v>57724</v>
+      <c r="F108" t="n">
+        <v>57724.0</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H108">
-        <v>0</v>
+      <c r="H108" t="n">
+        <v>0.0</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -8573,7 +8568,7 @@
         <v>100.21527777777777</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>180145</v>
       </c>
@@ -8586,15 +8581,15 @@
       <c r="D109" t="s">
         <v>212</v>
       </c>
-      <c r="F109">
-        <v>58370</v>
+      <c r="F109" t="n">
+        <v>58370.0</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H109">
-        <v>0</v>
+      <c r="H109" t="n">
+        <v>0.0</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -8605,7 +8600,7 @@
         <v>100.18536953760599</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>180163</v>
       </c>
@@ -8618,15 +8613,15 @@
       <c r="D110" t="s">
         <v>214</v>
       </c>
-      <c r="F110">
-        <v>58067</v>
+      <c r="F110" t="n">
+        <v>58067.0</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="H110">
-        <v>0</v>
+      <c r="H110" t="n">
+        <v>0.0</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -8637,7 +8632,7 @@
         <v>100.07928163940642</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>180192</v>
       </c>
@@ -8650,15 +8645,15 @@
       <c r="D111" t="s">
         <v>216</v>
       </c>
-      <c r="F111">
-        <v>58573</v>
+      <c r="F111" t="n">
+        <v>58573.0</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="H111">
-        <v>0</v>
+      <c r="H111" t="n">
+        <v>0.0</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -8669,7 +8664,7 @@
         <v>100.3220005138306</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>185105</v>
       </c>
@@ -8682,26 +8677,26 @@
       <c r="D112" t="s">
         <v>218</v>
       </c>
-      <c r="F112">
-        <v>58580</v>
+      <c r="F112" t="n">
+        <v>57520.0</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
-        <v>1054</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
+        <v>-6</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
-        <v>1.8322149984354899E-2</v>
+        <v>-1.0430066404756111E-4</v>
       </c>
       <c r="J112">
         <f t="shared" si="5"/>
-        <v>101.83221499843549</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.989569933595249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>180343</v>
       </c>
@@ -8714,26 +8709,26 @@
       <c r="D113" t="s">
         <v>220</v>
       </c>
-      <c r="F113">
-        <v>58384</v>
+      <c r="F113" t="n">
+        <v>57324.0</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
-        <v>922</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
+        <v>-138</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
-        <v>1.604538651630643E-2</v>
+        <v>-2.4015871358462984E-3</v>
       </c>
       <c r="J113">
         <f t="shared" si="5"/>
-        <v>101.60453865163065</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.759841286415366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>180224</v>
       </c>
@@ -8746,26 +8741,26 @@
       <c r="D114" t="s">
         <v>222</v>
       </c>
-      <c r="F114">
-        <v>57864</v>
+      <c r="F114" t="n">
+        <v>56784.0</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
-        <v>1096</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
-        <v>1.9306651634723788E-2</v>
+        <v>2.8184892897406989E-4</v>
       </c>
       <c r="J114">
         <f t="shared" si="5"/>
-        <v>101.93066516347238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.0281848928974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>180256</v>
       </c>
@@ -8778,26 +8773,26 @@
       <c r="D115" t="s">
         <v>224</v>
       </c>
-      <c r="F115">
-        <v>57766</v>
+      <c r="F115" t="n">
+        <v>56686.0</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
-        <v>1048</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
+        <v>-32</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
-        <v>1.8477379315208577E-2</v>
+        <v>-5.6419478825064354E-4</v>
       </c>
       <c r="J115">
         <f t="shared" si="5"/>
-        <v>101.84773793152085</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.943580521174937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>180227</v>
       </c>
@@ -8810,26 +8805,26 @@
       <c r="D116" t="s">
         <v>226</v>
       </c>
-      <c r="F116">
-        <v>58060</v>
+      <c r="F116" t="n">
+        <v>56980.0</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
-        <v>1092</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
-        <v>1.9168656087628144E-2</v>
+        <v>2.1064457239151804E-4</v>
       </c>
       <c r="J116">
         <f t="shared" si="5"/>
-        <v>101.91686560876282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.02106445723915</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>180226</v>
       </c>
@@ -8842,26 +8837,26 @@
       <c r="D117" t="s">
         <v>228</v>
       </c>
-      <c r="F117">
-        <v>58144</v>
+      <c r="F117" t="n">
+        <v>57064.0</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
-        <v>1060</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
-        <v>1.8569126199985984E-2</v>
+        <v>-3.503608716978488E-4</v>
       </c>
       <c r="J117">
         <f t="shared" si="5"/>
-        <v>101.8569126199986</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.964963912830214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>180262</v>
       </c>
@@ -8874,26 +8869,26 @@
       <c r="D118" t="s">
         <v>230</v>
       </c>
-      <c r="F118">
-        <v>57647</v>
+      <c r="F118" t="n">
+        <v>56567.0</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
-        <v>1090</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
-        <v>1.9272592252064288E-2</v>
+        <v>1.7681277295471826E-4</v>
       </c>
       <c r="J118">
         <f t="shared" si="5"/>
-        <v>101.92725922520643</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100.01768127729547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>180237</v>
       </c>
@@ -8906,26 +8901,26 @@
       <c r="D119" t="s">
         <v>232</v>
       </c>
-      <c r="F119">
-        <v>58053</v>
+      <c r="F119" t="n">
+        <v>56973.0</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
-        <v>1030</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
+        <v>-50</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
-        <v>1.8062886905283834E-2</v>
+        <v>-8.7683917015940937E-4</v>
       </c>
       <c r="J119">
         <f t="shared" si="5"/>
-        <v>101.80628869052839</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.912316082984063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>180388</v>
       </c>
@@ -8938,26 +8933,26 @@
       <c r="D120" t="s">
         <v>234</v>
       </c>
-      <c r="F120">
-        <v>58776</v>
+      <c r="F120" t="n">
+        <v>57716.0</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
-        <v>1020</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
+        <v>-40</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
-        <v>1.7660502804903385E-2</v>
+        <v>-6.925687374471916E-4</v>
       </c>
       <c r="J120">
         <f t="shared" si="5"/>
-        <v>101.76605028049033</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.93074312625528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>180323</v>
       </c>
@@ -8970,45 +8965,45 @@
       <c r="D121" t="s">
         <v>236</v>
       </c>
-      <c r="F121">
-        <v>57183</v>
+      <c r="F121" t="n">
+        <v>56203.0</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
-        <v>920</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
+        <v>-60</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
-        <v>1.635177647832501E-2</v>
+        <v>-1.0664202051081527E-3</v>
       </c>
       <c r="J121">
         <f t="shared" si="5"/>
-        <v>101.63517764783251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.893357979489181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F124">
         <f>SUM(F2:F121)</f>
         <v>7247355</v>
       </c>
       <c r="G124">
         <f>SUM(G2:G121)</f>
-        <v>-2806</v>
+        <v>-67106</v>
       </c>
       <c r="H124">
         <f>SUM(H2:H121)</f>
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="I124">
         <f>SUM(I2:I121)</f>
-        <v>0.6230433367617354</v>
+        <v>-0.42848240964612061</v>
       </c>
       <c r="J124">
         <f>SUM(J2:J121)/120</f>
-        <v>100.51920278063476</v>
+        <v>99.642931325294867</v>
       </c>
     </row>
   </sheetData>
@@ -9021,16 +9016,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9059,7 +9054,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -9091,7 +9086,7 @@
         <v>100.02681213971188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -9123,7 +9118,7 @@
         <v>99.952639327890282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -9155,7 +9150,7 @@
         <v>99.969519629358686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -9187,7 +9182,7 @@
         <v>99.835531387806711</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -9219,7 +9214,7 @@
         <v>100.13380303774709</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -9251,7 +9246,7 @@
         <v>100.10407484893217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9283,7 +9278,7 @@
         <v>100.03880164192211</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -9315,7 +9310,7 @@
         <v>100.01429694760169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -9347,7 +9342,7 @@
         <v>100.07874423664715</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -9379,7 +9374,7 @@
         <v>99.973444186830363</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -9411,7 +9406,7 @@
         <v>101.65044257090595</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -9443,7 +9438,7 @@
         <v>101.31697221815749</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -9475,7 +9470,7 @@
         <v>101.44304671079462</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -9507,7 +9502,7 @@
         <v>101.56820106428579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -9539,7 +9534,7 @@
         <v>101.68474255027904</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -9571,7 +9566,7 @@
         <v>101.41250272633798</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -9603,7 +9598,7 @@
         <v>101.69461272744454</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -9635,7 +9630,7 @@
         <v>101.60403541541352</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -9667,7 +9662,7 @@
         <v>101.6003905462341</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -9699,7 +9694,7 @@
         <v>101.44325799805473</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -9731,7 +9726,7 @@
         <v>99.996591683708246</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -9763,7 +9758,7 @@
         <v>99.939786500133323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -9795,7 +9790,7 @@
         <v>100.08152433154385</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -9827,7 +9822,7 @@
         <v>100.02924278391303</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -9859,7 +9854,7 @@
         <v>100.05656544879541</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -9891,7 +9886,7 @@
         <v>99.089573654003829</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -9923,7 +9918,7 @@
         <v>99.936443589391232</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -9955,7 +9950,7 @@
         <v>100.02584357744028</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -9987,7 +9982,7 @@
         <v>99.898416852471996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -10019,7 +10014,7 @@
         <v>100.07809517198292</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -10051,7 +10046,7 @@
         <v>94.378626103066651</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -10083,7 +10078,7 @@
         <v>94.112518841406285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -10115,7 +10110,7 @@
         <v>98.142304861645698</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -10147,7 +10142,7 @@
         <v>93.849958250369326</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -10179,7 +10174,7 @@
         <v>94.324851618001759</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -10211,7 +10206,7 @@
         <v>94.593535429406529</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -10243,7 +10238,7 @@
         <v>95.834329675041431</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -10275,7 +10270,7 @@
         <v>101.1297566410194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -10307,7 +10302,7 @@
         <v>93.608566595384758</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -10353,13 +10348,13 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10388,7 +10383,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46522</v>
       </c>
@@ -10417,7 +10412,7 @@
         <v>100.29548674357417</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>180173</v>
       </c>
@@ -10446,7 +10441,7 @@
         <v>100.14480461719864</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>180112</v>
       </c>
@@ -10475,7 +10470,7 @@
         <v>100.31058438904782</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>180126</v>
       </c>
@@ -10504,7 +10499,7 @@
         <v>100.16624758421479</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>180129</v>
       </c>
@@ -10533,7 +10528,7 @@
         <v>100.21178522486608</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>59136</v>
       </c>
@@ -10562,7 +10557,7 @@
         <v>100.2547195004211</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>58486</v>
       </c>
@@ -10591,7 +10586,7 @@
         <v>100.21364009860312</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>180123</v>
       </c>
@@ -10620,7 +10615,7 @@
         <v>100.24226222797711</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34267</v>
       </c>
@@ -10649,7 +10644,7 @@
         <v>100.207563618249</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180118</v>
       </c>
@@ -10678,7 +10673,7 @@
         <v>100.05447079527362</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>146109</v>
       </c>
@@ -10707,7 +10702,7 @@
         <v>101.9060379478757</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>151784</v>
       </c>
@@ -10736,7 +10731,7 @@
         <v>101.83161750773701</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>180182</v>
       </c>
@@ -10765,7 +10760,7 @@
         <v>101.82280627384485</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>180209</v>
       </c>
@@ -10794,7 +10789,7 @@
         <v>101.89160292787236</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>180889</v>
       </c>
@@ -10823,7 +10818,7 @@
         <v>101.75710594315245</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>139649</v>
       </c>
@@ -10852,7 +10847,7 @@
         <v>101.91958603709809</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -10881,7 +10876,7 @@
         <v>101.91986644407345</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>180174</v>
       </c>
@@ -10910,7 +10905,7 @@
         <v>101.82078942445595</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>180154</v>
       </c>
@@ -10939,7 +10934,7 @@
         <v>101.8460363265999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>180163</v>
       </c>
@@ -10968,7 +10963,7 @@
         <v>101.78202805746304</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>180145</v>
       </c>
@@ -10997,7 +10992,7 @@
         <v>100.13164276311231</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>180124</v>
       </c>
@@ -11026,7 +11021,7 @@
         <v>100.30438767921689</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>180226</v>
       </c>
@@ -11055,7 +11050,7 @@
         <v>100.01033769813921</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180155</v>
       </c>
@@ -11084,7 +11079,7 @@
         <v>100.07519439459968</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>180087</v>
       </c>
@@ -11113,7 +11108,7 @@
         <v>100.28858045898035</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>180133</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>100.18728864996098</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -11171,7 +11166,7 @@
         <v>100.21527777777777</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>180145</v>
       </c>
@@ -11200,7 +11195,7 @@
         <v>100.18536953760599</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>180163</v>
       </c>
@@ -11229,7 +11224,7 @@
         <v>100.07928163940642</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>180192</v>
       </c>
@@ -11258,7 +11253,7 @@
         <v>100.3220005138306</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>185105</v>
       </c>
@@ -11287,7 +11282,7 @@
         <v>101.83221499843549</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>180343</v>
       </c>
@@ -11316,7 +11311,7 @@
         <v>101.60453865163065</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>180224</v>
       </c>
@@ -11345,7 +11340,7 @@
         <v>101.93066516347238</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>180256</v>
       </c>
@@ -11374,7 +11369,7 @@
         <v>101.84773793152085</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>180227</v>
       </c>
@@ -11403,7 +11398,7 @@
         <v>101.91686560876282</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>180226</v>
       </c>
@@ -11432,7 +11427,7 @@
         <v>101.8569126199986</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>180262</v>
       </c>
@@ -11461,7 +11456,7 @@
         <v>101.92725922520643</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>180237</v>
       </c>
@@ -11490,7 +11485,7 @@
         <v>101.80628869052839</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>180388</v>
       </c>
@@ -11519,7 +11514,7 @@
         <v>101.76605028049033</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>180323</v>
       </c>
@@ -11562,12 +11557,12 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11596,7 +11591,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2382</v>
       </c>
@@ -11625,7 +11620,7 @@
         <v>100.11069739357956</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2908</v>
       </c>
@@ -11654,7 +11649,7 @@
         <v>100.21199273167777</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9733</v>
       </c>
@@ -11683,7 +11678,7 @@
         <v>100.2918532682534</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3151</v>
       </c>
@@ -11712,7 +11707,7 @@
         <v>100.20883366398664</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7335</v>
       </c>
@@ -11741,7 +11736,7 @@
         <v>100.22620944938564</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3002</v>
       </c>
@@ -11770,7 +11765,7 @@
         <v>100.27147956362174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7886</v>
       </c>
@@ -11799,7 +11794,7 @@
         <v>100.1877053026748</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6477</v>
       </c>
@@ -11828,7 +11823,7 @@
         <v>100.20671834625323</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14147</v>
       </c>
@@ -11857,7 +11852,7 @@
         <v>100.27145541866778</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -11886,7 +11881,7 @@
         <v>100.26287851979171</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7304</v>
       </c>
@@ -11915,7 +11910,7 @@
         <v>101.89035916824197</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57306</v>
       </c>
@@ -11944,7 +11939,7 @@
         <v>101.60938635655695</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13886</v>
       </c>
@@ -11973,7 +11968,7 @@
         <v>101.82639135508091</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6049</v>
       </c>
@@ -12002,7 +11997,7 @@
         <v>102.01752057340059</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8795</v>
       </c>
@@ -12031,7 +12026,7 @@
         <v>101.7913593256059</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6713</v>
       </c>
@@ -12060,7 +12055,7 @@
         <v>101.81951270521803</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20402</v>
       </c>
@@ -12089,7 +12084,7 @@
         <v>101.60821747250466</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8111</v>
       </c>
@@ -12118,7 +12113,7 @@
         <v>101.80548994908938</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18295</v>
       </c>
@@ -12147,7 +12142,7 @@
         <v>101.81818181818181</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7277</v>
       </c>
@@ -12176,7 +12171,7 @@
         <v>102.02580232434161</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -12205,7 +12200,7 @@
         <v>100.42316162183168</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5365</v>
       </c>
@@ -12234,7 +12229,7 @@
         <v>100.39488368100267</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>64377</v>
       </c>
@@ -12263,7 +12258,7 @@
         <v>100.4916972180289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4618</v>
       </c>
@@ -12292,7 +12287,7 @@
         <v>100.47095761381476</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -12321,7 +12316,7 @@
         <v>100.38387715930902</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22373</v>
       </c>
@@ -12350,7 +12345,7 @@
         <v>100.51228618563862</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18476</v>
       </c>
@@ -12379,7 +12374,7 @@
         <v>100.38552527819154</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22724</v>
       </c>
@@ -12408,7 +12403,7 @@
         <v>100.411628505274</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5832</v>
       </c>
@@ -12437,7 +12432,7 @@
         <v>100.44440571627744</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6507</v>
       </c>
@@ -12466,7 +12461,7 @@
         <v>100.39084552916142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>21941</v>
       </c>
@@ -12495,7 +12490,7 @@
         <v>101.97005516154452</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>15461</v>
       </c>
@@ -12524,7 +12519,7 @@
         <v>102.23011994669037</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>12694</v>
       </c>
@@ -12553,7 +12548,7 @@
         <v>101.96104065890967</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>12793</v>
       </c>
@@ -12582,7 +12577,7 @@
         <v>101.97288410431962</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -12611,7 +12606,7 @@
         <v>102.24535443909153</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>180077</v>
       </c>
@@ -12640,7 +12635,7 @@
         <v>102.06638821719059</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12617</v>
       </c>
@@ -12669,7 +12664,7 @@
         <v>101.95865070729053</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>17449</v>
       </c>
@@ -12698,7 +12693,7 @@
         <v>102.225189141077</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24581</v>
       </c>
@@ -12727,7 +12722,7 @@
         <v>101.95151567717593</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10109</v>
       </c>
@@ -12766,9 +12761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="251">
   <si>
     <t>TIME</t>
   </si>
@@ -752,6 +752,33 @@
   </si>
   <si>
     <t>My OptGap</t>
+  </si>
+  <si>
+    <t>Time Slot 3</t>
+  </si>
+  <si>
+    <t>Time Slot 1</t>
+  </si>
+  <si>
+    <t>Time Slot 2</t>
+  </si>
+  <si>
+    <t>Vehic Type 1</t>
+  </si>
+  <si>
+    <t>Vehic Type 2</t>
+  </si>
+  <si>
+    <t>Vehic Type 3</t>
+  </si>
+  <si>
+    <t>Vehic Type Xpress</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MPVSBPP_SET1_IT5000_ITV1_NT1_TS3_WT1_VT1_REP1</t>
   </si>
 </sst>
 </file>
@@ -759,7 +786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="178" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +920,966 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1236,12 +2223,172 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1703,11 +2850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259880512"/>
-        <c:axId val="259880120"/>
+        <c:axId val="198787704"/>
+        <c:axId val="198787312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259880512"/>
+        <c:axId val="198787704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +2897,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259880120"/>
+        <c:crossAx val="198787312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +2905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259880120"/>
+        <c:axId val="198787312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +2956,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259880512"/>
+        <c:crossAx val="198787704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2292,11 +3439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259878944"/>
-        <c:axId val="259882472"/>
+        <c:axId val="198786528"/>
+        <c:axId val="200508184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259878944"/>
+        <c:axId val="198786528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +3485,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259882472"/>
+        <c:crossAx val="200508184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +3493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259882472"/>
+        <c:axId val="200508184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +3544,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259878944"/>
+        <c:crossAx val="198786528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2880,11 +4027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259881296"/>
-        <c:axId val="259882080"/>
+        <c:axId val="200507400"/>
+        <c:axId val="200506224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259881296"/>
+        <c:axId val="200507400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +4073,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259882080"/>
+        <c:crossAx val="200506224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,7 +4081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259882080"/>
+        <c:axId val="200506224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +4132,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259881296"/>
+        <c:crossAx val="200507400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5101,21 +6248,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5143,8 +6292,29 @@
       <c r="J1" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -5154,10 +6324,10 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="n" s="3">
         <v>96997.0</v>
       </c>
       <c r="G2">
@@ -5165,7 +6335,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
@@ -5175,8 +6345,29 @@
         <f t="shared" ref="J2:J66" si="2">F2*100/B2</f>
         <v>100.02681213971188</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8371.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -5186,10 +6377,10 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="n" s="4">
         <v>97081.0</v>
       </c>
       <c r="G3">
@@ -5197,7 +6388,7 @@
         <v>-46</v>
       </c>
       <c r="H3" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -5207,8 +6398,29 @@
         <f t="shared" si="2"/>
         <v>99.952639327890282</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8383.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -5218,10 +6430,10 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="n" s="5">
         <v>98394.0</v>
       </c>
       <c r="G4">
@@ -5229,7 +6441,7 @@
         <v>-30</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -5239,8 +6451,29 @@
         <f t="shared" si="2"/>
         <v>99.969519629358686</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8542.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -5250,10 +6483,10 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="n" s="6">
         <v>97123.0</v>
       </c>
       <c r="G5">
@@ -5261,7 +6494,7 @@
         <v>-160</v>
       </c>
       <c r="H5" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -5271,8 +6504,29 @@
         <f t="shared" si="2"/>
         <v>99.835531387806711</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8389.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -5282,10 +6536,10 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="n" s="7">
         <v>95791.0</v>
       </c>
       <c r="G6">
@@ -5293,7 +6547,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -5303,8 +6557,29 @@
         <f t="shared" si="2"/>
         <v>100.13380303774709</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8213.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -5314,10 +6589,10 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="n" s="8">
         <v>94261.0</v>
       </c>
       <c r="G7">
@@ -5325,7 +6600,7 @@
         <v>98</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -5335,8 +6610,29 @@
         <f t="shared" si="2"/>
         <v>100.10407484893217</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8023.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5346,10 +6642,10 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="n" s="9">
         <v>97972.0</v>
       </c>
       <c r="G8">
@@ -5357,7 +6653,7 @@
         <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -5367,8 +6663,29 @@
         <f t="shared" si="2"/>
         <v>100.03880164192211</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8496.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -5378,10 +6695,10 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="n" s="10">
         <v>97937.0</v>
       </c>
       <c r="G9">
@@ -5389,7 +6706,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -5399,8 +6716,29 @@
         <f t="shared" si="2"/>
         <v>100.01429694760169</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8491.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -5410,10 +6748,10 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="n" s="11">
         <v>96591.0</v>
       </c>
       <c r="G10">
@@ -5421,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -5431,8 +6769,29 @@
         <f t="shared" si="2"/>
         <v>100.07874423664715</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8313.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -5442,10 +6801,10 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="n" s="12">
         <v>97881.0</v>
       </c>
       <c r="G11">
@@ -5453,7 +6812,7 @@
         <v>-26</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5463,8 +6822,29 @@
         <f t="shared" si="2"/>
         <v>99.973444186830363</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8483.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -5474,10 +6854,10 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="n" s="13">
         <v>95016.0</v>
       </c>
       <c r="G12">
@@ -5485,7 +6865,7 @@
         <v>-110</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5495,8 +6875,29 @@
         <f t="shared" si="2"/>
         <v>99.884363896305956</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8328.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -5506,10 +6907,10 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="n" s="14">
         <v>95254.0</v>
       </c>
       <c r="G13">
@@ -5517,7 +6918,7 @@
         <v>-420</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5527,8 +6928,29 @@
         <f t="shared" si="2"/>
         <v>99.561009260614171</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8362.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -5538,10 +6960,10 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="n" s="15">
         <v>95331.0</v>
       </c>
       <c r="G14">
@@ -5549,7 +6971,7 @@
         <v>-300</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -5559,8 +6981,29 @@
         <f t="shared" si="2"/>
         <v>99.686294193305514</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8373.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -5570,10 +7013,10 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="16">
         <v>32</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="n" s="16">
         <v>95471.0</v>
       </c>
       <c r="G15">
@@ -5581,7 +7024,7 @@
         <v>-180</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -5591,8 +7034,29 @@
         <f t="shared" si="2"/>
         <v>99.811815872285706</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8393.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -5602,10 +7066,10 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="n" s="17">
         <v>94890.0</v>
       </c>
       <c r="G16">
@@ -5613,7 +7077,7 @@
         <v>-80</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -5623,8 +7087,29 @@
         <f t="shared" si="2"/>
         <v>99.915762872486042</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8310.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -5634,10 +7119,10 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="n" s="18">
         <v>95983.0</v>
       </c>
       <c r="G17">
@@ -5645,7 +7130,7 @@
         <v>-300</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -5655,8 +7140,29 @@
         <f t="shared" si="2"/>
         <v>99.688418516248973</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8449.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -5666,10 +7172,10 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="19">
         <v>38</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="n" s="19">
         <v>95177.0</v>
       </c>
       <c r="G18">
@@ -5677,7 +7183,7 @@
         <v>-66</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -5687,8 +7193,29 @@
         <f t="shared" si="2"/>
         <v>99.930703568766205</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8351.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5698,10 +7225,10 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="20">
         <v>41</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="n" s="20">
         <v>94701.0</v>
       </c>
       <c r="G19">
@@ -5709,7 +7236,7 @@
         <v>-60</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -5719,8 +7246,29 @@
         <f t="shared" si="2"/>
         <v>99.936682812549464</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8283.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -5730,10 +7278,10 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="n" s="21">
         <v>94035.0</v>
       </c>
       <c r="G20">
@@ -5741,7 +7289,7 @@
         <v>-192</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5751,8 +7299,29 @@
         <f t="shared" si="2"/>
         <v>99.796236747429077</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8205.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -5762,10 +7331,10 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="22">
         <v>46</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="n" s="22">
         <v>95317.0</v>
       </c>
       <c r="G21">
@@ -5773,7 +7342,7 @@
         <v>-300</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -5783,8 +7352,29 @@
         <f t="shared" si="2"/>
         <v>99.686248261292448</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8371.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -5794,10 +7384,10 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="23">
         <v>48</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="n" s="23">
         <v>117356.0</v>
       </c>
       <c r="G22">
@@ -5805,7 +7395,7 @@
         <v>-4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -5815,8 +7405,29 @@
         <f t="shared" si="2"/>
         <v>99.996591683708246</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10908.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -5826,10 +7437,10 @@
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" t="n" s="24">
         <v>116183.0</v>
       </c>
       <c r="G23">
@@ -5837,7 +7448,7 @@
         <v>-70</v>
       </c>
       <c r="H23" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -5847,8 +7458,29 @@
         <f t="shared" si="2"/>
         <v>99.939786500133323</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10769.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -5858,10 +7490,10 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="25">
         <v>52</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="n" s="25">
         <v>115397.0</v>
       </c>
       <c r="G24">
@@ -5869,7 +7501,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -5879,8 +7511,29 @@
         <f t="shared" si="2"/>
         <v>100.08152433154385</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10671.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -5890,10 +7543,10 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="26">
         <v>54</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" t="n" s="26">
         <v>116302.0</v>
       </c>
       <c r="G25">
@@ -5901,7 +7554,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -5911,8 +7564,29 @@
         <f t="shared" si="2"/>
         <v>100.02924278391303</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10786.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -5922,10 +7596,10 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="27">
         <v>56</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="n" s="27">
         <v>116745.0</v>
       </c>
       <c r="G26">
@@ -5933,7 +7607,7 @@
         <v>66</v>
       </c>
       <c r="H26" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -5943,8 +7617,29 @@
         <f t="shared" si="2"/>
         <v>100.05656544879541</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10835.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -5954,10 +7649,10 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="28">
         <v>58</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" t="n" s="28">
         <v>116022.0</v>
       </c>
       <c r="G27">
@@ -5965,7 +7660,7 @@
         <v>-1066</v>
       </c>
       <c r="H27" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -5975,8 +7670,29 @@
         <f t="shared" si="2"/>
         <v>99.089573654003829</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10746.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -5986,10 +7702,10 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="29">
         <v>60</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" t="n" s="29">
         <v>116358.0</v>
       </c>
       <c r="G28">
@@ -5997,7 +7713,7 @@
         <v>-74</v>
       </c>
       <c r="H28" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -6007,8 +7723,29 @@
         <f t="shared" si="2"/>
         <v>99.936443589391232</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10794.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6018,10 +7755,10 @@
       <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="30">
         <v>63</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="n" s="30">
         <v>116113.0</v>
       </c>
       <c r="G29">
@@ -6029,7 +7766,7 @@
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -6039,8 +7776,29 @@
         <f t="shared" si="2"/>
         <v>100.02584357744028</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10759.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -6050,10 +7808,10 @@
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="31">
         <v>65</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" t="n" s="31">
         <v>116043.0</v>
       </c>
       <c r="G30">
@@ -6061,7 +7819,7 @@
         <v>-118</v>
       </c>
       <c r="H30" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -6071,8 +7829,29 @@
         <f t="shared" si="2"/>
         <v>99.898416852471996</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10749.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -6082,10 +7861,10 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="32">
         <v>67</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" t="n" s="32">
         <v>115334.0</v>
       </c>
       <c r="G31">
@@ -6093,7 +7872,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -6103,8 +7882,29 @@
         <f t="shared" si="2"/>
         <v>100.07809517198292</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10662.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6114,10 +7914,10 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="33">
         <v>70</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" t="n" s="33">
         <v>113988.0</v>
       </c>
       <c r="G32">
@@ -6125,7 +7925,7 @@
         <v>-9078</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -6135,8 +7935,29 @@
         <f t="shared" si="2"/>
         <v>92.623470332992056</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10764.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -6146,10 +7967,10 @@
       <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="34">
         <v>72</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" t="n" s="34">
         <v>113449.0</v>
       </c>
       <c r="G33">
@@ -6157,7 +7978,7 @@
         <v>-9286</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -6167,8 +7988,29 @@
         <f t="shared" si="2"/>
         <v>92.434106000733294</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10687.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -6178,10 +8020,10 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="35">
         <v>74</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" t="n" s="35">
         <v>113855.0</v>
       </c>
       <c r="G34">
@@ -6189,7 +8031,7 @@
         <v>-4356</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -6199,8 +8041,29 @@
         <f t="shared" si="2"/>
         <v>96.315063741952955</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10745.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -6210,10 +8073,10 @@
       <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="36">
         <v>76</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" t="n" s="36">
         <v>114752.0</v>
       </c>
       <c r="G35">
@@ -6221,7 +8084,7 @@
         <v>-9800</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -6231,8 +8094,29 @@
         <f t="shared" si="2"/>
         <v>92.131800372535167</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10856.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -6242,10 +8126,10 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="37">
         <v>78</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" t="n" s="37">
         <v>112503.0</v>
       </c>
       <c r="G36">
@@ -6253,7 +8137,7 @@
         <v>-8974</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -6263,8 +8147,29 @@
         <f t="shared" si="2"/>
         <v>92.612593330424687</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10569.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -6274,10 +8179,10 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="38">
         <v>80</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" t="n" s="38">
         <v>113701.0</v>
       </c>
       <c r="G37">
@@ -6285,7 +8190,7 @@
         <v>-8782</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -6295,8 +8200,29 @@
         <f t="shared" si="2"/>
         <v>92.830025391278795</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10723.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -6306,10 +8232,10 @@
       <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="39">
         <v>82</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" t="n" s="39">
         <v>114065.0</v>
       </c>
       <c r="G38">
@@ -6317,7 +8243,7 @@
         <v>-7212</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -6327,8 +8253,29 @@
         <f t="shared" si="2"/>
         <v>94.053282980284806</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10775.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -6338,10 +8285,10 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="40">
         <v>84</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" t="n" s="40">
         <v>114030.0</v>
       </c>
       <c r="G39">
@@ -6349,7 +8296,7 @@
         <v>-862</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -6359,8 +8306,29 @@
         <f t="shared" si="2"/>
         <v>99.249730181387733</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10770.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -6370,10 +8338,10 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="41">
         <v>86</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" t="n" s="41">
         <v>115074.0</v>
       </c>
       <c r="G40">
@@ -6381,7 +8349,7 @@
         <v>-10250</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -6391,8 +8359,29 @@
         <f t="shared" si="2"/>
         <v>91.821199451022949</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10902.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -6402,10 +8391,10 @@
       <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="42">
         <v>88</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" t="n" s="42">
         <v>114184.0</v>
       </c>
       <c r="G41">
@@ -6413,7 +8402,7 @@
         <v>-318</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -6423,8 +8412,29 @@
         <f t="shared" si="2"/>
         <v>99.72227559343942</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10792.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2382</v>
       </c>
@@ -6434,10 +8444,10 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="43">
         <v>89</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" t="n" s="43">
         <v>19896.0</v>
       </c>
       <c r="G42">
@@ -6445,7 +8455,7 @@
         <v>22</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -6455,8 +8465,29 @@
         <f t="shared" si="2"/>
         <v>100.11069739357956</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1728.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2908</v>
       </c>
@@ -6466,10 +8497,10 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="44">
         <v>90</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" t="n" s="44">
         <v>19854.0</v>
       </c>
       <c r="G43">
@@ -6477,7 +8508,7 @@
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -6487,8 +8518,29 @@
         <f t="shared" si="2"/>
         <v>100.21199273167777</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1722.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9733</v>
       </c>
@@ -6498,10 +8550,10 @@
       <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="45">
         <v>92</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" t="n" s="45">
         <v>19931.0</v>
       </c>
       <c r="G44">
@@ -6509,7 +8561,7 @@
         <v>58</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -6519,8 +8571,29 @@
         <f t="shared" si="2"/>
         <v>100.2918532682534</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1733.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3151</v>
       </c>
@@ -6530,10 +8603,10 @@
       <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="46">
         <v>94</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" t="n" s="46">
         <v>19194.0</v>
       </c>
       <c r="G45">
@@ -6541,7 +8614,7 @@
         <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -6551,8 +8624,29 @@
         <f t="shared" si="2"/>
         <v>100.20883366398664</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1642.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7335</v>
       </c>
@@ -6562,10 +8656,10 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="47">
         <v>96</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" t="n" s="47">
         <v>19495.0</v>
       </c>
       <c r="G46">
@@ -6583,8 +8677,29 @@
         <f t="shared" si="2"/>
         <v>100.22620944938564</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1685.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3002</v>
       </c>
@@ -6594,10 +8709,10 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="48">
         <v>97</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" t="n" s="48">
         <v>19945.0</v>
       </c>
       <c r="G47">
@@ -6615,8 +8730,29 @@
         <f t="shared" si="2"/>
         <v>100.27147956362174</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1735.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7886</v>
       </c>
@@ -6626,10 +8762,10 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="49">
         <v>99</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" t="n" s="49">
         <v>19215.0</v>
       </c>
       <c r="G48">
@@ -6637,7 +8773,7 @@
         <v>36</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -6647,8 +8783,29 @@
         <f t="shared" si="2"/>
         <v>100.1877053026748</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1645.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6477</v>
       </c>
@@ -6658,10 +8815,10 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="50">
         <v>100</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" t="n" s="50">
         <v>19390.0</v>
       </c>
       <c r="G49">
@@ -6669,7 +8826,7 @@
         <v>40</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -6679,8 +8836,29 @@
         <f t="shared" si="2"/>
         <v>100.20671834625323</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1670.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>14147</v>
       </c>
@@ -6690,10 +8868,10 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="51">
         <v>101</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" t="n" s="51">
         <v>19208.0</v>
       </c>
       <c r="G50">
@@ -6701,7 +8879,7 @@
         <v>52</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -6711,8 +8889,29 @@
         <f t="shared" si="2"/>
         <v>100.27145541866778</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1644.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -6722,10 +8921,10 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="52">
         <v>103</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" t="n" s="52">
         <v>19833.0</v>
       </c>
       <c r="G51">
@@ -6743,8 +8942,29 @@
         <f t="shared" si="2"/>
         <v>100.26287851979171</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L51" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1719.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7304</v>
       </c>
@@ -6754,10 +8974,10 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="53">
         <v>104</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" t="n" s="53">
         <v>19144.0</v>
       </c>
       <c r="G52">
@@ -6765,7 +8985,7 @@
         <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -6775,8 +8995,29 @@
         <f t="shared" si="2"/>
         <v>100.5250997689561</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1672.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>57306</v>
       </c>
@@ -6786,10 +9027,10 @@
       <c r="C53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="54">
         <v>106</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" t="n" s="54">
         <v>19312.0</v>
       </c>
       <c r="G53">
@@ -6797,7 +9038,7 @@
         <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -6807,8 +9048,29 @@
         <f t="shared" si="2"/>
         <v>100.25957844460596</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1696.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>13886</v>
       </c>
@@ -6818,10 +9080,10 @@
       <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="55">
         <v>108</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" t="n" s="55">
         <v>19711.0</v>
       </c>
       <c r="G54">
@@ -6829,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -6839,8 +9101,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1753.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6049</v>
       </c>
@@ -6850,10 +9133,10 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="56">
         <v>109</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" t="n" s="56">
         <v>18835.0</v>
       </c>
       <c r="G55">
@@ -6871,8 +9154,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1645.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>8795</v>
       </c>
@@ -6882,10 +9186,10 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="57">
         <v>111</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" t="n" s="57">
         <v>19060.0</v>
       </c>
       <c r="G56">
@@ -6893,7 +9197,7 @@
         <v>80</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -6903,8 +9207,29 @@
         <f t="shared" si="2"/>
         <v>100.42149631190728</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1660.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6713</v>
       </c>
@@ -6914,10 +9239,10 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="58">
         <v>112</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" t="n" s="58">
         <v>19214.0</v>
       </c>
       <c r="G57">
@@ -6925,7 +9250,7 @@
         <v>88</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -6935,8 +9260,29 @@
         <f t="shared" si="2"/>
         <v>100.46010666108961</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1682.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>20402</v>
       </c>
@@ -6946,10 +9292,10 @@
       <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="59">
         <v>114</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" t="n" s="59">
         <v>19326.0</v>
       </c>
       <c r="G58">
@@ -6967,8 +9313,29 @@
         <f t="shared" si="2"/>
         <v>100.25938991492011</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1698.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8111</v>
       </c>
@@ -6978,10 +9345,10 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="60">
         <v>116</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" t="n" s="60">
         <v>19137.0</v>
       </c>
       <c r="G59">
@@ -6999,8 +9366,29 @@
         <f t="shared" si="2"/>
         <v>100.44087545268462</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1671.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>18295</v>
       </c>
@@ -7010,10 +9398,10 @@
       <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="61">
         <v>118</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" t="n" s="61">
         <v>19004.0</v>
       </c>
       <c r="G60">
@@ -7031,8 +9419,29 @@
         <f t="shared" si="2"/>
         <v>100.44397463002115</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1652.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7277</v>
       </c>
@@ -7042,10 +9451,10 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="62">
         <v>119</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" t="n" s="62">
         <v>18758.0</v>
       </c>
       <c r="G61">
@@ -7053,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -7063,8 +9472,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1634.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -7074,10 +9504,10 @@
       <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="63">
         <v>122</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" t="n" s="63">
         <v>23257.0</v>
       </c>
       <c r="G62">
@@ -7085,7 +9515,7 @@
         <v>98</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -7095,8 +9525,29 @@
         <f t="shared" si="2"/>
         <v>100.42316162183168</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2151.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5365</v>
       </c>
@@ -7106,10 +9557,10 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="64">
         <v>123</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" t="n" s="64">
         <v>23390.0</v>
       </c>
       <c r="G63">
@@ -7117,7 +9568,7 @@
         <v>92</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -7127,8 +9578,29 @@
         <f t="shared" si="2"/>
         <v>100.39488368100267</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2170.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64377</v>
       </c>
@@ -7138,10 +9610,10 @@
       <c r="C64" t="s">
         <v>124</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="65">
         <v>125</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" t="n" s="65">
         <v>23299.0</v>
       </c>
       <c r="G64">
@@ -7159,8 +9631,29 @@
         <f t="shared" si="2"/>
         <v>100.4916972180289</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L64" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2157.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>4618</v>
       </c>
@@ -7170,10 +9663,10 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="66">
         <v>126</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" t="n" s="66">
         <v>23040.0</v>
       </c>
       <c r="G65">
@@ -7181,7 +9674,7 @@
         <v>108</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -7191,8 +9684,29 @@
         <f t="shared" si="2"/>
         <v>100.47095761381476</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L65" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2120.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -7202,10 +9716,10 @@
       <c r="C66" t="s">
         <v>128</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="67">
         <v>129</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" t="n" s="67">
         <v>23012.0</v>
       </c>
       <c r="G66">
@@ -7213,7 +9727,7 @@
         <v>88</v>
       </c>
       <c r="H66" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -7223,8 +9737,29 @@
         <f t="shared" si="2"/>
         <v>100.38387715930902</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2116.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>22373</v>
       </c>
@@ -7234,10 +9769,10 @@
       <c r="C67" t="s">
         <v>130</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="68">
         <v>131</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" t="n" s="68">
         <v>23152.0</v>
       </c>
       <c r="G67">
@@ -7255,8 +9790,29 @@
         <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
         <v>100.51228618563862</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2136.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>18476</v>
       </c>
@@ -7266,10 +9822,10 @@
       <c r="C68" t="s">
         <v>132</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="69">
         <v>133</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" t="n" s="69">
         <v>22914.0</v>
       </c>
       <c r="G68">
@@ -7287,8 +9843,29 @@
         <f t="shared" si="5"/>
         <v>100.38552527819154</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2102.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>22724</v>
       </c>
@@ -7298,10 +9875,10 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="70">
         <v>135</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" t="n" s="70">
         <v>23418.0</v>
       </c>
       <c r="G69">
@@ -7309,7 +9886,7 @@
         <v>96</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -7319,8 +9896,29 @@
         <f t="shared" si="5"/>
         <v>100.411628505274</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L69" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2174.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>5832</v>
       </c>
@@ -7330,10 +9928,10 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="71">
         <v>136</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" t="n" s="71">
         <v>23054.0</v>
       </c>
       <c r="G70">
@@ -7341,7 +9939,7 @@
         <v>102</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -7351,8 +9949,29 @@
         <f t="shared" si="5"/>
         <v>100.44440571627744</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L70" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2122.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>6507</v>
       </c>
@@ -7362,10 +9981,10 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="72">
         <v>137</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" t="n" s="72">
         <v>23117.0</v>
       </c>
       <c r="G71">
@@ -7383,8 +10002,29 @@
         <f t="shared" si="5"/>
         <v>100.39084552916142</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L71" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2131.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>21941</v>
       </c>
@@ -7394,10 +10034,10 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="s" s="73">
         <v>139</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" t="n" s="73">
         <v>22892.0</v>
       </c>
       <c r="G72">
@@ -7405,7 +10045,7 @@
         <v>50</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
@@ -7415,8 +10055,29 @@
         <f t="shared" si="5"/>
         <v>100.21889501794939</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2156.0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>15461</v>
       </c>
@@ -7426,10 +10087,10 @@
       <c r="C73" t="s">
         <v>140</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="74">
         <v>141</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" t="n" s="74">
         <v>22612.0</v>
       </c>
       <c r="G73">
@@ -7437,7 +10098,7 @@
         <v>102</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
@@ -7447,8 +10108,29 @@
         <f t="shared" si="5"/>
         <v>100.4531319413594</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2116.0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>12694</v>
       </c>
@@ -7458,10 +10140,10 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="75">
         <v>142</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" t="n" s="75">
         <v>22997.0</v>
       </c>
       <c r="G74">
@@ -7469,7 +10151,7 @@
         <v>50</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
@@ -7479,8 +10161,29 @@
         <f t="shared" si="5"/>
         <v>100.21789340654551</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2171.0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>12793</v>
       </c>
@@ -7490,10 +10193,10 @@
       <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="76">
         <v>144</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" t="n" s="76">
         <v>22219.0</v>
       </c>
       <c r="G75">
@@ -7511,8 +10214,29 @@
         <f t="shared" si="5"/>
         <v>100.08107742894464</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2077.0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -7522,10 +10246,10 @@
       <c r="C76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="77">
         <v>147</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" t="n" s="77">
         <v>23270.0</v>
       </c>
       <c r="G76">
@@ -7533,7 +10257,7 @@
         <v>22</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
@@ -7543,8 +10267,29 @@
         <f t="shared" si="5"/>
         <v>100.09463179628355</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2210.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>180077</v>
       </c>
@@ -7554,10 +10299,10 @@
       <c r="C77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="78">
         <v>149</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" t="n" s="78">
         <v>22815.0</v>
       </c>
       <c r="G77">
@@ -7565,7 +10310,7 @@
         <v>70</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
@@ -7575,8 +10320,29 @@
         <f t="shared" si="5"/>
         <v>100.30775994724115</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2145.0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>12617</v>
       </c>
@@ -7586,10 +10352,10 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="79">
         <v>150</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" t="n" s="79">
         <v>23025.0</v>
       </c>
       <c r="G78">
@@ -7597,7 +10363,7 @@
         <v>50</v>
       </c>
       <c r="H78" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -7607,8 +10373,29 @@
         <f t="shared" si="5"/>
         <v>100.21762785636561</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2175.0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>17449</v>
       </c>
@@ -7618,10 +10405,10 @@
       <c r="C79" t="s">
         <v>151</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="80">
         <v>152</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" t="n" s="80">
         <v>22570.0</v>
       </c>
       <c r="G79">
@@ -7629,7 +10416,7 @@
         <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
@@ -7639,8 +10426,29 @@
         <f t="shared" si="5"/>
         <v>100.4450378282154</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2110.0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>24581</v>
       </c>
@@ -7650,10 +10458,10 @@
       <c r="C80" t="s">
         <v>153</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="81">
         <v>154</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" t="n" s="81">
         <v>23109.0</v>
       </c>
       <c r="G80">
@@ -7661,7 +10469,7 @@
         <v>50</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
@@ -7671,8 +10479,29 @@
         <f t="shared" si="5"/>
         <v>100.21683507524178</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2187.0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>10109</v>
       </c>
@@ -7682,10 +10511,10 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="82">
         <v>155</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" t="n" s="82">
         <v>22591.0</v>
       </c>
       <c r="G81">
@@ -7693,7 +10522,7 @@
         <v>88</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
@@ -7703,8 +10532,29 @@
         <f t="shared" si="5"/>
         <v>100.39105896991512</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2113.0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>46522</v>
       </c>
@@ -7714,10 +10564,10 @@
       <c r="C82" t="s">
         <v>156</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="123">
         <v>157</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" t="n" s="123">
         <v>49556.0</v>
       </c>
       <c r="G82">
@@ -7735,8 +10585,29 @@
         <f t="shared" si="5"/>
         <v>100.29548674357417</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4308.0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>180173</v>
       </c>
@@ -7746,10 +10617,10 @@
       <c r="C83" t="s">
         <v>158</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="124">
         <v>159</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" t="n" s="124">
         <v>48411.0</v>
       </c>
       <c r="G83">
@@ -7767,8 +10638,29 @@
         <f t="shared" si="5"/>
         <v>100.14480461719864</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4173.0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>180112</v>
       </c>
@@ -7778,10 +10670,10 @@
       <c r="C84" t="s">
         <v>160</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="125">
         <v>161</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" t="n" s="125">
         <v>49092.0</v>
       </c>
       <c r="G84">
@@ -7789,7 +10681,7 @@
         <v>152</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -7799,8 +10691,29 @@
         <f t="shared" si="5"/>
         <v>100.31058438904782</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L84" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4256.0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>180126</v>
       </c>
@@ -7810,10 +10723,10 @@
       <c r="C85" t="s">
         <v>162</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="s" s="126">
         <v>163</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" t="n" s="126">
         <v>48201.0</v>
       </c>
       <c r="G85">
@@ -7821,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -7831,8 +10744,29 @@
         <f t="shared" si="5"/>
         <v>100.16624758421479</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L85" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4143.0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>180129</v>
       </c>
@@ -7842,10 +10776,10 @@
       <c r="C86" t="s">
         <v>164</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="127">
         <v>165</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" t="n" s="127">
         <v>48264.0</v>
       </c>
       <c r="G86">
@@ -7853,7 +10787,7 @@
         <v>102</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -7863,8 +10797,29 @@
         <f t="shared" si="5"/>
         <v>100.21178522486608</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L86" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4152.0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>59136</v>
       </c>
@@ -7874,10 +10829,10 @@
       <c r="C87" t="s">
         <v>166</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="128">
         <v>167</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" t="n" s="128">
         <v>48805.0</v>
       </c>
       <c r="G87">
@@ -7885,7 +10840,7 @@
         <v>124</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -7895,8 +10850,29 @@
         <f t="shared" si="5"/>
         <v>100.2547195004211</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L87" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4215.0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>58486</v>
       </c>
@@ -7906,10 +10882,10 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="129">
         <v>168</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" t="n" s="129">
         <v>48784.0</v>
       </c>
       <c r="G88">
@@ -7917,7 +10893,7 @@
         <v>104</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -7927,8 +10903,29 @@
         <f t="shared" si="5"/>
         <v>100.21364009860312</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L88" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4212.0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>180123</v>
       </c>
@@ -7938,10 +10935,10 @@
       <c r="C89" t="s">
         <v>169</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="130">
         <v>170</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" t="n" s="130">
         <v>47998.0</v>
       </c>
       <c r="G89">
@@ -7959,8 +10956,29 @@
         <f t="shared" si="5"/>
         <v>100.24226222797711</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L89" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4114.0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>34267</v>
       </c>
@@ -7970,10 +10988,10 @@
       <c r="C90" t="s">
         <v>171</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="131">
         <v>172</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" t="n" s="131">
         <v>48278.0</v>
       </c>
       <c r="G90">
@@ -7981,7 +10999,7 @@
         <v>100</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -7991,8 +11009,29 @@
         <f t="shared" si="5"/>
         <v>100.207563618249</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L90" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4154.0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>180118</v>
       </c>
@@ -8002,10 +11041,10 @@
       <c r="C91" t="s">
         <v>173</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="132">
         <v>174</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" t="n" s="132">
         <v>47758.0</v>
       </c>
       <c r="G91">
@@ -8023,8 +11062,29 @@
         <f t="shared" si="5"/>
         <v>100.05447079527362</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L91" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4094.0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>146109</v>
       </c>
@@ -8034,10 +11094,10 @@
       <c r="C92" t="s">
         <v>175</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="133">
         <v>176</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" t="n" s="133">
         <v>46296.0</v>
       </c>
       <c r="G92">
@@ -8045,7 +11105,7 @@
         <v>22</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
@@ -8055,8 +11115,29 @@
         <f t="shared" si="5"/>
         <v>100.04754289665902</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4008.0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>151784</v>
       </c>
@@ -8066,10 +11147,10 @@
       <c r="C93" t="s">
         <v>177</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="134">
         <v>178</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" t="n" s="134">
         <v>47529.0</v>
       </c>
       <c r="G93">
@@ -8087,8 +11168,29 @@
         <f t="shared" si="5"/>
         <v>100.06315922440473</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4167.0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>180182</v>
       </c>
@@ -8098,10 +11200,10 @@
       <c r="C94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="135">
         <v>180</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" t="n" s="135">
         <v>47200.0</v>
       </c>
       <c r="G94">
@@ -8109,7 +11211,7 @@
         <v>20</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -8119,8 +11221,29 @@
         <f t="shared" si="5"/>
         <v>100.04239084357779</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4120.0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>180209</v>
       </c>
@@ -8130,10 +11253,10 @@
       <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" t="s" s="136">
         <v>182</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" t="n" s="136">
         <v>48636.0</v>
       </c>
       <c r="G95">
@@ -8151,8 +11274,29 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4308.0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>180889</v>
       </c>
@@ -8162,10 +11306,10 @@
       <c r="C96" t="s">
         <v>183</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" t="s" s="137">
         <v>184</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" t="n" s="137">
         <v>48405.0</v>
       </c>
       <c r="G96">
@@ -8183,8 +11327,29 @@
         <f t="shared" si="5"/>
         <v>100.06201550387597</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4275.0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>139649</v>
       </c>
@@ -8194,10 +11359,10 @@
       <c r="C97" t="s">
         <v>185</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" t="s" s="138">
         <v>186</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" t="n" s="138">
         <v>48027.0</v>
       </c>
       <c r="G97">
@@ -8205,7 +11370,7 @@
         <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -8215,8 +11380,29 @@
         <f t="shared" si="5"/>
         <v>100.20865065620632</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4221.0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -8226,10 +11412,10 @@
       <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" t="s" s="139">
         <v>189</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" t="n" s="139">
         <v>48020.0</v>
       </c>
       <c r="G98">
@@ -8247,8 +11433,29 @@
         <f t="shared" si="5"/>
         <v>100.20868113522538</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4220.0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>180174</v>
       </c>
@@ -8258,10 +11465,10 @@
       <c r="C99" t="s">
         <v>190</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="s" s="140">
         <v>191</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" t="n" s="140">
         <v>48167.0</v>
       </c>
       <c r="G99">
@@ -8269,7 +11476,7 @@
         <v>56</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -8279,8 +11486,29 @@
         <f t="shared" si="5"/>
         <v>100.1163974974538</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4241.0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>180154</v>
       </c>
@@ -8290,10 +11518,10 @@
       <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="141">
         <v>193</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" t="n" s="141">
         <v>47158.0</v>
       </c>
       <c r="G100">
@@ -8311,8 +11539,29 @@
         <f t="shared" si="5"/>
         <v>100.06365642505517</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4114.0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>180163</v>
       </c>
@@ -8322,10 +11571,10 @@
       <c r="C101" t="s">
         <v>194</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="s" s="142">
         <v>195</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" t="n" s="142">
         <v>47480.0</v>
       </c>
       <c r="G101">
@@ -8333,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -8343,8 +11592,29 @@
         <f t="shared" si="5"/>
         <v>100.01263849686144</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4160.0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>180145</v>
       </c>
@@ -8354,10 +11624,10 @@
       <c r="C102" t="s">
         <v>196</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="143">
         <v>197</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" t="n" s="143">
         <v>57808.0</v>
       </c>
       <c r="G102">
@@ -8365,7 +11635,7 @@
         <v>76</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -8375,8 +11645,29 @@
         <f t="shared" si="5"/>
         <v>100.13164276311231</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5344.0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>180124</v>
       </c>
@@ -8386,10 +11677,10 @@
       <c r="C103" t="s">
         <v>198</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="s" s="144">
         <v>199</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" t="n" s="144">
         <v>57997.0</v>
       </c>
       <c r="G103">
@@ -8397,7 +11688,7 @@
         <v>176</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -8407,8 +11698,29 @@
         <f t="shared" si="5"/>
         <v>100.30438767921689</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L103" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5371.0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>180226</v>
       </c>
@@ -8418,10 +11730,10 @@
       <c r="C104" t="s">
         <v>200</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="s" s="145">
         <v>201</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" t="n" s="145">
         <v>58046.0</v>
       </c>
       <c r="G104">
@@ -8429,7 +11741,7 @@
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -8439,8 +11751,29 @@
         <f t="shared" si="5"/>
         <v>100.01033769813921</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L104" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5378.0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>180155</v>
       </c>
@@ -8450,10 +11783,10 @@
       <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="146">
         <v>203</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" t="n" s="146">
         <v>58559.0</v>
       </c>
       <c r="G105">
@@ -8461,7 +11794,7 @@
         <v>44</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -8471,8 +11804,29 @@
         <f t="shared" si="5"/>
         <v>100.07519439459968</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5437.0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>180087</v>
       </c>
@@ -8482,10 +11836,10 @@
       <c r="C106" t="s">
         <v>204</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="s" s="147">
         <v>205</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" t="n" s="147">
         <v>58384.0</v>
       </c>
       <c r="G106">
@@ -8493,7 +11847,7 @@
         <v>168</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -8503,8 +11857,29 @@
         <f t="shared" si="5"/>
         <v>100.28858045898035</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L106" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5412.0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>180133</v>
       </c>
@@ -8514,10 +11889,10 @@
       <c r="C107" t="s">
         <v>206</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="148">
         <v>207</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" t="n" s="148">
         <v>57773.0</v>
       </c>
       <c r="G107">
@@ -8525,7 +11900,7 @@
         <v>108</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -8535,8 +11910,29 @@
         <f t="shared" si="5"/>
         <v>100.18728864996098</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5339.0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -8546,10 +11942,10 @@
       <c r="C108" t="s">
         <v>209</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="s" s="149">
         <v>210</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" t="n" s="149">
         <v>57724.0</v>
       </c>
       <c r="G108">
@@ -8567,8 +11963,29 @@
         <f t="shared" si="5"/>
         <v>100.21527777777777</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L108" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5332.0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>180145</v>
       </c>
@@ -8578,10 +11995,10 @@
       <c r="C109" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="s" s="150">
         <v>212</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" t="n" s="150">
         <v>58370.0</v>
       </c>
       <c r="G109">
@@ -8589,7 +12006,7 @@
         <v>108</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -8599,8 +12016,29 @@
         <f t="shared" si="5"/>
         <v>100.18536953760599</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L109" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5410.0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>180163</v>
       </c>
@@ -8610,10 +12048,10 @@
       <c r="C110" t="s">
         <v>213</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="s" s="151">
         <v>214</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" t="n" s="151">
         <v>58067.0</v>
       </c>
       <c r="G110">
@@ -8621,7 +12059,7 @@
         <v>46</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -8631,8 +12069,29 @@
         <f t="shared" si="5"/>
         <v>100.07928163940642</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L110" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5381.0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>180192</v>
       </c>
@@ -8642,10 +12101,10 @@
       <c r="C111" t="s">
         <v>215</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="s" s="152">
         <v>216</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" t="n" s="152">
         <v>58573.0</v>
       </c>
       <c r="G111">
@@ -8663,8 +12122,29 @@
         <f t="shared" si="5"/>
         <v>100.3220005138306</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L111" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5439.0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>185105</v>
       </c>
@@ -8674,10 +12154,10 @@
       <c r="C112" t="s">
         <v>217</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" t="s" s="153">
         <v>218</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112" t="n" s="153">
         <v>57520.0</v>
       </c>
       <c r="G112">
@@ -8685,7 +12165,7 @@
         <v>-6</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -8695,8 +12175,29 @@
         <f t="shared" si="5"/>
         <v>99.989569933595249</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5440.0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>180343</v>
       </c>
@@ -8706,10 +12207,10 @@
       <c r="C113" t="s">
         <v>219</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="s" s="154">
         <v>220</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" t="n" s="154">
         <v>57324.0</v>
       </c>
       <c r="G113">
@@ -8727,8 +12228,29 @@
         <f t="shared" si="5"/>
         <v>99.759841286415366</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5412.0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>180224</v>
       </c>
@@ -8738,10 +12260,10 @@
       <c r="C114" t="s">
         <v>221</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="s" s="155">
         <v>222</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" t="n" s="155">
         <v>56784.0</v>
       </c>
       <c r="G114">
@@ -8749,7 +12271,7 @@
         <v>16</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -8759,8 +12281,29 @@
         <f t="shared" si="5"/>
         <v>100.0281848928974</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5352.0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>180256</v>
       </c>
@@ -8770,10 +12313,10 @@
       <c r="C115" t="s">
         <v>223</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" t="s" s="156">
         <v>224</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" t="n" s="156">
         <v>56686.0</v>
       </c>
       <c r="G115">
@@ -8781,7 +12324,7 @@
         <v>-32</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -8791,8 +12334,29 @@
         <f t="shared" si="5"/>
         <v>99.943580521174937</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5338.0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>180227</v>
       </c>
@@ -8802,10 +12366,10 @@
       <c r="C116" t="s">
         <v>225</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" t="s" s="157">
         <v>226</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" t="n" s="157">
         <v>56980.0</v>
       </c>
       <c r="G116">
@@ -8823,8 +12387,29 @@
         <f t="shared" si="5"/>
         <v>100.02106445723915</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5380.0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>180226</v>
       </c>
@@ -8834,10 +12419,10 @@
       <c r="C117" t="s">
         <v>227</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" t="s" s="158">
         <v>228</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" t="n" s="158">
         <v>57064.0</v>
       </c>
       <c r="G117">
@@ -8855,8 +12440,29 @@
         <f t="shared" si="5"/>
         <v>99.964963912830214</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5392.0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>180262</v>
       </c>
@@ -8866,10 +12472,10 @@
       <c r="C118" t="s">
         <v>229</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" t="s" s="159">
         <v>230</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" t="n" s="159">
         <v>56567.0</v>
       </c>
       <c r="G118">
@@ -8877,7 +12483,7 @@
         <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
@@ -8887,8 +12493,29 @@
         <f t="shared" si="5"/>
         <v>100.01768127729547</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5321.0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>180237</v>
       </c>
@@ -8898,10 +12525,10 @@
       <c r="C119" t="s">
         <v>231</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="s" s="160">
         <v>232</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" t="n" s="160">
         <v>56973.0</v>
       </c>
       <c r="G119">
@@ -8909,7 +12536,7 @@
         <v>-50</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -8919,8 +12546,29 @@
         <f t="shared" si="5"/>
         <v>99.912316082984063</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5379.0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>180388</v>
       </c>
@@ -8930,10 +12578,10 @@
       <c r="C120" t="s">
         <v>233</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="s" s="161">
         <v>234</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" t="n" s="161">
         <v>57716.0</v>
       </c>
       <c r="G120">
@@ -8951,8 +12599,29 @@
         <f t="shared" si="5"/>
         <v>99.93074312625528</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5468.0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>180323</v>
       </c>
@@ -8962,10 +12631,10 @@
       <c r="C121" t="s">
         <v>235</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="s" s="162">
         <v>236</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" t="n" s="162">
         <v>56203.0</v>
       </c>
       <c r="G121">
@@ -8983,19 +12652,41 @@
         <f t="shared" si="5"/>
         <v>99.893357979489181</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F124">
-        <f>SUM(F2:F121)</f>
-        <v>7247355</v>
+      <c r="L121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5269.0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D124" t="s" s="83">
+        <v>250</v>
+      </c>
+      <c r="F124" t="n" s="83">
+        <v>630490.0</v>
       </c>
       <c r="G124">
         <f>SUM(G2:G121)</f>
         <v>-67106</v>
       </c>
-      <c r="H124">
-        <f>SUM(H2:H121)</f>
-        <v>120</v>
+      <c r="H124" t="n">
+        <v>115.0</v>
       </c>
       <c r="I124">
         <f>SUM(I2:I121)</f>
@@ -9005,9 +12696,879 @@
         <f>SUM(J2:J121)/120</f>
         <v>99.642931325294867</v>
       </c>
+      <c r="L124" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>12033.0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>30000.0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D124"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D124" r:id="rId81"/>
+    <hyperlink ref="D82" r:id="rId82"/>
+    <hyperlink ref="D83" r:id="rId83"/>
+    <hyperlink ref="D84" r:id="rId84"/>
+    <hyperlink ref="D85" r:id="rId85"/>
+    <hyperlink ref="D86" r:id="rId86"/>
+    <hyperlink ref="D87" r:id="rId87"/>
+    <hyperlink ref="D88" r:id="rId88"/>
+    <hyperlink ref="D89" r:id="rId89"/>
+    <hyperlink ref="D90" r:id="rId90"/>
+    <hyperlink ref="D91" r:id="rId91"/>
+    <hyperlink ref="D92" r:id="rId92"/>
+    <hyperlink ref="D93" r:id="rId93"/>
+    <hyperlink ref="D94" r:id="rId94"/>
+    <hyperlink ref="D95" r:id="rId95"/>
+    <hyperlink ref="D96" r:id="rId96"/>
+    <hyperlink ref="D97" r:id="rId97"/>
+    <hyperlink ref="D98" r:id="rId98"/>
+    <hyperlink ref="D99" r:id="rId99"/>
+    <hyperlink ref="D100" r:id="rId100"/>
+    <hyperlink ref="D101" r:id="rId101"/>
+    <hyperlink ref="D102" r:id="rId102"/>
+    <hyperlink ref="D103" r:id="rId103"/>
+    <hyperlink ref="D104" r:id="rId104"/>
+    <hyperlink ref="D105" r:id="rId105"/>
+    <hyperlink ref="D106" r:id="rId106"/>
+    <hyperlink ref="D107" r:id="rId107"/>
+    <hyperlink ref="D108" r:id="rId108"/>
+    <hyperlink ref="D109" r:id="rId109"/>
+    <hyperlink ref="D110" r:id="rId110"/>
+    <hyperlink ref="D111" r:id="rId111"/>
+    <hyperlink ref="D112" r:id="rId112"/>
+    <hyperlink ref="D113" r:id="rId113"/>
+    <hyperlink ref="D114" r:id="rId114"/>
+    <hyperlink ref="D115" r:id="rId115"/>
+    <hyperlink ref="D116" r:id="rId116"/>
+    <hyperlink ref="D117" r:id="rId117"/>
+    <hyperlink ref="D118" r:id="rId118"/>
+    <hyperlink ref="D119" r:id="rId119"/>
+    <hyperlink ref="D120" r:id="rId120"/>
+    <hyperlink ref="D121" r:id="rId121"/>
+    <hyperlink ref="D2" r:id="rId122"/>
+    <hyperlink ref="D3" r:id="rId123"/>
+    <hyperlink ref="D4" r:id="rId124"/>
+    <hyperlink ref="D5" r:id="rId125"/>
+    <hyperlink ref="D6" r:id="rId126"/>
+    <hyperlink ref="D7" r:id="rId127"/>
+    <hyperlink ref="D8" r:id="rId128"/>
+    <hyperlink ref="D9" r:id="rId129"/>
+    <hyperlink ref="D10" r:id="rId130"/>
+    <hyperlink ref="D11" r:id="rId131"/>
+    <hyperlink ref="D12" r:id="rId132"/>
+    <hyperlink ref="D13" r:id="rId133"/>
+    <hyperlink ref="D14" r:id="rId134"/>
+    <hyperlink ref="D15" r:id="rId135"/>
+    <hyperlink ref="D16" r:id="rId136"/>
+    <hyperlink ref="D17" r:id="rId137"/>
+    <hyperlink ref="D18" r:id="rId138"/>
+    <hyperlink ref="D19" r:id="rId139"/>
+    <hyperlink ref="D20" r:id="rId140"/>
+    <hyperlink ref="D21" r:id="rId141"/>
+    <hyperlink ref="D22" r:id="rId142"/>
+    <hyperlink ref="D23" r:id="rId143"/>
+    <hyperlink ref="D24" r:id="rId144"/>
+    <hyperlink ref="D25" r:id="rId145"/>
+    <hyperlink ref="D26" r:id="rId146"/>
+    <hyperlink ref="D27" r:id="rId147"/>
+    <hyperlink ref="D28" r:id="rId148"/>
+    <hyperlink ref="D29" r:id="rId149"/>
+    <hyperlink ref="D30" r:id="rId150"/>
+    <hyperlink ref="D31" r:id="rId151"/>
+    <hyperlink ref="D32" r:id="rId152"/>
+    <hyperlink ref="D33" r:id="rId153"/>
+    <hyperlink ref="D34" r:id="rId154"/>
+    <hyperlink ref="D35" r:id="rId155"/>
+    <hyperlink ref="D36" r:id="rId156"/>
+    <hyperlink ref="D37" r:id="rId157"/>
+    <hyperlink ref="D38" r:id="rId158"/>
+    <hyperlink ref="D39" r:id="rId159"/>
+    <hyperlink ref="D40" r:id="rId160"/>
+    <hyperlink ref="D41" r:id="rId161"/>
+    <hyperlink ref="D42" r:id="rId162"/>
+    <hyperlink ref="D43" r:id="rId163"/>
+    <hyperlink ref="D44" r:id="rId164"/>
+    <hyperlink ref="D45" r:id="rId165"/>
+    <hyperlink ref="D46" r:id="rId166"/>
+    <hyperlink ref="D47" r:id="rId167"/>
+    <hyperlink ref="D48" r:id="rId168"/>
+    <hyperlink ref="D49" r:id="rId169"/>
+    <hyperlink ref="D50" r:id="rId170"/>
+    <hyperlink ref="D51" r:id="rId171"/>
+    <hyperlink ref="D52" r:id="rId172"/>
+    <hyperlink ref="D53" r:id="rId173"/>
+    <hyperlink ref="D54" r:id="rId174"/>
+    <hyperlink ref="D55" r:id="rId175"/>
+    <hyperlink ref="D56" r:id="rId176"/>
+    <hyperlink ref="D57" r:id="rId177"/>
+    <hyperlink ref="D58" r:id="rId178"/>
+    <hyperlink ref="D59" r:id="rId179"/>
+    <hyperlink ref="D60" r:id="rId180"/>
+    <hyperlink ref="D61" r:id="rId181"/>
+    <hyperlink ref="D62" r:id="rId182"/>
+    <hyperlink ref="D63" r:id="rId183"/>
+    <hyperlink ref="D64" r:id="rId184"/>
+    <hyperlink ref="D65" r:id="rId185"/>
+    <hyperlink ref="D66" r:id="rId186"/>
+    <hyperlink ref="D67" r:id="rId187"/>
+    <hyperlink ref="D68" r:id="rId188"/>
+    <hyperlink ref="D69" r:id="rId189"/>
+    <hyperlink ref="D70" r:id="rId190"/>
+    <hyperlink ref="D71" r:id="rId191"/>
+    <hyperlink ref="D72" r:id="rId192"/>
+    <hyperlink ref="D73" r:id="rId193"/>
+    <hyperlink ref="D74" r:id="rId194"/>
+    <hyperlink ref="D75" r:id="rId195"/>
+    <hyperlink ref="D76" r:id="rId196"/>
+    <hyperlink ref="D77" r:id="rId197"/>
+    <hyperlink ref="D78" r:id="rId198"/>
+    <hyperlink ref="D79" r:id="rId199"/>
+    <hyperlink ref="D80" r:id="rId200"/>
+    <hyperlink ref="D81" r:id="rId201"/>
+    <hyperlink ref="D124" r:id="rId202"/>
+    <hyperlink ref="D82" r:id="rId203"/>
+    <hyperlink ref="D83" r:id="rId204"/>
+    <hyperlink ref="D84" r:id="rId205"/>
+    <hyperlink ref="D85" r:id="rId206"/>
+    <hyperlink ref="D86" r:id="rId207"/>
+    <hyperlink ref="D87" r:id="rId208"/>
+    <hyperlink ref="D88" r:id="rId209"/>
+    <hyperlink ref="D89" r:id="rId210"/>
+    <hyperlink ref="D90" r:id="rId211"/>
+    <hyperlink ref="D91" r:id="rId212"/>
+    <hyperlink ref="D92" r:id="rId213"/>
+    <hyperlink ref="D93" r:id="rId214"/>
+    <hyperlink ref="D94" r:id="rId215"/>
+    <hyperlink ref="D95" r:id="rId216"/>
+    <hyperlink ref="D96" r:id="rId217"/>
+    <hyperlink ref="D97" r:id="rId218"/>
+    <hyperlink ref="D98" r:id="rId219"/>
+    <hyperlink ref="D99" r:id="rId220"/>
+    <hyperlink ref="D100" r:id="rId221"/>
+    <hyperlink ref="D101" r:id="rId222"/>
+    <hyperlink ref="D102" r:id="rId223"/>
+    <hyperlink ref="D103" r:id="rId224"/>
+    <hyperlink ref="D104" r:id="rId225"/>
+    <hyperlink ref="D105" r:id="rId226"/>
+    <hyperlink ref="D106" r:id="rId227"/>
+    <hyperlink ref="D107" r:id="rId228"/>
+    <hyperlink ref="D108" r:id="rId229"/>
+    <hyperlink ref="D109" r:id="rId230"/>
+    <hyperlink ref="D110" r:id="rId231"/>
+    <hyperlink ref="D111" r:id="rId232"/>
+    <hyperlink ref="D112" r:id="rId233"/>
+    <hyperlink ref="D113" r:id="rId234"/>
+    <hyperlink ref="D114" r:id="rId235"/>
+    <hyperlink ref="D115" r:id="rId236"/>
+    <hyperlink ref="D116" r:id="rId237"/>
+    <hyperlink ref="D117" r:id="rId238"/>
+    <hyperlink ref="D118" r:id="rId239"/>
+    <hyperlink ref="D119" r:id="rId240"/>
+    <hyperlink ref="D120" r:id="rId241"/>
+    <hyperlink ref="D121" r:id="rId242"/>
+    <hyperlink ref="D2" r:id="rId243"/>
+    <hyperlink ref="D3" r:id="rId244"/>
+    <hyperlink ref="D4" r:id="rId245"/>
+    <hyperlink ref="D5" r:id="rId246"/>
+    <hyperlink ref="D6" r:id="rId247"/>
+    <hyperlink ref="D7" r:id="rId248"/>
+    <hyperlink ref="D8" r:id="rId249"/>
+    <hyperlink ref="D9" r:id="rId250"/>
+    <hyperlink ref="D10" r:id="rId251"/>
+    <hyperlink ref="D11" r:id="rId252"/>
+    <hyperlink ref="D12" r:id="rId253"/>
+    <hyperlink ref="D13" r:id="rId254"/>
+    <hyperlink ref="D14" r:id="rId255"/>
+    <hyperlink ref="D15" r:id="rId256"/>
+    <hyperlink ref="D16" r:id="rId257"/>
+    <hyperlink ref="D17" r:id="rId258"/>
+    <hyperlink ref="D18" r:id="rId259"/>
+    <hyperlink ref="D19" r:id="rId260"/>
+    <hyperlink ref="D20" r:id="rId261"/>
+    <hyperlink ref="D21" r:id="rId262"/>
+    <hyperlink ref="D22" r:id="rId263"/>
+    <hyperlink ref="D23" r:id="rId264"/>
+    <hyperlink ref="D24" r:id="rId265"/>
+    <hyperlink ref="D25" r:id="rId266"/>
+    <hyperlink ref="D26" r:id="rId267"/>
+    <hyperlink ref="D27" r:id="rId268"/>
+    <hyperlink ref="D28" r:id="rId269"/>
+    <hyperlink ref="D29" r:id="rId270"/>
+    <hyperlink ref="D30" r:id="rId271"/>
+    <hyperlink ref="D31" r:id="rId272"/>
+    <hyperlink ref="D32" r:id="rId273"/>
+    <hyperlink ref="D33" r:id="rId274"/>
+    <hyperlink ref="D34" r:id="rId275"/>
+    <hyperlink ref="D35" r:id="rId276"/>
+    <hyperlink ref="D36" r:id="rId277"/>
+    <hyperlink ref="D37" r:id="rId278"/>
+    <hyperlink ref="D38" r:id="rId279"/>
+    <hyperlink ref="D39" r:id="rId280"/>
+    <hyperlink ref="D40" r:id="rId281"/>
+    <hyperlink ref="D41" r:id="rId282"/>
+    <hyperlink ref="D42" r:id="rId283"/>
+    <hyperlink ref="D43" r:id="rId284"/>
+    <hyperlink ref="D44" r:id="rId285"/>
+    <hyperlink ref="D45" r:id="rId286"/>
+    <hyperlink ref="D46" r:id="rId287"/>
+    <hyperlink ref="D47" r:id="rId288"/>
+    <hyperlink ref="D48" r:id="rId289"/>
+    <hyperlink ref="D49" r:id="rId290"/>
+    <hyperlink ref="D50" r:id="rId291"/>
+    <hyperlink ref="D51" r:id="rId292"/>
+    <hyperlink ref="D52" r:id="rId293"/>
+    <hyperlink ref="D53" r:id="rId294"/>
+    <hyperlink ref="D54" r:id="rId295"/>
+    <hyperlink ref="D55" r:id="rId296"/>
+    <hyperlink ref="D56" r:id="rId297"/>
+    <hyperlink ref="D57" r:id="rId298"/>
+    <hyperlink ref="D58" r:id="rId299"/>
+    <hyperlink ref="D59" r:id="rId300"/>
+    <hyperlink ref="D60" r:id="rId301"/>
+    <hyperlink ref="D61" r:id="rId302"/>
+    <hyperlink ref="D62" r:id="rId303"/>
+    <hyperlink ref="D63" r:id="rId304"/>
+    <hyperlink ref="D64" r:id="rId305"/>
+    <hyperlink ref="D65" r:id="rId306"/>
+    <hyperlink ref="D66" r:id="rId307"/>
+    <hyperlink ref="D67" r:id="rId308"/>
+    <hyperlink ref="D68" r:id="rId309"/>
+    <hyperlink ref="D69" r:id="rId310"/>
+    <hyperlink ref="D70" r:id="rId311"/>
+    <hyperlink ref="D71" r:id="rId312"/>
+    <hyperlink ref="D72" r:id="rId313"/>
+    <hyperlink ref="D73" r:id="rId314"/>
+    <hyperlink ref="D74" r:id="rId315"/>
+    <hyperlink ref="D75" r:id="rId316"/>
+    <hyperlink ref="D76" r:id="rId317"/>
+    <hyperlink ref="D77" r:id="rId318"/>
+    <hyperlink ref="D78" r:id="rId319"/>
+    <hyperlink ref="D79" r:id="rId320"/>
+    <hyperlink ref="D80" r:id="rId321"/>
+    <hyperlink ref="D81" r:id="rId322"/>
+    <hyperlink ref="D124" r:id="rId323"/>
+    <hyperlink ref="D82" r:id="rId324"/>
+    <hyperlink ref="D83" r:id="rId325"/>
+    <hyperlink ref="D84" r:id="rId326"/>
+    <hyperlink ref="D85" r:id="rId327"/>
+    <hyperlink ref="D86" r:id="rId328"/>
+    <hyperlink ref="D87" r:id="rId329"/>
+    <hyperlink ref="D88" r:id="rId330"/>
+    <hyperlink ref="D89" r:id="rId331"/>
+    <hyperlink ref="D90" r:id="rId332"/>
+    <hyperlink ref="D91" r:id="rId333"/>
+    <hyperlink ref="D92" r:id="rId334"/>
+    <hyperlink ref="D93" r:id="rId335"/>
+    <hyperlink ref="D94" r:id="rId336"/>
+    <hyperlink ref="D95" r:id="rId337"/>
+    <hyperlink ref="D96" r:id="rId338"/>
+    <hyperlink ref="D97" r:id="rId339"/>
+    <hyperlink ref="D98" r:id="rId340"/>
+    <hyperlink ref="D99" r:id="rId341"/>
+    <hyperlink ref="D100" r:id="rId342"/>
+    <hyperlink ref="D101" r:id="rId343"/>
+    <hyperlink ref="D102" r:id="rId344"/>
+    <hyperlink ref="D103" r:id="rId345"/>
+    <hyperlink ref="D104" r:id="rId346"/>
+    <hyperlink ref="D105" r:id="rId347"/>
+    <hyperlink ref="D106" r:id="rId348"/>
+    <hyperlink ref="D107" r:id="rId349"/>
+    <hyperlink ref="D108" r:id="rId350"/>
+    <hyperlink ref="D109" r:id="rId351"/>
+    <hyperlink ref="D110" r:id="rId352"/>
+    <hyperlink ref="D111" r:id="rId353"/>
+    <hyperlink ref="D112" r:id="rId354"/>
+    <hyperlink ref="D113" r:id="rId355"/>
+    <hyperlink ref="D114" r:id="rId356"/>
+    <hyperlink ref="D115" r:id="rId357"/>
+    <hyperlink ref="D116" r:id="rId358"/>
+    <hyperlink ref="D117" r:id="rId359"/>
+    <hyperlink ref="D118" r:id="rId360"/>
+    <hyperlink ref="D119" r:id="rId361"/>
+    <hyperlink ref="D120" r:id="rId362"/>
+    <hyperlink ref="D121" r:id="rId363"/>
+    <hyperlink ref="D2" r:id="rId364"/>
+    <hyperlink ref="F2" r:id="rId365"/>
+    <hyperlink ref="D3" r:id="rId366"/>
+    <hyperlink ref="F3" r:id="rId367"/>
+    <hyperlink ref="D4" r:id="rId368"/>
+    <hyperlink ref="F4" r:id="rId369"/>
+    <hyperlink ref="D5" r:id="rId370"/>
+    <hyperlink ref="F5" r:id="rId371"/>
+    <hyperlink ref="D6" r:id="rId372"/>
+    <hyperlink ref="F6" r:id="rId373"/>
+    <hyperlink ref="D7" r:id="rId374"/>
+    <hyperlink ref="F7" r:id="rId375"/>
+    <hyperlink ref="D8" r:id="rId376"/>
+    <hyperlink ref="F8" r:id="rId377"/>
+    <hyperlink ref="D9" r:id="rId378"/>
+    <hyperlink ref="F9" r:id="rId379"/>
+    <hyperlink ref="D10" r:id="rId380"/>
+    <hyperlink ref="F10" r:id="rId381"/>
+    <hyperlink ref="D11" r:id="rId382"/>
+    <hyperlink ref="F11" r:id="rId383"/>
+    <hyperlink ref="D12" r:id="rId384"/>
+    <hyperlink ref="F12" r:id="rId385"/>
+    <hyperlink ref="D13" r:id="rId386"/>
+    <hyperlink ref="F13" r:id="rId387"/>
+    <hyperlink ref="D14" r:id="rId388"/>
+    <hyperlink ref="F14" r:id="rId389"/>
+    <hyperlink ref="D15" r:id="rId390"/>
+    <hyperlink ref="F15" r:id="rId391"/>
+    <hyperlink ref="D16" r:id="rId392"/>
+    <hyperlink ref="F16" r:id="rId393"/>
+    <hyperlink ref="D17" r:id="rId394"/>
+    <hyperlink ref="F17" r:id="rId395"/>
+    <hyperlink ref="D18" r:id="rId396"/>
+    <hyperlink ref="F18" r:id="rId397"/>
+    <hyperlink ref="D19" r:id="rId398"/>
+    <hyperlink ref="F19" r:id="rId399"/>
+    <hyperlink ref="D20" r:id="rId400"/>
+    <hyperlink ref="F20" r:id="rId401"/>
+    <hyperlink ref="D21" r:id="rId402"/>
+    <hyperlink ref="F21" r:id="rId403"/>
+    <hyperlink ref="D22" r:id="rId404"/>
+    <hyperlink ref="F22" r:id="rId405"/>
+    <hyperlink ref="D23" r:id="rId406"/>
+    <hyperlink ref="F23" r:id="rId407"/>
+    <hyperlink ref="D24" r:id="rId408"/>
+    <hyperlink ref="F24" r:id="rId409"/>
+    <hyperlink ref="D25" r:id="rId410"/>
+    <hyperlink ref="F25" r:id="rId411"/>
+    <hyperlink ref="D26" r:id="rId412"/>
+    <hyperlink ref="F26" r:id="rId413"/>
+    <hyperlink ref="D27" r:id="rId414"/>
+    <hyperlink ref="F27" r:id="rId415"/>
+    <hyperlink ref="D28" r:id="rId416"/>
+    <hyperlink ref="F28" r:id="rId417"/>
+    <hyperlink ref="D29" r:id="rId418"/>
+    <hyperlink ref="F29" r:id="rId419"/>
+    <hyperlink ref="D30" r:id="rId420"/>
+    <hyperlink ref="F30" r:id="rId421"/>
+    <hyperlink ref="D31" r:id="rId422"/>
+    <hyperlink ref="F31" r:id="rId423"/>
+    <hyperlink ref="D32" r:id="rId424"/>
+    <hyperlink ref="F32" r:id="rId425"/>
+    <hyperlink ref="D33" r:id="rId426"/>
+    <hyperlink ref="F33" r:id="rId427"/>
+    <hyperlink ref="D34" r:id="rId428"/>
+    <hyperlink ref="F34" r:id="rId429"/>
+    <hyperlink ref="D35" r:id="rId430"/>
+    <hyperlink ref="F35" r:id="rId431"/>
+    <hyperlink ref="D36" r:id="rId432"/>
+    <hyperlink ref="F36" r:id="rId433"/>
+    <hyperlink ref="D37" r:id="rId434"/>
+    <hyperlink ref="F37" r:id="rId435"/>
+    <hyperlink ref="D38" r:id="rId436"/>
+    <hyperlink ref="F38" r:id="rId437"/>
+    <hyperlink ref="D39" r:id="rId438"/>
+    <hyperlink ref="F39" r:id="rId439"/>
+    <hyperlink ref="D40" r:id="rId440"/>
+    <hyperlink ref="F40" r:id="rId441"/>
+    <hyperlink ref="D41" r:id="rId442"/>
+    <hyperlink ref="F41" r:id="rId443"/>
+    <hyperlink ref="D42" r:id="rId444"/>
+    <hyperlink ref="F42" r:id="rId445"/>
+    <hyperlink ref="D43" r:id="rId446"/>
+    <hyperlink ref="F43" r:id="rId447"/>
+    <hyperlink ref="D44" r:id="rId448"/>
+    <hyperlink ref="F44" r:id="rId449"/>
+    <hyperlink ref="D45" r:id="rId450"/>
+    <hyperlink ref="F45" r:id="rId451"/>
+    <hyperlink ref="D46" r:id="rId452"/>
+    <hyperlink ref="F46" r:id="rId453"/>
+    <hyperlink ref="D47" r:id="rId454"/>
+    <hyperlink ref="F47" r:id="rId455"/>
+    <hyperlink ref="D48" r:id="rId456"/>
+    <hyperlink ref="F48" r:id="rId457"/>
+    <hyperlink ref="D49" r:id="rId458"/>
+    <hyperlink ref="F49" r:id="rId459"/>
+    <hyperlink ref="D50" r:id="rId460"/>
+    <hyperlink ref="F50" r:id="rId461"/>
+    <hyperlink ref="D51" r:id="rId462"/>
+    <hyperlink ref="F51" r:id="rId463"/>
+    <hyperlink ref="D52" r:id="rId464"/>
+    <hyperlink ref="F52" r:id="rId465"/>
+    <hyperlink ref="D53" r:id="rId466"/>
+    <hyperlink ref="F53" r:id="rId467"/>
+    <hyperlink ref="D54" r:id="rId468"/>
+    <hyperlink ref="F54" r:id="rId469"/>
+    <hyperlink ref="D55" r:id="rId470"/>
+    <hyperlink ref="F55" r:id="rId471"/>
+    <hyperlink ref="D56" r:id="rId472"/>
+    <hyperlink ref="F56" r:id="rId473"/>
+    <hyperlink ref="D57" r:id="rId474"/>
+    <hyperlink ref="F57" r:id="rId475"/>
+    <hyperlink ref="D58" r:id="rId476"/>
+    <hyperlink ref="F58" r:id="rId477"/>
+    <hyperlink ref="D59" r:id="rId478"/>
+    <hyperlink ref="F59" r:id="rId479"/>
+    <hyperlink ref="D60" r:id="rId480"/>
+    <hyperlink ref="F60" r:id="rId481"/>
+    <hyperlink ref="D61" r:id="rId482"/>
+    <hyperlink ref="F61" r:id="rId483"/>
+    <hyperlink ref="D62" r:id="rId484"/>
+    <hyperlink ref="F62" r:id="rId485"/>
+    <hyperlink ref="D63" r:id="rId486"/>
+    <hyperlink ref="F63" r:id="rId487"/>
+    <hyperlink ref="D64" r:id="rId488"/>
+    <hyperlink ref="F64" r:id="rId489"/>
+    <hyperlink ref="D65" r:id="rId490"/>
+    <hyperlink ref="F65" r:id="rId491"/>
+    <hyperlink ref="D66" r:id="rId492"/>
+    <hyperlink ref="F66" r:id="rId493"/>
+    <hyperlink ref="D67" r:id="rId494"/>
+    <hyperlink ref="F67" r:id="rId495"/>
+    <hyperlink ref="D68" r:id="rId496"/>
+    <hyperlink ref="F68" r:id="rId497"/>
+    <hyperlink ref="D69" r:id="rId498"/>
+    <hyperlink ref="F69" r:id="rId499"/>
+    <hyperlink ref="D70" r:id="rId500"/>
+    <hyperlink ref="F70" r:id="rId501"/>
+    <hyperlink ref="D71" r:id="rId502"/>
+    <hyperlink ref="F71" r:id="rId503"/>
+    <hyperlink ref="D72" r:id="rId504"/>
+    <hyperlink ref="F72" r:id="rId505"/>
+    <hyperlink ref="D73" r:id="rId506"/>
+    <hyperlink ref="F73" r:id="rId507"/>
+    <hyperlink ref="D74" r:id="rId508"/>
+    <hyperlink ref="F74" r:id="rId509"/>
+    <hyperlink ref="D75" r:id="rId510"/>
+    <hyperlink ref="F75" r:id="rId511"/>
+    <hyperlink ref="D76" r:id="rId512"/>
+    <hyperlink ref="F76" r:id="rId513"/>
+    <hyperlink ref="D77" r:id="rId514"/>
+    <hyperlink ref="F77" r:id="rId515"/>
+    <hyperlink ref="D78" r:id="rId516"/>
+    <hyperlink ref="F78" r:id="rId517"/>
+    <hyperlink ref="D79" r:id="rId518"/>
+    <hyperlink ref="F79" r:id="rId519"/>
+    <hyperlink ref="D80" r:id="rId520"/>
+    <hyperlink ref="F80" r:id="rId521"/>
+    <hyperlink ref="D81" r:id="rId522"/>
+    <hyperlink ref="F81" r:id="rId523"/>
+    <hyperlink ref="D124" r:id="rId524"/>
+    <hyperlink ref="F124" r:id="rId525"/>
+    <hyperlink ref="D82" r:id="rId526"/>
+    <hyperlink ref="F82" r:id="rId527"/>
+    <hyperlink ref="D83" r:id="rId528"/>
+    <hyperlink ref="F83" r:id="rId529"/>
+    <hyperlink ref="D84" r:id="rId530"/>
+    <hyperlink ref="F84" r:id="rId531"/>
+    <hyperlink ref="D85" r:id="rId532"/>
+    <hyperlink ref="F85" r:id="rId533"/>
+    <hyperlink ref="D86" r:id="rId534"/>
+    <hyperlink ref="F86" r:id="rId535"/>
+    <hyperlink ref="D87" r:id="rId536"/>
+    <hyperlink ref="F87" r:id="rId537"/>
+    <hyperlink ref="D88" r:id="rId538"/>
+    <hyperlink ref="F88" r:id="rId539"/>
+    <hyperlink ref="D89" r:id="rId540"/>
+    <hyperlink ref="F89" r:id="rId541"/>
+    <hyperlink ref="D90" r:id="rId542"/>
+    <hyperlink ref="F90" r:id="rId543"/>
+    <hyperlink ref="D91" r:id="rId544"/>
+    <hyperlink ref="F91" r:id="rId545"/>
+    <hyperlink ref="D92" r:id="rId546"/>
+    <hyperlink ref="F92" r:id="rId547"/>
+    <hyperlink ref="D93" r:id="rId548"/>
+    <hyperlink ref="F93" r:id="rId549"/>
+    <hyperlink ref="D94" r:id="rId550"/>
+    <hyperlink ref="F94" r:id="rId551"/>
+    <hyperlink ref="D95" r:id="rId552"/>
+    <hyperlink ref="F95" r:id="rId553"/>
+    <hyperlink ref="D96" r:id="rId554"/>
+    <hyperlink ref="F96" r:id="rId555"/>
+    <hyperlink ref="D97" r:id="rId556"/>
+    <hyperlink ref="F97" r:id="rId557"/>
+    <hyperlink ref="D98" r:id="rId558"/>
+    <hyperlink ref="F98" r:id="rId559"/>
+    <hyperlink ref="D99" r:id="rId560"/>
+    <hyperlink ref="F99" r:id="rId561"/>
+    <hyperlink ref="D100" r:id="rId562"/>
+    <hyperlink ref="F100" r:id="rId563"/>
+    <hyperlink ref="D101" r:id="rId564"/>
+    <hyperlink ref="F101" r:id="rId565"/>
+    <hyperlink ref="D102" r:id="rId566"/>
+    <hyperlink ref="F102" r:id="rId567"/>
+    <hyperlink ref="D103" r:id="rId568"/>
+    <hyperlink ref="F103" r:id="rId569"/>
+    <hyperlink ref="D104" r:id="rId570"/>
+    <hyperlink ref="F104" r:id="rId571"/>
+    <hyperlink ref="D105" r:id="rId572"/>
+    <hyperlink ref="F105" r:id="rId573"/>
+    <hyperlink ref="D106" r:id="rId574"/>
+    <hyperlink ref="F106" r:id="rId575"/>
+    <hyperlink ref="D107" r:id="rId576"/>
+    <hyperlink ref="F107" r:id="rId577"/>
+    <hyperlink ref="D108" r:id="rId578"/>
+    <hyperlink ref="F108" r:id="rId579"/>
+    <hyperlink ref="D109" r:id="rId580"/>
+    <hyperlink ref="F109" r:id="rId581"/>
+    <hyperlink ref="D110" r:id="rId582"/>
+    <hyperlink ref="F110" r:id="rId583"/>
+    <hyperlink ref="D111" r:id="rId584"/>
+    <hyperlink ref="F111" r:id="rId585"/>
+    <hyperlink ref="D112" r:id="rId586"/>
+    <hyperlink ref="F112" r:id="rId587"/>
+    <hyperlink ref="D113" r:id="rId588"/>
+    <hyperlink ref="F113" r:id="rId589"/>
+    <hyperlink ref="D114" r:id="rId590"/>
+    <hyperlink ref="F114" r:id="rId591"/>
+    <hyperlink ref="D115" r:id="rId592"/>
+    <hyperlink ref="F115" r:id="rId593"/>
+    <hyperlink ref="D116" r:id="rId594"/>
+    <hyperlink ref="F116" r:id="rId595"/>
+    <hyperlink ref="D117" r:id="rId596"/>
+    <hyperlink ref="F117" r:id="rId597"/>
+    <hyperlink ref="D118" r:id="rId598"/>
+    <hyperlink ref="F118" r:id="rId599"/>
+    <hyperlink ref="D119" r:id="rId600"/>
+    <hyperlink ref="F119" r:id="rId601"/>
+    <hyperlink ref="D120" r:id="rId602"/>
+    <hyperlink ref="F120" r:id="rId603"/>
+    <hyperlink ref="D121" r:id="rId604"/>
+    <hyperlink ref="F121" r:id="rId605"/>
+    <hyperlink ref="D2" r:id="rId606"/>
+    <hyperlink ref="F2" r:id="rId607"/>
+    <hyperlink ref="D3" r:id="rId608"/>
+    <hyperlink ref="F3" r:id="rId609"/>
+    <hyperlink ref="D4" r:id="rId610"/>
+    <hyperlink ref="F4" r:id="rId611"/>
+    <hyperlink ref="D5" r:id="rId612"/>
+    <hyperlink ref="F5" r:id="rId613"/>
+    <hyperlink ref="D6" r:id="rId614"/>
+    <hyperlink ref="F6" r:id="rId615"/>
+    <hyperlink ref="D7" r:id="rId616"/>
+    <hyperlink ref="F7" r:id="rId617"/>
+    <hyperlink ref="D8" r:id="rId618"/>
+    <hyperlink ref="F8" r:id="rId619"/>
+    <hyperlink ref="D9" r:id="rId620"/>
+    <hyperlink ref="F9" r:id="rId621"/>
+    <hyperlink ref="D10" r:id="rId622"/>
+    <hyperlink ref="F10" r:id="rId623"/>
+    <hyperlink ref="D11" r:id="rId624"/>
+    <hyperlink ref="F11" r:id="rId625"/>
+    <hyperlink ref="D12" r:id="rId626"/>
+    <hyperlink ref="F12" r:id="rId627"/>
+    <hyperlink ref="D13" r:id="rId628"/>
+    <hyperlink ref="F13" r:id="rId629"/>
+    <hyperlink ref="D14" r:id="rId630"/>
+    <hyperlink ref="F14" r:id="rId631"/>
+    <hyperlink ref="D15" r:id="rId632"/>
+    <hyperlink ref="F15" r:id="rId633"/>
+    <hyperlink ref="D16" r:id="rId634"/>
+    <hyperlink ref="F16" r:id="rId635"/>
+    <hyperlink ref="D17" r:id="rId636"/>
+    <hyperlink ref="F17" r:id="rId637"/>
+    <hyperlink ref="D18" r:id="rId638"/>
+    <hyperlink ref="F18" r:id="rId639"/>
+    <hyperlink ref="D19" r:id="rId640"/>
+    <hyperlink ref="F19" r:id="rId641"/>
+    <hyperlink ref="D20" r:id="rId642"/>
+    <hyperlink ref="F20" r:id="rId643"/>
+    <hyperlink ref="D21" r:id="rId644"/>
+    <hyperlink ref="F21" r:id="rId645"/>
+    <hyperlink ref="D22" r:id="rId646"/>
+    <hyperlink ref="F22" r:id="rId647"/>
+    <hyperlink ref="D23" r:id="rId648"/>
+    <hyperlink ref="F23" r:id="rId649"/>
+    <hyperlink ref="D24" r:id="rId650"/>
+    <hyperlink ref="F24" r:id="rId651"/>
+    <hyperlink ref="D25" r:id="rId652"/>
+    <hyperlink ref="F25" r:id="rId653"/>
+    <hyperlink ref="D26" r:id="rId654"/>
+    <hyperlink ref="F26" r:id="rId655"/>
+    <hyperlink ref="D27" r:id="rId656"/>
+    <hyperlink ref="F27" r:id="rId657"/>
+    <hyperlink ref="D28" r:id="rId658"/>
+    <hyperlink ref="F28" r:id="rId659"/>
+    <hyperlink ref="D29" r:id="rId660"/>
+    <hyperlink ref="F29" r:id="rId661"/>
+    <hyperlink ref="D30" r:id="rId662"/>
+    <hyperlink ref="F30" r:id="rId663"/>
+    <hyperlink ref="D31" r:id="rId664"/>
+    <hyperlink ref="F31" r:id="rId665"/>
+    <hyperlink ref="D32" r:id="rId666"/>
+    <hyperlink ref="F32" r:id="rId667"/>
+    <hyperlink ref="D33" r:id="rId668"/>
+    <hyperlink ref="F33" r:id="rId669"/>
+    <hyperlink ref="D34" r:id="rId670"/>
+    <hyperlink ref="F34" r:id="rId671"/>
+    <hyperlink ref="D35" r:id="rId672"/>
+    <hyperlink ref="F35" r:id="rId673"/>
+    <hyperlink ref="D36" r:id="rId674"/>
+    <hyperlink ref="F36" r:id="rId675"/>
+    <hyperlink ref="D37" r:id="rId676"/>
+    <hyperlink ref="F37" r:id="rId677"/>
+    <hyperlink ref="D38" r:id="rId678"/>
+    <hyperlink ref="F38" r:id="rId679"/>
+    <hyperlink ref="D39" r:id="rId680"/>
+    <hyperlink ref="F39" r:id="rId681"/>
+    <hyperlink ref="D40" r:id="rId682"/>
+    <hyperlink ref="F40" r:id="rId683"/>
+    <hyperlink ref="D41" r:id="rId684"/>
+    <hyperlink ref="F41" r:id="rId685"/>
+    <hyperlink ref="D42" r:id="rId686"/>
+    <hyperlink ref="F42" r:id="rId687"/>
+    <hyperlink ref="D43" r:id="rId688"/>
+    <hyperlink ref="F43" r:id="rId689"/>
+    <hyperlink ref="D44" r:id="rId690"/>
+    <hyperlink ref="F44" r:id="rId691"/>
+    <hyperlink ref="D45" r:id="rId692"/>
+    <hyperlink ref="F45" r:id="rId693"/>
+    <hyperlink ref="D46" r:id="rId694"/>
+    <hyperlink ref="F46" r:id="rId695"/>
+    <hyperlink ref="D47" r:id="rId696"/>
+    <hyperlink ref="F47" r:id="rId697"/>
+    <hyperlink ref="D48" r:id="rId698"/>
+    <hyperlink ref="F48" r:id="rId699"/>
+    <hyperlink ref="D49" r:id="rId700"/>
+    <hyperlink ref="F49" r:id="rId701"/>
+    <hyperlink ref="D50" r:id="rId702"/>
+    <hyperlink ref="F50" r:id="rId703"/>
+    <hyperlink ref="D51" r:id="rId704"/>
+    <hyperlink ref="F51" r:id="rId705"/>
+    <hyperlink ref="D52" r:id="rId706"/>
+    <hyperlink ref="F52" r:id="rId707"/>
+    <hyperlink ref="D53" r:id="rId708"/>
+    <hyperlink ref="F53" r:id="rId709"/>
+    <hyperlink ref="D54" r:id="rId710"/>
+    <hyperlink ref="F54" r:id="rId711"/>
+    <hyperlink ref="D55" r:id="rId712"/>
+    <hyperlink ref="F55" r:id="rId713"/>
+    <hyperlink ref="D56" r:id="rId714"/>
+    <hyperlink ref="F56" r:id="rId715"/>
+    <hyperlink ref="D57" r:id="rId716"/>
+    <hyperlink ref="F57" r:id="rId717"/>
+    <hyperlink ref="D58" r:id="rId718"/>
+    <hyperlink ref="F58" r:id="rId719"/>
+    <hyperlink ref="D59" r:id="rId720"/>
+    <hyperlink ref="F59" r:id="rId721"/>
+    <hyperlink ref="D60" r:id="rId722"/>
+    <hyperlink ref="F60" r:id="rId723"/>
+    <hyperlink ref="D61" r:id="rId724"/>
+    <hyperlink ref="F61" r:id="rId725"/>
+    <hyperlink ref="D62" r:id="rId726"/>
+    <hyperlink ref="F62" r:id="rId727"/>
+    <hyperlink ref="D63" r:id="rId728"/>
+    <hyperlink ref="F63" r:id="rId729"/>
+    <hyperlink ref="D64" r:id="rId730"/>
+    <hyperlink ref="F64" r:id="rId731"/>
+    <hyperlink ref="D65" r:id="rId732"/>
+    <hyperlink ref="F65" r:id="rId733"/>
+    <hyperlink ref="D66" r:id="rId734"/>
+    <hyperlink ref="F66" r:id="rId735"/>
+    <hyperlink ref="D67" r:id="rId736"/>
+    <hyperlink ref="F67" r:id="rId737"/>
+    <hyperlink ref="D68" r:id="rId738"/>
+    <hyperlink ref="F68" r:id="rId739"/>
+    <hyperlink ref="D69" r:id="rId740"/>
+    <hyperlink ref="F69" r:id="rId741"/>
+    <hyperlink ref="D70" r:id="rId742"/>
+    <hyperlink ref="F70" r:id="rId743"/>
+    <hyperlink ref="D71" r:id="rId744"/>
+    <hyperlink ref="F71" r:id="rId745"/>
+    <hyperlink ref="D72" r:id="rId746"/>
+    <hyperlink ref="F72" r:id="rId747"/>
+    <hyperlink ref="D73" r:id="rId748"/>
+    <hyperlink ref="F73" r:id="rId749"/>
+    <hyperlink ref="D74" r:id="rId750"/>
+    <hyperlink ref="F74" r:id="rId751"/>
+    <hyperlink ref="D75" r:id="rId752"/>
+    <hyperlink ref="F75" r:id="rId753"/>
+    <hyperlink ref="D76" r:id="rId754"/>
+    <hyperlink ref="F76" r:id="rId755"/>
+    <hyperlink ref="D77" r:id="rId756"/>
+    <hyperlink ref="F77" r:id="rId757"/>
+    <hyperlink ref="D78" r:id="rId758"/>
+    <hyperlink ref="F78" r:id="rId759"/>
+    <hyperlink ref="D79" r:id="rId760"/>
+    <hyperlink ref="F79" r:id="rId761"/>
+    <hyperlink ref="D80" r:id="rId762"/>
+    <hyperlink ref="F80" r:id="rId763"/>
+    <hyperlink ref="D81" r:id="rId764"/>
+    <hyperlink ref="F81" r:id="rId765"/>
+    <hyperlink ref="D124" r:id="rId766"/>
+    <hyperlink ref="F124" r:id="rId767"/>
+    <hyperlink ref="D82" r:id="rId768"/>
+    <hyperlink ref="F82" r:id="rId769"/>
+    <hyperlink ref="D83" r:id="rId770"/>
+    <hyperlink ref="F83" r:id="rId771"/>
+    <hyperlink ref="D84" r:id="rId772"/>
+    <hyperlink ref="F84" r:id="rId773"/>
+    <hyperlink ref="D85" r:id="rId774"/>
+    <hyperlink ref="F85" r:id="rId775"/>
+    <hyperlink ref="D86" r:id="rId776"/>
+    <hyperlink ref="F86" r:id="rId777"/>
+    <hyperlink ref="D87" r:id="rId778"/>
+    <hyperlink ref="F87" r:id="rId779"/>
+    <hyperlink ref="D88" r:id="rId780"/>
+    <hyperlink ref="F88" r:id="rId781"/>
+    <hyperlink ref="D89" r:id="rId782"/>
+    <hyperlink ref="F89" r:id="rId783"/>
+    <hyperlink ref="D90" r:id="rId784"/>
+    <hyperlink ref="F90" r:id="rId785"/>
+    <hyperlink ref="D91" r:id="rId786"/>
+    <hyperlink ref="F91" r:id="rId787"/>
+    <hyperlink ref="D92" r:id="rId788"/>
+    <hyperlink ref="F92" r:id="rId789"/>
+    <hyperlink ref="D93" r:id="rId790"/>
+    <hyperlink ref="F93" r:id="rId791"/>
+    <hyperlink ref="D94" r:id="rId792"/>
+    <hyperlink ref="F94" r:id="rId793"/>
+    <hyperlink ref="D95" r:id="rId794"/>
+    <hyperlink ref="F95" r:id="rId795"/>
+    <hyperlink ref="D96" r:id="rId796"/>
+    <hyperlink ref="F96" r:id="rId797"/>
+    <hyperlink ref="D97" r:id="rId798"/>
+    <hyperlink ref="F97" r:id="rId799"/>
+    <hyperlink ref="D98" r:id="rId800"/>
+    <hyperlink ref="F98" r:id="rId801"/>
+    <hyperlink ref="D99" r:id="rId802"/>
+    <hyperlink ref="F99" r:id="rId803"/>
+    <hyperlink ref="D100" r:id="rId804"/>
+    <hyperlink ref="F100" r:id="rId805"/>
+    <hyperlink ref="D101" r:id="rId806"/>
+    <hyperlink ref="F101" r:id="rId807"/>
+    <hyperlink ref="D102" r:id="rId808"/>
+    <hyperlink ref="F102" r:id="rId809"/>
+    <hyperlink ref="D103" r:id="rId810"/>
+    <hyperlink ref="F103" r:id="rId811"/>
+    <hyperlink ref="D104" r:id="rId812"/>
+    <hyperlink ref="F104" r:id="rId813"/>
+    <hyperlink ref="D105" r:id="rId814"/>
+    <hyperlink ref="F105" r:id="rId815"/>
+    <hyperlink ref="D106" r:id="rId816"/>
+    <hyperlink ref="F106" r:id="rId817"/>
+    <hyperlink ref="D107" r:id="rId818"/>
+    <hyperlink ref="F107" r:id="rId819"/>
+    <hyperlink ref="D108" r:id="rId820"/>
+    <hyperlink ref="F108" r:id="rId821"/>
+    <hyperlink ref="D109" r:id="rId822"/>
+    <hyperlink ref="F109" r:id="rId823"/>
+    <hyperlink ref="D110" r:id="rId824"/>
+    <hyperlink ref="F110" r:id="rId825"/>
+    <hyperlink ref="D111" r:id="rId826"/>
+    <hyperlink ref="F111" r:id="rId827"/>
+    <hyperlink ref="D112" r:id="rId828"/>
+    <hyperlink ref="F112" r:id="rId829"/>
+    <hyperlink ref="D113" r:id="rId830"/>
+    <hyperlink ref="F113" r:id="rId831"/>
+    <hyperlink ref="D114" r:id="rId832"/>
+    <hyperlink ref="F114" r:id="rId833"/>
+    <hyperlink ref="D115" r:id="rId834"/>
+    <hyperlink ref="F115" r:id="rId835"/>
+    <hyperlink ref="D116" r:id="rId836"/>
+    <hyperlink ref="F116" r:id="rId837"/>
+    <hyperlink ref="D117" r:id="rId838"/>
+    <hyperlink ref="F117" r:id="rId839"/>
+    <hyperlink ref="D118" r:id="rId840"/>
+    <hyperlink ref="F118" r:id="rId841"/>
+    <hyperlink ref="D119" r:id="rId842"/>
+    <hyperlink ref="F119" r:id="rId843"/>
+    <hyperlink ref="D120" r:id="rId844"/>
+    <hyperlink ref="F120" r:id="rId845"/>
+    <hyperlink ref="D121" r:id="rId846"/>
+    <hyperlink ref="F121" r:id="rId847"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9016,16 +13577,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9054,7 +13616,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -9086,7 +13648,7 @@
         <v>100.02681213971188</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -9118,7 +13680,7 @@
         <v>99.952639327890282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -9150,7 +13712,7 @@
         <v>99.969519629358686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -9182,7 +13744,7 @@
         <v>99.835531387806711</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -9214,7 +13776,7 @@
         <v>100.13380303774709</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -9246,7 +13808,7 @@
         <v>100.10407484893217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9278,7 +13840,7 @@
         <v>100.03880164192211</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -9310,7 +13872,7 @@
         <v>100.01429694760169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -9342,7 +13904,7 @@
         <v>100.07874423664715</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -9374,7 +13936,7 @@
         <v>99.973444186830363</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -9406,7 +13968,7 @@
         <v>101.65044257090595</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -9438,7 +14000,7 @@
         <v>101.31697221815749</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -9470,7 +14032,7 @@
         <v>101.44304671079462</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -9502,7 +14064,7 @@
         <v>101.56820106428579</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -9534,7 +14096,7 @@
         <v>101.68474255027904</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -9566,7 +14128,7 @@
         <v>101.41250272633798</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -9598,7 +14160,7 @@
         <v>101.69461272744454</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -9630,7 +14192,7 @@
         <v>101.60403541541352</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -9662,7 +14224,7 @@
         <v>101.6003905462341</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -9694,7 +14256,7 @@
         <v>101.44325799805473</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -9726,7 +14288,7 @@
         <v>99.996591683708246</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -9758,7 +14320,7 @@
         <v>99.939786500133323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -9790,7 +14352,7 @@
         <v>100.08152433154385</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -9822,7 +14384,7 @@
         <v>100.02924278391303</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -9854,7 +14416,7 @@
         <v>100.05656544879541</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -9886,7 +14448,7 @@
         <v>99.089573654003829</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -9918,7 +14480,7 @@
         <v>99.936443589391232</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -9950,7 +14512,7 @@
         <v>100.02584357744028</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -9982,7 +14544,7 @@
         <v>99.898416852471996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -10014,7 +14576,7 @@
         <v>100.07809517198292</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -10046,7 +14608,7 @@
         <v>94.378626103066651</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -10078,7 +14640,7 @@
         <v>94.112518841406285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -10110,7 +14672,7 @@
         <v>98.142304861645698</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -10142,7 +14704,7 @@
         <v>93.849958250369326</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -10174,7 +14736,7 @@
         <v>94.324851618001759</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -10206,7 +14768,7 @@
         <v>94.593535429406529</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -10238,7 +14800,7 @@
         <v>95.834329675041431</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -10270,7 +14832,7 @@
         <v>101.1297566410194</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -10302,7 +14864,7 @@
         <v>93.608566595384758</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -10348,13 +14910,13 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10383,7 +14945,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>46522</v>
       </c>
@@ -10412,7 +14974,7 @@
         <v>100.29548674357417</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>180173</v>
       </c>
@@ -10441,7 +15003,7 @@
         <v>100.14480461719864</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>180112</v>
       </c>
@@ -10470,7 +15032,7 @@
         <v>100.31058438904782</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>180126</v>
       </c>
@@ -10499,7 +15061,7 @@
         <v>100.16624758421479</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>180129</v>
       </c>
@@ -10528,7 +15090,7 @@
         <v>100.21178522486608</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>59136</v>
       </c>
@@ -10557,7 +15119,7 @@
         <v>100.2547195004211</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>58486</v>
       </c>
@@ -10586,7 +15148,7 @@
         <v>100.21364009860312</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>180123</v>
       </c>
@@ -10615,7 +15177,7 @@
         <v>100.24226222797711</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>34267</v>
       </c>
@@ -10644,7 +15206,7 @@
         <v>100.207563618249</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180118</v>
       </c>
@@ -10673,7 +15235,7 @@
         <v>100.05447079527362</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>146109</v>
       </c>
@@ -10702,7 +15264,7 @@
         <v>101.9060379478757</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>151784</v>
       </c>
@@ -10731,7 +15293,7 @@
         <v>101.83161750773701</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>180182</v>
       </c>
@@ -10760,7 +15322,7 @@
         <v>101.82280627384485</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>180209</v>
       </c>
@@ -10789,7 +15351,7 @@
         <v>101.89160292787236</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>180889</v>
       </c>
@@ -10818,7 +15380,7 @@
         <v>101.75710594315245</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>139649</v>
       </c>
@@ -10847,7 +15409,7 @@
         <v>101.91958603709809</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -10876,7 +15438,7 @@
         <v>101.91986644407345</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>180174</v>
       </c>
@@ -10905,7 +15467,7 @@
         <v>101.82078942445595</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>180154</v>
       </c>
@@ -10934,7 +15496,7 @@
         <v>101.8460363265999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>180163</v>
       </c>
@@ -10963,7 +15525,7 @@
         <v>101.78202805746304</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>180145</v>
       </c>
@@ -10992,7 +15554,7 @@
         <v>100.13164276311231</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>180124</v>
       </c>
@@ -11021,7 +15583,7 @@
         <v>100.30438767921689</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>180226</v>
       </c>
@@ -11050,7 +15612,7 @@
         <v>100.01033769813921</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>180155</v>
       </c>
@@ -11079,7 +15641,7 @@
         <v>100.07519439459968</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>180087</v>
       </c>
@@ -11108,7 +15670,7 @@
         <v>100.28858045898035</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>180133</v>
       </c>
@@ -11137,7 +15699,7 @@
         <v>100.18728864996098</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -11166,7 +15728,7 @@
         <v>100.21527777777777</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>180145</v>
       </c>
@@ -11195,7 +15757,7 @@
         <v>100.18536953760599</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>180163</v>
       </c>
@@ -11224,7 +15786,7 @@
         <v>100.07928163940642</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>180192</v>
       </c>
@@ -11253,7 +15815,7 @@
         <v>100.3220005138306</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>185105</v>
       </c>
@@ -11282,7 +15844,7 @@
         <v>101.83221499843549</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>180343</v>
       </c>
@@ -11311,7 +15873,7 @@
         <v>101.60453865163065</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>180224</v>
       </c>
@@ -11340,7 +15902,7 @@
         <v>101.93066516347238</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>180256</v>
       </c>
@@ -11369,7 +15931,7 @@
         <v>101.84773793152085</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>180227</v>
       </c>
@@ -11398,7 +15960,7 @@
         <v>101.91686560876282</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>180226</v>
       </c>
@@ -11427,7 +15989,7 @@
         <v>101.8569126199986</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>180262</v>
       </c>
@@ -11456,7 +16018,7 @@
         <v>101.92725922520643</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>180237</v>
       </c>
@@ -11485,7 +16047,7 @@
         <v>101.80628869052839</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>180388</v>
       </c>
@@ -11514,7 +16076,7 @@
         <v>101.76605028049033</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>180323</v>
       </c>
@@ -11557,12 +16119,12 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11591,7 +16153,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2382</v>
       </c>
@@ -11620,7 +16182,7 @@
         <v>100.11069739357956</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2908</v>
       </c>
@@ -11649,7 +16211,7 @@
         <v>100.21199273167777</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9733</v>
       </c>
@@ -11678,7 +16240,7 @@
         <v>100.2918532682534</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3151</v>
       </c>
@@ -11707,7 +16269,7 @@
         <v>100.20883366398664</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7335</v>
       </c>
@@ -11736,7 +16298,7 @@
         <v>100.22620944938564</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3002</v>
       </c>
@@ -11765,7 +16327,7 @@
         <v>100.27147956362174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7886</v>
       </c>
@@ -11794,7 +16356,7 @@
         <v>100.1877053026748</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6477</v>
       </c>
@@ -11823,7 +16385,7 @@
         <v>100.20671834625323</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>14147</v>
       </c>
@@ -11852,7 +16414,7 @@
         <v>100.27145541866778</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -11881,7 +16443,7 @@
         <v>100.26287851979171</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7304</v>
       </c>
@@ -11910,7 +16472,7 @@
         <v>101.89035916824197</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>57306</v>
       </c>
@@ -11939,7 +16501,7 @@
         <v>101.60938635655695</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13886</v>
       </c>
@@ -11968,7 +16530,7 @@
         <v>101.82639135508091</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6049</v>
       </c>
@@ -11997,7 +16559,7 @@
         <v>102.01752057340059</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8795</v>
       </c>
@@ -12026,7 +16588,7 @@
         <v>101.7913593256059</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6713</v>
       </c>
@@ -12055,7 +16617,7 @@
         <v>101.81951270521803</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>20402</v>
       </c>
@@ -12084,7 +16646,7 @@
         <v>101.60821747250466</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8111</v>
       </c>
@@ -12113,7 +16675,7 @@
         <v>101.80548994908938</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18295</v>
       </c>
@@ -12142,7 +16704,7 @@
         <v>101.81818181818181</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7277</v>
       </c>
@@ -12171,7 +16733,7 @@
         <v>102.02580232434161</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -12200,7 +16762,7 @@
         <v>100.42316162183168</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5365</v>
       </c>
@@ -12229,7 +16791,7 @@
         <v>100.39488368100267</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>64377</v>
       </c>
@@ -12258,7 +16820,7 @@
         <v>100.4916972180289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4618</v>
       </c>
@@ -12287,7 +16849,7 @@
         <v>100.47095761381476</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -12316,7 +16878,7 @@
         <v>100.38387715930902</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22373</v>
       </c>
@@ -12345,7 +16907,7 @@
         <v>100.51228618563862</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>18476</v>
       </c>
@@ -12374,7 +16936,7 @@
         <v>100.38552527819154</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>22724</v>
       </c>
@@ -12403,7 +16965,7 @@
         <v>100.411628505274</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5832</v>
       </c>
@@ -12432,7 +16994,7 @@
         <v>100.44440571627744</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6507</v>
       </c>
@@ -12461,7 +17023,7 @@
         <v>100.39084552916142</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>21941</v>
       </c>
@@ -12490,7 +17052,7 @@
         <v>101.97005516154452</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>15461</v>
       </c>
@@ -12519,7 +17081,7 @@
         <v>102.23011994669037</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>12694</v>
       </c>
@@ -12548,7 +17110,7 @@
         <v>101.96104065890967</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>12793</v>
       </c>
@@ -12577,7 +17139,7 @@
         <v>101.97288410431962</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -12606,7 +17168,7 @@
         <v>102.24535443909153</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>180077</v>
       </c>
@@ -12635,7 +17197,7 @@
         <v>102.06638821719059</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12617</v>
       </c>
@@ -12664,7 +17226,7 @@
         <v>101.95865070729053</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>17449</v>
       </c>
@@ -12693,7 +17255,7 @@
         <v>102.225189141077</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>24581</v>
       </c>
@@ -12722,7 +17284,7 @@
         <v>101.95151567717593</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10109</v>
       </c>
@@ -12763,7 +17325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="244">
   <si>
     <t>TIME</t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>My OptGap</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MPVSBPP_SET1_IT5000_ITV1_NT1_TS3_WT1_VT1_REP1</t>
   </si>
 </sst>
 </file>
@@ -5158,14 +5164,14 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>96997.0</v>
+        <v>133513.0</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>16.0</v>
+        <v>46.0</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
@@ -5190,14 +5196,14 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>97081.0</v>
+        <v>133549.0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-46</v>
       </c>
       <c r="H3" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -5222,14 +5228,14 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>98394.0</v>
+        <v>134226.0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -5254,14 +5260,14 @@
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>97123.0</v>
+        <v>133567.0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
       <c r="H5" t="n">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -5286,14 +5292,14 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>95791.0</v>
+        <v>132939.0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -5318,14 +5324,14 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>94261.0</v>
+        <v>132169.0</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -5350,14 +5356,14 @@
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>97972.0</v>
+        <v>133988.0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -5382,14 +5388,14 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>97937.0</v>
+        <v>133973.0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -5414,14 +5420,14 @@
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>96591.0</v>
+        <v>133339.0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -5446,14 +5452,14 @@
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>97881.0</v>
+        <v>133949.0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5478,14 +5484,14 @@
         <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>95016.0</v>
+        <v>133384.0</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5510,14 +5516,14 @@
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>95254.0</v>
+        <v>133486.0</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>-420</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5542,14 +5548,14 @@
         <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>95331.0</v>
+        <v>133519.0</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -5574,14 +5580,14 @@
         <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>95471.0</v>
+        <v>133579.0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -5606,14 +5612,14 @@
         <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>94890.0</v>
+        <v>133330.0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>-80</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -5638,14 +5644,14 @@
         <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>95983.0</v>
+        <v>133847.0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -5670,14 +5676,14 @@
         <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>95177.0</v>
+        <v>133453.0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>-66</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -5702,14 +5708,14 @@
         <v>41</v>
       </c>
       <c r="F19" t="n">
-        <v>94701.0</v>
+        <v>133149.0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>-60</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -5734,14 +5740,14 @@
         <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>94035.0</v>
+        <v>132915.0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>-192</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5766,14 +5772,14 @@
         <v>46</v>
       </c>
       <c r="F21" t="n">
-        <v>95317.0</v>
+        <v>133513.0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -5798,14 +5804,14 @@
         <v>48</v>
       </c>
       <c r="F22" t="n">
-        <v>117356.0</v>
+        <v>143724.0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -5830,14 +5836,14 @@
         <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>116183.0</v>
+        <v>143107.0</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
       <c r="H23" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -5862,14 +5868,14 @@
         <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>115397.0</v>
+        <v>142713.0</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -5894,14 +5900,14 @@
         <v>54</v>
       </c>
       <c r="F25" t="n">
-        <v>116302.0</v>
+        <v>143158.0</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -5926,14 +5932,14 @@
         <v>56</v>
       </c>
       <c r="F26" t="n">
-        <v>116745.0</v>
+        <v>143405.0</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="H26" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -5958,14 +5964,14 @@
         <v>58</v>
       </c>
       <c r="F27" t="n">
-        <v>116022.0</v>
+        <v>143038.0</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>-1066</v>
       </c>
       <c r="H27" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -5990,14 +5996,14 @@
         <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>116358.0</v>
+        <v>143182.0</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
       <c r="H28" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -6022,14 +6028,14 @@
         <v>63</v>
       </c>
       <c r="F29" t="n">
-        <v>116113.0</v>
+        <v>143077.0</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -6054,14 +6060,14 @@
         <v>65</v>
       </c>
       <c r="F30" t="n">
-        <v>116043.0</v>
+        <v>143047.0</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>-118</v>
       </c>
       <c r="H30" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -6086,14 +6092,14 @@
         <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>115334.0</v>
+        <v>142686.0</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -6118,14 +6124,14 @@
         <v>70</v>
       </c>
       <c r="F32" t="n">
-        <v>113988.0</v>
+        <v>143092.0</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>-9078</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -6150,14 +6156,14 @@
         <v>72</v>
       </c>
       <c r="F33" t="n">
-        <v>113449.0</v>
+        <v>142761.0</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>-9286</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -6182,14 +6188,14 @@
         <v>74</v>
       </c>
       <c r="F34" t="n">
-        <v>113855.0</v>
+        <v>143035.0</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>-4356</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -6214,7 +6220,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="n">
-        <v>114752.0</v>
+        <v>143468.0</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
@@ -6246,14 +6252,14 @@
         <v>78</v>
       </c>
       <c r="F36" t="n">
-        <v>112503.0</v>
+        <v>142307.0</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>-8974</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -6278,7 +6284,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="n">
-        <v>113701.0</v>
+        <v>142969.0</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -6310,7 +6316,7 @@
         <v>82</v>
       </c>
       <c r="F38" t="n">
-        <v>114065.0</v>
+        <v>143125.0</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
@@ -6342,14 +6348,14 @@
         <v>84</v>
       </c>
       <c r="F39" t="n">
-        <v>114030.0</v>
+        <v>143110.0</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>-862</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -6374,14 +6380,14 @@
         <v>86</v>
       </c>
       <c r="F40" t="n">
-        <v>115074.0</v>
+        <v>143706.0</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>-10250</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -6406,14 +6412,14 @@
         <v>88</v>
       </c>
       <c r="F41" t="n">
-        <v>114184.0</v>
+        <v>143176.0</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>-318</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -6438,7 +6444,7 @@
         <v>89</v>
       </c>
       <c r="F42" t="n">
-        <v>19896.0</v>
+        <v>26984.0</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
@@ -6470,7 +6476,7 @@
         <v>90</v>
       </c>
       <c r="F43" t="n">
-        <v>19854.0</v>
+        <v>26966.0</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
@@ -6502,7 +6508,7 @@
         <v>92</v>
       </c>
       <c r="F44" t="n">
-        <v>19931.0</v>
+        <v>26999.0</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
@@ -6534,7 +6540,7 @@
         <v>94</v>
       </c>
       <c r="F45" t="n">
-        <v>19194.0</v>
+        <v>26626.0</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
@@ -6566,7 +6572,7 @@
         <v>96</v>
       </c>
       <c r="F46" t="n">
-        <v>19495.0</v>
+        <v>26755.0</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
@@ -6598,7 +6604,7 @@
         <v>97</v>
       </c>
       <c r="F47" t="n">
-        <v>19945.0</v>
+        <v>27005.0</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
@@ -6630,7 +6636,7 @@
         <v>99</v>
       </c>
       <c r="F48" t="n">
-        <v>19215.0</v>
+        <v>26635.0</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
@@ -6662,7 +6668,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>19390.0</v>
+        <v>26710.0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
@@ -6694,7 +6700,7 @@
         <v>101</v>
       </c>
       <c r="F50" t="n">
-        <v>19208.0</v>
+        <v>26632.0</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
@@ -6726,7 +6732,7 @@
         <v>103</v>
       </c>
       <c r="F51" t="n">
-        <v>19833.0</v>
+        <v>26957.0</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
@@ -6758,7 +6764,7 @@
         <v>104</v>
       </c>
       <c r="F52" t="n">
-        <v>19144.0</v>
+        <v>26716.0</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
@@ -6790,7 +6796,7 @@
         <v>106</v>
       </c>
       <c r="F53" t="n">
-        <v>19312.0</v>
+        <v>26788.0</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
@@ -6822,7 +6828,7 @@
         <v>108</v>
       </c>
       <c r="F54" t="n">
-        <v>19711.0</v>
+        <v>27059.0</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
@@ -6854,7 +6860,7 @@
         <v>109</v>
       </c>
       <c r="F55" t="n">
-        <v>18835.0</v>
+        <v>26635.0</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
@@ -6886,7 +6892,7 @@
         <v>111</v>
       </c>
       <c r="F56" t="n">
-        <v>19060.0</v>
+        <v>26680.0</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
@@ -6918,7 +6924,7 @@
         <v>112</v>
       </c>
       <c r="F57" t="n">
-        <v>19214.0</v>
+        <v>26746.0</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
@@ -6950,7 +6956,7 @@
         <v>114</v>
       </c>
       <c r="F58" t="n">
-        <v>19326.0</v>
+        <v>26794.0</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
@@ -6982,7 +6988,7 @@
         <v>116</v>
       </c>
       <c r="F59" t="n">
-        <v>19137.0</v>
+        <v>26713.0</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
@@ -7014,7 +7020,7 @@
         <v>118</v>
       </c>
       <c r="F60" t="n">
-        <v>19004.0</v>
+        <v>26656.0</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
@@ -7046,7 +7052,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="n">
-        <v>18758.0</v>
+        <v>26602.0</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
@@ -7078,7 +7084,7 @@
         <v>122</v>
       </c>
       <c r="F62" t="n">
-        <v>23257.0</v>
+        <v>28653.0</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
@@ -7110,7 +7116,7 @@
         <v>123</v>
       </c>
       <c r="F63" t="n">
-        <v>23390.0</v>
+        <v>28710.0</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
@@ -7142,7 +7148,7 @@
         <v>125</v>
       </c>
       <c r="F64" t="n">
-        <v>23299.0</v>
+        <v>28671.0</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
@@ -7174,7 +7180,7 @@
         <v>126</v>
       </c>
       <c r="F65" t="n">
-        <v>23040.0</v>
+        <v>28560.0</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
@@ -7206,14 +7212,14 @@
         <v>129</v>
       </c>
       <c r="F66" t="n">
-        <v>23012.0</v>
+        <v>28548.0</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="H66" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -7238,7 +7244,7 @@
         <v>131</v>
       </c>
       <c r="F67" t="n">
-        <v>23152.0</v>
+        <v>28608.0</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G121" si="4">F67-B67</f>
@@ -7270,7 +7276,7 @@
         <v>133</v>
       </c>
       <c r="F68" t="n">
-        <v>22914.0</v>
+        <v>28506.0</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
@@ -7302,7 +7308,7 @@
         <v>135</v>
       </c>
       <c r="F69" t="n">
-        <v>23418.0</v>
+        <v>28722.0</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
@@ -7334,7 +7340,7 @@
         <v>136</v>
       </c>
       <c r="F70" t="n">
-        <v>23054.0</v>
+        <v>28566.0</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
@@ -7366,7 +7372,7 @@
         <v>137</v>
       </c>
       <c r="F71" t="n">
-        <v>23117.0</v>
+        <v>28593.0</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
@@ -7398,7 +7404,7 @@
         <v>139</v>
       </c>
       <c r="F72" t="n">
-        <v>22892.0</v>
+        <v>28668.0</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
@@ -7430,7 +7436,7 @@
         <v>141</v>
       </c>
       <c r="F73" t="n">
-        <v>22612.0</v>
+        <v>28548.0</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
@@ -7462,7 +7468,7 @@
         <v>142</v>
       </c>
       <c r="F74" t="n">
-        <v>22997.0</v>
+        <v>28713.0</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
@@ -7494,7 +7500,7 @@
         <v>144</v>
       </c>
       <c r="F75" t="n">
-        <v>22219.0</v>
+        <v>28331.0</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
@@ -7526,7 +7532,7 @@
         <v>147</v>
       </c>
       <c r="F76" t="n">
-        <v>23270.0</v>
+        <v>28930.0</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
@@ -7558,7 +7564,7 @@
         <v>149</v>
       </c>
       <c r="F77" t="n">
-        <v>22815.0</v>
+        <v>28635.0</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
@@ -7590,14 +7596,14 @@
         <v>150</v>
       </c>
       <c r="F78" t="n">
-        <v>23025.0</v>
+        <v>28725.0</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H78" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -7622,7 +7628,7 @@
         <v>152</v>
       </c>
       <c r="F79" t="n">
-        <v>22570.0</v>
+        <v>28530.0</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
@@ -7654,7 +7660,7 @@
         <v>154</v>
       </c>
       <c r="F80" t="n">
-        <v>23109.0</v>
+        <v>28761.0</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
@@ -7686,7 +7692,7 @@
         <v>155</v>
       </c>
       <c r="F81" t="n">
-        <v>22591.0</v>
+        <v>28539.0</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
@@ -7718,7 +7724,7 @@
         <v>157</v>
       </c>
       <c r="F82" t="n">
-        <v>49556.0</v>
+        <v>67324.0</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
@@ -7750,7 +7756,7 @@
         <v>159</v>
       </c>
       <c r="F83" t="n">
-        <v>48411.0</v>
+        <v>66719.0</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
@@ -7782,7 +7788,7 @@
         <v>161</v>
       </c>
       <c r="F84" t="n">
-        <v>49092.0</v>
+        <v>67068.0</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
@@ -7814,7 +7820,7 @@
         <v>163</v>
       </c>
       <c r="F85" t="n">
-        <v>48201.0</v>
+        <v>66629.0</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
@@ -7846,14 +7852,14 @@
         <v>165</v>
       </c>
       <c r="F86" t="n">
-        <v>48264.0</v>
+        <v>66656.0</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -7878,14 +7884,14 @@
         <v>167</v>
       </c>
       <c r="F87" t="n">
-        <v>48805.0</v>
+        <v>66945.0</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -7910,14 +7916,14 @@
         <v>168</v>
       </c>
       <c r="F88" t="n">
-        <v>48784.0</v>
+        <v>66936.0</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -7942,7 +7948,7 @@
         <v>170</v>
       </c>
       <c r="F89" t="n">
-        <v>47998.0</v>
+        <v>66542.0</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
@@ -7974,7 +7980,7 @@
         <v>172</v>
       </c>
       <c r="F90" t="n">
-        <v>48278.0</v>
+        <v>66662.0</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
@@ -8006,7 +8012,7 @@
         <v>174</v>
       </c>
       <c r="F91" t="n">
-        <v>47758.0</v>
+        <v>66382.0</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
@@ -8038,7 +8044,7 @@
         <v>176</v>
       </c>
       <c r="F92" t="n">
-        <v>46296.0</v>
+        <v>66124.0</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
@@ -8070,7 +8076,7 @@
         <v>178</v>
       </c>
       <c r="F93" t="n">
-        <v>47529.0</v>
+        <v>66701.0</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
@@ -8102,7 +8108,7 @@
         <v>180</v>
       </c>
       <c r="F94" t="n">
-        <v>47200.0</v>
+        <v>66560.0</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
@@ -8134,7 +8140,7 @@
         <v>182</v>
       </c>
       <c r="F95" t="n">
-        <v>48636.0</v>
+        <v>67324.0</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
@@ -8166,14 +8172,14 @@
         <v>184</v>
       </c>
       <c r="F96" t="n">
-        <v>48405.0</v>
+        <v>67125.0</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -8198,7 +8204,7 @@
         <v>186</v>
       </c>
       <c r="F97" t="n">
-        <v>48027.0</v>
+        <v>66963.0</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
@@ -8230,14 +8236,14 @@
         <v>189</v>
       </c>
       <c r="F98" t="n">
-        <v>48020.0</v>
+        <v>66960.0</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -8262,14 +8268,14 @@
         <v>191</v>
       </c>
       <c r="F99" t="n">
-        <v>48167.0</v>
+        <v>67023.0</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -8294,7 +8300,7 @@
         <v>193</v>
       </c>
       <c r="F100" t="n">
-        <v>47158.0</v>
+        <v>66542.0</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
@@ -8326,7 +8332,7 @@
         <v>195</v>
       </c>
       <c r="F101" t="n">
-        <v>47480.0</v>
+        <v>66680.0</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
@@ -8358,7 +8364,7 @@
         <v>197</v>
       </c>
       <c r="F102" t="n">
-        <v>57808.0</v>
+        <v>71432.0</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
@@ -8390,7 +8396,7 @@
         <v>199</v>
       </c>
       <c r="F103" t="n">
-        <v>57997.0</v>
+        <v>71513.0</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
@@ -8422,14 +8428,14 @@
         <v>201</v>
       </c>
       <c r="F104" t="n">
-        <v>58046.0</v>
+        <v>71534.0</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -8454,7 +8460,7 @@
         <v>203</v>
       </c>
       <c r="F105" t="n">
-        <v>58559.0</v>
+        <v>71811.0</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
@@ -8486,7 +8492,7 @@
         <v>205</v>
       </c>
       <c r="F106" t="n">
-        <v>58384.0</v>
+        <v>71736.0</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
@@ -8518,7 +8524,7 @@
         <v>207</v>
       </c>
       <c r="F107" t="n">
-        <v>57773.0</v>
+        <v>71417.0</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
@@ -8550,14 +8556,14 @@
         <v>210</v>
       </c>
       <c r="F108" t="n">
-        <v>57724.0</v>
+        <v>71396.0</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -8582,7 +8588,7 @@
         <v>212</v>
       </c>
       <c r="F109" t="n">
-        <v>58370.0</v>
+        <v>71730.0</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
@@ -8614,7 +8620,7 @@
         <v>214</v>
       </c>
       <c r="F110" t="n">
-        <v>58067.0</v>
+        <v>71543.0</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
@@ -8646,7 +8652,7 @@
         <v>216</v>
       </c>
       <c r="F111" t="n">
-        <v>58573.0</v>
+        <v>71817.0</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
@@ -8678,14 +8684,14 @@
         <v>218</v>
       </c>
       <c r="F112" t="n">
-        <v>57520.0</v>
+        <v>71820.0</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -8710,7 +8716,7 @@
         <v>220</v>
       </c>
       <c r="F113" t="n">
-        <v>57324.0</v>
+        <v>71736.0</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
@@ -8742,7 +8748,7 @@
         <v>222</v>
       </c>
       <c r="F114" t="n">
-        <v>56784.0</v>
+        <v>71456.0</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
@@ -8774,7 +8780,7 @@
         <v>224</v>
       </c>
       <c r="F115" t="n">
-        <v>56686.0</v>
+        <v>71414.0</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
@@ -8806,14 +8812,14 @@
         <v>226</v>
       </c>
       <c r="F116" t="n">
-        <v>56980.0</v>
+        <v>71540.0</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -8838,14 +8844,14 @@
         <v>228</v>
       </c>
       <c r="F117" t="n">
-        <v>57064.0</v>
+        <v>71576.0</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
         <v>-20</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
@@ -8870,7 +8876,7 @@
         <v>230</v>
       </c>
       <c r="F118" t="n">
-        <v>56567.0</v>
+        <v>71363.0</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
@@ -8902,14 +8908,14 @@
         <v>232</v>
       </c>
       <c r="F119" t="n">
-        <v>56973.0</v>
+        <v>71537.0</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>-50</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -8934,14 +8940,14 @@
         <v>234</v>
       </c>
       <c r="F120" t="n">
-        <v>57716.0</v>
+        <v>71904.0</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
         <v>-40</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -8966,14 +8972,14 @@
         <v>236</v>
       </c>
       <c r="F121" t="n">
-        <v>56203.0</v>
+        <v>71107.0</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>-60</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
@@ -8985,17 +8991,18 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F124">
-        <f>SUM(F2:F121)</f>
-        <v>7247355</v>
+      <c r="D124" t="s">
+        <v>243</v>
+      </c>
+      <c r="F124" t="n">
+        <v>528601.0</v>
       </c>
       <c r="G124">
         <f>SUM(G2:G121)</f>
         <v>-67106</v>
       </c>
-      <c r="H124">
-        <f>SUM(H2:H121)</f>
-        <v>120</v>
+      <c r="H124" t="n">
+        <v>488.0</v>
       </c>
       <c r="I124">
         <f>SUM(I2:I121)</f>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\NetBeansProjects\BinPackingProblem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -758,8 +758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="138" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +892,726 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1236,12 +1955,132 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1703,11 +2542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259880512"/>
-        <c:axId val="259880120"/>
+        <c:axId val="283551464"/>
+        <c:axId val="283556520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259880512"/>
+        <c:axId val="283551464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +2589,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259880120"/>
+        <c:crossAx val="283556520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +2597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259880120"/>
+        <c:axId val="283556520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +2648,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259880512"/>
+        <c:crossAx val="283551464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2292,11 +3131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259878944"/>
-        <c:axId val="259882472"/>
+        <c:axId val="283559264"/>
+        <c:axId val="283558480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259878944"/>
+        <c:axId val="283559264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +3177,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259882472"/>
+        <c:crossAx val="283558480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +3185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259882472"/>
+        <c:axId val="283558480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +3236,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259878944"/>
+        <c:crossAx val="283559264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2880,11 +3719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259881296"/>
-        <c:axId val="259882080"/>
+        <c:axId val="283558872"/>
+        <c:axId val="283556912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259881296"/>
+        <c:axId val="283558872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +3765,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259882080"/>
+        <c:crossAx val="283556912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,7 +3773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259882080"/>
+        <c:axId val="283556912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +3824,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259881296"/>
+        <c:crossAx val="283558872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5101,21 +5940,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5144,7 +5983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>180383</v>
       </c>
@@ -5154,18 +5993,18 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>96997.0</v>
+      <c r="F2" s="3">
+        <v>96997</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G66" si="0">F2-B2</f>
         <v>26</v>
       </c>
-      <c r="H2" t="n">
-        <v>16.0</v>
+      <c r="H2">
+        <v>16</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
@@ -5175,8 +6014,29 @@
         <f t="shared" ref="J2:J66" si="2">F2*100/B2</f>
         <v>100.02681213971188</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>84</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>180383</v>
       </c>
@@ -5186,18 +6046,18 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>97081.0</v>
+      <c r="F3" s="4">
+        <v>97081</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>-46</v>
       </c>
-      <c r="H3" t="n">
-        <v>16.0</v>
+      <c r="H3">
+        <v>15</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -5207,8 +6067,29 @@
         <f t="shared" si="2"/>
         <v>99.952639327890282</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>84</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>180408</v>
       </c>
@@ -5218,18 +6099,18 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
-        <v>98394.0</v>
+      <c r="F4" s="5">
+        <v>98394</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -5239,8 +6120,29 @@
         <f t="shared" si="2"/>
         <v>99.969519629358686</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>86</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>180357</v>
       </c>
@@ -5250,18 +6152,18 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
-        <v>97123.0</v>
+      <c r="F5" s="6">
+        <v>97123</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="H5" t="n">
-        <v>16.0</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -5271,8 +6173,29 @@
         <f t="shared" si="2"/>
         <v>99.835531387806711</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>84</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>180619</v>
       </c>
@@ -5282,18 +6205,18 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
-        <v>95791.0</v>
+      <c r="F6" s="7">
+        <v>95791</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -5303,8 +6226,29 @@
         <f t="shared" si="2"/>
         <v>100.13380303774709</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>83</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>180559</v>
       </c>
@@ -5314,18 +6258,18 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
-        <v>94261.0</v>
+      <c r="F7" s="8">
+        <v>94261</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -5335,8 +6279,29 @@
         <f t="shared" si="2"/>
         <v>100.10407484893217</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>81</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5346,18 +6311,18 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="n">
-        <v>97972.0</v>
+      <c r="F8" s="9">
+        <v>97972</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H8" t="n">
-        <v>16.0</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -5367,8 +6332,29 @@
         <f t="shared" si="2"/>
         <v>100.03880164192211</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>85</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>180354</v>
       </c>
@@ -5378,18 +6364,18 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="n">
-        <v>97937.0</v>
+      <c r="F9" s="10">
+        <v>97937</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -5399,8 +6385,29 @@
         <f t="shared" si="2"/>
         <v>100.01429694760169</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>85</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>180746</v>
       </c>
@@ -5410,18 +6417,18 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="n">
-        <v>96591.0</v>
+      <c r="F10" s="11">
+        <v>96591</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.0</v>
+      <c r="H10">
+        <v>17</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -5431,8 +6438,29 @@
         <f t="shared" si="2"/>
         <v>100.07874423664715</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>84</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180374</v>
       </c>
@@ -5442,18 +6470,18 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
-        <v>97881.0</v>
+      <c r="F11" s="12">
+        <v>97881</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -5463,8 +6491,29 @@
         <f t="shared" si="2"/>
         <v>99.973444186830363</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>8483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>495106</v>
       </c>
@@ -5474,18 +6523,18 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="n">
-        <v>95016.0</v>
+      <c r="F12" s="13">
+        <v>95016</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
+      <c r="H12">
+        <v>17</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -5495,8 +6544,29 @@
         <f t="shared" si="2"/>
         <v>99.884363896305956</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>56</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>8328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>456912</v>
       </c>
@@ -5506,18 +6576,18 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="n">
-        <v>95254.0</v>
+      <c r="F13" s="14">
+        <v>95254</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>-420</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -5527,8 +6597,29 @@
         <f t="shared" si="2"/>
         <v>99.561009260614171</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>56</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>436621</v>
       </c>
@@ -5538,18 +6629,18 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
-        <v>95331.0</v>
+      <c r="F14" s="15">
+        <v>95331</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -5559,8 +6650,29 @@
         <f t="shared" si="2"/>
         <v>99.686294193305514</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>56</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>435998</v>
       </c>
@@ -5570,18 +6682,18 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="n">
-        <v>95471.0</v>
+      <c r="F15" s="16">
+        <v>95471</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -5591,8 +6703,29 @@
         <f t="shared" si="2"/>
         <v>99.811815872285706</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>56</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>180768</v>
       </c>
@@ -5602,18 +6735,18 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="n">
-        <v>94890.0</v>
+      <c r="F16" s="17">
+        <v>94890</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>-80</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -5623,8 +6756,29 @@
         <f t="shared" si="2"/>
         <v>99.915762872486042</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>56</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>180881</v>
       </c>
@@ -5634,18 +6788,18 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="n">
-        <v>95983.0</v>
+      <c r="F17" s="18">
+        <v>95983</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -5655,8 +6809,29 @@
         <f t="shared" si="2"/>
         <v>99.688418516248973</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>57</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>376917</v>
       </c>
@@ -5666,18 +6841,18 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="n">
-        <v>95177.0</v>
+      <c r="F18" s="19">
+        <v>95177</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>-66</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -5687,8 +6862,29 @@
         <f t="shared" si="2"/>
         <v>99.930703568766205</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>56</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5698,18 +6894,18 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="n">
-        <v>94701.0</v>
+      <c r="F19" s="20">
+        <v>94701</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>-60</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
+      <c r="H19">
+        <v>12</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -5719,8 +6915,29 @@
         <f t="shared" si="2"/>
         <v>99.936682812549464</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>56</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -5730,18 +6947,18 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="n">
-        <v>94035.0</v>
+      <c r="F20" s="21">
+        <v>94035</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>-192</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -5751,8 +6968,29 @@
         <f t="shared" si="2"/>
         <v>99.796236747429077</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>55</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>432167</v>
       </c>
@@ -5762,18 +7000,18 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="n">
-        <v>95317.0</v>
+      <c r="F21" s="22">
+        <v>95317</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -5783,8 +7021,29 @@
         <f t="shared" si="2"/>
         <v>99.686248261292448</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>56</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>180396</v>
       </c>
@@ -5794,18 +7053,18 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="n">
-        <v>117356.0</v>
+      <c r="F22" s="23">
+        <v>117356</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.0</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -5815,8 +7074,29 @@
         <f t="shared" si="2"/>
         <v>99.996591683708246</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>110</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>180395</v>
       </c>
@@ -5826,18 +7106,18 @@
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="n">
-        <v>116183.0</v>
+      <c r="F23" s="24">
+        <v>116183</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
-      <c r="H23" t="n">
-        <v>10.0</v>
+      <c r="H23">
+        <v>16</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -5847,8 +7127,29 @@
         <f t="shared" si="2"/>
         <v>99.939786500133323</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>108</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>208527</v>
       </c>
@@ -5858,18 +7159,18 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F24" t="n">
-        <v>115397.0</v>
+      <c r="F24" s="25">
+        <v>115397</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H24" t="n">
-        <v>11.0</v>
+      <c r="H24">
+        <v>7</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -5879,8 +7180,29 @@
         <f t="shared" si="2"/>
         <v>100.08152433154385</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>107</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>180517</v>
       </c>
@@ -5890,18 +7212,18 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F25" t="n">
-        <v>116302.0</v>
+      <c r="F25" s="26">
+        <v>116302</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H25" t="n">
-        <v>11.0</v>
+      <c r="H25">
+        <v>16</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -5911,8 +7233,29 @@
         <f t="shared" si="2"/>
         <v>100.02924278391303</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>108</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>180427</v>
       </c>
@@ -5922,18 +7265,18 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F26" t="n">
-        <v>116745.0</v>
+      <c r="F26" s="27">
+        <v>116745</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H26" t="n">
-        <v>8.0</v>
+      <c r="H26">
+        <v>17</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -5943,8 +7286,29 @@
         <f t="shared" si="2"/>
         <v>100.05656544879541</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>109</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>10835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>180473</v>
       </c>
@@ -5954,18 +7318,18 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="n">
-        <v>116022.0</v>
+      <c r="F27" s="28">
+        <v>116022</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>-1066</v>
       </c>
-      <c r="H27" t="n">
-        <v>10.0</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -5975,8 +7339,29 @@
         <f t="shared" si="2"/>
         <v>99.089573654003829</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>108</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>10746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>180452</v>
       </c>
@@ -5986,18 +7371,18 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F28" t="n">
-        <v>116358.0</v>
+      <c r="F28" s="29">
+        <v>116358</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="H28" t="n">
-        <v>8.0</v>
+      <c r="H28">
+        <v>16</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -6007,8 +7392,29 @@
         <f t="shared" si="2"/>
         <v>99.936443589391232</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>108</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6018,18 +7424,18 @@
       <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F29" t="n">
-        <v>116113.0</v>
+      <c r="F29" s="30">
+        <v>116113</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.0</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -6039,8 +7445,29 @@
         <f t="shared" si="2"/>
         <v>100.02584357744028</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>108</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>10759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>189794</v>
       </c>
@@ -6050,18 +7477,18 @@
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F30" t="n">
-        <v>116043.0</v>
+      <c r="F30" s="31">
+        <v>116043</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>-118</v>
       </c>
-      <c r="H30" t="n">
-        <v>8.0</v>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -6071,8 +7498,29 @@
         <f t="shared" si="2"/>
         <v>99.898416852471996</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>108</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>10749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>193702</v>
       </c>
@@ -6082,18 +7530,18 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="n">
-        <v>115334.0</v>
+      <c r="F31" s="32">
+        <v>115334</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.0</v>
+      <c r="H31">
+        <v>9</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -6103,8 +7551,29 @@
         <f t="shared" si="2"/>
         <v>100.07809517198292</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>107</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>10662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6114,18 +7583,18 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="n">
-        <v>113988.0</v>
+      <c r="F32" s="33">
+        <v>113988</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>-9078</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
+      <c r="H32">
+        <v>4</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -6135,8 +7604,29 @@
         <f t="shared" si="2"/>
         <v>92.623470332992056</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>72</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>10764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>181507</v>
       </c>
@@ -6146,18 +7636,18 @@
       <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F33" t="n">
-        <v>113449.0</v>
+      <c r="F33" s="34">
+        <v>113449</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>-9286</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
+      <c r="H33">
+        <v>15</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -6167,8 +7657,29 @@
         <f t="shared" si="2"/>
         <v>92.434106000733294</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>72</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>10687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>185575</v>
       </c>
@@ -6178,18 +7689,18 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F34" t="n">
-        <v>113855.0</v>
+      <c r="F34" s="35">
+        <v>113855</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>-4356</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.0</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -6199,8 +7710,29 @@
         <f t="shared" si="2"/>
         <v>96.315063741952955</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>72</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>10745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>181736</v>
       </c>
@@ -6210,18 +7742,18 @@
       <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F35" t="n">
-        <v>114752.0</v>
+      <c r="F35" s="36">
+        <v>114752</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>-9800</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -6231,8 +7763,29 @@
         <f t="shared" si="2"/>
         <v>92.131800372535167</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>73</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>10856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>181895</v>
       </c>
@@ -6242,18 +7795,18 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="n">
-        <v>112503.0</v>
+      <c r="F36" s="37">
+        <v>112503</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>-8974</v>
       </c>
-      <c r="H36" t="n">
-        <v>1.0</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -6263,8 +7816,29 @@
         <f t="shared" si="2"/>
         <v>92.612593330424687</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>71</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>10569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>181541</v>
       </c>
@@ -6274,18 +7848,18 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F37" t="n">
-        <v>113701.0</v>
+      <c r="F37" s="38">
+        <v>113701</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>-8782</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -6295,8 +7869,29 @@
         <f t="shared" si="2"/>
         <v>92.830025391278795</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>10723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>181541</v>
       </c>
@@ -6306,18 +7901,18 @@
       <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F38" t="n">
-        <v>114065.0</v>
+      <c r="F38" s="39">
+        <v>114065</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>-7212</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.0</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -6327,8 +7922,29 @@
         <f t="shared" si="2"/>
         <v>94.053282980284806</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>72</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>10775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>184236</v>
       </c>
@@ -6338,18 +7954,18 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F39" t="n">
-        <v>114030.0</v>
+      <c r="F39" s="40">
+        <v>114030</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>-862</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -6359,8 +7975,29 @@
         <f t="shared" si="2"/>
         <v>99.249730181387733</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>72</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>181515</v>
       </c>
@@ -6370,18 +8007,18 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F40" t="n">
-        <v>115074.0</v>
+      <c r="F40" s="41">
+        <v>115074</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>-10250</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
+      <c r="H40">
+        <v>3</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -6391,8 +8028,29 @@
         <f t="shared" si="2"/>
         <v>91.821199451022949</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>73</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>10902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>181428</v>
       </c>
@@ -6402,18 +8060,18 @@
       <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F41" t="n">
-        <v>114184.0</v>
+      <c r="F41" s="42">
+        <v>114184</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>-318</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -6423,8 +8081,29 @@
         <f t="shared" si="2"/>
         <v>99.72227559343942</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>72</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>10792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2382</v>
       </c>
@@ -6434,18 +8113,18 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F42" t="n">
-        <v>19896.0</v>
+      <c r="F42" s="43">
+        <v>19896</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -6455,8 +8134,29 @@
         <f t="shared" si="2"/>
         <v>100.11069739357956</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2908</v>
       </c>
@@ -6466,18 +8166,18 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="n">
-        <v>19854.0</v>
+      <c r="F43" s="44">
+        <v>19854</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -6487,8 +8187,29 @@
         <f t="shared" si="2"/>
         <v>100.21199273167777</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9733</v>
       </c>
@@ -6498,18 +8219,18 @@
       <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F44" t="n">
-        <v>19931.0</v>
+      <c r="F44" s="45">
+        <v>19931</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -6519,8 +8240,29 @@
         <f t="shared" si="2"/>
         <v>100.2918532682534</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3151</v>
       </c>
@@ -6530,18 +8272,18 @@
       <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F45" t="n">
-        <v>19194.0</v>
+      <c r="F45" s="46">
+        <v>19194</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -6551,8 +8293,29 @@
         <f t="shared" si="2"/>
         <v>100.20883366398664</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7335</v>
       </c>
@@ -6562,18 +8325,18 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F46" t="n">
-        <v>19495.0</v>
+      <c r="F46" s="47">
+        <v>19495</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -6583,8 +8346,29 @@
         <f t="shared" si="2"/>
         <v>100.22620944938564</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3002</v>
       </c>
@@ -6594,18 +8378,18 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F47" t="n">
-        <v>19945.0</v>
+      <c r="F47" s="48">
+        <v>19945</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -6615,8 +8399,29 @@
         <f t="shared" si="2"/>
         <v>100.27147956362174</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7886</v>
       </c>
@@ -6626,18 +8431,18 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F48" t="n">
-        <v>19215.0</v>
+      <c r="F48" s="49">
+        <v>19215</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -6647,8 +8452,29 @@
         <f t="shared" si="2"/>
         <v>100.1877053026748</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>6477</v>
       </c>
@@ -6658,18 +8484,18 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F49" t="n">
-        <v>19390.0</v>
+      <c r="F49" s="50">
+        <v>19390</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -6679,8 +8505,29 @@
         <f t="shared" si="2"/>
         <v>100.20671834625323</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14147</v>
       </c>
@@ -6690,18 +8537,18 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="F50" t="n">
-        <v>19208.0</v>
+      <c r="F50" s="51">
+        <v>19208</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -6711,8 +8558,29 @@
         <f t="shared" si="2"/>
         <v>100.27145541866778</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -6722,18 +8590,18 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F51" t="n">
-        <v>19833.0</v>
+      <c r="F51" s="52">
+        <v>19833</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -6743,8 +8611,29 @@
         <f t="shared" si="2"/>
         <v>100.26287851979171</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7304</v>
       </c>
@@ -6754,18 +8643,18 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F52" t="n">
-        <v>19144.0</v>
+      <c r="F52" s="53">
+        <v>19144</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.0</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -6775,8 +8664,29 @@
         <f t="shared" si="2"/>
         <v>100.5250997689561</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>57306</v>
       </c>
@@ -6786,18 +8696,18 @@
       <c r="C53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F53" t="n">
-        <v>19312.0</v>
+      <c r="F53" s="54">
+        <v>19312</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.0</v>
+      <c r="H53">
+        <v>15</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -6807,8 +8717,29 @@
         <f t="shared" si="2"/>
         <v>100.25957844460596</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>12</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>13886</v>
       </c>
@@ -6818,18 +8749,18 @@
       <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F54" t="n">
-        <v>19711.0</v>
+      <c r="F54" s="55">
+        <v>19711</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" t="n">
-        <v>0.0</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -6839,8 +8770,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6049</v>
       </c>
@@ -6850,18 +8802,18 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="F55" t="n">
-        <v>18835.0</v>
+      <c r="F55" s="56">
+        <v>18835</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.0</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -6871,8 +8823,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8795</v>
       </c>
@@ -6882,18 +8855,18 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F56" t="n">
-        <v>19060.0</v>
+      <c r="F56" s="57">
+        <v>19060</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.0</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -6903,8 +8876,29 @@
         <f t="shared" si="2"/>
         <v>100.42149631190728</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6713</v>
       </c>
@@ -6914,18 +8908,18 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F57" t="n">
-        <v>19214.0</v>
+      <c r="F57" s="58">
+        <v>19214</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.0</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -6935,8 +8929,29 @@
         <f t="shared" si="2"/>
         <v>100.46010666108961</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>12</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>20402</v>
       </c>
@@ -6946,18 +8961,18 @@
       <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F58" t="n">
-        <v>19326.0</v>
+      <c r="F58" s="59">
+        <v>19326</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.0</v>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -6967,8 +8982,29 @@
         <f t="shared" si="2"/>
         <v>100.25938991492011</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>12</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>8111</v>
       </c>
@@ -6978,18 +9014,18 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F59" t="n">
-        <v>19137.0</v>
+      <c r="F59" s="60">
+        <v>19137</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.0</v>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -6999,8 +9035,29 @@
         <f t="shared" si="2"/>
         <v>100.44087545268462</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>12</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>18295</v>
       </c>
@@ -7010,18 +9067,18 @@
       <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="F60" t="n">
-        <v>19004.0</v>
+      <c r="F60" s="61">
+        <v>19004</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.0</v>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -7031,8 +9088,29 @@
         <f t="shared" si="2"/>
         <v>100.44397463002115</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>12</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7277</v>
       </c>
@@ -7042,18 +9120,18 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="n">
-        <v>18758.0</v>
+      <c r="F61" s="62">
+        <v>18758</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.0</v>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -7063,8 +9141,29 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>11</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -7074,18 +9173,18 @@
       <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="F62" t="n">
-        <v>23257.0</v>
+      <c r="F62" s="63">
+        <v>23257</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="H62" t="n">
-        <v>0.0</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -7095,8 +9194,29 @@
         <f t="shared" si="2"/>
         <v>100.42316162183168</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5365</v>
       </c>
@@ -7106,18 +9226,18 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="n">
-        <v>23390.0</v>
+      <c r="F63" s="64">
+        <v>23390</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.0</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -7127,8 +9247,29 @@
         <f t="shared" si="2"/>
         <v>100.39488368100267</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>22</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64377</v>
       </c>
@@ -7138,18 +9279,18 @@
       <c r="C64" t="s">
         <v>124</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="n">
-        <v>23299.0</v>
+      <c r="F64" s="65">
+        <v>23299</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="H64" t="n">
-        <v>0.0</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -7159,8 +9300,29 @@
         <f t="shared" si="2"/>
         <v>100.4916972180289</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4618</v>
       </c>
@@ -7170,18 +9332,18 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F65" t="n">
-        <v>23040.0</v>
+      <c r="F65" s="66">
+        <v>23040</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H65" t="n">
-        <v>0.0</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -7191,8 +9353,29 @@
         <f t="shared" si="2"/>
         <v>100.47095761381476</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>22</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -7202,18 +9385,18 @@
       <c r="C66" t="s">
         <v>128</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="n">
-        <v>23012.0</v>
+      <c r="F66" s="67">
+        <v>23012</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="H66" t="n">
-        <v>16.0</v>
+      <c r="H66">
+        <v>1</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
@@ -7223,8 +9406,29 @@
         <f t="shared" si="2"/>
         <v>100.38387715930902</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>22373</v>
       </c>
@@ -7234,18 +9438,18 @@
       <c r="C67" t="s">
         <v>130</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="n">
-        <v>23152.0</v>
+      <c r="F67" s="68">
+        <v>23152</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G121" si="4">F67-B67</f>
         <v>118</v>
       </c>
-      <c r="H67" t="n">
-        <v>0.0</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
         <f t="shared" si="3"/>
@@ -7255,8 +9459,29 @@
         <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
         <v>100.51228618563862</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>22</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18476</v>
       </c>
@@ -7266,18 +9491,18 @@
       <c r="C68" t="s">
         <v>132</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="F68" t="n">
-        <v>22914.0</v>
+      <c r="F68" s="69">
+        <v>22914</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H68" t="n">
-        <v>0.0</v>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
@@ -7287,8 +9512,29 @@
         <f t="shared" si="5"/>
         <v>100.38552527819154</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>22724</v>
       </c>
@@ -7298,18 +9544,18 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="F69" t="n">
-        <v>23418.0</v>
+      <c r="F69" s="70">
+        <v>23418</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H69" t="n">
-        <v>0.0</v>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -7319,8 +9565,29 @@
         <f t="shared" si="5"/>
         <v>100.411628505274</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>22</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5832</v>
       </c>
@@ -7330,18 +9597,18 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="F70" t="n">
-        <v>23054.0</v>
+      <c r="F70" s="71">
+        <v>23054</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H70" t="n">
-        <v>0.0</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -7351,8 +9618,29 @@
         <f t="shared" si="5"/>
         <v>100.44440571627744</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>22</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>6507</v>
       </c>
@@ -7362,18 +9650,18 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F71" t="n">
-        <v>23117.0</v>
+      <c r="F71" s="72">
+        <v>23117</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H71" t="n">
-        <v>0.0</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
@@ -7383,8 +9671,29 @@
         <f t="shared" si="5"/>
         <v>100.39084552916142</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>22</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>21941</v>
       </c>
@@ -7394,18 +9703,18 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="F72" t="n">
-        <v>22892.0</v>
+      <c r="F72" s="73">
+        <v>22892</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H72" t="n">
-        <v>0.0</v>
+      <c r="H72">
+        <v>1</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
@@ -7415,8 +9724,29 @@
         <f t="shared" si="5"/>
         <v>100.21889501794939</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>15</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15461</v>
       </c>
@@ -7426,18 +9756,18 @@
       <c r="C73" t="s">
         <v>140</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F73" t="n">
-        <v>22612.0</v>
+      <c r="F73" s="74">
+        <v>22612</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.0</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
@@ -7447,8 +9777,29 @@
         <f t="shared" si="5"/>
         <v>100.4531319413594</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12694</v>
       </c>
@@ -7458,18 +9809,18 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="F74" t="n">
-        <v>22997.0</v>
+      <c r="F74" s="75">
+        <v>22997</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.0</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
@@ -7479,8 +9830,29 @@
         <f t="shared" si="5"/>
         <v>100.21789340654551</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>12793</v>
       </c>
@@ -7490,18 +9862,18 @@
       <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="F75" t="n">
-        <v>22219.0</v>
+      <c r="F75" s="76">
+        <v>22219</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H75" t="n">
-        <v>0.0</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" si="3"/>
@@ -7511,8 +9883,29 @@
         <f t="shared" si="5"/>
         <v>100.08107742894464</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>14</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -7522,18 +9915,18 @@
       <c r="C76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F76" t="n">
-        <v>23270.0</v>
+      <c r="F76" s="77">
+        <v>23270</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="H76" t="n">
-        <v>0.0</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
@@ -7543,8 +9936,29 @@
         <f t="shared" si="5"/>
         <v>100.09463179628355</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>180077</v>
       </c>
@@ -7554,18 +9968,18 @@
       <c r="C77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="F77" t="n">
-        <v>22815.0</v>
+      <c r="F77" s="78">
+        <v>22815</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H77" t="n">
-        <v>0.0</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
@@ -7575,8 +9989,29 @@
         <f t="shared" si="5"/>
         <v>100.30775994724115</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>12617</v>
       </c>
@@ -7586,18 +10021,18 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="F78" t="n">
-        <v>23025.0</v>
+      <c r="F78" s="79">
+        <v>23025</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H78" t="n">
-        <v>33.0</v>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -7607,8 +10042,29 @@
         <f t="shared" si="5"/>
         <v>100.21762785636561</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>15</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>17449</v>
       </c>
@@ -7618,18 +10074,18 @@
       <c r="C79" t="s">
         <v>151</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="F79" t="n">
-        <v>22570.0</v>
+      <c r="F79" s="80">
+        <v>22570</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.0</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
@@ -7639,8 +10095,29 @@
         <f t="shared" si="5"/>
         <v>100.4450378282154</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>24581</v>
       </c>
@@ -7650,18 +10127,18 @@
       <c r="C80" t="s">
         <v>153</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="F80" t="n">
-        <v>23109.0</v>
+      <c r="F80" s="81">
+        <v>23109</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H80" t="n">
-        <v>0.0</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
@@ -7671,8 +10148,29 @@
         <f t="shared" si="5"/>
         <v>100.21683507524178</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>15</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10109</v>
       </c>
@@ -7682,18 +10180,18 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="F81" t="n">
-        <v>22591.0</v>
+      <c r="F81" s="82">
+        <v>22591</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H81" t="n">
-        <v>0.0</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
@@ -7703,8 +10201,29 @@
         <f t="shared" si="5"/>
         <v>100.39105896991512</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>15</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>46522</v>
       </c>
@@ -7714,18 +10233,18 @@
       <c r="C82" t="s">
         <v>156</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="F82" t="n">
-        <v>49556.0</v>
+      <c r="F82" s="83">
+        <v>49556</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="H82" t="n">
-        <v>0.0</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
         <f t="shared" si="3"/>
@@ -7735,8 +10254,29 @@
         <f t="shared" si="5"/>
         <v>100.29548674357417</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>44</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>180173</v>
       </c>
@@ -7746,18 +10286,18 @@
       <c r="C83" t="s">
         <v>158</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="F83" t="n">
-        <v>48411.0</v>
+      <c r="F83" s="84">
+        <v>48411</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H83" t="n">
-        <v>0.0</v>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
@@ -7767,8 +10307,29 @@
         <f t="shared" si="5"/>
         <v>100.14480461719864</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>42</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>180112</v>
       </c>
@@ -7778,18 +10339,18 @@
       <c r="C84" t="s">
         <v>160</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="F84" t="n">
-        <v>49092.0</v>
+      <c r="F84" s="85">
+        <v>49092</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H84" t="n">
-        <v>0.0</v>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -7799,8 +10360,29 @@
         <f t="shared" si="5"/>
         <v>100.31058438904782</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>43</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>180126</v>
       </c>
@@ -7810,18 +10392,18 @@
       <c r="C85" t="s">
         <v>162</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="F85" t="n">
-        <v>48201.0</v>
+      <c r="F85" s="86">
+        <v>48201</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H85" t="n">
-        <v>0.0</v>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -7831,8 +10413,29 @@
         <f t="shared" si="5"/>
         <v>100.16624758421479</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>42</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>180129</v>
       </c>
@@ -7842,18 +10445,18 @@
       <c r="C86" t="s">
         <v>164</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="F86" t="n">
-        <v>48264.0</v>
+      <c r="F86" s="87">
+        <v>48264</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="H86" t="n">
-        <v>0.0</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -7863,8 +10466,29 @@
         <f t="shared" si="5"/>
         <v>100.21178522486608</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>42</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>59136</v>
       </c>
@@ -7874,18 +10498,18 @@
       <c r="C87" t="s">
         <v>166</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="F87" t="n">
-        <v>48805.0</v>
+      <c r="F87" s="88">
+        <v>48805</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H87" t="n">
-        <v>0.0</v>
+      <c r="H87">
+        <v>0</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -7895,8 +10519,29 @@
         <f t="shared" si="5"/>
         <v>100.2547195004211</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>43</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>58486</v>
       </c>
@@ -7906,18 +10551,18 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="F88" t="n">
-        <v>48784.0</v>
+      <c r="F88" s="89">
+        <v>48784</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="H88" t="n">
-        <v>0.0</v>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -7927,8 +10572,29 @@
         <f t="shared" si="5"/>
         <v>100.21364009860312</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>43</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>180123</v>
       </c>
@@ -7938,18 +10604,18 @@
       <c r="C89" t="s">
         <v>169</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="F89" t="n">
-        <v>47998.0</v>
+      <c r="F89" s="90">
+        <v>47998</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="H89" t="n">
-        <v>0.0</v>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89">
         <f t="shared" si="3"/>
@@ -7959,8 +10625,29 @@
         <f t="shared" si="5"/>
         <v>100.24226222797711</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>42</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>34267</v>
       </c>
@@ -7970,18 +10657,18 @@
       <c r="C90" t="s">
         <v>171</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="F90" t="n">
-        <v>48278.0</v>
+      <c r="F90" s="91">
+        <v>48278</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H90" t="n">
-        <v>0.0</v>
+      <c r="H90">
+        <v>16</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -7991,8 +10678,29 @@
         <f t="shared" si="5"/>
         <v>100.207563618249</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>42</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>180118</v>
       </c>
@@ -8002,18 +10710,18 @@
       <c r="C91" t="s">
         <v>173</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="F91" t="n">
-        <v>47758.0</v>
+      <c r="F91" s="92">
+        <v>47758</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="H91" t="n">
-        <v>0.0</v>
+      <c r="H91">
+        <v>2</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
@@ -8023,8 +10731,29 @@
         <f t="shared" si="5"/>
         <v>100.05447079527362</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>41</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>146109</v>
       </c>
@@ -8034,18 +10763,18 @@
       <c r="C92" t="s">
         <v>175</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="F92" t="n">
-        <v>46296.0</v>
+      <c r="F92" s="93">
+        <v>46296</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="H92" t="n">
-        <v>0.0</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
@@ -8055,8 +10784,29 @@
         <f t="shared" si="5"/>
         <v>100.04754289665902</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>27</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>151784</v>
       </c>
@@ -8066,18 +10816,18 @@
       <c r="C93" t="s">
         <v>177</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="F93" t="n">
-        <v>47529.0</v>
+      <c r="F93" s="94">
+        <v>47529</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H93" t="n">
-        <v>0.0</v>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
@@ -8087,8 +10837,29 @@
         <f t="shared" si="5"/>
         <v>100.06315922440473</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>28</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>180182</v>
       </c>
@@ -8098,18 +10869,18 @@
       <c r="C94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="F94" t="n">
-        <v>47200.0</v>
+      <c r="F94" s="95">
+        <v>47200</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H94" t="n">
-        <v>0.0</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -8119,8 +10890,29 @@
         <f t="shared" si="5"/>
         <v>100.04239084357779</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>28</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>180209</v>
       </c>
@@ -8130,18 +10922,18 @@
       <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="F95" t="n">
-        <v>48636.0</v>
+      <c r="F95" s="96">
+        <v>48636</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H95" t="n">
-        <v>0.0</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
@@ -8151,8 +10943,29 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>29</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>180889</v>
       </c>
@@ -8162,18 +10975,18 @@
       <c r="C96" t="s">
         <v>183</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="F96" t="n">
-        <v>48405.0</v>
+      <c r="F96" s="97">
+        <v>48405</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H96" t="n">
-        <v>0.0</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -8183,8 +10996,29 @@
         <f t="shared" si="5"/>
         <v>100.06201550387597</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>29</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>139649</v>
       </c>
@@ -8194,18 +11028,18 @@
       <c r="C97" t="s">
         <v>185</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="F97" t="n">
-        <v>48027.0</v>
+      <c r="F97" s="98">
+        <v>48027</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H97" t="n">
-        <v>0.0</v>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -8215,8 +11049,29 @@
         <f t="shared" si="5"/>
         <v>100.20865065620632</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>29</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -8226,18 +11081,18 @@
       <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="F98" t="n">
-        <v>48020.0</v>
+      <c r="F98" s="99">
+        <v>48020</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H98" t="n">
-        <v>0.0</v>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -8247,8 +11102,29 @@
         <f t="shared" si="5"/>
         <v>100.20868113522538</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>29</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>180174</v>
       </c>
@@ -8258,18 +11134,18 @@
       <c r="C99" t="s">
         <v>190</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="F99" t="n">
-        <v>48167.0</v>
+      <c r="F99" s="100">
+        <v>48167</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="H99" t="n">
-        <v>0.0</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -8279,8 +11155,29 @@
         <f t="shared" si="5"/>
         <v>100.1163974974538</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>29</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>180154</v>
       </c>
@@ -8290,18 +11187,18 @@
       <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="F100" t="n">
-        <v>47158.0</v>
+      <c r="F100" s="101">
+        <v>47158</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H100" t="n">
-        <v>0.0</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
@@ -8311,8 +11208,29 @@
         <f t="shared" si="5"/>
         <v>100.06365642505517</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>28</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>180163</v>
       </c>
@@ -8322,18 +11240,18 @@
       <c r="C101" t="s">
         <v>194</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="F101" t="n">
-        <v>47480.0</v>
+      <c r="F101" s="102">
+        <v>47480</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H101" t="n">
-        <v>0.0</v>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -8343,8 +11261,29 @@
         <f t="shared" si="5"/>
         <v>100.01263849686144</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>28</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>180145</v>
       </c>
@@ -8354,18 +11293,18 @@
       <c r="C102" t="s">
         <v>196</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="F102" t="n">
-        <v>57808.0</v>
+      <c r="F102" s="103">
+        <v>57808</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H102" t="n">
-        <v>0.0</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -8375,8 +11314,29 @@
         <f t="shared" si="5"/>
         <v>100.13164276311231</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>54</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>180124</v>
       </c>
@@ -8386,18 +11346,18 @@
       <c r="C103" t="s">
         <v>198</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="F103" t="n">
-        <v>57997.0</v>
+      <c r="F103" s="104">
+        <v>57997</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="H103" t="n">
-        <v>0.0</v>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -8407,8 +11367,29 @@
         <f t="shared" si="5"/>
         <v>100.30438767921689</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>54</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>180226</v>
       </c>
@@ -8418,18 +11399,18 @@
       <c r="C104" t="s">
         <v>200</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="F104" t="n">
-        <v>58046.0</v>
+      <c r="F104" s="105">
+        <v>58046</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H104" t="n">
-        <v>0.0</v>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -8439,8 +11420,29 @@
         <f t="shared" si="5"/>
         <v>100.01033769813921</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>54</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>180155</v>
       </c>
@@ -8450,18 +11452,18 @@
       <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="F105" t="n">
-        <v>58559.0</v>
+      <c r="F105" s="106">
+        <v>58559</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="H105" t="n">
-        <v>0.0</v>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -8471,8 +11473,29 @@
         <f t="shared" si="5"/>
         <v>100.07519439459968</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>55</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>180087</v>
       </c>
@@ -8482,18 +11505,18 @@
       <c r="C106" t="s">
         <v>204</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="F106" t="n">
-        <v>58384.0</v>
+      <c r="F106" s="107">
+        <v>58384</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="H106" t="n">
-        <v>0.0</v>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -8503,8 +11526,29 @@
         <f t="shared" si="5"/>
         <v>100.28858045898035</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>55</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>180133</v>
       </c>
@@ -8514,18 +11558,18 @@
       <c r="C107" t="s">
         <v>206</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="F107" t="n">
-        <v>57773.0</v>
+      <c r="F107" s="108">
+        <v>57773</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H107" t="n">
-        <v>0.0</v>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -8535,8 +11579,29 @@
         <f t="shared" si="5"/>
         <v>100.18728864996098</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>54</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -8546,18 +11611,18 @@
       <c r="C108" t="s">
         <v>209</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="F108" t="n">
-        <v>57724.0</v>
+      <c r="F108" s="109">
+        <v>57724</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="H108" t="n">
-        <v>0.0</v>
+      <c r="H108">
+        <v>0</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -8567,8 +11632,29 @@
         <f t="shared" si="5"/>
         <v>100.21527777777777</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>54</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>180145</v>
       </c>
@@ -8578,18 +11664,18 @@
       <c r="C109" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="F109" t="n">
-        <v>58370.0</v>
+      <c r="F109" s="110">
+        <v>58370</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="H109" t="n">
-        <v>0.0</v>
+      <c r="H109">
+        <v>0</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -8599,8 +11685,29 @@
         <f t="shared" si="5"/>
         <v>100.18536953760599</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>55</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>180163</v>
       </c>
@@ -8610,18 +11717,18 @@
       <c r="C110" t="s">
         <v>213</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="F110" t="n">
-        <v>58067.0</v>
+      <c r="F110" s="111">
+        <v>58067</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="H110" t="n">
-        <v>0.0</v>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -8631,8 +11738,29 @@
         <f t="shared" si="5"/>
         <v>100.07928163940642</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>54</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>180192</v>
       </c>
@@ -8642,18 +11770,18 @@
       <c r="C111" t="s">
         <v>215</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="F111" t="n">
-        <v>58573.0</v>
+      <c r="F111" s="112">
+        <v>58573</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="H111" t="n">
-        <v>0.0</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -8663,8 +11791,29 @@
         <f t="shared" si="5"/>
         <v>100.3220005138306</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>55</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>185105</v>
       </c>
@@ -8674,18 +11823,18 @@
       <c r="C112" t="s">
         <v>217</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="F112" t="n">
-        <v>57520.0</v>
+      <c r="F112" s="113">
+        <v>57520</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="H112" t="n">
-        <v>0.0</v>
+      <c r="H112">
+        <v>0</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -8695,8 +11844,29 @@
         <f t="shared" si="5"/>
         <v>99.989569933595249</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>37</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>180343</v>
       </c>
@@ -8706,18 +11876,18 @@
       <c r="C113" t="s">
         <v>219</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="F113" t="n">
-        <v>57324.0</v>
+      <c r="F113" s="114">
+        <v>57324</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
         <v>-138</v>
       </c>
-      <c r="H113" t="n">
-        <v>0.0</v>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
@@ -8727,8 +11897,29 @@
         <f t="shared" si="5"/>
         <v>99.759841286415366</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>37</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>180224</v>
       </c>
@@ -8738,18 +11929,18 @@
       <c r="C114" t="s">
         <v>221</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="F114" t="n">
-        <v>56784.0</v>
+      <c r="F114" s="115">
+        <v>56784</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="H114" t="n">
-        <v>0.0</v>
+      <c r="H114">
+        <v>0</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -8759,8 +11950,29 @@
         <f t="shared" si="5"/>
         <v>100.0281848928974</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>36</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>180256</v>
       </c>
@@ -8770,18 +11982,18 @@
       <c r="C115" t="s">
         <v>223</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="F115" t="n">
-        <v>56686.0</v>
+      <c r="F115" s="116">
+        <v>56686</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
         <v>-32</v>
       </c>
-      <c r="H115" t="n">
-        <v>0.0</v>
+      <c r="H115">
+        <v>0</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -8791,8 +12003,29 @@
         <f t="shared" si="5"/>
         <v>99.943580521174937</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>36</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>180227</v>
       </c>
@@ -8802,18 +12035,18 @@
       <c r="C116" t="s">
         <v>225</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="F116" t="n">
-        <v>56980.0</v>
+      <c r="F116" s="117">
+        <v>56980</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H116" t="n">
-        <v>0.0</v>
+      <c r="H116">
+        <v>0</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -8823,8 +12056,29 @@
         <f t="shared" si="5"/>
         <v>100.02106445723915</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>36</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>180226</v>
       </c>
@@ -8834,18 +12088,18 @@
       <c r="C117" t="s">
         <v>227</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="F117" t="n">
-        <v>57064.0</v>
+      <c r="F117" s="118">
+        <v>57064</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-      <c r="H117" t="n">
-        <v>0.0</v>
+      <c r="H117">
+        <v>0</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
@@ -8855,8 +12109,29 @@
         <f t="shared" si="5"/>
         <v>99.964963912830214</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>36</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>180262</v>
       </c>
@@ -8866,18 +12141,18 @@
       <c r="C118" t="s">
         <v>229</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="F118" t="n">
-        <v>56567.0</v>
+      <c r="F118" s="119">
+        <v>56567</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H118" t="n">
-        <v>0.0</v>
+      <c r="H118">
+        <v>0</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
@@ -8887,8 +12162,29 @@
         <f t="shared" si="5"/>
         <v>100.01768127729547</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>36</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>180237</v>
       </c>
@@ -8898,18 +12194,18 @@
       <c r="C119" t="s">
         <v>231</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="F119" t="n">
-        <v>56973.0</v>
+      <c r="F119" s="120">
+        <v>56973</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-      <c r="H119" t="n">
-        <v>0.0</v>
+      <c r="H119">
+        <v>16</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -8919,8 +12215,29 @@
         <f t="shared" si="5"/>
         <v>99.912316082984063</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>36</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>180388</v>
       </c>
@@ -8930,18 +12247,18 @@
       <c r="C120" t="s">
         <v>233</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="F120" t="n">
-        <v>57716.0</v>
+      <c r="F120" s="121">
+        <v>57716</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
         <v>-40</v>
       </c>
-      <c r="H120" t="n">
-        <v>0.0</v>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -8951,8 +12268,29 @@
         <f t="shared" si="5"/>
         <v>99.93074312625528</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>37</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>180323</v>
       </c>
@@ -8962,18 +12300,18 @@
       <c r="C121" t="s">
         <v>235</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="F121" t="n">
-        <v>56203.0</v>
+      <c r="F121" s="122">
+        <v>56203</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
         <v>-60</v>
       </c>
-      <c r="H121" t="n">
-        <v>0.0</v>
+      <c r="H121">
+        <v>0</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
@@ -8983,11 +12321,32 @@
         <f t="shared" si="5"/>
         <v>99.893357979489181</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>36</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F124">
         <f>SUM(F2:F121)</f>
-        <v>7247355</v>
+        <v>6449693</v>
       </c>
       <c r="G124">
         <f>SUM(G2:G121)</f>
@@ -8998,8 +12357,8 @@
         <v>120</v>
       </c>
       <c r="I124">
-        <f>SUM(I2:I121)</f>
-        <v>-0.42848240964612061</v>
+        <f>SUM(I2:I121)/120</f>
+        <v>-3.5706867470510053E-3</v>
       </c>
       <c r="J124">
         <f>SUM(J2:J121)/120</f>
@@ -9008,6 +12367,488 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:D124"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="F8" r:id="rId14" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="F9" r:id="rId16" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="F10" r:id="rId18" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="F11" r:id="rId20" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="F12" r:id="rId22" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="F13" r:id="rId24" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="F14" r:id="rId26" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="F16" r:id="rId30" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="F17" r:id="rId32" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="F18" r:id="rId34" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="F19" r:id="rId36" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="F20" r:id="rId38" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="F21" r:id="rId40" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="F22" r:id="rId42" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="F23" r:id="rId44" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="F24" r:id="rId46" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="F25" r:id="rId48" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="F26" r:id="rId50" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="F27" r:id="rId52" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="F28" r:id="rId54" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="F29" r:id="rId56" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="F30" r:id="rId58" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="F31" r:id="rId60" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="F32" r:id="rId62" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="F33" r:id="rId64" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="F34" r:id="rId66" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="F35" r:id="rId68" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="F36" r:id="rId70" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="F37" r:id="rId72" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="F38" r:id="rId74" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="F39" r:id="rId76" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="F40" r:id="rId78" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="F41" r:id="rId80" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="F42" r:id="rId82" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="F43" r:id="rId84" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="F44" r:id="rId86" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="F45" r:id="rId88" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="F46" r:id="rId90" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="F47" r:id="rId92" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="F48" r:id="rId94" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="F49" r:id="rId96" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="F50" r:id="rId98" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="F51" r:id="rId100" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="F52" r:id="rId102" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="F53" r:id="rId104" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="F54" r:id="rId106" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="F55" r:id="rId108" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="F56" r:id="rId110" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="F57" r:id="rId112" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="F58" r:id="rId114" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="F59" r:id="rId116" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="F60" r:id="rId118" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="F61" r:id="rId120" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="F62" r:id="rId122" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="F63" r:id="rId124" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="F64" r:id="rId126" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="F65" r:id="rId128" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="F66" r:id="rId130" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="F67" r:id="rId132" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="F68" r:id="rId134" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="F69" r:id="rId136" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="F70" r:id="rId138" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="F71" r:id="rId140" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="F72" r:id="rId142" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="F73" r:id="rId144" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="F74" r:id="rId146" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="F75" r:id="rId148" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="F76" r:id="rId150" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="F77" r:id="rId152" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="F78" r:id="rId154" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="F79" r:id="rId156" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D80" r:id="rId157"/>
+    <hyperlink ref="F80" r:id="rId158" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D81" r:id="rId159"/>
+    <hyperlink ref="F81" r:id="rId160" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D82" r:id="rId161"/>
+    <hyperlink ref="F82" r:id="rId162" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D83" r:id="rId163"/>
+    <hyperlink ref="F83" r:id="rId164" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D84" r:id="rId165"/>
+    <hyperlink ref="F84" r:id="rId166" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D85" r:id="rId167"/>
+    <hyperlink ref="F85" r:id="rId168" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D86" r:id="rId169"/>
+    <hyperlink ref="F86" r:id="rId170" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D87" r:id="rId171"/>
+    <hyperlink ref="F87" r:id="rId172" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D88" r:id="rId173"/>
+    <hyperlink ref="F88" r:id="rId174" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D89" r:id="rId175"/>
+    <hyperlink ref="F89" r:id="rId176" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D90" r:id="rId177"/>
+    <hyperlink ref="F90" r:id="rId178" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D91" r:id="rId179"/>
+    <hyperlink ref="F91" r:id="rId180" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D92" r:id="rId181"/>
+    <hyperlink ref="F92" r:id="rId182" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D93" r:id="rId183"/>
+    <hyperlink ref="F93" r:id="rId184" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D94" r:id="rId185"/>
+    <hyperlink ref="F94" r:id="rId186" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D95" r:id="rId187"/>
+    <hyperlink ref="F95" r:id="rId188" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D96" r:id="rId189"/>
+    <hyperlink ref="F96" r:id="rId190" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D97" r:id="rId191"/>
+    <hyperlink ref="F97" r:id="rId192" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D98" r:id="rId193"/>
+    <hyperlink ref="F98" r:id="rId194" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D99" r:id="rId195"/>
+    <hyperlink ref="F99" r:id="rId196" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D100" r:id="rId197"/>
+    <hyperlink ref="F100" r:id="rId198" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D101" r:id="rId199"/>
+    <hyperlink ref="F101" r:id="rId200" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D102" r:id="rId201"/>
+    <hyperlink ref="F102" r:id="rId202" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D103" r:id="rId203"/>
+    <hyperlink ref="F103" r:id="rId204" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D104" r:id="rId205"/>
+    <hyperlink ref="F104" r:id="rId206" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D105" r:id="rId207"/>
+    <hyperlink ref="F105" r:id="rId208" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D106" r:id="rId209"/>
+    <hyperlink ref="F106" r:id="rId210" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D107" r:id="rId211"/>
+    <hyperlink ref="F107" r:id="rId212" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D108" r:id="rId213"/>
+    <hyperlink ref="F108" r:id="rId214" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D109" r:id="rId215"/>
+    <hyperlink ref="F109" r:id="rId216" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D110" r:id="rId217"/>
+    <hyperlink ref="F110" r:id="rId218" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D111" r:id="rId219"/>
+    <hyperlink ref="F111" r:id="rId220" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D112" r:id="rId221"/>
+    <hyperlink ref="F112" r:id="rId222" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D113" r:id="rId223"/>
+    <hyperlink ref="F113" r:id="rId224" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D114" r:id="rId225"/>
+    <hyperlink ref="F114" r:id="rId226" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D115" r:id="rId227"/>
+    <hyperlink ref="F115" r:id="rId228" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D116" r:id="rId229"/>
+    <hyperlink ref="F116" r:id="rId230" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D117" r:id="rId231"/>
+    <hyperlink ref="F117" r:id="rId232" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D118" r:id="rId233"/>
+    <hyperlink ref="F118" r:id="rId234" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D119" r:id="rId235"/>
+    <hyperlink ref="F119" r:id="rId236" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D120" r:id="rId237"/>
+    <hyperlink ref="F120" r:id="rId238" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D121" r:id="rId239"/>
+    <hyperlink ref="F121" r:id="rId240" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D2" r:id="rId241"/>
+    <hyperlink ref="F2" r:id="rId242" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D3" r:id="rId243"/>
+    <hyperlink ref="F3" r:id="rId244" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D4" r:id="rId245"/>
+    <hyperlink ref="F4" r:id="rId246" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D5" r:id="rId247"/>
+    <hyperlink ref="F5" r:id="rId248" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D6" r:id="rId249"/>
+    <hyperlink ref="F6" r:id="rId250" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D7" r:id="rId251"/>
+    <hyperlink ref="F7" r:id="rId252" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D8" r:id="rId253"/>
+    <hyperlink ref="F8" r:id="rId254" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D9" r:id="rId255"/>
+    <hyperlink ref="F9" r:id="rId256" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D10" r:id="rId257"/>
+    <hyperlink ref="F10" r:id="rId258" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D11" r:id="rId259"/>
+    <hyperlink ref="F11" r:id="rId260" display="MPVSBPP_SET1_IT1000_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D12" r:id="rId261"/>
+    <hyperlink ref="F12" r:id="rId262" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D13" r:id="rId263"/>
+    <hyperlink ref="F13" r:id="rId264" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D14" r:id="rId265"/>
+    <hyperlink ref="F14" r:id="rId266" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D15" r:id="rId267"/>
+    <hyperlink ref="F15" r:id="rId268" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D16" r:id="rId269"/>
+    <hyperlink ref="F16" r:id="rId270" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D17" r:id="rId271"/>
+    <hyperlink ref="F17" r:id="rId272" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D18" r:id="rId273"/>
+    <hyperlink ref="F18" r:id="rId274" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D19" r:id="rId275"/>
+    <hyperlink ref="F19" r:id="rId276" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D20" r:id="rId277"/>
+    <hyperlink ref="F20" r:id="rId278" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D21" r:id="rId279"/>
+    <hyperlink ref="F21" r:id="rId280" display="MPVSBPP_SET1_IT1000_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D22" r:id="rId281"/>
+    <hyperlink ref="F22" r:id="rId282" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D23" r:id="rId283"/>
+    <hyperlink ref="F23" r:id="rId284" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D24" r:id="rId285"/>
+    <hyperlink ref="F24" r:id="rId286" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D25" r:id="rId287"/>
+    <hyperlink ref="F25" r:id="rId288" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D26" r:id="rId289"/>
+    <hyperlink ref="F26" r:id="rId290" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D27" r:id="rId291"/>
+    <hyperlink ref="F27" r:id="rId292" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D28" r:id="rId293"/>
+    <hyperlink ref="F28" r:id="rId294" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D29" r:id="rId295"/>
+    <hyperlink ref="F29" r:id="rId296" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D30" r:id="rId297"/>
+    <hyperlink ref="F30" r:id="rId298" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D31" r:id="rId299"/>
+    <hyperlink ref="F31" r:id="rId300" display="MPVSBPP_SET1_IT1000_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D32" r:id="rId301"/>
+    <hyperlink ref="F32" r:id="rId302" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D33" r:id="rId303"/>
+    <hyperlink ref="F33" r:id="rId304" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D34" r:id="rId305"/>
+    <hyperlink ref="F34" r:id="rId306" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D35" r:id="rId307"/>
+    <hyperlink ref="F35" r:id="rId308" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D36" r:id="rId309"/>
+    <hyperlink ref="F36" r:id="rId310" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D37" r:id="rId311"/>
+    <hyperlink ref="F37" r:id="rId312" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D38" r:id="rId313"/>
+    <hyperlink ref="F38" r:id="rId314" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D39" r:id="rId315"/>
+    <hyperlink ref="F39" r:id="rId316" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D40" r:id="rId317"/>
+    <hyperlink ref="F40" r:id="rId318" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D41" r:id="rId319"/>
+    <hyperlink ref="F41" r:id="rId320" display="MPVSBPP_SET1_IT1000_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D42" r:id="rId321"/>
+    <hyperlink ref="F42" r:id="rId322" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D43" r:id="rId323"/>
+    <hyperlink ref="F43" r:id="rId324" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D44" r:id="rId325"/>
+    <hyperlink ref="F44" r:id="rId326" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D45" r:id="rId327"/>
+    <hyperlink ref="F45" r:id="rId328" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D46" r:id="rId329"/>
+    <hyperlink ref="F46" r:id="rId330" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D47" r:id="rId331"/>
+    <hyperlink ref="F47" r:id="rId332" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D48" r:id="rId333"/>
+    <hyperlink ref="F48" r:id="rId334" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D49" r:id="rId335"/>
+    <hyperlink ref="F49" r:id="rId336" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D50" r:id="rId337"/>
+    <hyperlink ref="F50" r:id="rId338" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D51" r:id="rId339"/>
+    <hyperlink ref="F51" r:id="rId340" display="MPVSBPP_SET1_IT200_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D52" r:id="rId341"/>
+    <hyperlink ref="F52" r:id="rId342" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D53" r:id="rId343"/>
+    <hyperlink ref="F53" r:id="rId344" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D54" r:id="rId345"/>
+    <hyperlink ref="F54" r:id="rId346" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D55" r:id="rId347"/>
+    <hyperlink ref="F55" r:id="rId348" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D56" r:id="rId349"/>
+    <hyperlink ref="F56" r:id="rId350" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D57" r:id="rId351"/>
+    <hyperlink ref="F57" r:id="rId352" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D58" r:id="rId353"/>
+    <hyperlink ref="F58" r:id="rId354" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D59" r:id="rId355"/>
+    <hyperlink ref="F59" r:id="rId356" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D60" r:id="rId357"/>
+    <hyperlink ref="F60" r:id="rId358" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D61" r:id="rId359"/>
+    <hyperlink ref="F61" r:id="rId360" display="MPVSBPP_SET1_IT200_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D62" r:id="rId361"/>
+    <hyperlink ref="F62" r:id="rId362" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D63" r:id="rId363"/>
+    <hyperlink ref="F63" r:id="rId364" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D64" r:id="rId365"/>
+    <hyperlink ref="F64" r:id="rId366" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D65" r:id="rId367"/>
+    <hyperlink ref="F65" r:id="rId368" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D66" r:id="rId369"/>
+    <hyperlink ref="F66" r:id="rId370" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D67" r:id="rId371"/>
+    <hyperlink ref="F67" r:id="rId372" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D68" r:id="rId373"/>
+    <hyperlink ref="F68" r:id="rId374" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D69" r:id="rId375"/>
+    <hyperlink ref="F69" r:id="rId376" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D70" r:id="rId377"/>
+    <hyperlink ref="F70" r:id="rId378" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D71" r:id="rId379"/>
+    <hyperlink ref="F71" r:id="rId380" display="MPVSBPP_SET1_IT200_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D72" r:id="rId381"/>
+    <hyperlink ref="F72" r:id="rId382" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D73" r:id="rId383"/>
+    <hyperlink ref="F73" r:id="rId384" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D74" r:id="rId385"/>
+    <hyperlink ref="F74" r:id="rId386" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D75" r:id="rId387"/>
+    <hyperlink ref="F75" r:id="rId388" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D76" r:id="rId389"/>
+    <hyperlink ref="F76" r:id="rId390" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D77" r:id="rId391"/>
+    <hyperlink ref="F77" r:id="rId392" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D78" r:id="rId393"/>
+    <hyperlink ref="F78" r:id="rId394" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D79" r:id="rId395"/>
+    <hyperlink ref="F79" r:id="rId396" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D80" r:id="rId397"/>
+    <hyperlink ref="F80" r:id="rId398" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D81" r:id="rId399"/>
+    <hyperlink ref="F81" r:id="rId400" display="MPVSBPP_SET1_IT200_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D82" r:id="rId401"/>
+    <hyperlink ref="F82" r:id="rId402" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D83" r:id="rId403"/>
+    <hyperlink ref="F83" r:id="rId404" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D84" r:id="rId405"/>
+    <hyperlink ref="F84" r:id="rId406" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D85" r:id="rId407"/>
+    <hyperlink ref="F85" r:id="rId408" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D86" r:id="rId409"/>
+    <hyperlink ref="F86" r:id="rId410" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D87" r:id="rId411"/>
+    <hyperlink ref="F87" r:id="rId412" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D88" r:id="rId413"/>
+    <hyperlink ref="F88" r:id="rId414" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D89" r:id="rId415"/>
+    <hyperlink ref="F89" r:id="rId416" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D90" r:id="rId417"/>
+    <hyperlink ref="F90" r:id="rId418" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D91" r:id="rId419"/>
+    <hyperlink ref="F91" r:id="rId420" display="MPVSBPP_SET1_IT500_ITV1_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D92" r:id="rId421"/>
+    <hyperlink ref="F92" r:id="rId422" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D93" r:id="rId423"/>
+    <hyperlink ref="F93" r:id="rId424" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D94" r:id="rId425"/>
+    <hyperlink ref="F94" r:id="rId426" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D95" r:id="rId427"/>
+    <hyperlink ref="F95" r:id="rId428" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D96" r:id="rId429"/>
+    <hyperlink ref="F96" r:id="rId430" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D97" r:id="rId431"/>
+    <hyperlink ref="F97" r:id="rId432" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D98" r:id="rId433"/>
+    <hyperlink ref="F98" r:id="rId434" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D99" r:id="rId435"/>
+    <hyperlink ref="F99" r:id="rId436" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D100" r:id="rId437"/>
+    <hyperlink ref="F100" r:id="rId438" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D101" r:id="rId439"/>
+    <hyperlink ref="F101" r:id="rId440" display="MPVSBPP_SET1_IT500_ITV1_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D102" r:id="rId441"/>
+    <hyperlink ref="F102" r:id="rId442" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D103" r:id="rId443"/>
+    <hyperlink ref="F103" r:id="rId444" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D104" r:id="rId445"/>
+    <hyperlink ref="F104" r:id="rId446" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D105" r:id="rId447"/>
+    <hyperlink ref="F105" r:id="rId448" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D106" r:id="rId449"/>
+    <hyperlink ref="F106" r:id="rId450" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D107" r:id="rId451"/>
+    <hyperlink ref="F107" r:id="rId452" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D108" r:id="rId453"/>
+    <hyperlink ref="F108" r:id="rId454" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D109" r:id="rId455"/>
+    <hyperlink ref="F109" r:id="rId456" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D110" r:id="rId457"/>
+    <hyperlink ref="F110" r:id="rId458" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D111" r:id="rId459"/>
+    <hyperlink ref="F111" r:id="rId460" display="MPVSBPP_SET1_IT500_ITV2_NT1_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D112" r:id="rId461"/>
+    <hyperlink ref="F112" r:id="rId462" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP1.dat-result.txt"/>
+    <hyperlink ref="D113" r:id="rId463"/>
+    <hyperlink ref="F113" r:id="rId464" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP10.dat-result.txt"/>
+    <hyperlink ref="D114" r:id="rId465"/>
+    <hyperlink ref="F114" r:id="rId466" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP2.dat-result.txt"/>
+    <hyperlink ref="D115" r:id="rId467"/>
+    <hyperlink ref="F115" r:id="rId468" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP3.dat-result.txt"/>
+    <hyperlink ref="D116" r:id="rId469"/>
+    <hyperlink ref="F116" r:id="rId470" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP4.dat-result.txt"/>
+    <hyperlink ref="D117" r:id="rId471"/>
+    <hyperlink ref="F117" r:id="rId472" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP5.dat-result.txt"/>
+    <hyperlink ref="D118" r:id="rId473"/>
+    <hyperlink ref="F118" r:id="rId474" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP6.dat-result.txt"/>
+    <hyperlink ref="D119" r:id="rId475"/>
+    <hyperlink ref="F119" r:id="rId476" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP7.dat-result.txt"/>
+    <hyperlink ref="D120" r:id="rId477"/>
+    <hyperlink ref="F120" r:id="rId478" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
+    <hyperlink ref="D121" r:id="rId479"/>
+    <hyperlink ref="F121" r:id="rId480" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9016,13 +12857,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10350,8 +14191,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11559,7 +15400,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="results-assignment" sheetId="1" r:id="rId1"/>
@@ -2204,7 +2204,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2563,11 +2562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="650281456"/>
-        <c:axId val="650281848"/>
+        <c:axId val="155917000"/>
+        <c:axId val="155917392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="650281456"/>
+        <c:axId val="155917000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2608,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650281848"/>
+        <c:crossAx val="155917392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2617,7 +2616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="650281848"/>
+        <c:axId val="155917392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2667,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650281456"/>
+        <c:crossAx val="155917000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,7 +2681,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2794,7 +2792,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3153,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="650292040"/>
-        <c:axId val="650292432"/>
+        <c:axId val="199679128"/>
+        <c:axId val="199686184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="650292040"/>
+        <c:axId val="199679128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3196,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650292432"/>
+        <c:crossAx val="199686184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3207,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="650292432"/>
+        <c:axId val="199686184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3255,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650292040"/>
+        <c:crossAx val="199679128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3272,7 +3269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3384,7 +3380,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3743,11 +3738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="721851824"/>
-        <c:axId val="721857704"/>
+        <c:axId val="199681872"/>
+        <c:axId val="199685792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="721851824"/>
+        <c:axId val="199681872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +3784,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721857704"/>
+        <c:crossAx val="199685792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3797,7 +3792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721857704"/>
+        <c:axId val="199685792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3843,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721851824"/>
+        <c:crossAx val="199681872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3862,7 +3857,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3974,7 +3968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4333,11 +4326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="934253464"/>
-        <c:axId val="934253856"/>
+        <c:axId val="199683440"/>
+        <c:axId val="199679912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="934253464"/>
+        <c:axId val="199683440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4372,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934253856"/>
+        <c:crossAx val="199679912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4387,7 +4380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="934253856"/>
+        <c:axId val="199679912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,7 +4431,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934253464"/>
+        <c:crossAx val="199683440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4452,7 +4445,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4923,11 +4915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="662812704"/>
-        <c:axId val="662813096"/>
+        <c:axId val="199681088"/>
+        <c:axId val="199683832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662812704"/>
+        <c:axId val="199681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,7 +4961,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662813096"/>
+        <c:crossAx val="199683832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4977,7 +4969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662813096"/>
+        <c:axId val="199683832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5020,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662812704"/>
+        <c:crossAx val="199681088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5154,7 +5146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5523,11 +5514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="721860056"/>
-        <c:axId val="721860448"/>
+        <c:axId val="199685008"/>
+        <c:axId val="199682656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="721860056"/>
+        <c:axId val="199685008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5560,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721860448"/>
+        <c:crossAx val="199682656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5577,7 +5568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721860448"/>
+        <c:axId val="199682656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5628,7 +5619,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721860056"/>
+        <c:crossAx val="199685008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5642,7 +5633,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9505,8 +9495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9586,19 +9576,19 @@
         <v>96997</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G66" si="0">F2-B2</f>
+        <f>F2-B2</f>
         <v>26</v>
       </c>
       <c r="H2">
         <v>19</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="1">(F2-B2)/B2</f>
+        <f>(F2-B2)/B2</f>
         <v>2.6812139711872621E-4</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J66" si="2">F2*100/B2</f>
-        <v>100.02681213971188</v>
+        <f>(F2*100/B2)-100</f>
+        <v>2.6812139711879013E-2</v>
       </c>
       <c r="L2">
         <v>84</v>
@@ -9639,19 +9629,19 @@
         <v>97081</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f>F3-B3</f>
         <v>-46</v>
       </c>
       <c r="H3">
         <v>26</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f>(F3-B3)/B3</f>
         <v>-4.7360672109712028E-4</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
-        <v>99.952639327890282</v>
+        <f t="shared" ref="J3:J66" si="0">(F3*100/B3)-100</f>
+        <v>-4.7360672109718394E-2</v>
       </c>
       <c r="L3">
         <v>84</v>
@@ -9692,19 +9682,19 @@
         <v>98394</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>F4-B4</f>
         <v>-30</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f>(F4-B4)/B4</f>
         <v>-3.0480370641307E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
-        <v>99.969519629358686</v>
+        <f t="shared" si="0"/>
+        <v>-3.0480370641313925E-2</v>
       </c>
       <c r="L4">
         <v>86</v>
@@ -9745,19 +9735,19 @@
         <v>97123</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>F5-B5</f>
         <v>-160</v>
       </c>
       <c r="H5">
         <v>9</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f>(F5-B5)/B5</f>
         <v>-1.6446861219329173E-3</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>99.835531387806711</v>
+        <f t="shared" si="0"/>
+        <v>-0.16446861219328923</v>
       </c>
       <c r="L5">
         <v>84</v>
@@ -9798,19 +9788,19 @@
         <v>95791</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>F6-B6</f>
         <v>128</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f>(F6-B6)/B6</f>
         <v>1.3380303774709135E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>100.13380303774709</v>
+        <f t="shared" si="0"/>
+        <v>0.1338030377470858</v>
       </c>
       <c r="L6">
         <v>83</v>
@@ -9851,19 +9841,19 @@
         <v>94261</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>F7-B7</f>
         <v>98</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f>(F7-B7)/B7</f>
         <v>1.0407484893217081E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>100.10407484893217</v>
+        <f t="shared" si="0"/>
+        <v>0.10407484893217145</v>
       </c>
       <c r="L7">
         <v>81</v>
@@ -9904,19 +9894,19 @@
         <v>97972</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>F8-B8</f>
         <v>38</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f>(F8-B8)/B8</f>
         <v>3.8801641922110811E-4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>100.03880164192211</v>
+        <f t="shared" si="0"/>
+        <v>3.8801641922106E-2</v>
       </c>
       <c r="L8">
         <v>85</v>
@@ -9957,19 +9947,19 @@
         <v>97937</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>F9-B9</f>
         <v>14</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f>(F9-B9)/B9</f>
         <v>1.429694760168704E-4</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>100.01429694760169</v>
+        <f t="shared" si="0"/>
+        <v>1.4296947601692978E-2</v>
       </c>
       <c r="L9">
         <v>85</v>
@@ -10010,19 +10000,19 @@
         <v>96591</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>F10-B10</f>
         <v>76</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f>(F10-B10)/B10</f>
         <v>7.8744236647153288E-4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>100.07874423664715</v>
+        <f t="shared" si="0"/>
+        <v>7.8744236647153798E-2</v>
       </c>
       <c r="L10">
         <v>84</v>
@@ -10063,19 +10053,19 @@
         <v>97881</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>F11-B11</f>
         <v>-26</v>
       </c>
       <c r="H11">
         <v>15</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f>(F11-B11)/B11</f>
         <v>-2.6555813169640578E-4</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>99.973444186830363</v>
+        <f t="shared" si="0"/>
+        <v>-2.6555813169636622E-2</v>
       </c>
       <c r="L11">
         <v>85</v>
@@ -10116,19 +10106,19 @@
         <v>95016</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>F12-B12</f>
         <v>-110</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f>(F12-B12)/B12</f>
         <v>-1.156361036940479E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>99.884363896305956</v>
+        <f t="shared" si="0"/>
+        <v>-0.11563610369404387</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -10169,19 +10159,19 @@
         <v>95254</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>F13-B13</f>
         <v>-420</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f>(F13-B13)/B13</f>
         <v>-4.3899073938583107E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>99.561009260614171</v>
+        <f t="shared" si="0"/>
+        <v>-0.43899073938582944</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -10222,19 +10212,19 @@
         <v>95331</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>F14-B14</f>
         <v>-300</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f>(F14-B14)/B14</f>
         <v>-3.1370580669448193E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>99.686294193305514</v>
+        <f t="shared" si="0"/>
+        <v>-0.313705806694486</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -10275,19 +10265,19 @@
         <v>95471</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>F15-B15</f>
         <v>-180</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f>(F15-B15)/B15</f>
         <v>-1.8818412771429468E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>99.811815872285706</v>
+        <f t="shared" si="0"/>
+        <v>-0.18818412771429394</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -10328,19 +10318,19 @@
         <v>94890</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>F16-B16</f>
         <v>-80</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f>(F16-B16)/B16</f>
         <v>-8.4237127513951779E-4</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>99.915762872486042</v>
+        <f t="shared" si="0"/>
+        <v>-8.4237127513958399E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -10381,19 +10371,19 @@
         <v>95983</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>F17-B17</f>
         <v>-300</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f>(F17-B17)/B17</f>
         <v>-3.1158148375102562E-3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>99.688418516248973</v>
+        <f t="shared" si="0"/>
+        <v>-0.31158148375102712</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -10434,19 +10424,19 @@
         <v>95177</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>F18-B18</f>
         <v>-66</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f>(F18-B18)/B18</f>
         <v>-6.9296431233791455E-4</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>99.930703568766205</v>
+        <f t="shared" si="0"/>
+        <v>-6.929643123379492E-2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -10487,19 +10477,19 @@
         <v>94701</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>F19-B19</f>
         <v>-60</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f>(F19-B19)/B19</f>
         <v>-6.3317187450533444E-4</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>99.936682812549464</v>
+        <f t="shared" si="0"/>
+        <v>-6.3317187450536494E-2</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -10540,19 +10530,19 @@
         <v>94035</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>F20-B20</f>
         <v>-192</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f>(F20-B20)/B20</f>
         <v>-2.0376325257091916E-3</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>99.796236747429077</v>
+        <f t="shared" si="0"/>
+        <v>-0.20376325257092276</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -10593,19 +10583,19 @@
         <v>95317</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>F21-B21</f>
         <v>-300</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f>(F21-B21)/B21</f>
         <v>-3.1375173870755199E-3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>99.686248261292448</v>
+        <f t="shared" si="0"/>
+        <v>-0.31375173870755191</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -10646,19 +10636,19 @@
         <v>117356</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>F22-B22</f>
         <v>-4</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f>(F22-B22)/B22</f>
         <v>-3.4083162917518748E-5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>99.996591683708246</v>
+        <f t="shared" si="0"/>
+        <v>-3.4083162917539767E-3</v>
       </c>
       <c r="L22">
         <v>110</v>
@@ -10699,19 +10689,19 @@
         <v>116183</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>F23-B23</f>
         <v>-70</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f>(F23-B23)/B23</f>
         <v>-6.0213499866670103E-4</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>99.939786500133323</v>
+        <f t="shared" si="0"/>
+        <v>-6.0213499866677012E-2</v>
       </c>
       <c r="L23">
         <v>108</v>
@@ -10752,19 +10742,19 @@
         <v>115397</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>F24-B24</f>
         <v>94</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f>(F24-B24)/B24</f>
         <v>8.1524331543845346E-4</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>100.08152433154385</v>
+        <f t="shared" si="0"/>
+        <v>8.1524331543846529E-2</v>
       </c>
       <c r="L24">
         <v>107</v>
@@ -10805,19 +10795,19 @@
         <v>116302</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>F25-B25</f>
         <v>34</v>
       </c>
       <c r="H25">
         <v>12</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f>(F25-B25)/B25</f>
         <v>2.9242783913028522E-4</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>100.02924278391303</v>
+        <f t="shared" si="0"/>
+        <v>2.9242783913034032E-2</v>
       </c>
       <c r="L25">
         <v>108</v>
@@ -10858,19 +10848,19 @@
         <v>116745</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>F26-B26</f>
         <v>66</v>
       </c>
       <c r="H26">
         <v>14</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f>(F26-B26)/B26</f>
         <v>5.6565448795413051E-4</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>100.05656544879541</v>
+        <f t="shared" si="0"/>
+        <v>5.6565448795410589E-2</v>
       </c>
       <c r="L26">
         <v>109</v>
@@ -10911,19 +10901,19 @@
         <v>116022</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>F27-B27</f>
         <v>-1066</v>
       </c>
       <c r="H27">
         <v>14</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f>(F27-B27)/B27</f>
         <v>-9.1042634599617384E-3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>99.089573654003829</v>
+        <f t="shared" si="0"/>
+        <v>-0.91042634599617145</v>
       </c>
       <c r="L27">
         <v>108</v>
@@ -10964,19 +10954,19 @@
         <v>116358</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>F28-B28</f>
         <v>-74</v>
       </c>
       <c r="H28">
         <v>14</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f>(F28-B28)/B28</f>
         <v>-6.3556410608767351E-4</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>99.936443589391232</v>
+        <f t="shared" si="0"/>
+        <v>-6.3556410608768488E-2</v>
       </c>
       <c r="L28">
         <v>108</v>
@@ -11017,19 +11007,19 @@
         <v>116113</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f>F29-B29</f>
         <v>30</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f>(F29-B29)/B29</f>
         <v>2.5843577440279802E-4</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>100.02584357744028</v>
+        <f t="shared" si="0"/>
+        <v>2.5843577440284093E-2</v>
       </c>
       <c r="L29">
         <v>108</v>
@@ -11070,19 +11060,19 @@
         <v>116043</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f>F30-B30</f>
         <v>-118</v>
       </c>
       <c r="H30">
         <v>5</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f>(F30-B30)/B30</f>
         <v>-1.0158314752799994E-3</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>99.898416852471996</v>
+        <f t="shared" si="0"/>
+        <v>-0.10158314752800379</v>
       </c>
       <c r="L30">
         <v>108</v>
@@ -11123,19 +11113,19 @@
         <v>115334</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>F31-B31</f>
         <v>90</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f>(F31-B31)/B31</f>
         <v>7.8095171982923192E-4</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
-        <v>100.07809517198292</v>
+        <f t="shared" si="0"/>
+        <v>7.8095171982923262E-2</v>
       </c>
       <c r="L31">
         <v>107</v>
@@ -11176,19 +11166,19 @@
         <v>113988</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>F32-B32</f>
         <v>-9078</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f>(F32-B32)/B32</f>
         <v>-7.3765296670079472E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>92.623470332992056</v>
+        <f t="shared" si="0"/>
+        <v>-7.3765296670079437</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -11229,19 +11219,19 @@
         <v>113449</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f>F33-B33</f>
         <v>-9286</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f>(F33-B33)/B33</f>
         <v>-7.5658939992667124E-2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>92.434106000733294</v>
+        <f t="shared" si="0"/>
+        <v>-7.5658939992667058</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -11282,19 +11272,19 @@
         <v>113855</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f>F34-B34</f>
         <v>-4356</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f>(F34-B34)/B34</f>
         <v>-3.6849362580470515E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
-        <v>96.315063741952955</v>
+        <f t="shared" si="0"/>
+        <v>-3.6849362580470455</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -11335,19 +11325,19 @@
         <v>114752</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f>F35-B35</f>
         <v>-9800</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f>(F35-B35)/B35</f>
         <v>-7.8681996274648336E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
-        <v>92.131800372535167</v>
+        <f t="shared" si="0"/>
+        <v>-7.8681996274648327</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -11388,19 +11378,19 @@
         <v>112503</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f>F36-B36</f>
         <v>-8974</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f>(F36-B36)/B36</f>
         <v>-7.387406669575311E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>92.612593330424687</v>
+        <f t="shared" si="0"/>
+        <v>-7.3874066695753129</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -11441,19 +11431,19 @@
         <v>113701</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f>F37-B37</f>
         <v>-8782</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f>(F37-B37)/B37</f>
         <v>-7.1699746087212107E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
-        <v>92.830025391278795</v>
+        <f t="shared" si="0"/>
+        <v>-7.1699746087212048</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -11494,19 +11484,19 @@
         <v>114065</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f>F38-B38</f>
         <v>-7212</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f>(F38-B38)/B38</f>
         <v>-5.9467170197151975E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
-        <v>94.053282980284806</v>
+        <f t="shared" si="0"/>
+        <v>-5.9467170197151944</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -11547,19 +11537,19 @@
         <v>114030</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f>F39-B39</f>
         <v>-862</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f>(F39-B39)/B39</f>
         <v>-7.5026981861226194E-3</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
-        <v>99.249730181387733</v>
+        <f t="shared" si="0"/>
+        <v>-0.75026981861226716</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -11600,19 +11590,19 @@
         <v>115074</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f>F40-B40</f>
         <v>-10250</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f>(F40-B40)/B40</f>
         <v>-8.1788005489770513E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
-        <v>91.821199451022949</v>
+        <f t="shared" si="0"/>
+        <v>-8.1788005489770512</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -11653,19 +11643,19 @@
         <v>114184</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>F41-B41</f>
         <v>-318</v>
       </c>
       <c r="H41">
         <v>12</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f>(F41-B41)/B41</f>
         <v>-2.777244065605841E-3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
-        <v>99.72227559343942</v>
+        <f t="shared" si="0"/>
+        <v>-0.27772440656057995</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -11706,19 +11696,19 @@
         <v>19896</v>
       </c>
       <c r="G42">
+        <f>F42-B42</f>
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>(F42-B42)/B42</f>
+        <v>1.1069739357955116E-3</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>1.1069739357955116E-3</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>100.11069739357956</v>
+        <v>0.11069739357955655</v>
       </c>
       <c r="L42">
         <v>18</v>
@@ -11759,19 +11749,19 @@
         <v>19854</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>F43-B43</f>
         <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f>(F43-B43)/B43</f>
         <v>2.1199273167777106E-3</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
-        <v>100.21199273167777</v>
+        <f t="shared" si="0"/>
+        <v>0.21199273167776767</v>
       </c>
       <c r="L43">
         <v>18</v>
@@ -11812,19 +11802,19 @@
         <v>19931</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f>F44-B44</f>
         <v>58</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f>(F44-B44)/B44</f>
         <v>2.9185326825340915E-3</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
-        <v>100.2918532682534</v>
+        <f t="shared" si="0"/>
+        <v>0.29185326825340496</v>
       </c>
       <c r="L44">
         <v>18</v>
@@ -11865,19 +11855,19 @@
         <v>19194</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f>F45-B45</f>
         <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f>(F45-B45)/B45</f>
         <v>2.0883366398663466E-3</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
-        <v>100.20883366398664</v>
+        <f t="shared" si="0"/>
+        <v>0.20883366398663838</v>
       </c>
       <c r="L45">
         <v>17</v>
@@ -11918,19 +11908,19 @@
         <v>19495</v>
       </c>
       <c r="G46">
+        <f>F46-B46</f>
+        <v>44</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>(F46-B46)/B46</f>
+        <v>2.2620944938563569E-3</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>2.2620944938563569E-3</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
-        <v>100.22620944938564</v>
+        <v>0.22620944938563525</v>
       </c>
       <c r="L46">
         <v>17</v>
@@ -11971,19 +11961,19 @@
         <v>19945</v>
       </c>
       <c r="G47">
+        <f>F47-B47</f>
+        <v>54</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>(F47-B47)/B47</f>
+        <v>2.7147956362173846E-3</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>2.7147956362173846E-3</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
-        <v>100.27147956362174</v>
+        <v>0.27147956362173886</v>
       </c>
       <c r="L47">
         <v>18</v>
@@ -12024,19 +12014,19 @@
         <v>19215</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f>F48-B48</f>
         <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f>(F48-B48)/B48</f>
         <v>1.8770530267480056E-3</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
-        <v>100.1877053026748</v>
+        <f t="shared" si="0"/>
+        <v>0.18770530267480012</v>
       </c>
       <c r="L48">
         <v>17</v>
@@ -12077,19 +12067,19 @@
         <v>19390</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f>F49-B49</f>
         <v>40</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f>(F49-B49)/B49</f>
         <v>2.0671834625322996E-3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
-        <v>100.20671834625323</v>
+        <f t="shared" si="0"/>
+        <v>0.2067183462532256</v>
       </c>
       <c r="L49">
         <v>17</v>
@@ -12130,19 +12120,19 @@
         <v>19208</v>
       </c>
       <c r="G50">
+        <f>F50-B50</f>
+        <v>52</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>(F50-B50)/B50</f>
+        <v>2.7145541866778031E-3</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>2.7145541866778031E-3</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>100.27145541866778</v>
+        <v>0.27145541866778444</v>
       </c>
       <c r="L50">
         <v>17</v>
@@ -12183,19 +12173,19 @@
         <v>19833</v>
       </c>
       <c r="G51">
+        <f>F51-B51</f>
+        <v>52</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>(F51-B51)/B51</f>
+        <v>2.6287851979171933E-3</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>2.6287851979171933E-3</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
-        <v>100.26287851979171</v>
+        <v>0.26287851979171251</v>
       </c>
       <c r="L51">
         <v>18</v>
@@ -12236,19 +12226,19 @@
         <v>19144</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f>F52-B52</f>
         <v>100</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f>(F52-B52)/B52</f>
         <v>5.2509976895610162E-3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
-        <v>100.5250997689561</v>
+        <f t="shared" si="0"/>
+        <v>0.52509976895609611</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -12289,19 +12279,19 @@
         <v>19312</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f>F53-B53</f>
         <v>50</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f>(F53-B53)/B53</f>
         <v>2.5957844460595993E-3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
-        <v>100.25957844460596</v>
+        <f t="shared" si="0"/>
+        <v>0.25957844460596391</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -12342,19 +12332,19 @@
         <v>19711</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f>F54-B54</f>
         <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f>(F54-B54)/B54</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -12395,19 +12385,19 @@
         <v>18835</v>
       </c>
       <c r="G55">
+        <f>F55-B55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>(F55-B55)/B55</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="2"/>
-        <v>100</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -12448,19 +12438,19 @@
         <v>19060</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f>F56-B56</f>
         <v>80</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f>(F56-B56)/B56</f>
         <v>4.2149631190727078E-3</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
-        <v>100.42149631190728</v>
+        <f t="shared" si="0"/>
+        <v>0.42149631190727632</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -12501,19 +12491,19 @@
         <v>19214</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f>F57-B57</f>
         <v>88</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f>(F57-B57)/B57</f>
         <v>4.6010666108961627E-3</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
-        <v>100.46010666108961</v>
+        <f t="shared" si="0"/>
+        <v>0.46010666108961118</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -12554,19 +12544,19 @@
         <v>19326</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f>F58-B58</f>
         <v>50</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f>(F58-B58)/B58</f>
         <v>2.5938991492010792E-3</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
-        <v>100.25938991492011</v>
+        <f t="shared" si="0"/>
+        <v>0.25938991492010643</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -12607,19 +12597,19 @@
         <v>19137</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f>F59-B59</f>
         <v>84</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f>(F59-B59)/B59</f>
         <v>4.4087545268461656E-3</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
-        <v>100.44087545268462</v>
+        <f t="shared" si="0"/>
+        <v>0.44087545268462236</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -12660,19 +12650,19 @@
         <v>19004</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f>F60-B60</f>
         <v>84</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f>(F60-B60)/B60</f>
         <v>4.4397463002114161E-3</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
-        <v>100.44397463002115</v>
+        <f t="shared" si="0"/>
+        <v>0.44397463002114534</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -12713,19 +12703,19 @@
         <v>18758</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f>F61-B61</f>
         <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f>(F61-B61)/B61</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -12766,19 +12756,19 @@
         <v>23257</v>
       </c>
       <c r="G62">
+        <f>F62-B62</f>
+        <v>98</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>(F62-B62)/B62</f>
+        <v>4.231616218316853E-3</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="1"/>
-        <v>4.231616218316853E-3</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="2"/>
-        <v>100.42316162183168</v>
+        <v>0.4231616218316816</v>
       </c>
       <c r="L62">
         <v>22</v>
@@ -12819,19 +12809,19 @@
         <v>23390</v>
       </c>
       <c r="G63">
+        <f>F63-B63</f>
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>(F63-B63)/B63</f>
+        <v>3.9488368100266116E-3</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="1"/>
-        <v>3.9488368100266116E-3</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="2"/>
-        <v>100.39488368100267</v>
+        <v>0.39488368100266769</v>
       </c>
       <c r="L63">
         <v>22</v>
@@ -12872,19 +12862,19 @@
         <v>23299</v>
       </c>
       <c r="G64">
+        <f>F64-B64</f>
+        <v>114</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>(F64-B64)/B64</f>
+        <v>4.9169721802889803E-3</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
-        <v>4.9169721802889803E-3</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="2"/>
-        <v>100.4916972180289</v>
+        <v>0.49169721802890365</v>
       </c>
       <c r="L64">
         <v>22</v>
@@ -12925,19 +12915,19 @@
         <v>23040</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f>F65-B65</f>
         <v>108</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f>(F65-B65)/B65</f>
         <v>4.7095761381475663E-3</v>
       </c>
       <c r="J65">
-        <f t="shared" si="2"/>
-        <v>100.47095761381476</v>
+        <f t="shared" si="0"/>
+        <v>0.47095761381476109</v>
       </c>
       <c r="L65">
         <v>22</v>
@@ -12978,19 +12968,19 @@
         <v>23012</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f>F66-B66</f>
         <v>88</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I121" si="3">(F66-B66)/B66</f>
+        <f>(F66-B66)/B66</f>
         <v>3.838771593090211E-3</v>
       </c>
       <c r="J66">
-        <f t="shared" si="2"/>
-        <v>100.38387715930902</v>
+        <f t="shared" si="0"/>
+        <v>0.38387715930902289</v>
       </c>
       <c r="L66">
         <v>22</v>
@@ -13031,19 +13021,19 @@
         <v>23152</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G121" si="4">F67-B67</f>
+        <f>F67-B67</f>
         <v>118</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f>(F67-B67)/B67</f>
         <v>5.1228618563862113E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J121" si="5">F67*100/B67</f>
-        <v>100.51228618563862</v>
+        <f t="shared" ref="J67:J121" si="1">(F67*100/B67)-100</f>
+        <v>0.51228618563861517</v>
       </c>
       <c r="L67">
         <v>22</v>
@@ -13084,19 +13074,19 @@
         <v>22914</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f>F68-B68</f>
         <v>88</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f>(F68-B68)/B68</f>
         <v>3.8552527819153597E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
-        <v>100.38552527819154</v>
+        <f t="shared" si="1"/>
+        <v>0.38552527819153681</v>
       </c>
       <c r="L68">
         <v>22</v>
@@ -13137,19 +13127,19 @@
         <v>23418</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f>F69-B69</f>
         <v>96</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f>(F69-B69)/B69</f>
         <v>4.1162850527399026E-3</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
-        <v>100.411628505274</v>
+        <f t="shared" si="1"/>
+        <v>0.41162850527399542</v>
       </c>
       <c r="L69">
         <v>22</v>
@@ -13190,19 +13180,19 @@
         <v>23054</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f>F70-B70</f>
         <v>102</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f>(F70-B70)/B70</f>
         <v>4.4440571627744861E-3</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
-        <v>100.44440571627744</v>
+        <f t="shared" si="1"/>
+        <v>0.44440571627744418</v>
       </c>
       <c r="L70">
         <v>22</v>
@@ -13243,19 +13233,19 @@
         <v>23117</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f>F71-B71</f>
         <v>90</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f>(F71-B71)/B71</f>
         <v>3.9084552916141919E-3</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
-        <v>100.39084552916142</v>
+        <f t="shared" si="1"/>
+        <v>0.39084552916142457</v>
       </c>
       <c r="L71">
         <v>22</v>
@@ -13296,19 +13286,19 @@
         <v>22892</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f>F72-B72</f>
         <v>50</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f>(F72-B72)/B72</f>
         <v>2.1889501794939148E-3</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
-        <v>100.21889501794939</v>
+        <f t="shared" si="1"/>
+        <v>0.21889501794939292</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -13349,19 +13339,19 @@
         <v>22612</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f>F73-B73</f>
         <v>102</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f>(F73-B73)/B73</f>
         <v>4.5313194135939584E-3</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
-        <v>100.4531319413594</v>
+        <f t="shared" si="1"/>
+        <v>0.45313194135940194</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -13402,19 +13392,19 @@
         <v>22997</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f>F74-B74</f>
         <v>50</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f>(F74-B74)/B74</f>
         <v>2.1789340654551795E-3</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
-        <v>100.21789340654551</v>
+        <f t="shared" si="1"/>
+        <v>0.21789340654551381</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -13455,19 +13445,19 @@
         <v>22219</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f>F75-B75</f>
         <v>18</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f>(F75-B75)/B75</f>
         <v>8.1077428944642137E-4</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
-        <v>100.08107742894464</v>
+        <f t="shared" si="1"/>
+        <v>8.1077428944638541E-2</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -13508,19 +13498,19 @@
         <v>23270</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f>F76-B76</f>
         <v>22</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f>(F76-B76)/B76</f>
         <v>9.4631796283551272E-4</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
-        <v>100.09463179628355</v>
+        <f t="shared" si="1"/>
+        <v>9.4631796283550784E-2</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -13561,19 +13551,19 @@
         <v>22815</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
+        <f>F77-B77</f>
         <v>70</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f>(F77-B77)/B77</f>
         <v>3.0775994724115191E-3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
-        <v>100.30775994724115</v>
+        <f t="shared" si="1"/>
+        <v>0.30775994724115208</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -13614,19 +13604,19 @@
         <v>23025</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f>F78-B78</f>
         <v>50</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f>(F78-B78)/B78</f>
         <v>2.176278563656148E-3</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
-        <v>100.21762785636561</v>
+        <f t="shared" si="1"/>
+        <v>0.21762785636560977</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -13667,19 +13657,19 @@
         <v>22570</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f>F79-B79</f>
         <v>100</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f>(F79-B79)/B79</f>
         <v>4.450378282153983E-3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
-        <v>100.4450378282154</v>
+        <f t="shared" si="1"/>
+        <v>0.44503782821540483</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -13720,19 +13710,19 @@
         <v>23109</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f>F80-B80</f>
         <v>50</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f>(F80-B80)/B80</f>
         <v>2.1683507524177109E-3</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
-        <v>100.21683507524178</v>
+        <f t="shared" si="1"/>
+        <v>0.21683507524177514</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -13773,19 +13763,19 @@
         <v>22591</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f>F81-B81</f>
         <v>88</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f>(F81-B81)/B81</f>
         <v>3.9105896991512247E-3</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
-        <v>100.39105896991512</v>
+        <f t="shared" si="1"/>
+        <v>0.39105896991512168</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -13826,19 +13816,19 @@
         <v>49556</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f>F82-B82</f>
         <v>146</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f>(F82-B82)/B82</f>
         <v>2.9548674357417525E-3</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
-        <v>100.29548674357417</v>
+        <f t="shared" si="1"/>
+        <v>0.29548674357417326</v>
       </c>
       <c r="L82">
         <v>44</v>
@@ -13879,19 +13869,19 @@
         <v>48411</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f>F83-B83</f>
         <v>70</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f>(F83-B83)/B83</f>
         <v>1.4480461719865124E-3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
-        <v>100.14480461719864</v>
+        <f t="shared" si="1"/>
+        <v>0.14480461719864479</v>
       </c>
       <c r="L83">
         <v>42</v>
@@ -13932,19 +13922,19 @@
         <v>49092</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f>F84-B84</f>
         <v>152</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f>(F84-B84)/B84</f>
         <v>3.1058438904781366E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
-        <v>100.31058438904782</v>
+        <f t="shared" si="1"/>
+        <v>0.31058438904781838</v>
       </c>
       <c r="L84">
         <v>43</v>
@@ -13985,19 +13975,19 @@
         <v>48201</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f>F85-B85</f>
         <v>80</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f>(F85-B85)/B85</f>
         <v>1.6624758421479187E-3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
-        <v>100.16624758421479</v>
+        <f t="shared" si="1"/>
+        <v>0.16624758421478703</v>
       </c>
       <c r="L85">
         <v>42</v>
@@ -14038,19 +14028,19 @@
         <v>48264</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f>F86-B86</f>
         <v>102</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f>(F86-B86)/B86</f>
         <v>2.1178522486607699E-3</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
-        <v>100.21178522486608</v>
+        <f t="shared" si="1"/>
+        <v>0.21178522486607676</v>
       </c>
       <c r="L86">
         <v>42</v>
@@ -14091,19 +14081,19 @@
         <v>48805</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f>F87-B87</f>
         <v>124</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f>(F87-B87)/B87</f>
         <v>2.5471950042110884E-3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
-        <v>100.2547195004211</v>
+        <f t="shared" si="1"/>
+        <v>0.25471950042110336</v>
       </c>
       <c r="L87">
         <v>43</v>
@@ -14144,19 +14134,19 @@
         <v>48784</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f>F88-B88</f>
         <v>104</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f>(F88-B88)/B88</f>
         <v>2.1364009860312242E-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
-        <v>100.21364009860312</v>
+        <f t="shared" si="1"/>
+        <v>0.21364009860312194</v>
       </c>
       <c r="L88">
         <v>43</v>
@@ -14197,19 +14187,19 @@
         <v>47998</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f>F89-B89</f>
         <v>116</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f>(F89-B89)/B89</f>
         <v>2.422622279771104E-3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
-        <v>100.24226222797711</v>
+        <f t="shared" si="1"/>
+        <v>0.24226222797710761</v>
       </c>
       <c r="L89">
         <v>42</v>
@@ -14250,19 +14240,19 @@
         <v>48278</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f>F90-B90</f>
         <v>100</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f>(F90-B90)/B90</f>
         <v>2.0756361824899329E-3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
-        <v>100.207563618249</v>
+        <f t="shared" si="1"/>
+        <v>0.20756361824899727</v>
       </c>
       <c r="L90">
         <v>42</v>
@@ -14303,19 +14293,19 @@
         <v>47758</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f>F91-B91</f>
         <v>26</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f>(F91-B91)/B91</f>
         <v>5.4470795273610991E-4</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
-        <v>100.05447079527362</v>
+        <f t="shared" si="1"/>
+        <v>5.4470795273616091E-2</v>
       </c>
       <c r="L91">
         <v>41</v>
@@ -14356,19 +14346,19 @@
         <v>46296</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f>F92-B92</f>
         <v>22</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f>(F92-B92)/B92</f>
         <v>4.7542896659030987E-4</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
-        <v>100.04754289665902</v>
+        <f t="shared" si="1"/>
+        <v>4.7542896659024336E-2</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -14409,19 +14399,19 @@
         <v>47529</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f>F93-B93</f>
         <v>30</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f>(F93-B93)/B93</f>
         <v>6.3159224404724307E-4</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
-        <v>100.06315922440473</v>
+        <f t="shared" si="1"/>
+        <v>6.315922440472832E-2</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -14462,19 +14452,19 @@
         <v>47200</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f>F94-B94</f>
         <v>20</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f>(F94-B94)/B94</f>
         <v>4.2390843577787198E-4</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
-        <v>100.04239084357779</v>
+        <f t="shared" si="1"/>
+        <v>4.239084357779177E-2</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -14515,19 +14505,19 @@
         <v>48636</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f>F95-B95</f>
         <v>0</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f>(F95-B95)/B95</f>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -14568,19 +14558,19 @@
         <v>48405</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f>F96-B96</f>
         <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f>(F96-B96)/B96</f>
         <v>6.2015503875968996E-4</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
-        <v>100.06201550387597</v>
+        <f t="shared" si="1"/>
+        <v>6.2015503875969102E-2</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -14621,19 +14611,19 @@
         <v>48027</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f>F97-B97</f>
         <v>100</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f>(F97-B97)/B97</f>
         <v>2.0865065620631375E-3</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
-        <v>100.20865065620632</v>
+        <f t="shared" si="1"/>
+        <v>0.2086506562063164</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -14674,19 +14664,19 @@
         <v>48020</v>
       </c>
       <c r="G98">
-        <f t="shared" si="4"/>
+        <f>F98-B98</f>
         <v>100</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f>(F98-B98)/B98</f>
         <v>2.0868113522537562E-3</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
-        <v>100.20868113522538</v>
+        <f t="shared" si="1"/>
+        <v>0.20868113522537612</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -14727,19 +14717,19 @@
         <v>48167</v>
       </c>
       <c r="G99">
-        <f t="shared" si="4"/>
+        <f>F99-B99</f>
         <v>56</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f>(F99-B99)/B99</f>
         <v>1.1639749745380474E-3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
-        <v>100.1163974974538</v>
+        <f t="shared" si="1"/>
+        <v>0.11639749745380357</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -14780,19 +14770,19 @@
         <v>47158</v>
       </c>
       <c r="G100">
-        <f t="shared" si="4"/>
+        <f>F100-B100</f>
         <v>30</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f>(F100-B100)/B100</f>
         <v>6.3656425055168904E-4</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
-        <v>100.06365642505517</v>
+        <f t="shared" si="1"/>
+        <v>6.3656425055171439E-2</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -14833,19 +14823,19 @@
         <v>47480</v>
       </c>
       <c r="G101">
-        <f t="shared" si="4"/>
+        <f>F101-B101</f>
         <v>6</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f>(F101-B101)/B101</f>
         <v>1.2638496861439946E-4</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
-        <v>100.01263849686144</v>
+        <f t="shared" si="1"/>
+        <v>1.2638496861441695E-2</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -14886,19 +14876,19 @@
         <v>57808</v>
       </c>
       <c r="G102">
-        <f t="shared" si="4"/>
+        <f>F102-B102</f>
         <v>76</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f>(F102-B102)/B102</f>
         <v>1.3164276311231206E-3</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
-        <v>100.13164276311231</v>
+        <f t="shared" si="1"/>
+        <v>0.13164276311231049</v>
       </c>
       <c r="L102">
         <v>54</v>
@@ -14939,19 +14929,19 @@
         <v>57997</v>
       </c>
       <c r="G103">
-        <f t="shared" si="4"/>
+        <f>F103-B103</f>
         <v>176</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f>(F103-B103)/B103</f>
         <v>3.0438767921689351E-3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
-        <v>100.30438767921689</v>
+        <f t="shared" si="1"/>
+        <v>0.30438767921688736</v>
       </c>
       <c r="L103">
         <v>54</v>
@@ -14992,19 +14982,19 @@
         <v>58046</v>
       </c>
       <c r="G104">
-        <f t="shared" si="4"/>
+        <f>F104-B104</f>
         <v>6</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f>(F104-B104)/B104</f>
         <v>1.0337698139214335E-4</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
-        <v>100.01033769813921</v>
+        <f t="shared" si="1"/>
+        <v>1.0337698139210261E-2</v>
       </c>
       <c r="L104">
         <v>54</v>
@@ -15045,19 +15035,19 @@
         <v>58559</v>
       </c>
       <c r="G105">
-        <f t="shared" si="4"/>
+        <f>F105-B105</f>
         <v>44</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f>(F105-B105)/B105</f>
         <v>7.5194394599675297E-4</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
-        <v>100.07519439459968</v>
+        <f t="shared" si="1"/>
+        <v>7.5194394599677139E-2</v>
       </c>
       <c r="L105">
         <v>55</v>
@@ -15098,19 +15088,19 @@
         <v>58384</v>
       </c>
       <c r="G106">
-        <f t="shared" si="4"/>
+        <f>F106-B106</f>
         <v>168</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f>(F106-B106)/B106</f>
         <v>2.8858045898034904E-3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
-        <v>100.28858045898035</v>
+        <f t="shared" si="1"/>
+        <v>0.28858045898034845</v>
       </c>
       <c r="L106">
         <v>55</v>
@@ -15151,19 +15141,19 @@
         <v>57773</v>
       </c>
       <c r="G107">
-        <f t="shared" si="4"/>
+        <f>F107-B107</f>
         <v>108</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f>(F107-B107)/B107</f>
         <v>1.8728864996098154E-3</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
-        <v>100.18728864996098</v>
+        <f t="shared" si="1"/>
+        <v>0.18728864996097627</v>
       </c>
       <c r="L107">
         <v>54</v>
@@ -15204,19 +15194,19 @@
         <v>57724</v>
       </c>
       <c r="G108">
-        <f t="shared" si="4"/>
+        <f>F108-B108</f>
         <v>124</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f>(F108-B108)/B108</f>
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
-        <v>100.21527777777777</v>
+        <f t="shared" si="1"/>
+        <v>0.21527777777777146</v>
       </c>
       <c r="L108">
         <v>54</v>
@@ -15257,19 +15247,19 @@
         <v>58370</v>
       </c>
       <c r="G109">
-        <f t="shared" si="4"/>
+        <f>F109-B109</f>
         <v>108</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f>(F109-B109)/B109</f>
         <v>1.8536953760598675E-3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
-        <v>100.18536953760599</v>
+        <f t="shared" si="1"/>
+        <v>0.18536953760599317</v>
       </c>
       <c r="L109">
         <v>55</v>
@@ -15310,19 +15300,19 @@
         <v>58067</v>
       </c>
       <c r="G110">
-        <f t="shared" si="4"/>
+        <f>F110-B110</f>
         <v>46</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f>(F110-B110)/B110</f>
         <v>7.9281639406421811E-4</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
-        <v>100.07928163940642</v>
+        <f t="shared" si="1"/>
+        <v>7.9281639406417526E-2</v>
       </c>
       <c r="L110">
         <v>54</v>
@@ -15363,19 +15353,19 @@
         <v>58573</v>
       </c>
       <c r="G111">
-        <f t="shared" si="4"/>
+        <f>F111-B111</f>
         <v>188</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f>(F111-B111)/B111</f>
         <v>3.2200051383060716E-3</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
-        <v>100.3220005138306</v>
+        <f t="shared" si="1"/>
+        <v>0.32200051383060213</v>
       </c>
       <c r="L111">
         <v>55</v>
@@ -15416,19 +15406,19 @@
         <v>57520</v>
       </c>
       <c r="G112">
-        <f t="shared" si="4"/>
+        <f>F112-B112</f>
         <v>-6</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f>(F112-B112)/B112</f>
         <v>-1.0430066404756111E-4</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
-        <v>99.989569933595249</v>
+        <f t="shared" si="1"/>
+        <v>-1.0430066404751415E-2</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -15469,19 +15459,19 @@
         <v>57324</v>
       </c>
       <c r="G113">
-        <f t="shared" si="4"/>
+        <f>F113-B113</f>
         <v>-138</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f>(F113-B113)/B113</f>
         <v>-2.4015871358462984E-3</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
-        <v>99.759841286415366</v>
+        <f t="shared" si="1"/>
+        <v>-0.24015871358463414</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -15522,19 +15512,19 @@
         <v>56784</v>
       </c>
       <c r="G114">
-        <f t="shared" si="4"/>
+        <f>F114-B114</f>
         <v>16</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f>(F114-B114)/B114</f>
         <v>2.8184892897406989E-4</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
-        <v>100.0281848928974</v>
+        <f t="shared" si="1"/>
+        <v>2.8184892897400005E-2</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -15575,19 +15565,19 @@
         <v>56686</v>
       </c>
       <c r="G115">
-        <f t="shared" si="4"/>
+        <f>F115-B115</f>
         <v>-32</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f>(F115-B115)/B115</f>
         <v>-5.6419478825064354E-4</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
-        <v>99.943580521174937</v>
+        <f t="shared" si="1"/>
+        <v>-5.6419478825063152E-2</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -15628,19 +15618,19 @@
         <v>56980</v>
       </c>
       <c r="G116">
-        <f t="shared" si="4"/>
+        <f>F116-B116</f>
         <v>12</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f>(F116-B116)/B116</f>
         <v>2.1064457239151804E-4</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
-        <v>100.02106445723915</v>
+        <f t="shared" si="1"/>
+        <v>2.1064457239148737E-2</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -15681,19 +15671,19 @@
         <v>57064</v>
       </c>
       <c r="G117">
-        <f t="shared" si="4"/>
+        <f>F117-B117</f>
         <v>-20</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f>(F117-B117)/B117</f>
         <v>-3.503608716978488E-4</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
-        <v>99.964963912830214</v>
+        <f t="shared" si="1"/>
+        <v>-3.5036087169785901E-2</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -15734,19 +15724,19 @@
         <v>56567</v>
       </c>
       <c r="G118">
-        <f t="shared" si="4"/>
+        <f>F118-B118</f>
         <v>10</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f>(F118-B118)/B118</f>
         <v>1.7681277295471826E-4</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
-        <v>100.01768127729547</v>
+        <f t="shared" si="1"/>
+        <v>1.7681277295466202E-2</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -15787,19 +15777,19 @@
         <v>56973</v>
       </c>
       <c r="G119">
-        <f t="shared" si="4"/>
+        <f>F119-B119</f>
         <v>-50</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f>(F119-B119)/B119</f>
         <v>-8.7683917015940937E-4</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
-        <v>99.912316082984063</v>
+        <f t="shared" si="1"/>
+        <v>-8.7683917015937141E-2</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -15840,19 +15830,19 @@
         <v>57716</v>
       </c>
       <c r="G120">
-        <f t="shared" si="4"/>
+        <f>F120-B120</f>
         <v>-40</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f>(F120-B120)/B120</f>
         <v>-6.925687374471916E-4</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
-        <v>99.93074312625528</v>
+        <f t="shared" si="1"/>
+        <v>-6.9256873744720338E-2</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -15893,19 +15883,19 @@
         <v>56203</v>
       </c>
       <c r="G121">
-        <f t="shared" si="4"/>
+        <f>F121-B121</f>
         <v>-60</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f>(F121-B121)/B121</f>
         <v>-1.0664202051081527E-3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
-        <v>99.893357979489181</v>
+        <f t="shared" si="1"/>
+        <v>-0.10664202051081872</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -15948,7 +15938,7 @@
       </c>
       <c r="J124">
         <f>SUM(J2:J121)/120</f>
-        <v>99.642931325294867</v>
+        <v>-0.35706867470510051</v>
       </c>
     </row>
   </sheetData>
@@ -21476,7 +21466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/results-assignment.xlsx
+++ b/results-assignment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addiel\Documents\GitHub\BinPackingProblem\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'results-assignment'!$D$1:$D$124</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -778,7 +778,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="138" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="258" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,6 +1633,726 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1975,7 +2696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2101,6 +2822,126 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9501,11 +10342,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -9569,18 +10410,18 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <v>96997</v>
+      <c r="F2" s="123" t="n">
+        <v>96997.0</v>
       </c>
       <c r="G2">
         <f>F2-B2</f>
         <v>26</v>
       </c>
-      <c r="H2">
-        <v>19</v>
+      <c r="H2" t="n">
+        <v>14.0</v>
       </c>
       <c r="I2">
         <f>(F2-B2)/B2</f>
@@ -9590,26 +10431,26 @@
         <f>(F2*100/B2)-100</f>
         <v>2.6812139711879013E-2</v>
       </c>
-      <c r="L2">
-        <v>84</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>8371</v>
+      <c r="L2" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8371.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -9622,18 +10463,18 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4">
-        <v>97081</v>
+      <c r="F3" s="124" t="n">
+        <v>97081.0</v>
       </c>
       <c r="G3">
         <f>F3-B3</f>
         <v>-46</v>
       </c>
-      <c r="H3">
-        <v>26</v>
+      <c r="H3" t="n">
+        <v>29.0</v>
       </c>
       <c r="I3">
         <f>(F3-B3)/B3</f>
@@ -9643,26 +10484,26 @@
         <f t="shared" ref="J3:J66" si="0">(F3*100/B3)-100</f>
         <v>-4.7360672109718394E-2</v>
       </c>
-      <c r="L3">
-        <v>84</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>8383</v>
+      <c r="L3" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8383.0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -9675,18 +10516,18 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5">
-        <v>98394</v>
+      <c r="F4" s="125" t="n">
+        <v>98394.0</v>
       </c>
       <c r="G4">
         <f>F4-B4</f>
         <v>-30</v>
       </c>
-      <c r="H4">
-        <v>7</v>
+      <c r="H4" t="n">
+        <v>20.0</v>
       </c>
       <c r="I4">
         <f>(F4-B4)/B4</f>
@@ -9696,26 +10537,26 @@
         <f t="shared" si="0"/>
         <v>-3.0480370641313925E-2</v>
       </c>
-      <c r="L4">
-        <v>86</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>8542</v>
+      <c r="L4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8542.0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -9728,18 +10569,18 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
-        <v>97123</v>
+      <c r="F5" s="126" t="n">
+        <v>97123.0</v>
       </c>
       <c r="G5">
         <f>F5-B5</f>
         <v>-160</v>
       </c>
-      <c r="H5">
-        <v>9</v>
+      <c r="H5" t="n">
+        <v>0.0</v>
       </c>
       <c r="I5">
         <f>(F5-B5)/B5</f>
@@ -9749,26 +10590,26 @@
         <f t="shared" si="0"/>
         <v>-0.16446861219328923</v>
       </c>
-      <c r="L5">
-        <v>84</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>8389</v>
+      <c r="L5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8389.0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -9781,18 +10622,18 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7">
-        <v>95791</v>
+      <c r="F6" s="127" t="n">
+        <v>95791.0</v>
       </c>
       <c r="G6">
         <f>F6-B6</f>
         <v>128</v>
       </c>
-      <c r="H6">
-        <v>6</v>
+      <c r="H6" t="n">
+        <v>18.0</v>
       </c>
       <c r="I6">
         <f>(F6-B6)/B6</f>
@@ -9802,26 +10643,26 @@
         <f t="shared" si="0"/>
         <v>0.1338030377470858</v>
       </c>
-      <c r="L6">
-        <v>83</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>8213</v>
+      <c r="L6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8213.0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -9834,18 +10675,18 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8">
-        <v>94261</v>
+      <c r="F7" s="128" t="n">
+        <v>94261.0</v>
       </c>
       <c r="G7">
         <f>F7-B7</f>
         <v>98</v>
       </c>
-      <c r="H7">
-        <v>7</v>
+      <c r="H7" t="n">
+        <v>18.0</v>
       </c>
       <c r="I7">
         <f>(F7-B7)/B7</f>
@@ -9855,26 +10696,26 @@
         <f t="shared" si="0"/>
         <v>0.10407484893217145</v>
       </c>
-      <c r="L7">
-        <v>81</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>8023</v>
+      <c r="L7" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8023.0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -9887,18 +10728,18 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9">
-        <v>97972</v>
+      <c r="F8" s="129" t="n">
+        <v>97972.0</v>
       </c>
       <c r="G8">
         <f>F8-B8</f>
         <v>38</v>
       </c>
-      <c r="H8">
-        <v>5</v>
+      <c r="H8" t="n">
+        <v>10.0</v>
       </c>
       <c r="I8">
         <f>(F8-B8)/B8</f>
@@ -9908,26 +10749,26 @@
         <f t="shared" si="0"/>
         <v>3.8801641922106E-2</v>
       </c>
-      <c r="L8">
-        <v>85</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>8496</v>
+      <c r="L8" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8496.0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -9940,18 +10781,18 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10">
-        <v>97937</v>
+      <c r="F9" s="130" t="n">
+        <v>97937.0</v>
       </c>
       <c r="G9">
         <f>F9-B9</f>
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>5</v>
+      <c r="H9" t="n">
+        <v>8.0</v>
       </c>
       <c r="I9">
         <f>(F9-B9)/B9</f>
@@ -9961,26 +10802,26 @@
         <f t="shared" si="0"/>
         <v>1.4296947601692978E-2</v>
       </c>
-      <c r="L9">
-        <v>85</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>8491</v>
+      <c r="L9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8491.0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -9993,18 +10834,18 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11">
-        <v>96591</v>
+      <c r="F10" s="131" t="n">
+        <v>96591.0</v>
       </c>
       <c r="G10">
         <f>F10-B10</f>
         <v>76</v>
       </c>
-      <c r="H10">
-        <v>6</v>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10">
         <f>(F10-B10)/B10</f>
@@ -10014,26 +10855,26 @@
         <f t="shared" si="0"/>
         <v>7.8744236647153798E-2</v>
       </c>
-      <c r="L10">
-        <v>84</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>8313</v>
+      <c r="L10" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8313.0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -10046,18 +10887,18 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12">
-        <v>97881</v>
+      <c r="F11" s="132" t="n">
+        <v>97881.0</v>
       </c>
       <c r="G11">
         <f>F11-B11</f>
         <v>-26</v>
       </c>
-      <c r="H11">
-        <v>15</v>
+      <c r="H11" t="n">
+        <v>10.0</v>
       </c>
       <c r="I11">
         <f>(F11-B11)/B11</f>
@@ -10067,26 +10908,26 @@
         <f t="shared" si="0"/>
         <v>-2.6555813169636622E-2</v>
       </c>
-      <c r="L11">
-        <v>85</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>8483</v>
+      <c r="L11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8483.0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -10099,18 +10940,18 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13">
-        <v>95016</v>
+      <c r="F12" s="133" t="n">
+        <v>95016.0</v>
       </c>
       <c r="G12">
         <f>F12-B12</f>
         <v>-110</v>
       </c>
-      <c r="H12">
-        <v>4</v>
+      <c r="H12" t="n">
+        <v>10.0</v>
       </c>
       <c r="I12">
         <f>(F12-B12)/B12</f>
@@ -10120,26 +10961,26 @@
         <f t="shared" si="0"/>
         <v>-0.11563610369404387</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>56</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>8328</v>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8328.0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -10152,18 +10993,18 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="14">
-        <v>95254</v>
+      <c r="F13" s="134" t="n">
+        <v>95254.0</v>
       </c>
       <c r="G13">
         <f>F13-B13</f>
         <v>-420</v>
       </c>
-      <c r="H13">
-        <v>5</v>
+      <c r="H13" t="n">
+        <v>10.0</v>
       </c>
       <c r="I13">
         <f>(F13-B13)/B13</f>
@@ -10173,26 +11014,26 @@
         <f t="shared" si="0"/>
         <v>-0.43899073938582944</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>56</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>8362</v>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8362.0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -10205,18 +11046,18 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15">
-        <v>95331</v>
+      <c r="F14" s="135" t="n">
+        <v>95331.0</v>
       </c>
       <c r="G14">
         <f>F14-B14</f>
         <v>-300</v>
       </c>
-      <c r="H14">
-        <v>10</v>
+      <c r="H14" t="n">
+        <v>0.0</v>
       </c>
       <c r="I14">
         <f>(F14-B14)/B14</f>
@@ -10226,26 +11067,26 @@
         <f t="shared" si="0"/>
         <v>-0.313705806694486</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>56</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>8373</v>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8373.0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -10258,18 +11099,18 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="16">
-        <v>95471</v>
+      <c r="F15" s="136" t="n">
+        <v>95471.0</v>
       </c>
       <c r="G15">
         <f>F15-B15</f>
         <v>-180</v>
       </c>
-      <c r="H15">
-        <v>10</v>
+      <c r="H15" t="n">
+        <v>10.0</v>
       </c>
       <c r="I15">
         <f>(F15-B15)/B15</f>
@@ -10279,26 +11120,26 @@
         <f t="shared" si="0"/>
         <v>-0.18818412771429394</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>56</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>8393</v>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8393.0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -10311,18 +11152,18 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="17">
-        <v>94890</v>
+      <c r="F16" s="137" t="n">
+        <v>94890.0</v>
       </c>
       <c r="G16">
         <f>F16-B16</f>
         <v>-80</v>
       </c>
-      <c r="H16">
-        <v>4</v>
+      <c r="H16" t="n">
+        <v>8.0</v>
       </c>
       <c r="I16">
         <f>(F16-B16)/B16</f>
@@ -10332,26 +11173,26 @@
         <f t="shared" si="0"/>
         <v>-8.4237127513958399E-2</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>56</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>8310</v>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8310.0</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -10364,18 +11205,18 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="18">
-        <v>95983</v>
+      <c r="F17" s="138" t="n">
+        <v>95983.0</v>
       </c>
       <c r="G17">
         <f>F17-B17</f>
         <v>-300</v>
       </c>
-      <c r="H17">
-        <v>5</v>
+      <c r="H17" t="n">
+        <v>2.0</v>
       </c>
       <c r="I17">
         <f>(F17-B17)/B17</f>
@@ -10385,26 +11226,26 @@
         <f t="shared" si="0"/>
         <v>-0.31158148375102712</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>57</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>8449</v>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8449.0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -10417,18 +11258,18 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="19">
-        <v>95177</v>
+      <c r="F18" s="139" t="n">
+        <v>95177.0</v>
       </c>
       <c r="G18">
         <f>F18-B18</f>
         <v>-66</v>
       </c>
-      <c r="H18">
-        <v>3</v>
+      <c r="H18" t="n">
+        <v>10.0</v>
       </c>
       <c r="I18">
         <f>(F18-B18)/B18</f>
@@ -10438,26 +11279,26 @@
         <f t="shared" si="0"/>
         <v>-6.929643123379492E-2</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>56</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>8351</v>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8351.0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -10470,18 +11311,18 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="20">
-        <v>94701</v>
+      <c r="F19" s="140" t="n">
+        <v>94701.0</v>
       </c>
       <c r="G19">
         <f>F19-B19</f>
         <v>-60</v>
       </c>
-      <c r="H19">
-        <v>10</v>
+      <c r="H19" t="n">
+        <v>8.0</v>
       </c>
       <c r="I19">
         <f>(F19-B19)/B19</f>
@@ -10491,26 +11332,26 @@
         <f t="shared" si="0"/>
         <v>-6.3317187450536494E-2</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>56</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>8283</v>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8283.0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -10523,18 +11364,18 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="21">
-        <v>94035</v>
+      <c r="F20" s="141" t="n">
+        <v>94035.0</v>
       </c>
       <c r="G20">
         <f>F20-B20</f>
         <v>-192</v>
       </c>
-      <c r="H20">
-        <v>5</v>
+      <c r="H20" t="n">
+        <v>2.0</v>
       </c>
       <c r="I20">
         <f>(F20-B20)/B20</f>
@@ -10544,26 +11385,26 @@
         <f t="shared" si="0"/>
         <v>-0.20376325257092276</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>55</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>8205</v>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8205.0</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -10576,18 +11417,18 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="22">
-        <v>95317</v>
+      <c r="F21" s="142" t="n">
+        <v>95317.0</v>
       </c>
       <c r="G21">
         <f>F21-B21</f>
         <v>-300</v>
       </c>
-      <c r="H21">
-        <v>6</v>
+      <c r="H21" t="n">
+        <v>5.0</v>
       </c>
       <c r="I21">
         <f>(F21-B21)/B21</f>
@@ -10597,26 +11438,26 @@
         <f t="shared" si="0"/>
         <v>-0.31375173870755191</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>56</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>8371</v>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8371.0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -10629,18 +11470,18 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23">
-        <v>117356</v>
+      <c r="F22" s="143" t="n">
+        <v>117356.0</v>
       </c>
       <c r="G22">
         <f>F22-B22</f>
         <v>-4</v>
       </c>
-      <c r="H22">
-        <v>7</v>
+      <c r="H22" t="n">
+        <v>10.0</v>
       </c>
       <c r="I22">
         <f>(F22-B22)/B22</f>
@@ -10650,26 +11491,26 @@
         <f t="shared" si="0"/>
         <v>-3.4083162917539767E-3</v>
       </c>
-      <c r="L22">
-        <v>110</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>10908</v>
+      <c r="L22" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10908.0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -10682,18 +11523,18 @@
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="24">
-        <v>116183</v>
+      <c r="F23" s="144" t="n">
+        <v>116183.0</v>
       </c>
       <c r="G23">
         <f>F23-B23</f>
         <v>-70</v>
       </c>
-      <c r="H23">
-        <v>6</v>
+      <c r="H23" t="n">
+        <v>20.0</v>
       </c>
       <c r="I23">
         <f>(F23-B23)/B23</f>
@@ -10703,26 +11544,26 @@
         <f t="shared" si="0"/>
         <v>-6.0213499866677012E-2</v>
       </c>
-      <c r="L23">
-        <v>108</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>10769</v>
+      <c r="L23" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10769.0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -10735,18 +11576,18 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="25">
-        <v>115397</v>
+      <c r="F24" s="145" t="n">
+        <v>115397.0</v>
       </c>
       <c r="G24">
         <f>F24-B24</f>
         <v>94</v>
       </c>
-      <c r="H24">
-        <v>5</v>
+      <c r="H24" t="n">
+        <v>12.0</v>
       </c>
       <c r="I24">
         <f>(F24-B24)/B24</f>
@@ -10756,26 +11597,26 @@
         <f t="shared" si="0"/>
         <v>8.1524331543846529E-2</v>
       </c>
-      <c r="L24">
-        <v>107</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>10671</v>
+      <c r="L24" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10671.0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -10788,18 +11629,18 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="26">
-        <v>116302</v>
+      <c r="F25" s="146" t="n">
+        <v>116302.0</v>
       </c>
       <c r="G25">
         <f>F25-B25</f>
         <v>34</v>
       </c>
-      <c r="H25">
-        <v>12</v>
+      <c r="H25" t="n">
+        <v>12.0</v>
       </c>
       <c r="I25">
         <f>(F25-B25)/B25</f>
@@ -10809,26 +11650,26 @@
         <f t="shared" si="0"/>
         <v>2.9242783913034032E-2</v>
       </c>
-      <c r="L25">
-        <v>108</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>10786</v>
+      <c r="L25" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10786.0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -10841,18 +11682,18 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="27">
-        <v>116745</v>
+      <c r="F26" s="147" t="n">
+        <v>116745.0</v>
       </c>
       <c r="G26">
         <f>F26-B26</f>
         <v>66</v>
       </c>
-      <c r="H26">
-        <v>14</v>
+      <c r="H26" t="n">
+        <v>10.0</v>
       </c>
       <c r="I26">
         <f>(F26-B26)/B26</f>
@@ -10862,26 +11703,26 @@
         <f t="shared" si="0"/>
         <v>5.6565448795410589E-2</v>
       </c>
-      <c r="L26">
-        <v>109</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>10835</v>
+      <c r="L26" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10835.0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -10894,18 +11735,18 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="28">
-        <v>116022</v>
+      <c r="F27" s="148" t="n">
+        <v>116022.0</v>
       </c>
       <c r="G27">
         <f>F27-B27</f>
         <v>-1066</v>
       </c>
-      <c r="H27">
-        <v>14</v>
+      <c r="H27" t="n">
+        <v>0.0</v>
       </c>
       <c r="I27">
         <f>(F27-B27)/B27</f>
@@ -10915,26 +11756,26 @@
         <f t="shared" si="0"/>
         <v>-0.91042634599617145</v>
       </c>
-      <c r="L27">
-        <v>108</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>10746</v>
+      <c r="L27" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10746.0</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -10947,18 +11788,18 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="29">
-        <v>116358</v>
+      <c r="F28" s="149" t="n">
+        <v>116358.0</v>
       </c>
       <c r="G28">
         <f>F28-B28</f>
         <v>-74</v>
       </c>
-      <c r="H28">
-        <v>14</v>
+      <c r="H28" t="n">
+        <v>10.0</v>
       </c>
       <c r="I28">
         <f>(F28-B28)/B28</f>
@@ -10968,26 +11809,26 @@
         <f t="shared" si="0"/>
         <v>-6.3556410608768488E-2</v>
       </c>
-      <c r="L28">
-        <v>108</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>10794</v>
+      <c r="L28" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10794.0</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -11000,18 +11841,18 @@
       <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="30">
-        <v>116113</v>
+      <c r="F29" s="150" t="n">
+        <v>116113.0</v>
       </c>
       <c r="G29">
         <f>F29-B29</f>
         <v>30</v>
       </c>
-      <c r="H29">
-        <v>16</v>
+      <c r="H29" t="n">
+        <v>10.0</v>
       </c>
       <c r="I29">
         <f>(F29-B29)/B29</f>
@@ -11021,26 +11862,26 @@
         <f t="shared" si="0"/>
         <v>2.5843577440284093E-2</v>
       </c>
-      <c r="L29">
-        <v>108</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>10759</v>
+      <c r="L29" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10759.0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -11053,18 +11894,18 @@
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="31">
-        <v>116043</v>
+      <c r="F30" s="151" t="n">
+        <v>116043.0</v>
       </c>
       <c r="G30">
         <f>F30-B30</f>
         <v>-118</v>
       </c>
-      <c r="H30">
-        <v>5</v>
+      <c r="H30" t="n">
+        <v>8.0</v>
       </c>
       <c r="I30">
         <f>(F30-B30)/B30</f>
@@ -11074,26 +11915,26 @@
         <f t="shared" si="0"/>
         <v>-0.10158314752800379</v>
       </c>
-      <c r="L30">
-        <v>108</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>10749</v>
+      <c r="L30" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10749.0</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -11106,18 +11947,18 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="32">
-        <v>115334</v>
+      <c r="F31" s="152" t="n">
+        <v>115334.0</v>
       </c>
       <c r="G31">
         <f>F31-B31</f>
         <v>90</v>
       </c>
-      <c r="H31">
-        <v>5</v>
+      <c r="H31" t="n">
+        <v>0.0</v>
       </c>
       <c r="I31">
         <f>(F31-B31)/B31</f>
@@ -11127,26 +11968,26 @@
         <f t="shared" si="0"/>
         <v>7.8095171982923262E-2</v>
       </c>
-      <c r="L31">
-        <v>107</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>10662</v>
+      <c r="L31" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10662.0</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -11159,18 +12000,18 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="33">
-        <v>113988</v>
+      <c r="F32" s="153" t="n">
+        <v>113988.0</v>
       </c>
       <c r="G32">
         <f>F32-B32</f>
         <v>-9078</v>
       </c>
-      <c r="H32">
-        <v>5</v>
+      <c r="H32" t="n">
+        <v>0.0</v>
       </c>
       <c r="I32">
         <f>(F32-B32)/B32</f>
@@ -11180,26 +12021,26 @@
         <f t="shared" si="0"/>
         <v>-7.3765296670079437</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>72</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>10764</v>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10764.0</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -11212,18 +12053,18 @@
       <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="34">
-        <v>113449</v>
+      <c r="F33" s="154" t="n">
+        <v>113449.0</v>
       </c>
       <c r="G33">
         <f>F33-B33</f>
         <v>-9286</v>
       </c>
-      <c r="H33">
-        <v>4</v>
+      <c r="H33" t="n">
+        <v>4.0</v>
       </c>
       <c r="I33">
         <f>(F33-B33)/B33</f>
@@ -11233,26 +12074,26 @@
         <f t="shared" si="0"/>
         <v>-7.5658939992667058</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>72</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>10687</v>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10687.0</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -11265,18 +12106,18 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="35">
-        <v>113855</v>
+      <c r="F34" s="155" t="n">
+        <v>113855.0</v>
       </c>
       <c r="G34">
         <f>F34-B34</f>
         <v>-4356</v>
       </c>
-      <c r="H34">
-        <v>4</v>
+      <c r="H34" t="n">
+        <v>8.0</v>
       </c>
       <c r="I34">
         <f>(F34-B34)/B34</f>
@@ -11286,26 +12127,26 @@
         <f t="shared" si="0"/>
         <v>-3.6849362580470455</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>72</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>10745</v>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10745.0</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -11318,18 +12159,18 @@
       <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="36">
-        <v>114752</v>
+      <c r="F35" s="156" t="n">
+        <v>114752.0</v>
       </c>
       <c r="G35">
         <f>F35-B35</f>
         <v>-9800</v>
       </c>
-      <c r="H35">
-        <v>4</v>
+      <c r="H35" t="n">
+        <v>0.0</v>
       </c>
       <c r="I35">
         <f>(F35-B35)/B35</f>
@@ -11339,26 +12180,26 @@
         <f t="shared" si="0"/>
         <v>-7.8681996274648327</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>73</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>10856</v>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10856.0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -11371,18 +12212,18 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="37">
-        <v>112503</v>
+      <c r="F36" s="157" t="n">
+        <v>112503.0</v>
       </c>
       <c r="G36">
         <f>F36-B36</f>
         <v>-8974</v>
       </c>
-      <c r="H36">
-        <v>4</v>
+      <c r="H36" t="n">
+        <v>8.0</v>
       </c>
       <c r="I36">
         <f>(F36-B36)/B36</f>
@@ -11392,26 +12233,26 @@
         <f t="shared" si="0"/>
         <v>-7.3874066695753129</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>71</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>10569</v>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10569.0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -11424,18 +12265,18 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="38">
-        <v>113701</v>
+      <c r="F37" s="158" t="n">
+        <v>113701.0</v>
       </c>
       <c r="G37">
         <f>F37-B37</f>
         <v>-8782</v>
       </c>
-      <c r="H37">
-        <v>4</v>
+      <c r="H37" t="n">
+        <v>2.0</v>
       </c>
       <c r="I37">
         <f>(F37-B37)/B37</f>
@@ -11445,26 +12286,26 @@
         <f t="shared" si="0"/>
         <v>-7.1699746087212048</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>72</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>10723</v>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10723.0</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -11477,18 +12318,18 @@
       <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="39">
-        <v>114065</v>
+      <c r="F38" s="159" t="n">
+        <v>114065.0</v>
       </c>
       <c r="G38">
         <f>F38-B38</f>
         <v>-7212</v>
       </c>
-      <c r="H38">
-        <v>4</v>
+      <c r="H38" t="n">
+        <v>10.0</v>
       </c>
       <c r="I38">
         <f>(F38-B38)/B38</f>
@@ -11498,26 +12339,26 @@
         <f t="shared" si="0"/>
         <v>-5.9467170197151944</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>72</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>10775</v>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10775.0</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -11530,18 +12371,18 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="40">
-        <v>114030</v>
+      <c r="F39" s="160" t="n">
+        <v>114030.0</v>
       </c>
       <c r="G39">
         <f>F39-B39</f>
         <v>-862</v>
       </c>
-      <c r="H39">
-        <v>4</v>
+      <c r="H39" t="n">
+        <v>10.0</v>
       </c>
       <c r="I39">
         <f>(F39-B39)/B39</f>
@@ -11551,26 +12392,26 @@
         <f t="shared" si="0"/>
         <v>-0.75026981861226716</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>72</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>10770</v>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10770.0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -11583,18 +12424,18 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="41">
-        <v>115074</v>
+      <c r="F40" s="161" t="n">
+        <v>115074.0</v>
       </c>
       <c r="G40">
         <f>F40-B40</f>
         <v>-10250</v>
       </c>
-      <c r="H40">
-        <v>10</v>
+      <c r="H40" t="n">
+        <v>10.0</v>
       </c>
       <c r="I40">
         <f>(F40-B40)/B40</f>
@@ -11604,26 +12445,26 @@
         <f t="shared" si="0"/>
         <v>-8.1788005489770512</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>73</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>10902</v>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10902.0</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -11636,18 +12477,18 @@
       <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="42">
-        <v>114184</v>
+      <c r="F41" s="162" t="n">
+        <v>114184.0</v>
       </c>
       <c r="G41">
         <f>F41-B41</f>
         <v>-318</v>
       </c>
-      <c r="H41">
-        <v>12</v>
+      <c r="H41" t="n">
+        <v>14.0</v>
       </c>
       <c r="I41">
         <f>(F41-B41)/B41</f>
@@ -11657,26 +12498,26 @@
         <f t="shared" si="0"/>
         <v>-0.27772440656057995</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>72</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>10792</v>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10792.0</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -11689,18 +12530,18 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="43">
-        <v>19896</v>
+      <c r="F42" s="163" t="n">
+        <v>19896.0</v>
       </c>
       <c r="G42">
         <f>F42-B42</f>
         <v>22</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="n">
+        <v>0.0</v>
       </c>
       <c r="I42">
         <f>(F42-B42)/B42</f>
@@ -11710,26 +12551,26 @@
         <f t="shared" si="0"/>
         <v>0.11069739357955655</v>
       </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>1728</v>
+      <c r="L42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1728.0</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -11742,18 +12583,18 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="44">
-        <v>19854</v>
+      <c r="F43" s="164" t="n">
+        <v>19854.0</v>
       </c>
       <c r="G43">
         <f>F43-B43</f>
         <v>42</v>
       </c>
-      <c r="H43">
-        <v>1</v>
+      <c r="H43" t="n">
+        <v>0.0</v>
       </c>
       <c r="I43">
         <f>(F43-B43)/B43</f>
@@ -11763,26 +12604,26 @@
         <f t="shared" si="0"/>
         <v>0.21199273167776767</v>
       </c>
-      <c r="L43">
-        <v>18</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>1722</v>
+      <c r="L43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1722.0</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -11795,18 +12636,18 @@
       <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="45">
-        <v>19931</v>
+      <c r="F44" s="165" t="n">
+        <v>19931.0</v>
       </c>
       <c r="G44">
         <f>F44-B44</f>
         <v>58</v>
       </c>
-      <c r="H44">
-        <v>1</v>
+      <c r="H44" t="n">
+        <v>0.0</v>
       </c>
       <c r="I44">
         <f>(F44-B44)/B44</f>
@@ -11816,26 +12657,26 @@
         <f t="shared" si="0"/>
         <v>0.29185326825340496</v>
       </c>
-      <c r="L44">
-        <v>18</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>1733</v>
+      <c r="L44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1733.0</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -11848,18 +12689,18 @@
       <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="46">
-        <v>19194</v>
+      <c r="F45" s="166" t="n">
+        <v>19194.0</v>
       </c>
       <c r="G45">
         <f>F45-B45</f>
         <v>40</v>
       </c>
-      <c r="H45">
-        <v>1</v>
+      <c r="H45" t="n">
+        <v>0.0</v>
       </c>
       <c r="I45">
         <f>(F45-B45)/B45</f>
@@ -11869,26 +12710,26 @@
         <f t="shared" si="0"/>
         <v>0.20883366398663838</v>
       </c>
-      <c r="L45">
-        <v>17</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>1642</v>
+      <c r="L45" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1642.0</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -11901,18 +12742,18 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="47">
-        <v>19495</v>
+      <c r="F46" s="167" t="n">
+        <v>19495.0</v>
       </c>
       <c r="G46">
         <f>F46-B46</f>
         <v>44</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="n">
+        <v>0.0</v>
       </c>
       <c r="I46">
         <f>(F46-B46)/B46</f>
@@ -11922,26 +12763,26 @@
         <f t="shared" si="0"/>
         <v>0.22620944938563525</v>
       </c>
-      <c r="L46">
-        <v>17</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>1685</v>
+      <c r="L46" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1685.0</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -11954,18 +12795,18 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="48">
-        <v>19945</v>
+      <c r="F47" s="168" t="n">
+        <v>19945.0</v>
       </c>
       <c r="G47">
         <f>F47-B47</f>
         <v>54</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="n">
+        <v>0.0</v>
       </c>
       <c r="I47">
         <f>(F47-B47)/B47</f>
@@ -11975,26 +12816,26 @@
         <f t="shared" si="0"/>
         <v>0.27147956362173886</v>
       </c>
-      <c r="L47">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>1735</v>
+      <c r="L47" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1735.0</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -12007,18 +12848,18 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="49">
-        <v>19215</v>
+      <c r="F48" s="169" t="n">
+        <v>19215.0</v>
       </c>
       <c r="G48">
         <f>F48-B48</f>
         <v>36</v>
       </c>
-      <c r="H48">
-        <v>1</v>
+      <c r="H48" t="n">
+        <v>0.0</v>
       </c>
       <c r="I48">
         <f>(F48-B48)/B48</f>
@@ -12028,26 +12869,26 @@
         <f t="shared" si="0"/>
         <v>0.18770530267480012</v>
       </c>
-      <c r="L48">
-        <v>17</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>1645</v>
+      <c r="L48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1645.0</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -12060,18 +12901,18 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="50">
-        <v>19390</v>
+      <c r="F49" s="170" t="n">
+        <v>19390.0</v>
       </c>
       <c r="G49">
         <f>F49-B49</f>
         <v>40</v>
       </c>
-      <c r="H49">
-        <v>1</v>
+      <c r="H49" t="n">
+        <v>0.0</v>
       </c>
       <c r="I49">
         <f>(F49-B49)/B49</f>
@@ -12081,26 +12922,26 @@
         <f t="shared" si="0"/>
         <v>0.2067183462532256</v>
       </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>1670</v>
+      <c r="L49" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1670.0</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -12113,18 +12954,18 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="51">
-        <v>19208</v>
+      <c r="F50" s="171" t="n">
+        <v>19208.0</v>
       </c>
       <c r="G50">
         <f>F50-B50</f>
         <v>52</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="n">
+        <v>0.0</v>
       </c>
       <c r="I50">
         <f>(F50-B50)/B50</f>
@@ -12134,26 +12975,26 @@
         <f t="shared" si="0"/>
         <v>0.27145541866778444</v>
       </c>
-      <c r="L50">
-        <v>17</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>1644</v>
+      <c r="L50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1644.0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -12166,18 +13007,18 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="52">
-        <v>19833</v>
+      <c r="F51" s="172" t="n">
+        <v>19833.0</v>
       </c>
       <c r="G51">
         <f>F51-B51</f>
         <v>52</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="n">
+        <v>0.0</v>
       </c>
       <c r="I51">
         <f>(F51-B51)/B51</f>
@@ -12187,26 +13028,26 @@
         <f t="shared" si="0"/>
         <v>0.26287851979171251</v>
       </c>
-      <c r="L51">
-        <v>18</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>1719</v>
+      <c r="L51" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1719.0</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -12219,18 +13060,18 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="53">
-        <v>19144</v>
+      <c r="F52" s="173" t="n">
+        <v>19144.0</v>
       </c>
       <c r="G52">
         <f>F52-B52</f>
         <v>100</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="n">
+        <v>0.0</v>
       </c>
       <c r="I52">
         <f>(F52-B52)/B52</f>
@@ -12240,26 +13081,26 @@
         <f t="shared" si="0"/>
         <v>0.52509976895609611</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>12</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>1672</v>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1672.0</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -12272,18 +13113,18 @@
       <c r="C53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="54">
-        <v>19312</v>
+      <c r="F53" s="174" t="n">
+        <v>19312.0</v>
       </c>
       <c r="G53">
         <f>F53-B53</f>
         <v>50</v>
       </c>
-      <c r="H53">
-        <v>1</v>
+      <c r="H53" t="n">
+        <v>0.0</v>
       </c>
       <c r="I53">
         <f>(F53-B53)/B53</f>
@@ -12293,26 +13134,26 @@
         <f t="shared" si="0"/>
         <v>0.25957844460596391</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>12</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>1696</v>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1696.0</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -12325,18 +13166,18 @@
       <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="55">
-        <v>19711</v>
+      <c r="F54" s="175" t="n">
+        <v>19711.0</v>
       </c>
       <c r="G54">
         <f>F54-B54</f>
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>1</v>
+      <c r="H54" t="n">
+        <v>0.0</v>
       </c>
       <c r="I54">
         <f>(F54-B54)/B54</f>
@@ -12346,26 +13187,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>12</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>1753</v>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1753.0</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -12378,18 +13219,18 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="F55" s="56">
-        <v>18835</v>
+      <c r="F55" s="176" t="n">
+        <v>18835.0</v>
       </c>
       <c r="G55">
         <f>F55-B55</f>
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="n">
+        <v>0.0</v>
       </c>
       <c r="I55">
         <f>(F55-B55)/B55</f>
@@ -12399,26 +13240,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>11</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>1645</v>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1645.0</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -12431,18 +13272,18 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="57">
-        <v>19060</v>
+      <c r="F56" s="177" t="n">
+        <v>19060.0</v>
       </c>
       <c r="G56">
         <f>F56-B56</f>
         <v>80</v>
       </c>
-      <c r="H56">
-        <v>1</v>
+      <c r="H56" t="n">
+        <v>0.0</v>
       </c>
       <c r="I56">
         <f>(F56-B56)/B56</f>
@@ -12452,26 +13293,26 @@
         <f t="shared" si="0"/>
         <v>0.42149631190727632</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>12</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>1660</v>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1660.0</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -12484,18 +13325,18 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="58">
-        <v>19214</v>
+      <c r="F57" s="178" t="n">
+        <v>19214.0</v>
       </c>
       <c r="G57">
         <f>F57-B57</f>
         <v>88</v>
       </c>
-      <c r="H57">
-        <v>1</v>
+      <c r="H57" t="n">
+        <v>0.0</v>
       </c>
       <c r="I57">
         <f>(F57-B57)/B57</f>
@@ -12505,26 +13346,26 @@
         <f t="shared" si="0"/>
         <v>0.46010666108961118</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>12</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>1682</v>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1682.0</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -12537,18 +13378,18 @@
       <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="59">
-        <v>19326</v>
+      <c r="F58" s="179" t="n">
+        <v>19326.0</v>
       </c>
       <c r="G58">
         <f>F58-B58</f>
         <v>50</v>
       </c>
-      <c r="H58">
-        <v>1</v>
+      <c r="H58" t="n">
+        <v>0.0</v>
       </c>
       <c r="I58">
         <f>(F58-B58)/B58</f>
@@ -12558,26 +13399,26 @@
         <f t="shared" si="0"/>
         <v>0.25938991492010643</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>12</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>1698</v>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1698.0</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -12590,18 +13431,18 @@
       <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="60">
-        <v>19137</v>
+      <c r="F59" s="180" t="n">
+        <v>19137.0</v>
       </c>
       <c r="G59">
         <f>F59-B59</f>
         <v>84</v>
       </c>
-      <c r="H59">
-        <v>1</v>
+      <c r="H59" t="n">
+        <v>0.0</v>
       </c>
       <c r="I59">
         <f>(F59-B59)/B59</f>
@@ -12611,26 +13452,26 @@
         <f t="shared" si="0"/>
         <v>0.44087545268462236</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>12</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>1671</v>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1671.0</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -12643,18 +13484,18 @@
       <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="61">
-        <v>19004</v>
+      <c r="F60" s="181" t="n">
+        <v>19004.0</v>
       </c>
       <c r="G60">
         <f>F60-B60</f>
         <v>84</v>
       </c>
-      <c r="H60">
-        <v>1</v>
+      <c r="H60" t="n">
+        <v>0.0</v>
       </c>
       <c r="I60">
         <f>(F60-B60)/B60</f>
@@ -12664,26 +13505,26 @@
         <f t="shared" si="0"/>
         <v>0.44397463002114534</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>12</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>1652</v>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1652.0</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -12696,18 +13537,18 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="62">
-        <v>18758</v>
+      <c r="F61" s="182" t="n">
+        <v>18758.0</v>
       </c>
       <c r="G61">
         <f>F61-B61</f>
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>1</v>
+      <c r="H61" t="n">
+        <v>0.0</v>
       </c>
       <c r="I61">
         <f>(F61-B61)/B61</f>
@@ -12717,26 +13558,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>11</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>1634</v>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1634.0</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -12749,18 +13590,18 @@
       <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="63">
-        <v>23257</v>
+      <c r="F62" s="183" t="n">
+        <v>23257.0</v>
       </c>
       <c r="G62">
         <f>F62-B62</f>
         <v>98</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="n">
+        <v>0.0</v>
       </c>
       <c r="I62">
         <f>(F62-B62)/B62</f>
@@ -12770,26 +13611,26 @@
         <f t="shared" si="0"/>
         <v>0.4231616218316816</v>
       </c>
-      <c r="L62">
-        <v>22</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>2151</v>
+      <c r="L62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2151.0</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -12802,18 +13643,18 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="D63" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="64">
-        <v>23390</v>
+      <c r="F63" s="184" t="n">
+        <v>23390.0</v>
       </c>
       <c r="G63">
         <f>F63-B63</f>
         <v>92</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="n">
+        <v>0.0</v>
       </c>
       <c r="I63">
         <f>(F63-B63)/B63</f>
@@ -12823,26 +13664,26 @@
         <f t="shared" si="0"/>
         <v>0.39488368100266769</v>
       </c>
-      <c r="L63">
-        <v>22</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>2170</v>
+      <c r="L63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2170.0</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -12855,18 +13696,18 @@
       <c r="C64" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="D64" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="65">
-        <v>23299</v>
+      <c r="F64" s="185" t="n">
+        <v>23299.0</v>
       </c>
       <c r="G64">
         <f>F64-B64</f>
         <v>114</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="n">
+        <v>0.0</v>
       </c>
       <c r="I64">
         <f>(F64-B64)/B64</f>
@@ -12876,26 +13717,26 @@
         <f t="shared" si="0"/>
         <v>0.49169721802890365</v>
       </c>
-      <c r="L64">
-        <v>22</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>2157</v>
+      <c r="L64" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2157.0</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -12908,18 +13749,18 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="66">
-        <v>23040</v>
+      <c r="F65" s="186" t="n">
+        <v>23040.0</v>
       </c>
       <c r="G65">
         <f>F65-B65</f>
         <v>108</v>
       </c>
-      <c r="H65">
-        <v>1</v>
+      <c r="H65" t="n">
+        <v>0.0</v>
       </c>
       <c r="I65">
         <f>(F65-B65)/B65</f>
@@ -12929,26 +13770,26 @@
         <f t="shared" si="0"/>
         <v>0.47095761381476109</v>
       </c>
-      <c r="L65">
-        <v>22</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>2120</v>
+      <c r="L65" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2120.0</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -12961,18 +13802,18 @@
       <c r="C66" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="67" t="s">
+      <c r="D66" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="67">
-        <v>23012</v>
+      <c r="F66" s="187" t="n">
+        <v>23012.0</v>
       </c>
       <c r="G66">
         <f>F66-B66</f>
         <v>88</v>
       </c>
-      <c r="H66">
-        <v>1</v>
+      <c r="H66" t="n">
+        <v>0.0</v>
       </c>
       <c r="I66">
         <f>(F66-B66)/B66</f>
@@ -12982,26 +13823,26 @@
         <f t="shared" si="0"/>
         <v>0.38387715930902289</v>
       </c>
-      <c r="L66">
-        <v>22</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>2116</v>
+      <c r="L66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2116.0</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -13014,18 +13855,18 @@
       <c r="C67" t="s">
         <v>130</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="68">
-        <v>23152</v>
+      <c r="F67" s="188" t="n">
+        <v>23152.0</v>
       </c>
       <c r="G67">
         <f>F67-B67</f>
         <v>118</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="n">
+        <v>0.0</v>
       </c>
       <c r="I67">
         <f>(F67-B67)/B67</f>
@@ -13035,26 +13876,26 @@
         <f t="shared" ref="J67:J121" si="1">(F67*100/B67)-100</f>
         <v>0.51228618563861517</v>
       </c>
-      <c r="L67">
-        <v>22</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>2136</v>
+      <c r="L67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2136.0</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -13067,18 +13908,18 @@
       <c r="C68" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="69">
-        <v>22914</v>
+      <c r="F68" s="189" t="n">
+        <v>22914.0</v>
       </c>
       <c r="G68">
         <f>F68-B68</f>
         <v>88</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="n">
+        <v>0.0</v>
       </c>
       <c r="I68">
         <f>(F68-B68)/B68</f>
@@ -13088,26 +13929,26 @@
         <f t="shared" si="1"/>
         <v>0.38552527819153681</v>
       </c>
-      <c r="L68">
-        <v>22</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>2102</v>
+      <c r="L68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2102.0</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -13120,18 +13961,18 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="70" t="s">
+      <c r="D69" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="70">
-        <v>23418</v>
+      <c r="F69" s="190" t="n">
+        <v>23418.0</v>
       </c>
       <c r="G69">
         <f>F69-B69</f>
         <v>96</v>
       </c>
-      <c r="H69">
-        <v>1</v>
+      <c r="H69" t="n">
+        <v>0.0</v>
       </c>
       <c r="I69">
         <f>(F69-B69)/B69</f>
@@ -13141,26 +13982,26 @@
         <f t="shared" si="1"/>
         <v>0.41162850527399542</v>
       </c>
-      <c r="L69">
-        <v>22</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>2174</v>
+      <c r="L69" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2174.0</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -13173,18 +14014,18 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="71">
-        <v>23054</v>
+      <c r="F70" s="191" t="n">
+        <v>23054.0</v>
       </c>
       <c r="G70">
         <f>F70-B70</f>
         <v>102</v>
       </c>
-      <c r="H70">
-        <v>1</v>
+      <c r="H70" t="n">
+        <v>0.0</v>
       </c>
       <c r="I70">
         <f>(F70-B70)/B70</f>
@@ -13194,26 +14035,26 @@
         <f t="shared" si="1"/>
         <v>0.44440571627744418</v>
       </c>
-      <c r="L70">
-        <v>22</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>2122</v>
+      <c r="L70" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2122.0</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -13226,18 +14067,18 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="72" t="s">
+      <c r="D71" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="72">
-        <v>23117</v>
+      <c r="F71" s="192" t="n">
+        <v>23117.0</v>
       </c>
       <c r="G71">
         <f>F71-B71</f>
         <v>90</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="n">
+        <v>0.0</v>
       </c>
       <c r="I71">
         <f>(F71-B71)/B71</f>
@@ -13247,26 +14088,26 @@
         <f t="shared" si="1"/>
         <v>0.39084552916142457</v>
       </c>
-      <c r="L71">
-        <v>22</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>2131</v>
+      <c r="L71" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2131.0</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -13279,18 +14120,18 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="73">
-        <v>22892</v>
+      <c r="F72" s="193" t="n">
+        <v>22892.0</v>
       </c>
       <c r="G72">
         <f>F72-B72</f>
         <v>50</v>
       </c>
-      <c r="H72">
-        <v>0</v>
+      <c r="H72" t="n">
+        <v>0.0</v>
       </c>
       <c r="I72">
         <f>(F72-B72)/B72</f>
@@ -13300,26 +14141,26 @@
         <f t="shared" si="1"/>
         <v>0.21889501794939292</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>15</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>2156</v>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2156.0</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -13332,18 +14173,18 @@
       <c r="C73" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="74">
-        <v>22612</v>
+      <c r="F73" s="194" t="n">
+        <v>22612.0</v>
       </c>
       <c r="G73">
         <f>F73-B73</f>
         <v>102</v>
       </c>
-      <c r="H73">
-        <v>1</v>
+      <c r="H73" t="n">
+        <v>0.0</v>
       </c>
       <c r="I73">
         <f>(F73-B73)/B73</f>
@@ -13353,26 +14194,26 @@
         <f t="shared" si="1"/>
         <v>0.45313194135940194</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>15</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>2116</v>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2116.0</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -13385,18 +14226,18 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="75">
-        <v>22997</v>
+      <c r="F74" s="195" t="n">
+        <v>22997.0</v>
       </c>
       <c r="G74">
         <f>F74-B74</f>
         <v>50</v>
       </c>
-      <c r="H74">
-        <v>1</v>
+      <c r="H74" t="n">
+        <v>0.0</v>
       </c>
       <c r="I74">
         <f>(F74-B74)/B74</f>
@@ -13406,26 +14247,26 @@
         <f t="shared" si="1"/>
         <v>0.21789340654551381</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>15</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>2171</v>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2171.0</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -13438,18 +14279,18 @@
       <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="F75" s="76">
-        <v>22219</v>
+      <c r="F75" s="196" t="n">
+        <v>22219.0</v>
       </c>
       <c r="G75">
         <f>F75-B75</f>
         <v>18</v>
       </c>
-      <c r="H75">
-        <v>1</v>
+      <c r="H75" t="n">
+        <v>0.0</v>
       </c>
       <c r="I75">
         <f>(F75-B75)/B75</f>
@@ -13459,26 +14300,26 @@
         <f t="shared" si="1"/>
         <v>8.1077428944638541E-2</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>14</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>2077</v>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2077.0</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -13491,18 +14332,18 @@
       <c r="C76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D76" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="77">
-        <v>23270</v>
+      <c r="F76" s="197" t="n">
+        <v>23270.0</v>
       </c>
       <c r="G76">
         <f>F76-B76</f>
         <v>22</v>
       </c>
-      <c r="H76">
-        <v>1</v>
+      <c r="H76" t="n">
+        <v>0.0</v>
       </c>
       <c r="I76">
         <f>(F76-B76)/B76</f>
@@ -13512,26 +14353,26 @@
         <f t="shared" si="1"/>
         <v>9.4631796283550784E-2</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>15</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>2210</v>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2210.0</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -13544,18 +14385,18 @@
       <c r="C77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="78" t="s">
+      <c r="D77" s="198" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="78">
-        <v>22815</v>
+      <c r="F77" s="198" t="n">
+        <v>22815.0</v>
       </c>
       <c r="G77">
         <f>F77-B77</f>
         <v>70</v>
       </c>
-      <c r="H77">
-        <v>1</v>
+      <c r="H77" t="n">
+        <v>0.0</v>
       </c>
       <c r="I77">
         <f>(F77-B77)/B77</f>
@@ -13565,26 +14406,26 @@
         <f t="shared" si="1"/>
         <v>0.30775994724115208</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>15</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>2145</v>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2145.0</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -13597,18 +14438,18 @@
       <c r="C78">
         <v>0</v>
       </c>
-      <c r="D78" s="79" t="s">
+      <c r="D78" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="79">
-        <v>23025</v>
+      <c r="F78" s="199" t="n">
+        <v>23025.0</v>
       </c>
       <c r="G78">
         <f>F78-B78</f>
         <v>50</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="n">
+        <v>0.0</v>
       </c>
       <c r="I78">
         <f>(F78-B78)/B78</f>
@@ -13618,26 +14459,26 @@
         <f t="shared" si="1"/>
         <v>0.21762785636560977</v>
       </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>15</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>2175</v>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2175.0</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -13650,18 +14491,18 @@
       <c r="C79" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="80" t="s">
+      <c r="D79" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="F79" s="80">
-        <v>22570</v>
+      <c r="F79" s="200" t="n">
+        <v>22570.0</v>
       </c>
       <c r="G79">
         <f>F79-B79</f>
         <v>100</v>
       </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="H79" t="n">
+        <v>0.0</v>
       </c>
       <c r="I79">
         <f>(F79-B79)/B79</f>
@@ -13671,26 +14512,26 @@
         <f t="shared" si="1"/>
         <v>0.44503782821540483</v>
       </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>15</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>2110</v>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2110.0</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -13703,18 +14544,18 @@
       <c r="C80" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="81" t="s">
+      <c r="D80" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="81">
-        <v>23109</v>
+      <c r="F80" s="201" t="n">
+        <v>23109.0</v>
       </c>
       <c r="G80">
         <f>F80-B80</f>
         <v>50</v>
       </c>
-      <c r="H80">
-        <v>1</v>
+      <c r="H80" t="n">
+        <v>0.0</v>
       </c>
       <c r="I80">
         <f>(F80-B80)/B80</f>
@@ -13724,26 +14565,26 @@
         <f t="shared" si="1"/>
         <v>0.21683507524177514</v>
       </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>15</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>2187</v>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2187.0</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -13756,18 +14597,18 @@
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="D81" s="82" t="s">
+      <c r="D81" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="82">
-        <v>22591</v>
+      <c r="F81" s="202" t="n">
+        <v>22591.0</v>
       </c>
       <c r="G81">
         <f>F81-B81</f>
         <v>88</v>
       </c>
-      <c r="H81">
-        <v>1</v>
+      <c r="H81" t="n">
+        <v>0.0</v>
       </c>
       <c r="I81">
         <f>(F81-B81)/B81</f>
@@ -13777,26 +14618,26 @@
         <f t="shared" si="1"/>
         <v>0.39105896991512168</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>15</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>2113</v>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2113.0</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -13809,18 +14650,18 @@
       <c r="C82" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="83" t="s">
+      <c r="D82" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="83">
-        <v>49556</v>
+      <c r="F82" s="203" t="n">
+        <v>49556.0</v>
       </c>
       <c r="G82">
         <f>F82-B82</f>
         <v>146</v>
       </c>
-      <c r="H82">
-        <v>1</v>
+      <c r="H82" t="n">
+        <v>8.0</v>
       </c>
       <c r="I82">
         <f>(F82-B82)/B82</f>
@@ -13830,26 +14671,26 @@
         <f t="shared" si="1"/>
         <v>0.29548674357417326</v>
       </c>
-      <c r="L82">
-        <v>44</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>4308</v>
+      <c r="L82" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4308.0</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -13862,18 +14703,18 @@
       <c r="C83" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="84" t="s">
+      <c r="D83" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="F83" s="84">
-        <v>48411</v>
+      <c r="F83" s="204" t="n">
+        <v>48411.0</v>
       </c>
       <c r="G83">
         <f>F83-B83</f>
         <v>70</v>
       </c>
-      <c r="H83">
-        <v>1</v>
+      <c r="H83" t="n">
+        <v>0.0</v>
       </c>
       <c r="I83">
         <f>(F83-B83)/B83</f>
@@ -13883,26 +14724,26 @@
         <f t="shared" si="1"/>
         <v>0.14480461719864479</v>
       </c>
-      <c r="L83">
-        <v>42</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>4173</v>
+      <c r="L83" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4173.0</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -13915,18 +14756,18 @@
       <c r="C84" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="85">
-        <v>49092</v>
+      <c r="F84" s="205" t="n">
+        <v>49092.0</v>
       </c>
       <c r="G84">
         <f>F84-B84</f>
         <v>152</v>
       </c>
-      <c r="H84">
-        <v>1</v>
+      <c r="H84" t="n">
+        <v>0.0</v>
       </c>
       <c r="I84">
         <f>(F84-B84)/B84</f>
@@ -13936,26 +14777,26 @@
         <f t="shared" si="1"/>
         <v>0.31058438904781838</v>
       </c>
-      <c r="L84">
-        <v>43</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>4256</v>
+      <c r="L84" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4256.0</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -13968,18 +14809,18 @@
       <c r="C85" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="F85" s="86">
-        <v>48201</v>
+      <c r="F85" s="206" t="n">
+        <v>48201.0</v>
       </c>
       <c r="G85">
         <f>F85-B85</f>
         <v>80</v>
       </c>
-      <c r="H85">
-        <v>1</v>
+      <c r="H85" t="n">
+        <v>0.0</v>
       </c>
       <c r="I85">
         <f>(F85-B85)/B85</f>
@@ -13989,26 +14830,26 @@
         <f t="shared" si="1"/>
         <v>0.16624758421478703</v>
       </c>
-      <c r="L85">
-        <v>42</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>4143</v>
+      <c r="L85" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4143.0</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -14021,18 +14862,18 @@
       <c r="C86" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="87" t="s">
+      <c r="D86" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="F86" s="87">
-        <v>48264</v>
+      <c r="F86" s="207" t="n">
+        <v>48264.0</v>
       </c>
       <c r="G86">
         <f>F86-B86</f>
         <v>102</v>
       </c>
-      <c r="H86">
-        <v>2</v>
+      <c r="H86" t="n">
+        <v>2.0</v>
       </c>
       <c r="I86">
         <f>(F86-B86)/B86</f>
@@ -14042,26 +14883,26 @@
         <f t="shared" si="1"/>
         <v>0.21178522486607676</v>
       </c>
-      <c r="L86">
-        <v>42</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>4152</v>
+      <c r="L86" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4152.0</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -14074,18 +14915,18 @@
       <c r="C87" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="D87" s="208" t="s">
         <v>167</v>
       </c>
-      <c r="F87" s="88">
-        <v>48805</v>
+      <c r="F87" s="208" t="n">
+        <v>48805.0</v>
       </c>
       <c r="G87">
         <f>F87-B87</f>
         <v>124</v>
       </c>
-      <c r="H87">
-        <v>1</v>
+      <c r="H87" t="n">
+        <v>0.0</v>
       </c>
       <c r="I87">
         <f>(F87-B87)/B87</f>
@@ -14095,26 +14936,26 @@
         <f t="shared" si="1"/>
         <v>0.25471950042110336</v>
       </c>
-      <c r="L87">
-        <v>43</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>4215</v>
+      <c r="L87" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4215.0</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -14127,18 +14968,18 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" s="89" t="s">
+      <c r="D88" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="89">
-        <v>48784</v>
+      <c r="F88" s="209" t="n">
+        <v>48784.0</v>
       </c>
       <c r="G88">
         <f>F88-B88</f>
         <v>104</v>
       </c>
-      <c r="H88">
-        <v>1</v>
+      <c r="H88" t="n">
+        <v>0.0</v>
       </c>
       <c r="I88">
         <f>(F88-B88)/B88</f>
@@ -14148,26 +14989,26 @@
         <f t="shared" si="1"/>
         <v>0.21364009860312194</v>
       </c>
-      <c r="L88">
-        <v>43</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>4212</v>
+      <c r="L88" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4212.0</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -14180,18 +15021,18 @@
       <c r="C89" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="90" t="s">
+      <c r="D89" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="90">
-        <v>47998</v>
+      <c r="F89" s="210" t="n">
+        <v>47998.0</v>
       </c>
       <c r="G89">
         <f>F89-B89</f>
         <v>116</v>
       </c>
-      <c r="H89">
-        <v>1</v>
+      <c r="H89" t="n">
+        <v>0.0</v>
       </c>
       <c r="I89">
         <f>(F89-B89)/B89</f>
@@ -14201,26 +15042,26 @@
         <f t="shared" si="1"/>
         <v>0.24226222797710761</v>
       </c>
-      <c r="L89">
-        <v>42</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>4114</v>
+      <c r="L89" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4114.0</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -14233,18 +15074,18 @@
       <c r="C90" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="91" t="s">
+      <c r="D90" s="211" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="91">
-        <v>48278</v>
+      <c r="F90" s="211" t="n">
+        <v>48278.0</v>
       </c>
       <c r="G90">
         <f>F90-B90</f>
         <v>100</v>
       </c>
-      <c r="H90">
-        <v>2</v>
+      <c r="H90" t="n">
+        <v>0.0</v>
       </c>
       <c r="I90">
         <f>(F90-B90)/B90</f>
@@ -14254,26 +15095,26 @@
         <f t="shared" si="1"/>
         <v>0.20756361824899727</v>
       </c>
-      <c r="L90">
-        <v>42</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>4154</v>
+      <c r="L90" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4154.0</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -14286,18 +15127,18 @@
       <c r="C91" t="s">
         <v>173</v>
       </c>
-      <c r="D91" s="92" t="s">
+      <c r="D91" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="F91" s="92">
-        <v>47758</v>
+      <c r="F91" s="212" t="n">
+        <v>47758.0</v>
       </c>
       <c r="G91">
         <f>F91-B91</f>
         <v>26</v>
       </c>
-      <c r="H91">
-        <v>1</v>
+      <c r="H91" t="n">
+        <v>0.0</v>
       </c>
       <c r="I91">
         <f>(F91-B91)/B91</f>
@@ -14307,26 +15148,26 @@
         <f t="shared" si="1"/>
         <v>5.4470795273616091E-2</v>
       </c>
-      <c r="L91">
-        <v>41</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>4094</v>
+      <c r="L91" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4094.0</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -14339,18 +15180,18 @@
       <c r="C92" t="s">
         <v>175</v>
       </c>
-      <c r="D92" s="93" t="s">
+      <c r="D92" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="F92" s="93">
-        <v>46296</v>
+      <c r="F92" s="213" t="n">
+        <v>46296.0</v>
       </c>
       <c r="G92">
         <f>F92-B92</f>
         <v>22</v>
       </c>
-      <c r="H92">
-        <v>1</v>
+      <c r="H92" t="n">
+        <v>1.0</v>
       </c>
       <c r="I92">
         <f>(F92-B92)/B92</f>
@@ -14360,26 +15201,26 @@
         <f t="shared" si="1"/>
         <v>4.7542896659024336E-2</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>27</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>4008</v>
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4008.0</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -14392,18 +15233,18 @@
       <c r="C93" t="s">
         <v>177</v>
       </c>
-      <c r="D93" s="94" t="s">
+      <c r="D93" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="F93" s="94">
-        <v>47529</v>
+      <c r="F93" s="214" t="n">
+        <v>47529.0</v>
       </c>
       <c r="G93">
         <f>F93-B93</f>
         <v>30</v>
       </c>
-      <c r="H93">
-        <v>2</v>
+      <c r="H93" t="n">
+        <v>0.0</v>
       </c>
       <c r="I93">
         <f>(F93-B93)/B93</f>
@@ -14413,26 +15254,26 @@
         <f t="shared" si="1"/>
         <v>6.315922440472832E-2</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>28</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>4167</v>
+      <c r="L93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4167.0</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -14445,18 +15286,18 @@
       <c r="C94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="215" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="95">
-        <v>47200</v>
+      <c r="F94" s="215" t="n">
+        <v>47200.0</v>
       </c>
       <c r="G94">
         <f>F94-B94</f>
         <v>20</v>
       </c>
-      <c r="H94">
-        <v>2</v>
+      <c r="H94" t="n">
+        <v>2.0</v>
       </c>
       <c r="I94">
         <f>(F94-B94)/B94</f>
@@ -14466,26 +15307,26 @@
         <f t="shared" si="1"/>
         <v>4.239084357779177E-2</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>28</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>4120</v>
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4120.0</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -14498,18 +15339,18 @@
       <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="96" t="s">
+      <c r="D95" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="F95" s="96">
-        <v>48636</v>
+      <c r="F95" s="216" t="n">
+        <v>48636.0</v>
       </c>
       <c r="G95">
         <f>F95-B95</f>
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>2</v>
+      <c r="H95" t="n">
+        <v>2.0</v>
       </c>
       <c r="I95">
         <f>(F95-B95)/B95</f>
@@ -14519,26 +15360,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>29</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>4308</v>
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4308.0</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -14551,18 +15392,18 @@
       <c r="C96" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="D96" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="97">
-        <v>48405</v>
+      <c r="F96" s="217" t="n">
+        <v>48405.0</v>
       </c>
       <c r="G96">
         <f>F96-B96</f>
         <v>30</v>
       </c>
-      <c r="H96">
-        <v>2</v>
+      <c r="H96" t="n">
+        <v>0.0</v>
       </c>
       <c r="I96">
         <f>(F96-B96)/B96</f>
@@ -14572,26 +15413,26 @@
         <f t="shared" si="1"/>
         <v>6.2015503875969102E-2</v>
       </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>29</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>4275</v>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4275.0</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -14604,18 +15445,18 @@
       <c r="C97" t="s">
         <v>185</v>
       </c>
-      <c r="D97" s="98" t="s">
+      <c r="D97" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="F97" s="98">
-        <v>48027</v>
+      <c r="F97" s="218" t="n">
+        <v>48027.0</v>
       </c>
       <c r="G97">
         <f>F97-B97</f>
         <v>100</v>
       </c>
-      <c r="H97">
-        <v>1</v>
+      <c r="H97" t="n">
+        <v>0.0</v>
       </c>
       <c r="I97">
         <f>(F97-B97)/B97</f>
@@ -14625,26 +15466,26 @@
         <f t="shared" si="1"/>
         <v>0.2086506562063164</v>
       </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>29</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>4221</v>
+      <c r="L97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4221.0</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -14657,18 +15498,18 @@
       <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="99" t="s">
+      <c r="D98" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F98" s="99">
-        <v>48020</v>
+      <c r="F98" s="219" t="n">
+        <v>48020.0</v>
       </c>
       <c r="G98">
         <f>F98-B98</f>
         <v>100</v>
       </c>
-      <c r="H98">
-        <v>1</v>
+      <c r="H98" t="n">
+        <v>0.0</v>
       </c>
       <c r="I98">
         <f>(F98-B98)/B98</f>
@@ -14678,26 +15519,26 @@
         <f t="shared" si="1"/>
         <v>0.20868113522537612</v>
       </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>29</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>4220</v>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4220.0</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -14710,18 +15551,18 @@
       <c r="C99" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="100" t="s">
+      <c r="D99" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="F99" s="100">
-        <v>48167</v>
+      <c r="F99" s="220" t="n">
+        <v>48167.0</v>
       </c>
       <c r="G99">
         <f>F99-B99</f>
         <v>56</v>
       </c>
-      <c r="H99">
-        <v>0</v>
+      <c r="H99" t="n">
+        <v>0.0</v>
       </c>
       <c r="I99">
         <f>(F99-B99)/B99</f>
@@ -14731,26 +15572,26 @@
         <f t="shared" si="1"/>
         <v>0.11639749745380357</v>
       </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>29</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>4241</v>
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4241.0</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -14763,18 +15604,18 @@
       <c r="C100" t="s">
         <v>192</v>
       </c>
-      <c r="D100" s="101" t="s">
+      <c r="D100" s="221" t="s">
         <v>193</v>
       </c>
-      <c r="F100" s="101">
-        <v>47158</v>
+      <c r="F100" s="221" t="n">
+        <v>47158.0</v>
       </c>
       <c r="G100">
         <f>F100-B100</f>
         <v>30</v>
       </c>
-      <c r="H100">
-        <v>2</v>
+      <c r="H100" t="n">
+        <v>0.0</v>
       </c>
       <c r="I100">
         <f>(F100-B100)/B100</f>
@@ -14784,26 +15625,26 @@
         <f t="shared" si="1"/>
         <v>6.3656425055171439E-2</v>
       </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>28</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>4114</v>
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4114.0</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -14816,18 +15657,18 @@
       <c r="C101" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="102" t="s">
+      <c r="D101" s="222" t="s">
         <v>195</v>
       </c>
-      <c r="F101" s="102">
-        <v>47480</v>
+      <c r="F101" s="222" t="n">
+        <v>47480.0</v>
       </c>
       <c r="G101">
         <f>F101-B101</f>
         <v>6</v>
       </c>
-      <c r="H101">
-        <v>1</v>
+      <c r="H101" t="n">
+        <v>0.0</v>
       </c>
       <c r="I101">
         <f>(F101-B101)/B101</f>
@@ -14837,26 +15678,26 @@
         <f t="shared" si="1"/>
         <v>1.2638496861441695E-2</v>
       </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>28</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>4160</v>
+      <c r="L101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4160.0</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -14869,18 +15710,18 @@
       <c r="C102" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="103" t="s">
+      <c r="D102" s="223" t="s">
         <v>197</v>
       </c>
-      <c r="F102" s="103">
-        <v>57808</v>
+      <c r="F102" s="223" t="n">
+        <v>57808.0</v>
       </c>
       <c r="G102">
         <f>F102-B102</f>
         <v>76</v>
       </c>
-      <c r="H102">
-        <v>1</v>
+      <c r="H102" t="n">
+        <v>8.0</v>
       </c>
       <c r="I102">
         <f>(F102-B102)/B102</f>
@@ -14890,26 +15731,26 @@
         <f t="shared" si="1"/>
         <v>0.13164276311231049</v>
       </c>
-      <c r="L102">
-        <v>54</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>5344</v>
+      <c r="L102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5344.0</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -14922,18 +15763,18 @@
       <c r="C103" t="s">
         <v>198</v>
       </c>
-      <c r="D103" s="104" t="s">
+      <c r="D103" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="F103" s="104">
-        <v>57997</v>
+      <c r="F103" s="224" t="n">
+        <v>57997.0</v>
       </c>
       <c r="G103">
         <f>F103-B103</f>
         <v>176</v>
       </c>
-      <c r="H103">
-        <v>1</v>
+      <c r="H103" t="n">
+        <v>0.0</v>
       </c>
       <c r="I103">
         <f>(F103-B103)/B103</f>
@@ -14943,26 +15784,26 @@
         <f t="shared" si="1"/>
         <v>0.30438767921688736</v>
       </c>
-      <c r="L103">
-        <v>54</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>5371</v>
+      <c r="L103" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5371.0</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
@@ -14975,18 +15816,18 @@
       <c r="C104" t="s">
         <v>200</v>
       </c>
-      <c r="D104" s="105" t="s">
+      <c r="D104" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="F104" s="105">
-        <v>58046</v>
+      <c r="F104" s="225" t="n">
+        <v>58046.0</v>
       </c>
       <c r="G104">
         <f>F104-B104</f>
         <v>6</v>
       </c>
-      <c r="H104">
-        <v>1</v>
+      <c r="H104" t="n">
+        <v>0.0</v>
       </c>
       <c r="I104">
         <f>(F104-B104)/B104</f>
@@ -14996,26 +15837,26 @@
         <f t="shared" si="1"/>
         <v>1.0337698139210261E-2</v>
       </c>
-      <c r="L104">
-        <v>54</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>5378</v>
+      <c r="L104" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5378.0</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -15028,18 +15869,18 @@
       <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="D105" s="106" t="s">
+      <c r="D105" s="226" t="s">
         <v>203</v>
       </c>
-      <c r="F105" s="106">
-        <v>58559</v>
+      <c r="F105" s="226" t="n">
+        <v>58559.0</v>
       </c>
       <c r="G105">
         <f>F105-B105</f>
         <v>44</v>
       </c>
-      <c r="H105">
-        <v>1</v>
+      <c r="H105" t="n">
+        <v>0.0</v>
       </c>
       <c r="I105">
         <f>(F105-B105)/B105</f>
@@ -15049,26 +15890,26 @@
         <f t="shared" si="1"/>
         <v>7.5194394599677139E-2</v>
       </c>
-      <c r="L105">
-        <v>55</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>5437</v>
+      <c r="L105" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5437.0</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
@@ -15081,18 +15922,18 @@
       <c r="C106" t="s">
         <v>204</v>
       </c>
-      <c r="D106" s="107" t="s">
+      <c r="D106" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="F106" s="107">
-        <v>58384</v>
+      <c r="F106" s="227" t="n">
+        <v>58384.0</v>
       </c>
       <c r="G106">
         <f>F106-B106</f>
         <v>168</v>
       </c>
-      <c r="H106">
-        <v>1</v>
+      <c r="H106" t="n">
+        <v>0.0</v>
       </c>
       <c r="I106">
         <f>(F106-B106)/B106</f>
@@ -15102,26 +15943,26 @@
         <f t="shared" si="1"/>
         <v>0.28858045898034845</v>
       </c>
-      <c r="L106">
-        <v>55</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>5412</v>
+      <c r="L106" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5412.0</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
@@ -15134,18 +15975,18 @@
       <c r="C107" t="s">
         <v>206</v>
       </c>
-      <c r="D107" s="108" t="s">
+      <c r="D107" s="228" t="s">
         <v>207</v>
       </c>
-      <c r="F107" s="108">
-        <v>57773</v>
+      <c r="F107" s="228" t="n">
+        <v>57773.0</v>
       </c>
       <c r="G107">
         <f>F107-B107</f>
         <v>108</v>
       </c>
-      <c r="H107">
-        <v>1</v>
+      <c r="H107" t="n">
+        <v>0.0</v>
       </c>
       <c r="I107">
         <f>(F107-B107)/B107</f>
@@ -15155,26 +15996,26 @@
         <f t="shared" si="1"/>
         <v>0.18728864996097627</v>
       </c>
-      <c r="L107">
-        <v>54</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>5339</v>
+      <c r="L107" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5339.0</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -15187,18 +16028,18 @@
       <c r="C108" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="109" t="s">
+      <c r="D108" s="229" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="109">
-        <v>57724</v>
+      <c r="F108" s="229" t="n">
+        <v>57724.0</v>
       </c>
       <c r="G108">
         <f>F108-B108</f>
         <v>124</v>
       </c>
-      <c r="H108">
-        <v>0</v>
+      <c r="H108" t="n">
+        <v>0.0</v>
       </c>
       <c r="I108">
         <f>(F108-B108)/B108</f>
@@ -15208,26 +16049,26 @@
         <f t="shared" si="1"/>
         <v>0.21527777777777146</v>
       </c>
-      <c r="L108">
-        <v>54</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>5332</v>
+      <c r="L108" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5332.0</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
@@ -15240,18 +16081,18 @@
       <c r="C109" t="s">
         <v>211</v>
       </c>
-      <c r="D109" s="110" t="s">
+      <c r="D109" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="F109" s="110">
-        <v>58370</v>
+      <c r="F109" s="230" t="n">
+        <v>58370.0</v>
       </c>
       <c r="G109">
         <f>F109-B109</f>
         <v>108</v>
       </c>
-      <c r="H109">
-        <v>1</v>
+      <c r="H109" t="n">
+        <v>0.0</v>
       </c>
       <c r="I109">
         <f>(F109-B109)/B109</f>
@@ -15261,26 +16102,26 @@
         <f t="shared" si="1"/>
         <v>0.18536953760599317</v>
       </c>
-      <c r="L109">
-        <v>55</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>5410</v>
+      <c r="L109" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5410.0</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
@@ -15293,18 +16134,18 @@
       <c r="C110" t="s">
         <v>213</v>
       </c>
-      <c r="D110" s="111" t="s">
+      <c r="D110" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="111">
-        <v>58067</v>
+      <c r="F110" s="231" t="n">
+        <v>58067.0</v>
       </c>
       <c r="G110">
         <f>F110-B110</f>
         <v>46</v>
       </c>
-      <c r="H110">
-        <v>1</v>
+      <c r="H110" t="n">
+        <v>2.0</v>
       </c>
       <c r="I110">
         <f>(F110-B110)/B110</f>
@@ -15314,26 +16155,26 @@
         <f t="shared" si="1"/>
         <v>7.9281639406417526E-2</v>
       </c>
-      <c r="L110">
-        <v>54</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>5381</v>
+      <c r="L110" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5381.0</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
@@ -15346,18 +16187,18 @@
       <c r="C111" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="112" t="s">
+      <c r="D111" s="232" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="112">
-        <v>58573</v>
+      <c r="F111" s="232" t="n">
+        <v>58573.0</v>
       </c>
       <c r="G111">
         <f>F111-B111</f>
         <v>188</v>
       </c>
-      <c r="H111">
-        <v>1</v>
+      <c r="H111" t="n">
+        <v>0.0</v>
       </c>
       <c r="I111">
         <f>(F111-B111)/B111</f>
@@ -15367,26 +16208,26 @@
         <f t="shared" si="1"/>
         <v>0.32200051383060213</v>
       </c>
-      <c r="L111">
-        <v>55</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>5439</v>
+      <c r="L111" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5439.0</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
@@ -15399,18 +16240,18 @@
       <c r="C112" t="s">
         <v>217</v>
       </c>
-      <c r="D112" s="113" t="s">
+      <c r="D112" s="233" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="113">
-        <v>57520</v>
+      <c r="F112" s="233" t="n">
+        <v>57520.0</v>
       </c>
       <c r="G112">
         <f>F112-B112</f>
         <v>-6</v>
       </c>
-      <c r="H112">
-        <v>1</v>
+      <c r="H112" t="n">
+        <v>0.0</v>
       </c>
       <c r="I112">
         <f>(F112-B112)/B112</f>
@@ -15420,26 +16261,26 @@
         <f t="shared" si="1"/>
         <v>-1.0430066404751415E-2</v>
       </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>37</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>5440</v>
+      <c r="L112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5440.0</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -15452,18 +16293,18 @@
       <c r="C113" t="s">
         <v>219</v>
       </c>
-      <c r="D113" s="114" t="s">
+      <c r="D113" s="234" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="114">
-        <v>57324</v>
+      <c r="F113" s="234" t="n">
+        <v>57324.0</v>
       </c>
       <c r="G113">
         <f>F113-B113</f>
         <v>-138</v>
       </c>
-      <c r="H113">
-        <v>2</v>
+      <c r="H113" t="n">
+        <v>0.0</v>
       </c>
       <c r="I113">
         <f>(F113-B113)/B113</f>
@@ -15473,26 +16314,26 @@
         <f t="shared" si="1"/>
         <v>-0.24015871358463414</v>
       </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>37</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>5412</v>
+      <c r="L113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5412.0</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
@@ -15505,18 +16346,18 @@
       <c r="C114" t="s">
         <v>221</v>
       </c>
-      <c r="D114" s="115" t="s">
+      <c r="D114" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="F114" s="115">
-        <v>56784</v>
+      <c r="F114" s="235" t="n">
+        <v>56784.0</v>
       </c>
       <c r="G114">
         <f>F114-B114</f>
         <v>16</v>
       </c>
-      <c r="H114">
-        <v>1</v>
+      <c r="H114" t="n">
+        <v>1.0</v>
       </c>
       <c r="I114">
         <f>(F114-B114)/B114</f>
@@ -15526,26 +16367,26 @@
         <f t="shared" si="1"/>
         <v>2.8184892897400005E-2</v>
       </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>36</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>5352</v>
+      <c r="L114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5352.0</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
@@ -15558,18 +16399,18 @@
       <c r="C115" t="s">
         <v>223</v>
       </c>
-      <c r="D115" s="116" t="s">
+      <c r="D115" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="116">
-        <v>56686</v>
+      <c r="F115" s="236" t="n">
+        <v>56686.0</v>
       </c>
       <c r="G115">
         <f>F115-B115</f>
         <v>-32</v>
       </c>
-      <c r="H115">
-        <v>2</v>
+      <c r="H115" t="n">
+        <v>0.0</v>
       </c>
       <c r="I115">
         <f>(F115-B115)/B115</f>
@@ -15579,26 +16420,26 @@
         <f t="shared" si="1"/>
         <v>-5.6419478825063152E-2</v>
       </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>36</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>5338</v>
+      <c r="L115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5338.0</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -15611,18 +16452,18 @@
       <c r="C116" t="s">
         <v>225</v>
       </c>
-      <c r="D116" s="117" t="s">
+      <c r="D116" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="117">
-        <v>56980</v>
+      <c r="F116" s="237" t="n">
+        <v>56980.0</v>
       </c>
       <c r="G116">
         <f>F116-B116</f>
         <v>12</v>
       </c>
-      <c r="H116">
-        <v>0</v>
+      <c r="H116" t="n">
+        <v>0.0</v>
       </c>
       <c r="I116">
         <f>(F116-B116)/B116</f>
@@ -15632,26 +16473,26 @@
         <f t="shared" si="1"/>
         <v>2.1064457239148737E-2</v>
       </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>36</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>5380</v>
+      <c r="L116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5380.0</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
@@ -15664,18 +16505,18 @@
       <c r="C117" t="s">
         <v>227</v>
       </c>
-      <c r="D117" s="118" t="s">
+      <c r="D117" s="238" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="118">
-        <v>57064</v>
+      <c r="F117" s="238" t="n">
+        <v>57064.0</v>
       </c>
       <c r="G117">
         <f>F117-B117</f>
         <v>-20</v>
       </c>
-      <c r="H117">
-        <v>2</v>
+      <c r="H117" t="n">
+        <v>0.0</v>
       </c>
       <c r="I117">
         <f>(F117-B117)/B117</f>
@@ -15685,26 +16526,26 @@
         <f t="shared" si="1"/>
         <v>-3.5036087169785901E-2</v>
       </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>36</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>5392</v>
+      <c r="L117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5392.0</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
@@ -15717,18 +16558,18 @@
       <c r="C118" t="s">
         <v>229</v>
       </c>
-      <c r="D118" s="119" t="s">
+      <c r="D118" s="239" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="119">
-        <v>56567</v>
+      <c r="F118" s="239" t="n">
+        <v>56567.0</v>
       </c>
       <c r="G118">
         <f>F118-B118</f>
         <v>10</v>
       </c>
-      <c r="H118">
-        <v>1</v>
+      <c r="H118" t="n">
+        <v>0.0</v>
       </c>
       <c r="I118">
         <f>(F118-B118)/B118</f>
@@ -15738,26 +16579,26 @@
         <f t="shared" si="1"/>
         <v>1.7681277295466202E-2</v>
       </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>36</v>
-      </c>
-      <c r="N118">
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>5321</v>
+      <c r="L118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5321.0</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
@@ -15770,18 +16611,18 @@
       <c r="C119" t="s">
         <v>231</v>
       </c>
-      <c r="D119" s="120" t="s">
+      <c r="D119" s="240" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="120">
-        <v>56973</v>
+      <c r="F119" s="240" t="n">
+        <v>56973.0</v>
       </c>
       <c r="G119">
         <f>F119-B119</f>
         <v>-50</v>
       </c>
-      <c r="H119">
-        <v>1</v>
+      <c r="H119" t="n">
+        <v>0.0</v>
       </c>
       <c r="I119">
         <f>(F119-B119)/B119</f>
@@ -15791,26 +16632,26 @@
         <f t="shared" si="1"/>
         <v>-8.7683917015937141E-2</v>
       </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>36</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>5379</v>
+      <c r="L119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5379.0</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -15823,18 +16664,18 @@
       <c r="C120" t="s">
         <v>233</v>
       </c>
-      <c r="D120" s="121" t="s">
+      <c r="D120" s="241" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="121">
-        <v>57716</v>
+      <c r="F120" s="241" t="n">
+        <v>57716.0</v>
       </c>
       <c r="G120">
         <f>F120-B120</f>
         <v>-40</v>
       </c>
-      <c r="H120">
-        <v>0</v>
+      <c r="H120" t="n">
+        <v>0.0</v>
       </c>
       <c r="I120">
         <f>(F120-B120)/B120</f>
@@ -15844,26 +16685,26 @@
         <f t="shared" si="1"/>
         <v>-6.9256873744720338E-2</v>
       </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>37</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>5468</v>
+      <c r="L120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5468.0</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -15876,18 +16717,18 @@
       <c r="C121" t="s">
         <v>235</v>
       </c>
-      <c r="D121" s="122" t="s">
+      <c r="D121" s="242" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="122">
-        <v>56203</v>
+      <c r="F121" s="242" t="n">
+        <v>56203.0</v>
       </c>
       <c r="G121">
         <f>F121-B121</f>
         <v>-60</v>
       </c>
-      <c r="H121">
-        <v>1</v>
+      <c r="H121" t="n">
+        <v>0.0</v>
       </c>
       <c r="I121">
         <f>(F121-B121)/B121</f>
@@ -15897,26 +16738,26 @@
         <f t="shared" si="1"/>
         <v>-0.10664202051081872</v>
       </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>36</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>5269</v>
+      <c r="L121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5269.0</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -17143,6 +17984,246 @@
     <hyperlink ref="F120" r:id="rId1198" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP8.dat-result.txt"/>
     <hyperlink ref="D121" r:id="rId1199"/>
     <hyperlink ref="F121" r:id="rId1200" display="MPVSBPP_SET1_IT500_ITV2_NT2_TS3_WT1_VT1_REP9.dat-result.txt"/>
+    <hyperlink ref="D2" r:id="rId1201"/>
+    <hyperlink ref="F2" r:id="rId1202"/>
+    <hyperlink ref="D3" r:id="rId1203"/>
+    <hyperlink ref="F3" r:id="rId1204"/>
+    <hyperlink ref="D4" r:id="rId1205"/>
+    <hyperlink ref="F4" r:id="rId1206"/>
+    <hyperlink ref="D5" r:id="rId1207"/>
+    <hyperlink ref="F5" r:id="rId1208"/>
+    <hyperlink ref="D6" r:id="rId1209"/>
+    <hyperlink ref="F6" r:id="rId1210"/>
+    <hyperlink ref="D7" r:id="rId1211"/>
+    <hyperlink ref="F7" r:id="rId1212"/>
+    <hyperlink ref="D8" r:id="rId1213"/>
+    <hyperlink ref="F8" r:id="rId1214"/>
+    <hyperlink ref="D9" r:id="rId1215"/>
+    <hyperlink ref="F9" r:id="rId1216"/>
+    <hyperlink ref="D10" r:id="rId1217"/>
+    <hyperlink ref="F10" r:id="rId1218"/>
+    <hyperlink ref="D11" r:id="rId1219"/>
+    <hyperlink ref="F11" r:id="rId1220"/>
+    <hyperlink ref="D12" r:id="rId1221"/>
+    <hyperlink ref="F12" r:id="rId1222"/>
+    <hyperlink ref="D13" r:id="rId1223"/>
+    <hyperlink ref="F13" r:id="rId1224"/>
+    <hyperlink ref="D14" r:id="rId1225"/>
+    <hyperlink ref="F14" r:id="rId1226"/>
+    <hyperlink ref="D15" r:id="rId1227"/>
+    <hyperlink ref="F15" r:id="rId1228"/>
+    <hyperlink ref="D16" r:id="rId1229"/>
+    <hyperlink ref="F16" r:id="rId1230"/>
+    <hyperlink ref="D17" r:id="rId1231"/>
+    <hyperlink ref="F17" r:id="rId1232"/>
+    <hyperlink ref="D18" r:id="rId1233"/>
+    <hyperlink ref="F18" r:id="rId1234"/>
+    <hyperlink ref="D19" r:id="rId1235"/>
+    <hyperlink ref="F19" r:id="rId1236"/>
+    <hyperlink ref="D20" r:id="rId1237"/>
+    <hyperlink ref="F20" r:id="rId1238"/>
+    <hyperlink ref="D21" r:id="rId1239"/>
+    <hyperlink ref="F21" r:id="rId1240"/>
+    <hyperlink ref="D22" r:id="rId1241"/>
+    <hyperlink ref="F22" r:id="rId1242"/>
+    <hyperlink ref="D23" r:id="rId1243"/>
+    <hyperlink ref="F23" r:id="rId1244"/>
+    <hyperlink ref="D24" r:id="rId1245"/>
+    <hyperlink ref="F24" r:id="rId1246"/>
+    <hyperlink ref="D25" r:id="rId1247"/>
+    <hyperlink ref="F25" r:id="rId1248"/>
+    <hyperlink ref="D26" r:id="rId1249"/>
+    <hyperlink ref="F26" r:id="rId1250"/>
+    <hyperlink ref="D27" r:id="rId1251"/>
+    <hyperlink ref="F27" r:id="rId1252"/>
+    <hyperlink ref="D28" r:id="rId1253"/>
+    <hyperlink ref="F28" r:id="rId1254"/>
+    <hyperlink ref="D29" r:id="rId1255"/>
+    <hyperlink ref="F29" r:id="rId1256"/>
+    <hyperlink ref="D30" r:id="rId1257"/>
+    <hyperlink ref="F30" r:id="rId1258"/>
+    <hyperlink ref="D31" r:id="rId1259"/>
+    <hyperlink ref="F31" r:id="rId1260"/>
+    <hyperlink ref="D32" r:id="rId1261"/>
+    <hyperlink ref="F32" r:id="rId1262"/>
+    <hyperlink ref="D33" r:id="rId1263"/>
+    <hyperlink ref="F33" r:id="rId1264"/>
+    <hyperlink ref="D34" r:id="rId1265"/>
+    <hyperlink ref="F34" r:id="rId1266"/>
+    <hyperlink ref="D35" r:id="rId1267"/>
+    <hyperlink ref="F35" r:id="rId1268"/>
+    <hyperlink ref="D36" r:id="rId1269"/>
+    <hyperlink ref="F36" r:id="rId1270"/>
+    <hyperlink ref="D37" r:id="rId1271"/>
+    <hyperlink ref="F37" r:id="rId1272"/>
+    <hyperlink ref="D38" r:id="rId1273"/>
+    <hyperlink ref="F38" r:id="rId1274"/>
+    <hyperlink ref="D39" r:id="rId1275"/>
+    <hyperlink ref="F39" r:id="rId1276"/>
+    <hyperlink ref="D40" r:id="rId1277"/>
+    <hyperlink ref="F40" r:id="rId1278"/>
+    <hyperlink ref="D41" r:id="rId1279"/>
+    <hyperlink ref="F41" r:id="rId1280"/>
+    <hyperlink ref="D42" r:id="rId1281"/>
+    <hyperlink ref="F42" r:id="rId1282"/>
+    <hyperlink ref="D43" r:id="rId1283"/>
+    <hyperlink ref="F43" r:id="rId1284"/>
+    <hyperlink ref="D44" r:id="rId1285"/>
+    <hyperlink ref="F44" r:id="rId1286"/>
+    <hyperlink ref="D45" r:id="rId1287"/>
+    <hyperlink ref="F45" r:id="rId1288"/>
+    <hyperlink ref="D46" r:id="rId1289"/>
+    <hyperlink ref="F46" r:id="rId1290"/>
+    <hyperlink ref="D47" r:id="rId1291"/>
+    <hyperlink ref="F47" r:id="rId1292"/>
+    <hyperlink ref="D48" r:id="rId1293"/>
+    <hyperlink ref="F48" r:id="rId1294"/>
+    <hyperlink ref="D49" r:id="rId1295"/>
+    <hyperlink ref="F49" r:id="rId1296"/>
+    <hyperlink ref="D50" r:id="rId1297"/>
+    <hyperlink ref="F50" r:id="rId1298"/>
+    <hyperlink ref="D51" r:id="rId1299"/>
+    <hyperlink ref="F51" r:id="rId1300"/>
+    <hyperlink ref="D52" r:id="rId1301"/>
+    <hyperlink ref="F52" r:id="rId1302"/>
+    <hyperlink ref="D53" r:id="rId1303"/>
+    <hyperlink ref="F53" r:id="rId1304"/>
+    <hyperlink ref="D54" r:id="rId1305"/>
+    <hyperlink ref="F54" r:id="rId1306"/>
+    <hyperlink ref="D55" r:id="rId1307"/>
+    <hyperlink ref="F55" r:id="rId1308"/>
+    <hyperlink ref="D56" r:id="rId1309"/>
+    <hyperlink ref="F56" r:id="rId1310"/>
+    <hyperlink ref="D57" r:id="rId1311"/>
+    <hyperlink ref="F57" r:id="rId1312"/>
+    <hyperlink ref="D58" r:id="rId1313"/>
+    <hyperlink ref="F58" r:id="rId1314"/>
+    <hyperlink ref="D59" r:id="rId1315"/>
+    <hyperlink ref="F59" r:id="rId1316"/>
+    <hyperlink ref="D60" r:id="rId1317"/>
+    <hyperlink ref="F60" r:id="rId1318"/>
+    <hyperlink ref="D61" r:id="rId1319"/>
+    <hyperlink ref="F61" r:id="rId1320"/>
+    <hyperlink ref="D62" r:id="rId1321"/>
+    <hyperlink ref="F62" r:id="rId1322"/>
+    <hyperlink ref="D63" r:id="rId1323"/>
+    <hyperlink ref="F63" r:id="rId1324"/>
+    <hyperlink ref="D64" r:id="rId1325"/>
+    <hyperlink ref="F64" r:id="rId1326"/>
+    <hyperlink ref="D65" r:id="rId1327"/>
+    <hyperlink ref="F65" r:id="rId1328"/>
+    <hyperlink ref="D66" r:id="rId1329"/>
+    <hyperlink ref="F66" r:id="rId1330"/>
+    <hyperlink ref="D67" r:id="rId1331"/>
+    <hyperlink ref="F67" r:id="rId1332"/>
+    <hyperlink ref="D68" r:id="rId1333"/>
+    <hyperlink ref="F68" r:id="rId1334"/>
+    <hyperlink ref="D69" r:id="rId1335"/>
+    <hyperlink ref="F69" r:id="rId1336"/>
+    <hyperlink ref="D70" r:id="rId1337"/>
+    <hyperlink ref="F70" r:id="rId1338"/>
+    <hyperlink ref="D71" r:id="rId1339"/>
+    <hyperlink ref="F71" r:id="rId1340"/>
+    <hyperlink ref="D72" r:id="rId1341"/>
+    <hyperlink ref="F72" r:id="rId1342"/>
+    <hyperlink ref="D73" r:id="rId1343"/>
+    <hyperlink ref="F73" r:id="rId1344"/>
+    <hyperlink ref="D74" r:id="rId1345"/>
+    <hyperlink ref="F74" r:id="rId1346"/>
+    <hyperlink ref="D75" r:id="rId1347"/>
+    <hyperlink ref="F75" r:id="rId1348"/>
+    <hyperlink ref="D76" r:id="rId1349"/>
+    <hyperlink ref="F76" r:id="rId1350"/>
+    <hyperlink ref="D77" r:id="rId1351"/>
+    <hyperlink ref="F77" r:id="rId1352"/>
+    <hyperlink ref="D78" r:id="rId1353"/>
+    <hyperlink ref="F78" r:id="rId1354"/>
+    <hyperlink ref="D79" r:id="rId1355"/>
+    <hyperlink ref="F79" r:id="rId1356"/>
+    <hyperlink ref="D80" r:id="rId1357"/>
+    <hyperlink ref="F80" r:id="rId1358"/>
+    <hyperlink ref="D81" r:id="rId1359"/>
+    <hyperlink ref="F81" r:id="rId1360"/>
+    <hyperlink ref="D82" r:id="rId1361"/>
+    <hyperlink ref="F82" r:id="rId1362"/>
+    <hyperlink ref="D83" r:id="rId1363"/>
+    <hyperlink ref="F83" r:id="rId1364"/>
+    <hyperlink ref="D84" r:id="rId1365"/>
+    <hyperlink ref="F84" r:id="rId1366"/>
+    <hyperlink ref="D85" r:id="rId1367"/>
+    <hyperlink ref="F85" r:id="rId1368"/>
+    <hyperlink ref="D86" r:id="rId1369"/>
+    <hyperlink ref="F86" r:id="rId1370"/>
+    <hyperlink ref="D87" r:id="rId1371"/>
+    <hyperlink ref="F87" r:id="rId1372"/>
+    <hyperlink ref="D88" r:id="rId1373"/>
+    <hyperlink ref="F88" r:id="rId1374"/>
+    <hyperlink ref="D89" r:id="rId1375"/>
+    <hyperlink ref="F89" r:id="rId1376"/>
+    <hyperlink ref="D90" r:id="rId1377"/>
+    <hyperlink ref="F90" r:id="rId1378"/>
+    <hyperlink ref="D91" r:id="rId1379"/>
+    <hyperlink ref="F91" r:id="rId1380"/>
+    <hyperlink ref="D92" r:id="rId1381"/>
+    <hyperlink ref="F92" r:id="rId1382"/>
+    <hyperlink ref="D93" r:id="rId1383"/>
+    <hyperlink ref="F93" r:id="rId1384"/>
+    <hyperlink ref="D94" r:id="rId1385"/>
+    <hyperlink ref="F94" r:id="rId1386"/>
+    <hyperlink ref="D95" r:id="rId1387"/>
+    <hyperlink ref="F95" r:id="rId1388"/>
+    <hyperlink ref="D96" r:id="rId1389"/>
+    <hyperlink ref="F96" r:id="rId1390"/>
+    <hyperlink ref="D97" r:id="rId1391"/>
+    <hyperlink ref="F97" r:id="rId1392"/>
+    <hyperlink ref="D98" r:id="rId1393"/>
+    <hyperlink ref="F98" r:id="rId1394"/>
+    <hyperlink ref="D99" r:id="rId1395"/>
+    <hyperlink ref="F99" r:id="rId1396"/>
+    <hyperlink ref="D100" r:id="rId1397"/>
+    <hyperlink ref="F100" r:id="rId1398"/>
+    <hyperlink ref="D101" r:id="rId1399"/>
+    <hyperlink ref="F101" r:id="rId1400"/>
+    <hyperlink ref="D102" r:id="rId1401"/>
+    <hyperlink ref="F102" r:id="rId1402"/>
+    <hyperlink ref="D103" r:id="rId1403"/>
+    <hyperlink ref="F103" r:id="rId1404"/>
+    <hyperlink ref="D104" r:id="rId1405"/>
+    <hyperlink ref="F104" r:id="rId1406"/>
+    <hyperlink ref="D105" r:id="rId1407"/>
+    <hyperlink ref="F105" r:id="rId1408"/>
+    <hyperlink ref="D106" r:id="rId1409"/>
+    <hyperlink ref="F106" r:id="rId1410"/>
+    <hyperlink ref="D107" r:id="rId1411"/>
+    <hyperlink ref="F107" r:id="rId1412"/>
+    <hyperlink ref="D108" r:id="rId1413"/>
+    <hyperlink ref="F108" r:id="rId1414"/>
+    <hyperlink ref="D109" r:id="rId1415"/>
+    <hyperlink ref="F109" r:id="rId1416"/>
+    <hyperlink ref="D110" r:id="rId1417"/>
+    <hyperlink ref="F110" r:id="rId1418"/>
+    <hyperlink ref="D111" r:id="rId1419"/>
+    <hyperlink ref="F111" r:id="rId1420"/>
+    <hyperlink ref="D112" r:id="rId1421"/>
+    <hyperlink ref="F112" r:id="rId1422"/>
+    <hyperlink ref="D113" r:id="rId1423"/>
+    <hyperlink ref="F113" r:id="rId1424"/>
+    <hyperlink ref="D114" r:id="rId1425"/>
+    <hyperlink ref="F114" r:id="rId1426"/>
+    <hyperlink ref="D115" r:id="rId1427"/>
+    <hyperlink ref="F115" r:id="rId1428"/>
+    <hyperlink ref="D116" r:id="rId1429"/>
+    <hyperlink ref="F116" r:id="rId1430"/>
+    <hyperlink ref="D117" r:id="rId1431"/>
+    <hyperlink ref="F117" r:id="rId1432"/>
+    <hyperlink ref="D118" r:id="rId1433"/>
+    <hyperlink ref="F118" r:id="rId1434"/>
+    <hyperlink ref="D119" r:id="rId1435"/>
+    <hyperlink ref="F119" r:id="rId1436"/>
+    <hyperlink ref="D120" r:id="rId1437"/>
+    <hyperlink ref="F120" r:id="rId1438"/>
+    <hyperlink ref="D121" r:id="rId1439"/>
+    <hyperlink ref="F121" r:id="rId1440"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17158,16 +18239,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="17" max="19" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -19319,8 +20400,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -21472,7 +22553,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
